--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1431" documentId="11_F25DC773A252ABEACE02ECEE235E54EA5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5740344C-2D7F-41BA-B71C-8590A63B3741}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CCBF70-8288-4FFF-ABF1-11BC30A07504}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="950">
   <si>
     <t>Module</t>
   </si>
@@ -1888,9 +1888,6 @@
     <t>Error message; contract component should not be created</t>
   </si>
   <si>
-    <t>Missing FL CapRate ID</t>
-  </si>
-  <si>
     <t>Duplicate FL contract component</t>
   </si>
   <si>
@@ -1915,9 +1912,6 @@
     <t>Multiple FL Affiliation IDs (other fields are same)</t>
   </si>
   <si>
-    <t>Multiple FL CapRate IDs (other fields are same)</t>
-  </si>
-  <si>
     <t>Warning message; set values as NULL and create contract component</t>
   </si>
   <si>
@@ -1927,15 +1921,6 @@
     <t>Ignore; no record should be created in OLTP</t>
   </si>
   <si>
-    <t>Updated value for FL CapRate ID</t>
-  </si>
-  <si>
-    <t>Updated NULL value for FL CapRate ID</t>
-  </si>
-  <si>
-    <t>Multiple FL CapRate IDs as update</t>
-  </si>
-  <si>
     <t>Valid PL contract component info</t>
   </si>
   <si>
@@ -1945,9 +1930,6 @@
     <t>Same FL and PL contract component info</t>
   </si>
   <si>
-    <t>Missing PL CapRate ID</t>
-  </si>
-  <si>
     <t>Duplicate PL contract component</t>
   </si>
   <si>
@@ -1966,9 +1948,6 @@
     <t>Multiple PL Affiliation IDs (other fields are same)</t>
   </si>
   <si>
-    <t>Multiple PL CapRate IDs (other fields are same)</t>
-  </si>
-  <si>
     <t>Multiple Network names in same record (other fields are same)</t>
   </si>
   <si>
@@ -1988,15 +1967,6 @@
   </si>
   <si>
     <t>Same PL contract component coming again</t>
-  </si>
-  <si>
-    <t>Updated value for PL CapRate ID</t>
-  </si>
-  <si>
-    <t>Updated NULL value for PL CapRate ID</t>
-  </si>
-  <si>
-    <t>Multiple PL CapRate IDs as update</t>
   </si>
   <si>
     <t>Contract Component</t>
@@ -2900,6 +2870,48 @@
   </si>
   <si>
     <t>instead of all days tabs - pick 1 day</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Missing FL Reimbursement Rate</t>
+  </si>
+  <si>
+    <t>Multiple FL Reimbursement Rates (other fields are same)</t>
+  </si>
+  <si>
+    <t>Updated value for FL Reimbursement Rate</t>
+  </si>
+  <si>
+    <t>Updated NULL value for FL Reimbursement Rate</t>
+  </si>
+  <si>
+    <t>Multiple FL Reimbursement Rates as update</t>
+  </si>
+  <si>
+    <t>Missing PL Reimbursement Rate</t>
+  </si>
+  <si>
+    <t>Multiple PL Reimbursement Rates (other fields are same)</t>
+  </si>
+  <si>
+    <t>Updated value for PL Reimbursement Rate</t>
+  </si>
+  <si>
+    <t>Updated NULL value for PL Reimbursement Rate</t>
+  </si>
+  <si>
+    <t>Multiple PL Reimbursement Rates as update</t>
+  </si>
+  <si>
+    <t>Warning message; set values as NULL and create 1 contract component</t>
+  </si>
+  <si>
+    <t>2 contract components should be created</t>
   </si>
 </sst>
 </file>
@@ -3252,15 +3264,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G924"/>
   <sheetViews>
-    <sheetView topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="D670" sqref="D670"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" customWidth="1"/>
     <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -3291,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>608</v>
@@ -3299,15 +3311,19 @@
       <c r="E3" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>472</v>
@@ -3315,15 +3331,19 @@
       <c r="E4" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>473</v>
@@ -3331,15 +3351,19 @@
       <c r="E5" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>474</v>
@@ -3347,15 +3371,19 @@
       <c r="E6" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>475</v>
@@ -3363,15 +3391,19 @@
       <c r="E7" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>476</v>
@@ -3379,15 +3411,19 @@
       <c r="E8" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>477</v>
@@ -3395,149 +3431,185 @@
       <c r="E9" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>611</v>
+        <v>938</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>620</v>
+        <v>939</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3547,10 +3619,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>624</v>
+        <v>940</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>148</v>
@@ -3563,10 +3635,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>625</v>
+        <v>941</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>148</v>
@@ -3579,10 +3651,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>626</v>
+        <v>942</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>137</v>
@@ -3595,10 +3667,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>609</v>
@@ -3611,13 +3683,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3627,13 +3699,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3643,7 +3715,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>571</v>
@@ -3659,7 +3731,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>572</v>
@@ -3675,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>573</v>
@@ -3691,7 +3763,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>574</v>
@@ -3707,7 +3779,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>575</v>
@@ -3723,7 +3795,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>576</v>
@@ -3739,10 +3811,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>630</v>
+        <v>943</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>609</v>
@@ -3755,13 +3827,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3771,10 +3843,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>610</v>
@@ -3787,10 +3859,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>610</v>
@@ -3803,10 +3875,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>610</v>
@@ -3819,13 +3891,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3835,13 +3907,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3851,13 +3923,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>637</v>
+        <v>944</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3867,10 +3939,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>610</v>
@@ -3883,10 +3955,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>610</v>
@@ -3899,10 +3971,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>610</v>
@@ -3915,13 +3987,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3931,13 +4003,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3947,13 +4019,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3963,13 +4035,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3979,10 +4051,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>645</v>
+        <v>945</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>148</v>
@@ -3995,10 +4067,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>646</v>
+        <v>946</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>148</v>
@@ -4011,10 +4083,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>647</v>
+        <v>947</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>137</v>
@@ -4654,7 +4726,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>58</v>
@@ -4670,10 +4742,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4686,10 +4758,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4702,10 +4774,10 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4718,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -4734,10 +4806,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -4750,10 +4822,10 @@
         <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4766,10 +4838,10 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4782,7 +4854,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>148</v>
@@ -4798,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>148</v>
@@ -4814,7 +4886,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>272</v>
@@ -4830,7 +4902,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>272</v>
@@ -5726,7 +5798,7 @@
         <v>56</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>136</v>
@@ -6398,7 +6470,7 @@
         <v>140</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>20</v>
@@ -6526,7 +6598,7 @@
         <v>140</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>20</v>
@@ -7022,7 +7094,7 @@
         <v>140</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>214</v>
@@ -7038,7 +7110,7 @@
         <v>140</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>214</v>
@@ -7246,7 +7318,7 @@
         <v>140</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>192</v>
@@ -7262,7 +7334,7 @@
         <v>140</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>192</v>
@@ -7470,7 +7542,7 @@
         <v>140</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>229</v>
@@ -7486,7 +7558,7 @@
         <v>140</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>229</v>
@@ -8382,7 +8454,7 @@
         <v>140</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>250</v>
@@ -8398,7 +8470,7 @@
         <v>140</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>250</v>
@@ -8414,7 +8486,7 @@
         <v>140</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>250</v>
@@ -8430,7 +8502,7 @@
         <v>140</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>250</v>
@@ -8446,7 +8518,7 @@
         <v>140</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>250</v>
@@ -8462,7 +8534,7 @@
         <v>140</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>250</v>
@@ -8478,7 +8550,7 @@
         <v>140</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>250</v>
@@ -8494,7 +8566,7 @@
         <v>140</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>250</v>
@@ -8510,7 +8582,7 @@
         <v>140</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>250</v>
@@ -8526,7 +8598,7 @@
         <v>140</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>250</v>
@@ -8542,7 +8614,7 @@
         <v>140</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>250</v>
@@ -8558,7 +8630,7 @@
         <v>140</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>250</v>
@@ -8574,7 +8646,7 @@
         <v>140</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>250</v>
@@ -8590,7 +8662,7 @@
         <v>140</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>250</v>
@@ -8894,7 +8966,7 @@
         <v>140</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>321</v>
@@ -8910,7 +8982,7 @@
         <v>140</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>321</v>
@@ -9102,7 +9174,7 @@
         <v>140</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>309</v>
@@ -9118,7 +9190,7 @@
         <v>140</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>309</v>
@@ -9342,7 +9414,7 @@
         <v>140</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="E381" s="4" t="s">
         <v>338</v>
@@ -9422,7 +9494,7 @@
         <v>140</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>339</v>
@@ -9534,7 +9606,7 @@
         <v>140</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="E393" s="4" t="s">
         <v>356</v>
@@ -9566,7 +9638,7 @@
         <v>140</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="E395" s="4" t="s">
         <v>356</v>
@@ -9758,7 +9830,7 @@
         <v>140</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>371</v>
@@ -9790,7 +9862,7 @@
         <v>140</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="E409" s="4" t="s">
         <v>371</v>
@@ -10654,10 +10726,10 @@
         <v>140</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
@@ -10702,7 +10774,7 @@
         <v>140</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>136</v>
@@ -10830,7 +10902,7 @@
         <v>140</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>139</v>
@@ -12718,7 +12790,7 @@
         <v>498</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E592" s="1" t="s">
         <v>58</v>
@@ -12734,10 +12806,10 @@
         <v>498</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F593" s="1"/>
       <c r="G593" s="1"/>
@@ -12750,10 +12822,10 @@
         <v>498</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F594" s="1"/>
       <c r="G594" s="1"/>
@@ -12766,10 +12838,10 @@
         <v>498</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F595" s="1"/>
       <c r="G595" s="1"/>
@@ -12782,10 +12854,10 @@
         <v>498</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F596" s="1"/>
       <c r="G596" s="1"/>
@@ -12798,10 +12870,10 @@
         <v>498</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
@@ -12814,10 +12886,10 @@
         <v>498</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F598" s="1"/>
       <c r="G598" s="1"/>
@@ -12830,10 +12902,10 @@
         <v>498</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F599" s="1"/>
       <c r="G599" s="1"/>
@@ -12846,10 +12918,10 @@
         <v>498</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F600" s="1"/>
       <c r="G600" s="1"/>
@@ -12862,10 +12934,10 @@
         <v>498</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F601" s="1"/>
       <c r="G601" s="1"/>
@@ -12878,10 +12950,10 @@
         <v>498</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F602" s="1"/>
       <c r="G602" s="1"/>
@@ -12894,10 +12966,10 @@
         <v>498</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F603" s="1"/>
       <c r="G603" s="1"/>
@@ -12907,13 +12979,13 @@
         <v>602</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="F604" s="1"/>
       <c r="G604" s="1"/>
@@ -12923,10 +12995,10 @@
         <v>603</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E605" s="1" t="s">
         <v>20</v>
@@ -12939,13 +13011,13 @@
         <v>604</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F606" s="1"/>
       <c r="G606" s="1"/>
@@ -12955,13 +13027,13 @@
         <v>605</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F607" s="1"/>
       <c r="G607" s="1"/>
@@ -12971,13 +13043,13 @@
         <v>606</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F608" s="1"/>
       <c r="G608" s="1"/>
@@ -12987,13 +13059,13 @@
         <v>607</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F609" s="1"/>
       <c r="G609" s="1"/>
@@ -13003,13 +13075,13 @@
         <v>608</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F610" s="1"/>
       <c r="G610" s="1"/>
@@ -13019,10 +13091,10 @@
         <v>609</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E611" s="1" t="s">
         <v>58</v>
@@ -13035,13 +13107,13 @@
         <v>610</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="F612" s="1"/>
       <c r="G612" s="1"/>
@@ -13051,13 +13123,13 @@
         <v>611</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D613" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E613" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="E613" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="F613" s="1"/>
       <c r="G613" s="1"/>
@@ -13067,13 +13139,13 @@
         <v>612</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="F614" s="1"/>
       <c r="G614" s="1"/>
@@ -13083,13 +13155,13 @@
         <v>613</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E615" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F615" s="1"/>
       <c r="G615" s="1"/>
@@ -13099,13 +13171,13 @@
         <v>614</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="E616" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
@@ -13115,13 +13187,13 @@
         <v>615</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="E617" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F617" s="1"/>
       <c r="G617" s="1"/>
@@ -13131,10 +13203,10 @@
         <v>616</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E618" s="4" t="s">
         <v>148</v>
@@ -13147,10 +13219,10 @@
         <v>617</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E619" s="4" t="s">
         <v>148</v>
@@ -13163,10 +13235,10 @@
         <v>618</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E620" s="4" t="s">
         <v>272</v>
@@ -13179,10 +13251,10 @@
         <v>619</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="E621" s="4" t="s">
         <v>272</v>
@@ -13195,13 +13267,13 @@
         <v>620</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
@@ -13211,10 +13283,10 @@
         <v>621</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E623" s="4" t="s">
         <v>150</v>
@@ -13227,10 +13299,10 @@
         <v>622</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E624" s="1" t="s">
         <v>58</v>
@@ -13243,13 +13315,13 @@
         <v>623</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F625" s="1"/>
       <c r="G625" s="1"/>
@@ -13259,13 +13331,13 @@
         <v>624</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F626" s="1"/>
       <c r="G626" s="1"/>
@@ -13275,13 +13347,13 @@
         <v>625</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F627" s="1"/>
       <c r="G627" s="1"/>
@@ -13291,13 +13363,13 @@
         <v>626</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D628" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E628" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="E628" s="4" t="s">
-        <v>688</v>
       </c>
       <c r="F628" s="1"/>
       <c r="G628" s="1"/>
@@ -13307,13 +13379,13 @@
         <v>627</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E629" s="4" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F629" s="1"/>
       <c r="G629" s="1"/>
@@ -13323,13 +13395,13 @@
         <v>628</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E630" s="4" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F630" s="1"/>
       <c r="G630" s="1"/>
@@ -13339,10 +13411,10 @@
         <v>629</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E631" s="4" t="s">
         <v>148</v>
@@ -13355,10 +13427,10 @@
         <v>630</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E632" s="4" t="s">
         <v>148</v>
@@ -13371,10 +13443,10 @@
         <v>631</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="E633" s="4" t="s">
         <v>272</v>
@@ -13387,10 +13459,10 @@
         <v>632</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="E634" s="4" t="s">
         <v>272</v>
@@ -13403,13 +13475,13 @@
         <v>633</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F635" s="1"/>
       <c r="G635" s="1"/>
@@ -13419,10 +13491,10 @@
         <v>634</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E636" s="4" t="s">
         <v>150</v>
@@ -13435,10 +13507,10 @@
         <v>635</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E637" s="1" t="s">
         <v>185</v>
@@ -13451,13 +13523,13 @@
         <v>636</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D638" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F638" s="1"/>
       <c r="G638" s="1"/>
@@ -13467,13 +13539,13 @@
         <v>637</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D639" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F639" s="1"/>
       <c r="G639" s="1"/>
@@ -13483,13 +13555,13 @@
         <v>638</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D640" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F640" s="1"/>
       <c r="G640" s="1"/>
@@ -13499,13 +13571,13 @@
         <v>639</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="F641" s="1"/>
       <c r="G641" s="1"/>
@@ -13515,13 +13587,13 @@
         <v>640</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="F642" s="1"/>
       <c r="G642" s="1"/>
@@ -13531,13 +13603,13 @@
         <v>641</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F643" s="1"/>
       <c r="G643" s="1"/>
@@ -13547,10 +13619,10 @@
         <v>642</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="E644" s="1" t="s">
         <v>137</v>
@@ -13563,10 +13635,10 @@
         <v>643</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="E645" s="1" t="s">
         <v>148</v>
@@ -13579,13 +13651,13 @@
         <v>644</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="F646" s="1"/>
       <c r="G646" s="1"/>
@@ -13595,13 +13667,13 @@
         <v>645</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="F647" s="1"/>
       <c r="G647" s="1"/>
@@ -13611,13 +13683,13 @@
         <v>646</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F648" s="1"/>
       <c r="G648" s="1"/>
@@ -13627,13 +13699,13 @@
         <v>647</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="F649" s="1"/>
       <c r="G649" s="1"/>
@@ -13643,10 +13715,10 @@
         <v>648</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D650" s="5" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="E650" s="1" t="s">
         <v>150</v>
@@ -13659,7 +13731,7 @@
         <v>649</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>358</v>
@@ -13675,13 +13747,13 @@
         <v>650</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D652" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="F652" s="1"/>
       <c r="G652" s="1"/>
@@ -13691,13 +13763,13 @@
         <v>651</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D653" s="1" t="s">
         <v>360</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="F653" s="1"/>
       <c r="G653" s="1"/>
@@ -13707,13 +13779,13 @@
         <v>652</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D654" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="F654" s="1"/>
       <c r="G654" s="1"/>
@@ -13723,13 +13795,13 @@
         <v>653</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F655" s="1"/>
       <c r="G655" s="1"/>
@@ -13739,13 +13811,13 @@
         <v>654</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D656" s="1" t="s">
         <v>362</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F656" s="1"/>
       <c r="G656" s="1"/>
@@ -13755,13 +13827,13 @@
         <v>655</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F657" s="1"/>
       <c r="G657" s="1"/>
@@ -13771,7 +13843,7 @@
         <v>656</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D658" s="4" t="s">
         <v>363</v>
@@ -13787,7 +13859,7 @@
         <v>657</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D659" s="4" t="s">
         <v>364</v>
@@ -13803,7 +13875,7 @@
         <v>658</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D660" s="4" t="s">
         <v>365</v>
@@ -13819,7 +13891,7 @@
         <v>659</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D661" s="4" t="s">
         <v>366</v>
@@ -13835,7 +13907,7 @@
         <v>660</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D662" s="3" t="s">
         <v>367</v>
@@ -13851,7 +13923,7 @@
         <v>661</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D663" s="3" t="s">
         <v>368</v>
@@ -13867,7 +13939,7 @@
         <v>662</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D664" s="4" t="s">
         <v>231</v>
@@ -13883,7 +13955,7 @@
         <v>663</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D665" s="4" t="s">
         <v>232</v>
@@ -13899,7 +13971,7 @@
         <v>664</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D666" s="4" t="s">
         <v>233</v>
@@ -13915,13 +13987,13 @@
         <v>665</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D667" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F667" s="1"/>
       <c r="G667" s="1"/>
@@ -13931,13 +14003,13 @@
         <v>666</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D668" s="4" t="s">
         <v>265</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F668" s="1"/>
       <c r="G668" s="1"/>
@@ -13947,13 +14019,13 @@
         <v>667</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D669" s="4" t="s">
         <v>266</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F669" s="1"/>
       <c r="G669" s="1"/>
@@ -13963,13 +14035,13 @@
         <v>668</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>286</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F670" s="1"/>
       <c r="G670" s="1"/>
@@ -13979,13 +14051,13 @@
         <v>669</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F671" s="1"/>
       <c r="G671" s="1"/>
@@ -13995,13 +14067,13 @@
         <v>670</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>288</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
@@ -14011,13 +14083,13 @@
         <v>671</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F673" s="1"/>
       <c r="G673" s="1"/>
@@ -14027,13 +14099,13 @@
         <v>672</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F674" s="1"/>
       <c r="G674" s="1"/>
@@ -14043,13 +14115,13 @@
         <v>673</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F675" s="1"/>
       <c r="G675" s="1"/>
@@ -14059,13 +14131,13 @@
         <v>674</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F676" s="1"/>
       <c r="G676" s="1"/>
@@ -14075,13 +14147,13 @@
         <v>675</v>
       </c>
       <c r="C677" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D677" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F677" s="1"/>
       <c r="G677" s="1"/>
@@ -14091,13 +14163,13 @@
         <v>676</v>
       </c>
       <c r="C678" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F678" s="1"/>
       <c r="G678" s="1"/>
@@ -14107,13 +14179,13 @@
         <v>677</v>
       </c>
       <c r="C679" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D679" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F679" s="1"/>
       <c r="G679" s="1"/>
@@ -14123,13 +14195,13 @@
         <v>678</v>
       </c>
       <c r="C680" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D680" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F680" s="1"/>
       <c r="G680" s="1"/>
@@ -14139,13 +14211,13 @@
         <v>679</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D681" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F681" s="1"/>
       <c r="G681" s="1"/>
@@ -14155,13 +14227,13 @@
         <v>680</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D682" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F682" s="1"/>
       <c r="G682" s="1"/>
@@ -14171,13 +14243,13 @@
         <v>681</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D683" s="1" t="s">
         <v>299</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F683" s="1"/>
       <c r="G683" s="1"/>
@@ -14187,13 +14259,13 @@
         <v>682</v>
       </c>
       <c r="C684" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D684" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
@@ -14203,13 +14275,13 @@
         <v>683</v>
       </c>
       <c r="C685" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D685" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F685" s="1"/>
       <c r="G685" s="1"/>
@@ -14219,13 +14291,13 @@
         <v>684</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D686" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F686" s="1"/>
       <c r="G686" s="1"/>
@@ -14235,13 +14307,13 @@
         <v>685</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D687" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F687" s="1"/>
       <c r="G687" s="1"/>
@@ -14251,13 +14323,13 @@
         <v>686</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D688" s="1" t="s">
         <v>240</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F688" s="1"/>
       <c r="G688" s="1"/>
@@ -14267,13 +14339,13 @@
         <v>687</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D689" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F689" s="1"/>
       <c r="G689" s="1"/>
@@ -14283,13 +14355,13 @@
         <v>688</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D690" s="1" t="s">
         <v>242</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F690" s="1"/>
       <c r="G690" s="1"/>
@@ -14299,13 +14371,13 @@
         <v>689</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D691" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F691" s="1"/>
       <c r="G691" s="1"/>
@@ -14315,13 +14387,13 @@
         <v>690</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D692" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F692" s="1"/>
       <c r="G692" s="1"/>
@@ -14331,13 +14403,13 @@
         <v>691</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D693" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F693" s="1"/>
       <c r="G693" s="1"/>
@@ -14347,13 +14419,13 @@
         <v>692</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D694" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F694" s="1"/>
       <c r="G694" s="1"/>
@@ -14363,13 +14435,13 @@
         <v>693</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D695" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F695" s="1"/>
       <c r="G695" s="1"/>
@@ -14379,13 +14451,13 @@
         <v>694</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D696" s="1" t="s">
         <v>248</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F696" s="1"/>
       <c r="G696" s="1"/>
@@ -14395,13 +14467,13 @@
         <v>695</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D697" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
@@ -14411,13 +14483,13 @@
         <v>696</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D698" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F698" s="1"/>
       <c r="G698" s="1"/>
@@ -14427,13 +14499,13 @@
         <v>697</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D699" s="4" t="s">
         <v>252</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F699" s="1"/>
       <c r="G699" s="1"/>
@@ -14443,13 +14515,13 @@
         <v>698</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D700" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F700" s="1"/>
       <c r="G700" s="1"/>
@@ -14459,13 +14531,13 @@
         <v>699</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D701" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F701" s="1"/>
       <c r="G701" s="1"/>
@@ -14475,13 +14547,13 @@
         <v>700</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D702" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F702" s="1"/>
       <c r="G702" s="1"/>
@@ -14491,13 +14563,13 @@
         <v>701</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D703" s="4" t="s">
         <v>256</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F703" s="1"/>
       <c r="G703" s="1"/>
@@ -14507,13 +14579,13 @@
         <v>702</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D704" s="4" t="s">
         <v>257</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F704" s="1"/>
       <c r="G704" s="1"/>
@@ -14523,13 +14595,13 @@
         <v>703</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D705" s="4" t="s">
         <v>258</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F705" s="1"/>
       <c r="G705" s="1"/>
@@ -14539,13 +14611,13 @@
         <v>704</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D706" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F706" s="1"/>
       <c r="G706" s="1"/>
@@ -14555,13 +14627,13 @@
         <v>705</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D707" s="4" t="s">
         <v>260</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F707" s="1"/>
       <c r="G707" s="1"/>
@@ -14571,13 +14643,13 @@
         <v>706</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D708" s="4" t="s">
         <v>261</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F708" s="1"/>
       <c r="G708" s="1"/>
@@ -14587,13 +14659,13 @@
         <v>707</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D709" s="4" t="s">
         <v>262</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F709" s="1"/>
       <c r="G709" s="1"/>
@@ -14603,13 +14675,13 @@
         <v>708</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D710" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F710" s="1"/>
       <c r="G710" s="1"/>
@@ -14619,13 +14691,13 @@
         <v>709</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D711" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F711" s="1"/>
       <c r="G711" s="1"/>
@@ -14635,10 +14707,10 @@
         <v>710</v>
       </c>
       <c r="C712" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D712" s="4" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="E712" s="1" t="s">
         <v>250</v>
@@ -14651,10 +14723,10 @@
         <v>711</v>
       </c>
       <c r="C713" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D713" s="4" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="E713" s="1" t="s">
         <v>250</v>
@@ -14667,10 +14739,10 @@
         <v>712</v>
       </c>
       <c r="C714" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="E714" s="1" t="s">
         <v>250</v>
@@ -14683,10 +14755,10 @@
         <v>713</v>
       </c>
       <c r="C715" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D715" s="4" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="E715" s="1" t="s">
         <v>250</v>
@@ -14699,10 +14771,10 @@
         <v>714</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="E716" s="1" t="s">
         <v>250</v>
@@ -14715,10 +14787,10 @@
         <v>715</v>
       </c>
       <c r="C717" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D717" s="4" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="E717" s="1" t="s">
         <v>250</v>
@@ -14731,10 +14803,10 @@
         <v>716</v>
       </c>
       <c r="C718" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="E718" s="1" t="s">
         <v>250</v>
@@ -14747,10 +14819,10 @@
         <v>717</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D719" s="4" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="E719" s="1" t="s">
         <v>250</v>
@@ -14763,10 +14835,10 @@
         <v>718</v>
       </c>
       <c r="C720" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D720" s="4" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="E720" s="1" t="s">
         <v>250</v>
@@ -14779,10 +14851,10 @@
         <v>719</v>
       </c>
       <c r="C721" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="E721" s="1" t="s">
         <v>250</v>
@@ -14795,10 +14867,10 @@
         <v>720</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D722" s="4" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E722" s="1" t="s">
         <v>250</v>
@@ -14811,10 +14883,10 @@
         <v>721</v>
       </c>
       <c r="C723" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D723" s="4" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="E723" s="1" t="s">
         <v>250</v>
@@ -14827,10 +14899,10 @@
         <v>722</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D724" s="4" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="E724" s="1" t="s">
         <v>250</v>
@@ -14843,10 +14915,10 @@
         <v>723</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D725" s="4" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="E725" s="1" t="s">
         <v>250</v>
@@ -14859,7 +14931,7 @@
         <v>724</v>
       </c>
       <c r="C726" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D726" s="4" t="s">
         <v>267</v>
@@ -14875,7 +14947,7 @@
         <v>725</v>
       </c>
       <c r="C727" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D727" s="4" t="s">
         <v>269</v>
@@ -14891,7 +14963,7 @@
         <v>726</v>
       </c>
       <c r="C728" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D728" s="3" t="s">
         <v>271</v>
@@ -14907,7 +14979,7 @@
         <v>727</v>
       </c>
       <c r="C729" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D729" s="3" t="s">
         <v>273</v>
@@ -14923,7 +14995,7 @@
         <v>728</v>
       </c>
       <c r="C730" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D730" s="3" t="s">
         <v>274</v>
@@ -14939,7 +15011,7 @@
         <v>729</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D731" s="3" t="s">
         <v>275</v>
@@ -14955,7 +15027,7 @@
         <v>730</v>
       </c>
       <c r="C732" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D732" s="3" t="s">
         <v>276</v>
@@ -14971,7 +15043,7 @@
         <v>731</v>
       </c>
       <c r="C733" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D733" s="3" t="s">
         <v>277</v>
@@ -14987,7 +15059,7 @@
         <v>732</v>
       </c>
       <c r="C734" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D734" s="3" t="s">
         <v>278</v>
@@ -15003,7 +15075,7 @@
         <v>733</v>
       </c>
       <c r="C735" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D735" s="3" t="s">
         <v>279</v>
@@ -15019,7 +15091,7 @@
         <v>734</v>
       </c>
       <c r="C736" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D736" s="3" t="s">
         <v>280</v>
@@ -15035,7 +15107,7 @@
         <v>735</v>
       </c>
       <c r="C737" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D737" s="3" t="s">
         <v>281</v>
@@ -15051,7 +15123,7 @@
         <v>736</v>
       </c>
       <c r="C738" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D738" s="3" t="s">
         <v>282</v>
@@ -15067,7 +15139,7 @@
         <v>737</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D739" s="3" t="s">
         <v>283</v>
@@ -15083,7 +15155,7 @@
         <v>738</v>
       </c>
       <c r="C740" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D740" s="3" t="s">
         <v>284</v>
@@ -15099,7 +15171,7 @@
         <v>739</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D741" s="3" t="s">
         <v>285</v>
@@ -15115,7 +15187,7 @@
         <v>740</v>
       </c>
       <c r="C742" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D742" s="1" t="s">
         <v>372</v>
@@ -15131,7 +15203,7 @@
         <v>741</v>
       </c>
       <c r="C743" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D743" s="1" t="s">
         <v>379</v>
@@ -15147,7 +15219,7 @@
         <v>742</v>
       </c>
       <c r="C744" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D744" s="1" t="s">
         <v>448</v>
@@ -15163,7 +15235,7 @@
         <v>743</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D745" s="1" t="s">
         <v>449</v>
@@ -15179,7 +15251,7 @@
         <v>744</v>
       </c>
       <c r="C746" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D746" s="1" t="s">
         <v>374</v>
@@ -15195,7 +15267,7 @@
         <v>745</v>
       </c>
       <c r="C747" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D747" s="1" t="s">
         <v>376</v>
@@ -15211,7 +15283,7 @@
         <v>746</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D748" s="1" t="s">
         <v>377</v>
@@ -15227,7 +15299,7 @@
         <v>747</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D749" s="1" t="s">
         <v>378</v>
@@ -15243,7 +15315,7 @@
         <v>748</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D750" s="1" t="s">
         <v>380</v>
@@ -15259,7 +15331,7 @@
         <v>749</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D751" s="1" t="s">
         <v>382</v>
@@ -15275,7 +15347,7 @@
         <v>750</v>
       </c>
       <c r="C752" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D752" s="1" t="s">
         <v>383</v>
@@ -15291,7 +15363,7 @@
         <v>751</v>
       </c>
       <c r="C753" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D753" s="1" t="s">
         <v>384</v>
@@ -15307,7 +15379,7 @@
         <v>752</v>
       </c>
       <c r="C754" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D754" s="1" t="s">
         <v>386</v>
@@ -15323,7 +15395,7 @@
         <v>753</v>
       </c>
       <c r="C755" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D755" s="1" t="s">
         <v>389</v>
@@ -15339,7 +15411,7 @@
         <v>754</v>
       </c>
       <c r="C756" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D756" s="1" t="s">
         <v>390</v>
@@ -15355,7 +15427,7 @@
         <v>755</v>
       </c>
       <c r="C757" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D757" s="1" t="s">
         <v>399</v>
@@ -15371,7 +15443,7 @@
         <v>756</v>
       </c>
       <c r="C758" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D758" s="1" t="s">
         <v>400</v>
@@ -15387,7 +15459,7 @@
         <v>757</v>
       </c>
       <c r="C759" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D759" s="1" t="s">
         <v>398</v>
@@ -15403,7 +15475,7 @@
         <v>758</v>
       </c>
       <c r="C760" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D760" s="1" t="s">
         <v>388</v>
@@ -15414,12 +15486,12 @@
       <c r="F760" s="1"/>
       <c r="G760" s="1"/>
     </row>
-    <row r="761" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B761" s="6">
         <v>759</v>
       </c>
       <c r="C761" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D761" s="5" t="s">
         <v>402</v>
@@ -15430,12 +15502,12 @@
       <c r="F761" s="1"/>
       <c r="G761" s="1"/>
     </row>
-    <row r="762" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B762" s="6">
         <v>760</v>
       </c>
       <c r="C762" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D762" s="5" t="s">
         <v>403</v>
@@ -15446,12 +15518,12 @@
       <c r="F762" s="1"/>
       <c r="G762" s="1"/>
     </row>
-    <row r="763" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B763" s="6">
         <v>761</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D763" s="3" t="s">
         <v>394</v>
@@ -15462,12 +15534,12 @@
       <c r="F763" s="1"/>
       <c r="G763" s="1"/>
     </row>
-    <row r="764" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B764" s="6">
         <v>762</v>
       </c>
       <c r="C764" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D764" s="5" t="s">
         <v>396</v>
@@ -15483,10 +15555,10 @@
         <v>763</v>
       </c>
       <c r="C765" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E765" s="1" t="s">
         <v>381</v>
@@ -15499,10 +15571,10 @@
         <v>764</v>
       </c>
       <c r="C766" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="E766" s="1" t="s">
         <v>381</v>
@@ -15515,10 +15587,10 @@
         <v>765</v>
       </c>
       <c r="C767" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="E767" s="1" t="s">
         <v>185</v>
@@ -15531,10 +15603,10 @@
         <v>766</v>
       </c>
       <c r="C768" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="E768" s="1" t="s">
         <v>185</v>
@@ -15547,13 +15619,13 @@
         <v>767</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F769" s="1"/>
       <c r="G769" s="1"/>
@@ -15563,13 +15635,13 @@
         <v>768</v>
       </c>
       <c r="C770" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F770" s="1"/>
       <c r="G770" s="1"/>
@@ -15579,13 +15651,13 @@
         <v>769</v>
       </c>
       <c r="C771" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F771" s="1"/>
       <c r="G771" s="1"/>
@@ -15595,10 +15667,10 @@
         <v>770</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E772" s="1" t="s">
         <v>330</v>
@@ -15611,10 +15683,10 @@
         <v>771</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="E773" s="1" t="s">
         <v>330</v>
@@ -15627,13 +15699,13 @@
         <v>772</v>
       </c>
       <c r="C774" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F774" s="1"/>
       <c r="G774" s="1"/>
@@ -15643,13 +15715,13 @@
         <v>773</v>
       </c>
       <c r="C775" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F775" s="1"/>
       <c r="G775" s="1"/>
@@ -15659,13 +15731,13 @@
         <v>774</v>
       </c>
       <c r="C776" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F776" s="1"/>
       <c r="G776" s="1"/>
@@ -15675,13 +15747,13 @@
         <v>775</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F777" s="1"/>
       <c r="G777" s="1"/>
@@ -15691,13 +15763,13 @@
         <v>776</v>
       </c>
       <c r="C778" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F778" s="1"/>
       <c r="G778" s="1"/>
@@ -15707,13 +15779,13 @@
         <v>777</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F779" s="1"/>
       <c r="G779" s="1"/>
@@ -15723,13 +15795,13 @@
         <v>778</v>
       </c>
       <c r="C780" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D780" s="4" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F780" s="1"/>
       <c r="G780" s="1"/>
@@ -15739,13 +15811,13 @@
         <v>779</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D781" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F781" s="1"/>
       <c r="G781" s="1"/>
@@ -15755,13 +15827,13 @@
         <v>780</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D782" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F782" s="1"/>
       <c r="G782" s="1"/>
@@ -15771,13 +15843,13 @@
         <v>781</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D783" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F783" s="1"/>
       <c r="G783" s="1"/>
@@ -15787,13 +15859,13 @@
         <v>782</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F784" s="1"/>
       <c r="G784" s="1"/>
@@ -15803,13 +15875,13 @@
         <v>783</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D785" s="4" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F785" s="1"/>
       <c r="G785" s="1"/>
@@ -15819,26 +15891,26 @@
         <v>784</v>
       </c>
       <c r="C786" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D786" s="4" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F786" s="1"/>
       <c r="G786" s="1"/>
     </row>
-    <row r="787" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B787" s="6">
         <v>785</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E787" s="4" t="s">
         <v>150</v>
@@ -15846,15 +15918,15 @@
       <c r="F787" s="1"/>
       <c r="G787" s="1"/>
     </row>
-    <row r="788" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B788" s="6">
         <v>786</v>
       </c>
       <c r="C788" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E788" s="4" t="s">
         <v>150</v>
@@ -15867,10 +15939,10 @@
         <v>787</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E789" s="1" t="s">
         <v>185</v>
@@ -15883,13 +15955,13 @@
         <v>788</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E790" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F790" s="1"/>
       <c r="G790" s="1"/>
@@ -15899,13 +15971,13 @@
         <v>789</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="E791" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F791" s="1"/>
       <c r="G791" s="1"/>
@@ -15915,13 +15987,13 @@
         <v>790</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E792" s="4" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F792" s="1"/>
       <c r="G792" s="1"/>
@@ -15931,13 +16003,13 @@
         <v>791</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E793" s="4" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="F793" s="1"/>
       <c r="G793" s="1"/>
@@ -15947,10 +16019,10 @@
         <v>792</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="E794" s="4" t="s">
         <v>178</v>
@@ -15963,10 +16035,10 @@
         <v>793</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="E795" s="4" t="s">
         <v>178</v>
@@ -15979,10 +16051,10 @@
         <v>794</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="E796" s="4" t="s">
         <v>178</v>
@@ -15995,13 +16067,13 @@
         <v>795</v>
       </c>
       <c r="C797" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>343</v>
       </c>
       <c r="E797" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F797" s="1"/>
       <c r="G797" s="1"/>
@@ -16011,13 +16083,13 @@
         <v>796</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="E798" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F798" s="1"/>
       <c r="G798" s="1"/>
@@ -16027,7 +16099,7 @@
         <v>797</v>
       </c>
       <c r="C799" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D799" s="4" t="s">
         <v>344</v>
@@ -16043,7 +16115,7 @@
         <v>798</v>
       </c>
       <c r="C800" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D800" s="4" t="s">
         <v>345</v>
@@ -16059,7 +16131,7 @@
         <v>799</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D801" s="4" t="s">
         <v>346</v>
@@ -16075,7 +16147,7 @@
         <v>800</v>
       </c>
       <c r="C802" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D802" s="4" t="s">
         <v>347</v>
@@ -16086,28 +16158,28 @@
       <c r="F802" s="1"/>
       <c r="G802" s="1"/>
     </row>
-    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B803" s="6">
         <v>801</v>
       </c>
       <c r="C803" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D803" s="3" t="s">
         <v>354</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="F803" s="1"/>
       <c r="G803" s="1"/>
     </row>
-    <row r="804" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B804" s="6">
         <v>802</v>
       </c>
       <c r="C804" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D804" s="3" t="s">
         <v>348</v>
@@ -16123,13 +16195,13 @@
         <v>803</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="F805" s="1"/>
       <c r="G805" s="1"/>
@@ -16139,13 +16211,13 @@
         <v>804</v>
       </c>
       <c r="C806" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D806" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="F806" s="1"/>
       <c r="G806" s="1"/>
@@ -16155,13 +16227,13 @@
         <v>805</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D807" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F807" s="1"/>
       <c r="G807" s="1"/>
@@ -16171,13 +16243,13 @@
         <v>806</v>
       </c>
       <c r="C808" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F808" s="1"/>
       <c r="G808" s="1"/>
@@ -16187,7 +16259,7 @@
         <v>807</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>120</v>
@@ -16203,13 +16275,13 @@
         <v>808</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F810" s="1"/>
       <c r="G810" s="1"/>
@@ -16219,13 +16291,13 @@
         <v>809</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F811" s="1"/>
       <c r="G811" s="1"/>
@@ -16235,13 +16307,13 @@
         <v>810</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="F812" s="1"/>
       <c r="G812" s="1"/>
@@ -16251,13 +16323,13 @@
         <v>811</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="F813" s="1"/>
       <c r="G813" s="1"/>
@@ -16267,26 +16339,26 @@
         <v>812</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="F814" s="1"/>
       <c r="G814" s="1"/>
     </row>
-    <row r="815" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B815" s="6">
         <v>813</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="E815" s="1" t="s">
         <v>130</v>
@@ -16299,10 +16371,10 @@
         <v>814</v>
       </c>
       <c r="C816" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="E816" s="1" t="s">
         <v>185</v>
@@ -16315,13 +16387,13 @@
         <v>815</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="E817" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F817" s="1"/>
       <c r="G817" s="1"/>
@@ -16331,13 +16403,13 @@
         <v>816</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="E818" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F818" s="1"/>
       <c r="G818" s="1"/>
@@ -16347,13 +16419,13 @@
         <v>817</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="E819" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F819" s="1"/>
       <c r="G819" s="1"/>
@@ -16363,10 +16435,10 @@
         <v>818</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="E820" s="4" t="s">
         <v>178</v>
@@ -16379,10 +16451,10 @@
         <v>819</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="E821" s="4" t="s">
         <v>178</v>
@@ -16395,13 +16467,13 @@
         <v>820</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="E822" s="4" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F822" s="1"/>
       <c r="G822" s="1"/>
@@ -16411,13 +16483,13 @@
         <v>821</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D823" s="3" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="E823" s="4" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="F823" s="1"/>
       <c r="G823" s="1"/>
@@ -16427,10 +16499,10 @@
         <v>822</v>
       </c>
       <c r="C824" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="E824" s="4" t="s">
         <v>178</v>
@@ -16443,13 +16515,13 @@
         <v>823</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="E825" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F825" s="1"/>
       <c r="G825" s="1"/>
@@ -16459,13 +16531,13 @@
         <v>824</v>
       </c>
       <c r="C826" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="E826" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F826" s="1"/>
       <c r="G826" s="1"/>
@@ -16475,10 +16547,10 @@
         <v>825</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D827" s="4" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="E827" s="4" t="s">
         <v>148</v>
@@ -16491,10 +16563,10 @@
         <v>826</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D828" s="4" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="E828" s="4" t="s">
         <v>272</v>
@@ -16507,10 +16579,10 @@
         <v>827</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D829" s="4" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="E829" s="4" t="s">
         <v>148</v>
@@ -16523,10 +16595,10 @@
         <v>828</v>
       </c>
       <c r="C830" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D830" s="4" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="E830" s="4" t="s">
         <v>272</v>
@@ -16534,31 +16606,31 @@
       <c r="F830" s="1"/>
       <c r="G830" s="1"/>
     </row>
-    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B831" s="6">
         <v>829</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D831" s="3" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F831" s="1"/>
       <c r="G831" s="1"/>
     </row>
-    <row r="832" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B832" s="6">
         <v>830</v>
       </c>
       <c r="C832" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D832" s="3" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="E832" s="4" t="s">
         <v>150</v>
@@ -16571,10 +16643,10 @@
         <v>831</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="E833" s="1" t="s">
         <v>381</v>
@@ -16587,10 +16659,10 @@
         <v>832</v>
       </c>
       <c r="C834" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="E834" s="1" t="s">
         <v>556</v>
@@ -16603,10 +16675,10 @@
         <v>833</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>556</v>
@@ -16619,10 +16691,10 @@
         <v>834</v>
       </c>
       <c r="C836" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E836" s="1" t="s">
         <v>556</v>
@@ -16635,10 +16707,10 @@
         <v>835</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="E837" s="1" t="s">
         <v>556</v>
@@ -16651,10 +16723,10 @@
         <v>836</v>
       </c>
       <c r="C838" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E838" s="1" t="s">
         <v>556</v>
@@ -16667,10 +16739,10 @@
         <v>837</v>
       </c>
       <c r="C839" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E839" s="1" t="s">
         <v>556</v>
@@ -16683,10 +16755,10 @@
         <v>838</v>
       </c>
       <c r="C840" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E840" s="1" t="s">
         <v>178</v>
@@ -16699,10 +16771,10 @@
         <v>839</v>
       </c>
       <c r="C841" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="E841" s="1" t="s">
         <v>178</v>
@@ -16715,10 +16787,10 @@
         <v>840</v>
       </c>
       <c r="C842" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="E842" s="1" t="s">
         <v>418</v>
@@ -16731,10 +16803,10 @@
         <v>841</v>
       </c>
       <c r="C843" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="E843" s="1" t="s">
         <v>420</v>
@@ -16747,10 +16819,10 @@
         <v>842</v>
       </c>
       <c r="C844" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E844" s="1" t="s">
         <v>381</v>
@@ -16763,10 +16835,10 @@
         <v>843</v>
       </c>
       <c r="C845" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="E845" s="1" t="s">
         <v>381</v>
@@ -16779,13 +16851,13 @@
         <v>844</v>
       </c>
       <c r="C846" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E846" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F846" s="1"/>
       <c r="G846" s="1"/>
@@ -16795,10 +16867,10 @@
         <v>845</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E847" s="1" t="s">
         <v>436</v>
@@ -16811,13 +16883,13 @@
         <v>846</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F848" s="1"/>
       <c r="G848" s="1"/>
@@ -16827,13 +16899,13 @@
         <v>847</v>
       </c>
       <c r="C849" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="E849" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F849" s="1"/>
       <c r="G849" s="1"/>
@@ -16843,29 +16915,29 @@
         <v>848</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F850" s="1"/>
       <c r="G850" s="1"/>
     </row>
-    <row r="851" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B851" s="6">
         <v>849</v>
       </c>
       <c r="C851" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D851" s="5" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="F851" s="1"/>
       <c r="G851" s="1"/>
@@ -16875,10 +16947,10 @@
         <v>850</v>
       </c>
       <c r="C852" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="E852" s="1" t="s">
         <v>185</v>
@@ -16891,13 +16963,13 @@
         <v>851</v>
       </c>
       <c r="C853" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F853" s="1"/>
       <c r="G853" s="1"/>
@@ -16907,13 +16979,13 @@
         <v>852</v>
       </c>
       <c r="C854" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F854" s="1"/>
       <c r="G854" s="1"/>
@@ -16923,13 +16995,13 @@
         <v>853</v>
       </c>
       <c r="C855" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F855" s="1"/>
       <c r="G855" s="1"/>
@@ -16939,13 +17011,13 @@
         <v>854</v>
       </c>
       <c r="C856" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="E856" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F856" s="1"/>
       <c r="G856" s="1"/>
@@ -16955,13 +17027,13 @@
         <v>855</v>
       </c>
       <c r="C857" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F857" s="1"/>
       <c r="G857" s="1"/>
@@ -16971,10 +17043,10 @@
         <v>856</v>
       </c>
       <c r="C858" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>148</v>
@@ -16987,10 +17059,10 @@
         <v>857</v>
       </c>
       <c r="C859" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>137</v>
@@ -17003,10 +17075,10 @@
         <v>858</v>
       </c>
       <c r="C860" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="E860" s="1" t="s">
         <v>148</v>
@@ -17019,10 +17091,10 @@
         <v>859</v>
       </c>
       <c r="C861" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="E861" s="1" t="s">
         <v>137</v>
@@ -17035,26 +17107,26 @@
         <v>860</v>
       </c>
       <c r="C862" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F862" s="1"/>
       <c r="G862" s="1"/>
     </row>
-    <row r="863" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B863" s="6">
         <v>861</v>
       </c>
       <c r="C863" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D863" s="5" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>150</v>
@@ -17067,13 +17139,13 @@
         <v>862</v>
       </c>
       <c r="C864" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D864" s="6" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F864" s="1"/>
       <c r="G864" s="1"/>
@@ -17083,13 +17155,13 @@
         <v>863</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D865" s="6" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F865" s="1"/>
       <c r="G865" s="1"/>
@@ -17099,13 +17171,13 @@
         <v>864</v>
       </c>
       <c r="C866" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D866" s="6" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F866" s="1"/>
       <c r="G866" s="1"/>
@@ -17115,13 +17187,13 @@
         <v>865</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F867" s="1"/>
       <c r="G867" s="1"/>
@@ -17131,13 +17203,13 @@
         <v>866</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F868" s="1"/>
       <c r="G868" s="1"/>
@@ -17147,13 +17219,13 @@
         <v>867</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="E869" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F869" s="1"/>
       <c r="G869" s="1"/>
@@ -17163,13 +17235,13 @@
         <v>868</v>
       </c>
       <c r="C870" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F870" s="1"/>
       <c r="G870" s="1"/>
@@ -17179,13 +17251,13 @@
         <v>869</v>
       </c>
       <c r="C871" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F871" s="1"/>
       <c r="G871" s="1"/>
@@ -17195,13 +17267,13 @@
         <v>870</v>
       </c>
       <c r="C872" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="E872" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F872" s="1"/>
       <c r="G872" s="1"/>
@@ -17211,13 +17283,13 @@
         <v>871</v>
       </c>
       <c r="C873" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="E873" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F873" s="1"/>
       <c r="G873" s="1"/>
@@ -17227,13 +17299,13 @@
         <v>872</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="F874" s="1"/>
       <c r="G874" s="1"/>
@@ -17243,13 +17315,13 @@
         <v>873</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="E875" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="F875" s="1"/>
       <c r="G875" s="1"/>
@@ -17259,13 +17331,13 @@
         <v>874</v>
       </c>
       <c r="C876" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="E876" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F876" s="1"/>
       <c r="G876" s="1"/>
@@ -17275,13 +17347,13 @@
         <v>875</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F877" s="1"/>
       <c r="G877" s="1"/>
@@ -17291,13 +17363,13 @@
         <v>876</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E878" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F878" s="1"/>
       <c r="G878" s="1"/>
@@ -17307,13 +17379,13 @@
         <v>877</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E879" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F879" s="1"/>
       <c r="G879" s="1"/>
@@ -17323,13 +17395,13 @@
         <v>878</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F880" s="1"/>
       <c r="G880" s="1"/>
@@ -17339,13 +17411,13 @@
         <v>879</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F881" s="1"/>
       <c r="G881" s="1"/>
@@ -17355,13 +17427,13 @@
         <v>880</v>
       </c>
       <c r="C882" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D882" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="F882" s="1"/>
       <c r="G882" s="1"/>
@@ -17371,13 +17443,13 @@
         <v>881</v>
       </c>
       <c r="C883" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="F883" s="1"/>
       <c r="G883" s="1"/>
@@ -17387,13 +17459,13 @@
         <v>882</v>
       </c>
       <c r="C884" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="F884" s="1"/>
       <c r="G884" s="1"/>
@@ -17403,7 +17475,7 @@
         <v>883</v>
       </c>
       <c r="C885" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>317</v>
@@ -17419,7 +17491,7 @@
         <v>884</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>318</v>
@@ -17435,13 +17507,13 @@
         <v>885</v>
       </c>
       <c r="C887" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F887" s="1"/>
       <c r="G887" s="1"/>
@@ -17451,13 +17523,13 @@
         <v>886</v>
       </c>
       <c r="C888" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F888" s="1"/>
       <c r="G888" s="1"/>
@@ -17467,13 +17539,13 @@
         <v>887</v>
       </c>
       <c r="C889" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F889" s="1"/>
       <c r="G889" s="1"/>
@@ -17483,13 +17555,13 @@
         <v>888</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F890" s="1"/>
       <c r="G890" s="1"/>
@@ -17499,13 +17571,13 @@
         <v>889</v>
       </c>
       <c r="C891" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D891" s="4" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F891" s="1"/>
       <c r="G891" s="1"/>
@@ -17515,13 +17587,13 @@
         <v>890</v>
       </c>
       <c r="C892" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D892" s="4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F892" s="1"/>
       <c r="G892" s="1"/>
@@ -17531,13 +17603,13 @@
         <v>891</v>
       </c>
       <c r="C893" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D893" s="4" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F893" s="1"/>
       <c r="G893" s="1"/>
@@ -17547,13 +17619,13 @@
         <v>892</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D894" s="4" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E894" s="1" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="F894" s="1"/>
       <c r="G894" s="1"/>
@@ -17563,13 +17635,13 @@
         <v>893</v>
       </c>
       <c r="C895" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D895" s="4" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="F895" s="1"/>
       <c r="G895" s="1"/>
@@ -17579,13 +17651,13 @@
         <v>894</v>
       </c>
       <c r="C896" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D896" s="4" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="E896" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F896" s="1"/>
       <c r="G896" s="1"/>
@@ -17595,13 +17667,13 @@
         <v>895</v>
       </c>
       <c r="C897" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="F897" s="1"/>
       <c r="G897" s="1"/>
@@ -17611,13 +17683,13 @@
         <v>896</v>
       </c>
       <c r="C898" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D898" s="1" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="E898" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="F898" s="1"/>
       <c r="G898" s="1"/>
@@ -17662,7 +17734,7 @@
         <v>597</v>
       </c>
       <c r="D901" s="4" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="E901" s="4" t="s">
         <v>569</v>
@@ -18022,7 +18094,7 @@
       <c r="F923" s="1"/>
       <c r="G923" s="1"/>
     </row>
-    <row r="924" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B924" s="6">
         <v>922</v>
       </c>
@@ -18049,7 +18121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEB9192-E971-4DF7-A534-A5BF0B5C74E7}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -18064,52 +18136,52 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="D2" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="G2" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="D3" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="E3" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="G3" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="H3" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="D4" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E4" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D5" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="E5" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F16D5C-76CC-405E-AD01-057EB0E975D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9878375A-50B4-4961-9329-E808FEC7DD11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6158" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="968">
   <si>
     <t>Module</t>
   </si>
@@ -2932,6 +2932,39 @@
   </si>
   <si>
     <t>Created bug 82261</t>
+  </si>
+  <si>
+    <t>Facility is loaded with tabs in name</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>[ProviderNetwork].[dbo].[Practice]</t>
+  </si>
+  <si>
+    <t>PracticeName</t>
+  </si>
+  <si>
+    <t>Leading and trailing tabs are not removed</t>
+  </si>
+  <si>
+    <t>Error message; Facility is not loaded into OLTP</t>
+  </si>
+  <si>
+    <t>PracticeType</t>
+  </si>
+  <si>
+    <t>Leading and trailing spaces/tabs are not removed and causing error message at PNM level</t>
+  </si>
+  <si>
+    <t>[ProviderNetworkStaging].[dbo].[StgProviderNetworkMaster]</t>
+  </si>
+  <si>
+    <t>Warning message, 1st name in ascending order is loaded into OLTP</t>
+  </si>
+  <si>
+    <t>Warning message, 1st type in ascending order is loaded into OLTP</t>
   </si>
 </sst>
 </file>
@@ -3292,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G924"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3335,7 @@
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="63.5703125" customWidth="1"/>
     <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4496,8 +4529,12 @@
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>966</v>
+      </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -4513,8 +4550,12 @@
       <c r="E62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
@@ -4529,8 +4570,12 @@
       <c r="E63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
@@ -4545,8 +4590,12 @@
       <c r="E64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
@@ -4561,8 +4610,12 @@
       <c r="E65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
@@ -4577,8 +4630,12 @@
       <c r="E66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
@@ -4593,8 +4650,12 @@
       <c r="E67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
@@ -4609,8 +4670,12 @@
       <c r="E68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
@@ -4625,8 +4690,12 @@
       <c r="E69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
@@ -4641,8 +4710,12 @@
       <c r="E70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
@@ -4657,8 +4730,12 @@
       <c r="E71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="6">
@@ -4673,8 +4750,12 @@
       <c r="E72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="6">
@@ -4689,8 +4770,12 @@
       <c r="E73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="6">
@@ -4705,8 +4790,12 @@
       <c r="E74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="6">
@@ -4721,8 +4810,12 @@
       <c r="E75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="6">
@@ -4737,8 +4830,12 @@
       <c r="E76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="6">
@@ -4753,8 +4850,12 @@
       <c r="E77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="6">
@@ -4769,8 +4870,12 @@
       <c r="E78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="6">
@@ -4785,8 +4890,12 @@
       <c r="E79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="6">
@@ -4801,8 +4910,12 @@
       <c r="E80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="6">
@@ -4817,8 +4930,12 @@
       <c r="E81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="6">
@@ -4833,8 +4950,12 @@
       <c r="E82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
@@ -4849,8 +4970,12 @@
       <c r="E83" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
@@ -4865,8 +4990,12 @@
       <c r="E84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
@@ -4881,8 +5010,12 @@
       <c r="E85" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
@@ -4897,8 +5030,12 @@
       <c r="E86" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
@@ -4913,7 +5050,9 @@
       <c r="E87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="8" t="s">
+        <v>967</v>
+      </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -4929,8 +5068,12 @@
       <c r="E88" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
@@ -4945,8 +5088,12 @@
       <c r="E89" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
@@ -4961,8 +5108,12 @@
       <c r="E90" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
@@ -4977,8 +5128,12 @@
       <c r="E91" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
@@ -4993,8 +5148,12 @@
       <c r="E92" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
@@ -5009,8 +5168,12 @@
       <c r="E93" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
@@ -5025,8 +5188,12 @@
       <c r="E94" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
@@ -5041,8 +5208,12 @@
       <c r="E95" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="6">
@@ -5057,8 +5228,12 @@
       <c r="E96" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
@@ -5073,8 +5248,12 @@
       <c r="E97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
@@ -5089,8 +5268,12 @@
       <c r="E98" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
@@ -5105,8 +5288,12 @@
       <c r="E99" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
@@ -18460,15 +18647,15 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18522,17 +18709,33 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>961</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>964</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9878375A-50B4-4961-9329-E808FEC7DD11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1210EB5-97EC-4280-9F1E-00571DDCB56A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="989">
   <si>
     <t>Module</t>
   </si>
@@ -2965,6 +2965,69 @@
   </si>
   <si>
     <t>Warning message, 1st type in ascending order is loaded into OLTP</t>
+  </si>
+  <si>
+    <t>Column value is not updated during Practice Type Key update</t>
+  </si>
+  <si>
+    <t>Multiple Facility Names for same Facility NPI generate warning message instead of an error</t>
+  </si>
+  <si>
+    <t>Multiple Facility Types for same Facility NPI generate warning message instead of an error</t>
+  </si>
+  <si>
+    <t>Created bug 82868</t>
+  </si>
+  <si>
+    <t>Multiple Facility Names for same NPI as update</t>
+  </si>
+  <si>
+    <t>Multiple Facility Types for same NPI as update</t>
+  </si>
+  <si>
+    <t>Busines name is loaded with tabs</t>
+  </si>
+  <si>
+    <t>[ProviderNetwork].[dbo].[PracticeBilling]</t>
+  </si>
+  <si>
+    <t>BusinessName</t>
+  </si>
+  <si>
+    <t>Facility billing is created</t>
+  </si>
+  <si>
+    <t>All tabs Business Name is loaded into OLTP</t>
+  </si>
+  <si>
+    <t>Facility Billing is created</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>All tabs Address 1 is loaded into OLTP</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>All tabs City is loaded into OLTP</t>
+  </si>
+  <si>
+    <t>Column value is not updated during Phone number update</t>
+  </si>
+  <si>
+    <t>Fax number is not updated</t>
+  </si>
+  <si>
+    <t>FaxNumber</t>
+  </si>
+  <si>
+    <t>Value is not updated when new value is coming in the file</t>
+  </si>
+  <si>
+    <t>x``</t>
   </si>
 </sst>
 </file>
@@ -3029,7 +3092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3042,7 +3105,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3323,19 +3387,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G924"/>
+  <dimension ref="A2:G927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.5703125" customWidth="1"/>
+    <col min="5" max="5" width="69.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4532,10 +4596,12 @@
       <c r="E61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
@@ -5050,10 +5116,12 @@
       <c r="E87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
@@ -5308,8 +5376,12 @@
       <c r="E100" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
@@ -5324,8 +5396,12 @@
       <c r="E101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
@@ -5340,8 +5416,12 @@
       <c r="E102" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
@@ -5356,8 +5436,12 @@
       <c r="E103" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
@@ -5372,8 +5456,12 @@
       <c r="E104" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
@@ -5388,8 +5476,12 @@
       <c r="E105" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
@@ -5404,8 +5496,12 @@
       <c r="E106" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
@@ -5420,8 +5516,12 @@
       <c r="E107" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
@@ -5436,8 +5536,12 @@
       <c r="E108" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
@@ -5452,8 +5556,12 @@
       <c r="E109" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
@@ -5468,8 +5576,12 @@
       <c r="E110" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
@@ -5484,8 +5596,12 @@
       <c r="E111" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
@@ -5500,8 +5616,12 @@
       <c r="E112" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
@@ -5516,8 +5636,12 @@
       <c r="E113" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
@@ -5532,8 +5656,12 @@
       <c r="E114" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
@@ -5548,8 +5676,12 @@
       <c r="E115" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
@@ -5564,8 +5696,12 @@
       <c r="E116" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
@@ -5580,8 +5716,12 @@
       <c r="E117" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="6">
@@ -5596,8 +5736,12 @@
       <c r="E118" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
@@ -5612,8 +5756,12 @@
       <c r="E119" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
@@ -5628,8 +5776,12 @@
       <c r="E120" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
@@ -5644,8 +5796,12 @@
       <c r="E121" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
@@ -5660,8 +5816,12 @@
       <c r="E122" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
@@ -5676,8 +5836,12 @@
       <c r="E123" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
@@ -5692,8 +5856,12 @@
       <c r="E124" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
@@ -5708,8 +5876,12 @@
       <c r="E125" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
@@ -5724,8 +5896,12 @@
       <c r="E126" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
@@ -5740,8 +5916,12 @@
       <c r="E127" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
@@ -5756,8 +5936,12 @@
       <c r="E128" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
@@ -5772,8 +5956,12 @@
       <c r="E129" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
@@ -5788,8 +5976,12 @@
       <c r="E130" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
@@ -5804,8 +5996,12 @@
       <c r="E131" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="6">
@@ -5820,8 +6016,12 @@
       <c r="E132" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
@@ -5836,8 +6036,12 @@
       <c r="E133" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
@@ -5852,8 +6056,12 @@
       <c r="E134" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
@@ -5868,8 +6076,12 @@
       <c r="E135" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
@@ -5884,8 +6096,12 @@
       <c r="E136" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
@@ -5900,8 +6116,12 @@
       <c r="E137" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
@@ -5916,8 +6136,12 @@
       <c r="E138" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
@@ -5932,8 +6156,12 @@
       <c r="E139" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
@@ -5948,8 +6176,12 @@
       <c r="E140" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
@@ -5964,8 +6196,12 @@
       <c r="E141" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
@@ -5980,8 +6216,12 @@
       <c r="E142" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
@@ -5996,8 +6236,12 @@
       <c r="E143" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
@@ -6012,8 +6256,12 @@
       <c r="E144" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
@@ -6028,8 +6276,12 @@
       <c r="E145" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
@@ -6044,8 +6296,12 @@
       <c r="E146" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
@@ -6060,8 +6316,12 @@
       <c r="E147" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
@@ -6076,8 +6336,12 @@
       <c r="E148" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
@@ -6092,8 +6356,12 @@
       <c r="E149" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
@@ -6108,8 +6376,12 @@
       <c r="E150" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
@@ -6124,8 +6396,12 @@
       <c r="E151" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
@@ -6138,10 +6414,14 @@
         <v>525</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+        <v>526</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="6">
@@ -6156,8 +6436,12 @@
       <c r="E153" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="6">
@@ -6172,8 +6456,12 @@
       <c r="E154" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="6">
@@ -6188,8 +6476,12 @@
       <c r="E155" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="6">
@@ -6204,8 +6496,12 @@
       <c r="E156" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="6">
@@ -6220,8 +6516,12 @@
       <c r="E157" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="6">
@@ -6236,8 +6536,12 @@
       <c r="E158" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="6">
@@ -6252,8 +6556,12 @@
       <c r="E159" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="6">
@@ -6268,8 +6576,12 @@
       <c r="E160" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="6">
@@ -6284,10 +6596,14 @@
       <c r="E161" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F161" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="6">
         <v>160</v>
       </c>
@@ -6303,7 +6619,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="6">
         <v>161</v>
       </c>
@@ -6332,8 +6648,12 @@
       <c r="E164" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="165" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="6">
@@ -6348,8 +6668,12 @@
       <c r="E165" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="166" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="6">
@@ -6364,8 +6688,12 @@
       <c r="E166" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="167" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" s="6">
@@ -6380,8 +6708,12 @@
       <c r="E167" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
@@ -18303,7 +18635,7 @@
       <c r="F912" s="1"/>
       <c r="G912" s="1"/>
     </row>
-    <row r="913" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B913" s="6">
         <v>911</v>
       </c>
@@ -18319,7 +18651,7 @@
       <c r="F913" s="1"/>
       <c r="G913" s="1"/>
     </row>
-    <row r="914" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B914" s="6">
         <v>912</v>
       </c>
@@ -18335,7 +18667,7 @@
       <c r="F914" s="1"/>
       <c r="G914" s="1"/>
     </row>
-    <row r="915" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B915" s="6">
         <v>913</v>
       </c>
@@ -18351,7 +18683,7 @@
       <c r="F915" s="1"/>
       <c r="G915" s="1"/>
     </row>
-    <row r="916" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B916" s="6">
         <v>914</v>
       </c>
@@ -18367,7 +18699,7 @@
       <c r="F916" s="1"/>
       <c r="G916" s="1"/>
     </row>
-    <row r="917" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B917" s="6">
         <v>915</v>
       </c>
@@ -18383,7 +18715,7 @@
       <c r="F917" s="1"/>
       <c r="G917" s="1"/>
     </row>
-    <row r="918" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B918" s="6">
         <v>916</v>
       </c>
@@ -18399,7 +18731,7 @@
       <c r="F918" s="1"/>
       <c r="G918" s="1"/>
     </row>
-    <row r="919" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B919" s="6">
         <v>917</v>
       </c>
@@ -18415,7 +18747,7 @@
       <c r="F919" s="1"/>
       <c r="G919" s="1"/>
     </row>
-    <row r="920" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B920" s="6">
         <v>918</v>
       </c>
@@ -18431,7 +18763,7 @@
       <c r="F920" s="1"/>
       <c r="G920" s="1"/>
     </row>
-    <row r="921" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B921" s="6">
         <v>919</v>
       </c>
@@ -18447,7 +18779,7 @@
       <c r="F921" s="1"/>
       <c r="G921" s="1"/>
     </row>
-    <row r="922" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B922" s="6">
         <v>920</v>
       </c>
@@ -18463,7 +18795,7 @@
       <c r="F922" s="1"/>
       <c r="G922" s="1"/>
     </row>
-    <row r="923" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B923" s="6">
         <v>921</v>
       </c>
@@ -18479,7 +18811,7 @@
       <c r="F923" s="1"/>
       <c r="G923" s="1"/>
     </row>
-    <row r="924" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B924" s="6">
         <v>922</v>
       </c>
@@ -18494,6 +18826,42 @@
       </c>
       <c r="F924" s="1"/>
       <c r="G924" s="1"/>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A925" s="9"/>
+      <c r="B925" s="6">
+        <v>923</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F925" s="1"/>
+      <c r="G925" s="1"/>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B926" s="6">
+        <v>924</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F926" s="1"/>
+      <c r="G926" s="1"/>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A927" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G924" xr:uid="{5555078D-B2F1-4453-B6D1-8A2CFDECC2B0}"/>
@@ -18644,183 +19012,310 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75DE30-2121-4970-BFA1-A37C9F2DE191}">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1210EB5-97EC-4280-9F1E-00571DDCB56A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0D964A-5289-4A88-875C-0263EFCE4BF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="1080">
   <si>
     <t>Module</t>
   </si>
@@ -2744,9 +2745,6 @@
     <t>Multiple member assignments as update</t>
   </si>
   <si>
-    <t>Facility Medicaid license</t>
-  </si>
-  <si>
     <t>Provider Medicaid license</t>
   </si>
   <si>
@@ -2874,15 +2872,9 @@
     <t>Multiple Reimbursement Rates in same record (other fields are same)</t>
   </si>
   <si>
-    <t>Facility State license</t>
-  </si>
-  <si>
     <t>Provider State license</t>
   </si>
   <si>
-    <t>Facility Board Certification</t>
-  </si>
-  <si>
     <t>Provider Board Certification</t>
   </si>
   <si>
@@ -2907,9 +2899,6 @@
     <t>FL ESI custom fields</t>
   </si>
   <si>
-    <t>Facility Location type</t>
-  </si>
-  <si>
     <t>FL Remove Location Name from location uniqueness</t>
   </si>
   <si>
@@ -3027,7 +3016,292 @@
     <t>Value is not updated when new value is coming in the file</t>
   </si>
   <si>
-    <t>x``</t>
+    <t>Facility License</t>
+  </si>
+  <si>
+    <t>Valid board certification info</t>
+  </si>
+  <si>
+    <t>Board certification data should be loaded</t>
+  </si>
+  <si>
+    <t>Error message; Facility should not get loaded</t>
+  </si>
+  <si>
+    <t>Board certification info NULL</t>
+  </si>
+  <si>
+    <t>Facility should be loaded with no board certification data</t>
+  </si>
+  <si>
+    <t>Board certification ID is NULL, other board certification fields are populated</t>
+  </si>
+  <si>
+    <t>Error message; Facility should be loaded with no board certification data</t>
+  </si>
+  <si>
+    <t>Board certification ID spaces, other board certification fields are populated</t>
+  </si>
+  <si>
+    <t>Board certification ID tabs, other board certification fields are populated</t>
+  </si>
+  <si>
+    <t>Board certification ID is populated, other board certification fields are NULL</t>
+  </si>
+  <si>
+    <t>Board certification type is NULL, other board certification fields are populated</t>
+  </si>
+  <si>
+    <t>Warning message; Default value to 'General' and load board certification data</t>
+  </si>
+  <si>
+    <t>Board certification type spaces, other board certification fields are populated</t>
+  </si>
+  <si>
+    <t>Board certification type tabs, other board certification fields are populated</t>
+  </si>
+  <si>
+    <t>Board certification type is populated, other board certification fields are NULL</t>
+  </si>
+  <si>
+    <t>Effective date populated, term date is NULL</t>
+  </si>
+  <si>
+    <t>Effective date is NULL, other board certification fields are populated</t>
+  </si>
+  <si>
+    <t>Effective date is populated, other board certification fields are NULL</t>
+  </si>
+  <si>
+    <t>Term date populated, other board certification fields are NULL</t>
+  </si>
+  <si>
+    <t>Same board certification ID, new effective and term dates</t>
+  </si>
+  <si>
+    <t>New record should be inserted</t>
+  </si>
+  <si>
+    <t>Same board certification effective date, new board certification ID and term date</t>
+  </si>
+  <si>
+    <t>Existing record should be updated with new board certification ID and term date</t>
+  </si>
+  <si>
+    <t>New board certification ID, other board certification fields match existing data</t>
+  </si>
+  <si>
+    <t>Existing record should be updated with new board certification ID</t>
+  </si>
+  <si>
+    <t>Board certification ID is NULL, other board certification fields match existing data as update</t>
+  </si>
+  <si>
+    <t>Error message; Existing board certification data shoud remain as is</t>
+  </si>
+  <si>
+    <t>New board certification effective date, other board certification fields match existing data</t>
+  </si>
+  <si>
+    <t>New board certification term date, other board certification fields match existing data</t>
+  </si>
+  <si>
+    <t>Existing record should be updated with new term date</t>
+  </si>
+  <si>
+    <t>Valid Medicaid license info</t>
+  </si>
+  <si>
+    <t>License data should be loaded</t>
+  </si>
+  <si>
+    <t>Medicaid license info NULL</t>
+  </si>
+  <si>
+    <t>Facility should be loaded with no Medicaid license data</t>
+  </si>
+  <si>
+    <t>Error message; Facility should be loaded with no Medicaid license data</t>
+  </si>
+  <si>
+    <t>Effective date is NULL, other license fields are populated</t>
+  </si>
+  <si>
+    <t>Effective date is populated, other license fields are NULL</t>
+  </si>
+  <si>
+    <t>Term date populated, other license fields are NULL</t>
+  </si>
+  <si>
+    <t>Existing record should be updated with new license ID and term date</t>
+  </si>
+  <si>
+    <t>Existing record should be updated with new license ID</t>
+  </si>
+  <si>
+    <t>Error message; Existing Medicaid license data shoud remain as is</t>
+  </si>
+  <si>
+    <t>Duplicate board certification records</t>
+  </si>
+  <si>
+    <t>Duplicate Medicaid license records</t>
+  </si>
+  <si>
+    <t>Medicaid License ID is NULL, other license fields are populated</t>
+  </si>
+  <si>
+    <t>Medicaid License ID spaces, other license fields are populated</t>
+  </si>
+  <si>
+    <t>Medicaid License ID tabs, other license fields are populated</t>
+  </si>
+  <si>
+    <t>Medicaid License ID is populated, other license fields are NULL</t>
+  </si>
+  <si>
+    <t>Invalid Medicaid license state</t>
+  </si>
+  <si>
+    <t>Medicaid License state is NULL, other license fields are populated</t>
+  </si>
+  <si>
+    <t>Medicaid License state spaces, other license fields are populated</t>
+  </si>
+  <si>
+    <t>Medicaid License state tabs, other license fields are populated</t>
+  </si>
+  <si>
+    <t>Medicaid License state is populated, other license fields are NULL</t>
+  </si>
+  <si>
+    <t>Same Medicaid license ID, new state, effective and term dates</t>
+  </si>
+  <si>
+    <t>Same Medicaid license state and effective date, new license ID and term date</t>
+  </si>
+  <si>
+    <t>New Medicaid license ID, other license fields match existing data</t>
+  </si>
+  <si>
+    <t>Medicaid License ID is NULL, other license fields match existing data as update</t>
+  </si>
+  <si>
+    <t>New Medicaid license state, other license fields match existing data</t>
+  </si>
+  <si>
+    <t>New Medicaid license effective date, other license fields match existing data</t>
+  </si>
+  <si>
+    <t>New Medicaid license term date, other license fields match existing data</t>
+  </si>
+  <si>
+    <t>Valid state license info</t>
+  </si>
+  <si>
+    <t>State license info NULL</t>
+  </si>
+  <si>
+    <t>Facility should be loaded with no state license data</t>
+  </si>
+  <si>
+    <t>Error message; Facility should be loaded with no state license data</t>
+  </si>
+  <si>
+    <t>Error message; Existing state license data shoud remain as is</t>
+  </si>
+  <si>
+    <t>State License ID is NULL, other license fields are populated</t>
+  </si>
+  <si>
+    <t>State License ID spaces, other license fields are populated</t>
+  </si>
+  <si>
+    <t>State License ID tabs, other license fields are populated</t>
+  </si>
+  <si>
+    <t>State License ID is populated, other license fields are NULL</t>
+  </si>
+  <si>
+    <t>Invalid State license state</t>
+  </si>
+  <si>
+    <t>State License state is NULL, other license fields are populated</t>
+  </si>
+  <si>
+    <t>State License state spaces, other license fields are populated</t>
+  </si>
+  <si>
+    <t>State License state tabs, other license fields are populated</t>
+  </si>
+  <si>
+    <t>State License state is populated, other license fields are NULL</t>
+  </si>
+  <si>
+    <t>Same State license ID, new state, effective and term dates</t>
+  </si>
+  <si>
+    <t>Same State license state and effective date, new license ID and term date</t>
+  </si>
+  <si>
+    <t>New State license ID, other license fields match existing data</t>
+  </si>
+  <si>
+    <t>State License ID is NULL, other license fields match existing data as update</t>
+  </si>
+  <si>
+    <t>New State license state, other license fields match existing data</t>
+  </si>
+  <si>
+    <t>New State license effective date, other license fields match existing data</t>
+  </si>
+  <si>
+    <t>New State license term date, other license fields match existing data</t>
+  </si>
+  <si>
+    <t>Duplicate State license records</t>
+  </si>
+  <si>
+    <t>Facility Location Type</t>
+  </si>
+  <si>
+    <t>Valid Facility Location Type value</t>
+  </si>
+  <si>
+    <t>Facility Location Type NULL</t>
+  </si>
+  <si>
+    <t>Facility Location Type spaces</t>
+  </si>
+  <si>
+    <t>Facility Location Type tabs</t>
+  </si>
+  <si>
+    <t>Facility Location Type invalid</t>
+  </si>
+  <si>
+    <t>Multiple Facility Location Type values</t>
+  </si>
+  <si>
+    <t>Updated valid Facility Location Type</t>
+  </si>
+  <si>
+    <t>Updated NULL Facility Location Type</t>
+  </si>
+  <si>
+    <t>Updated invalid Facility Location Type</t>
+  </si>
+  <si>
+    <t>Multiple Facility Location Type values as update</t>
+  </si>
+  <si>
+    <t>No record created in OLTP</t>
+  </si>
+  <si>
+    <t>Warning message; no record created in OLTP</t>
+  </si>
+  <si>
+    <t>Duplicate Facility Location Type records</t>
   </si>
 </sst>
 </file>
@@ -3387,18 +3661,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G927"/>
+  <dimension ref="A2:G1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+    <sheetView topLeftCell="A989" workbookViewId="0">
+      <selection activeCell="C1011" sqref="C1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="129.5703125" customWidth="1"/>
-    <col min="5" max="5" width="69.5703125" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.140625" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3437,10 +3711,10 @@
         <v>593</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -3457,10 +3731,10 @@
         <v>594</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -3477,10 +3751,10 @@
         <v>594</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -3497,10 +3771,10 @@
         <v>594</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -3517,10 +3791,10 @@
         <v>594</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -3537,10 +3811,10 @@
         <v>594</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -3557,10 +3831,10 @@
         <v>594</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -3571,16 +3845,16 @@
         <v>619</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -3597,10 +3871,10 @@
         <v>596</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -3617,10 +3891,10 @@
         <v>594</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -3637,10 +3911,10 @@
         <v>594</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -3657,10 +3931,10 @@
         <v>594</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -3674,13 +3948,13 @@
         <v>600</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -3694,13 +3968,13 @@
         <v>601</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -3711,16 +3985,16 @@
         <v>619</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -3737,10 +4011,10 @@
         <v>603</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -3751,16 +4025,16 @@
         <v>619</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -3771,16 +4045,16 @@
         <v>619</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -3791,16 +4065,16 @@
         <v>619</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -3817,10 +4091,10 @@
         <v>593</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -3834,13 +4108,13 @@
         <v>605</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -3857,10 +4131,10 @@
         <v>596</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -3877,10 +4151,10 @@
         <v>594</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -3897,10 +4171,10 @@
         <v>594</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -3917,10 +4191,10 @@
         <v>594</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -3937,10 +4211,10 @@
         <v>594</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -3957,10 +4231,10 @@
         <v>594</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -3977,10 +4251,10 @@
         <v>594</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -3991,16 +4265,16 @@
         <v>619</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -4017,10 +4291,10 @@
         <v>596</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -4037,10 +4311,10 @@
         <v>594</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -4057,10 +4331,10 @@
         <v>594</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -4077,10 +4351,10 @@
         <v>594</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -4094,13 +4368,13 @@
         <v>611</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -4114,13 +4388,13 @@
         <v>612</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -4131,16 +4405,16 @@
         <v>619</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -4157,10 +4431,10 @@
         <v>594</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -4177,10 +4451,10 @@
         <v>594</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -4197,10 +4471,10 @@
         <v>594</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -4214,13 +4488,13 @@
         <v>616</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -4234,13 +4508,13 @@
         <v>617</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -4251,16 +4525,16 @@
         <v>619</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -4277,10 +4551,10 @@
         <v>603</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -4291,16 +4565,16 @@
         <v>619</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -4311,16 +4585,16 @@
         <v>619</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -4331,16 +4605,16 @@
         <v>619</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -4357,10 +4631,10 @@
         <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -4377,10 +4651,10 @@
         <v>20</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -4397,10 +4671,10 @@
         <v>26</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -4417,10 +4691,10 @@
         <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -4437,10 +4711,10 @@
         <v>26</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -4457,10 +4731,10 @@
         <v>26</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -4477,10 +4751,10 @@
         <v>26</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -4497,10 +4771,10 @@
         <v>26</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -4517,10 +4791,10 @@
         <v>26</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -4537,10 +4811,10 @@
         <v>23</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -4557,10 +4831,10 @@
         <v>37</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -4577,10 +4851,10 @@
         <v>26</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -4597,10 +4871,10 @@
         <v>26</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -4617,10 +4891,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -4637,10 +4911,10 @@
         <v>26</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
@@ -4657,10 +4931,10 @@
         <v>26</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -4677,10 +4951,10 @@
         <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -4697,10 +4971,10 @@
         <v>35</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -4717,10 +4991,10 @@
         <v>26</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -4737,10 +5011,10 @@
         <v>26</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -4757,10 +5031,10 @@
         <v>26</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -4777,10 +5051,10 @@
         <v>26</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -4797,10 +5071,10 @@
         <v>26</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -4817,10 +5091,10 @@
         <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -4837,10 +5111,10 @@
         <v>26</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -4857,10 +5131,10 @@
         <v>26</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -4877,10 +5151,10 @@
         <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
@@ -4897,10 +5171,10 @@
         <v>26</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
@@ -4917,10 +5191,10 @@
         <v>26</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
@@ -4937,10 +5211,10 @@
         <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -4957,10 +5231,10 @@
         <v>26</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
@@ -4977,10 +5251,10 @@
         <v>26</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -4997,10 +5271,10 @@
         <v>26</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
@@ -5017,10 +5291,10 @@
         <v>26</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -5037,10 +5311,10 @@
         <v>30</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -5057,10 +5331,10 @@
         <v>26</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -5077,10 +5351,10 @@
         <v>52</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -5097,10 +5371,10 @@
         <v>53</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -5117,10 +5391,10 @@
         <v>26</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -5137,10 +5411,10 @@
         <v>58</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -5157,10 +5431,10 @@
         <v>881</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -5177,10 +5451,10 @@
         <v>883</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -5197,10 +5471,10 @@
         <v>883</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
@@ -5217,10 +5491,10 @@
         <v>883</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -5237,10 +5511,10 @@
         <v>887</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
@@ -5257,10 +5531,10 @@
         <v>887</v>
       </c>
       <c r="F94" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
@@ -5277,10 +5551,10 @@
         <v>887</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -5297,10 +5571,10 @@
         <v>140</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -5317,10 +5591,10 @@
         <v>140</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
@@ -5337,10 +5611,10 @@
         <v>256</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
@@ -5357,10 +5631,10 @@
         <v>256</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
@@ -5377,10 +5651,10 @@
         <v>58</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
@@ -5397,10 +5671,10 @@
         <v>20</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
@@ -5417,10 +5691,10 @@
         <v>63</v>
       </c>
       <c r="F102" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
@@ -5437,10 +5711,10 @@
         <v>63</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
@@ -5457,10 +5731,10 @@
         <v>63</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
@@ -5477,10 +5751,10 @@
         <v>63</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
@@ -5497,10 +5771,10 @@
         <v>63</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
@@ -5517,10 +5791,10 @@
         <v>63</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
@@ -5537,10 +5811,10 @@
         <v>63</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
@@ -5557,10 +5831,10 @@
         <v>63</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
@@ -5577,10 +5851,10 @@
         <v>63</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
@@ -5597,10 +5871,10 @@
         <v>63</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
@@ -5617,10 +5891,10 @@
         <v>63</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
@@ -5637,10 +5911,10 @@
         <v>71</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -5657,10 +5931,10 @@
         <v>73</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -5677,10 +5951,10 @@
         <v>76</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
@@ -5697,10 +5971,10 @@
         <v>78</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -5717,10 +5991,10 @@
         <v>63</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
@@ -5737,10 +6011,10 @@
         <v>63</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -5757,10 +6031,10 @@
         <v>63</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
@@ -5777,10 +6051,10 @@
         <v>58</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
@@ -5797,10 +6071,10 @@
         <v>63</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
@@ -5817,10 +6091,10 @@
         <v>63</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -5837,10 +6111,10 @@
         <v>63</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -5857,10 +6131,10 @@
         <v>63</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -5877,10 +6151,10 @@
         <v>63</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -5897,10 +6171,10 @@
         <v>63</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -5917,10 +6191,10 @@
         <v>63</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -5937,10 +6211,10 @@
         <v>63</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -5957,10 +6231,10 @@
         <v>63</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -5977,10 +6251,10 @@
         <v>63</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
@@ -5997,10 +6271,10 @@
         <v>63</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
@@ -6017,10 +6291,10 @@
         <v>63</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -6037,10 +6311,10 @@
         <v>63</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -6057,10 +6331,10 @@
         <v>63</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -6077,10 +6351,10 @@
         <v>63</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
@@ -6097,10 +6371,10 @@
         <v>58</v>
       </c>
       <c r="F136" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -6117,10 +6391,10 @@
         <v>63</v>
       </c>
       <c r="F137" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
@@ -6137,10 +6411,10 @@
         <v>63</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
@@ -6157,10 +6431,10 @@
         <v>58</v>
       </c>
       <c r="F139" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -6177,10 +6451,10 @@
         <v>63</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
@@ -6197,10 +6471,10 @@
         <v>590</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
@@ -6217,10 +6491,10 @@
         <v>58</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
@@ -6237,10 +6511,10 @@
         <v>590</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
@@ -6257,10 +6531,10 @@
         <v>590</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
@@ -6277,10 +6551,10 @@
         <v>590</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
@@ -6297,10 +6571,10 @@
         <v>524</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -6317,10 +6591,10 @@
         <v>591</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
@@ -6337,10 +6611,10 @@
         <v>58</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -6357,10 +6631,10 @@
         <v>591</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
@@ -6377,10 +6651,10 @@
         <v>591</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
@@ -6397,10 +6671,10 @@
         <v>591</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
@@ -6417,10 +6691,10 @@
         <v>526</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
@@ -6437,10 +6711,10 @@
         <v>110</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
@@ -6457,10 +6731,10 @@
         <v>128</v>
       </c>
       <c r="F154" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -6477,10 +6751,10 @@
         <v>128</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
@@ -6497,10 +6771,10 @@
         <v>113</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
@@ -6517,10 +6791,10 @@
         <v>129</v>
       </c>
       <c r="F157" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
@@ -6537,10 +6811,10 @@
         <v>129</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
@@ -6557,10 +6831,10 @@
         <v>117</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
@@ -6577,10 +6851,10 @@
         <v>130</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
@@ -6597,10 +6871,10 @@
         <v>120</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -6616,8 +6890,12 @@
       <c r="E162" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="163" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="6">
@@ -6632,8 +6910,12 @@
       <c r="E163" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="164" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="6">
@@ -6649,10 +6931,10 @@
         <v>128</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -6669,10 +6951,10 @@
         <v>128</v>
       </c>
       <c r="F165" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -6689,10 +6971,10 @@
         <v>128</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -6709,10 +6991,10 @@
         <v>128</v>
       </c>
       <c r="F167" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
@@ -7187,7 +7469,7 @@
         <v>132</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>20</v>
@@ -7315,7 +7597,7 @@
         <v>132</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>20</v>
@@ -11619,7 +11901,7 @@
         <v>132</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>131</v>
@@ -13702,7 +13984,7 @@
         <v>623</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F604" s="1"/>
       <c r="G604" s="1"/>
@@ -13734,7 +14016,7 @@
         <v>625</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F606" s="1"/>
       <c r="G606" s="1"/>
@@ -13750,7 +14032,7 @@
         <v>629</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F607" s="1"/>
       <c r="G607" s="1"/>
@@ -13782,7 +14064,7 @@
         <v>621</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F609" s="1"/>
       <c r="G609" s="1"/>
@@ -17331,7 +17613,7 @@
         <v>620</v>
       </c>
       <c r="D831" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E831" s="1" t="s">
         <v>796</v>
@@ -17651,7 +17933,7 @@
         <v>620</v>
       </c>
       <c r="D851" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E851" s="1" t="s">
         <v>821</v>
@@ -17875,7 +18157,7 @@
         <v>879</v>
       </c>
       <c r="D865" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E865" s="1" t="s">
         <v>838</v>
@@ -18451,7 +18733,7 @@
         <v>581</v>
       </c>
       <c r="D901" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E901" s="4" t="s">
         <v>553</v>
@@ -18836,7 +19118,7 @@
         <v>6</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>533</v>
@@ -18852,7 +19134,7 @@
         <v>6</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>533</v>
@@ -18861,7 +19143,1352 @@
       <c r="G926" s="1"/>
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A927" s="8"/>
+      <c r="A927" s="9"/>
+      <c r="B927" s="6">
+        <v>925</v>
+      </c>
+      <c r="C927" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F927" s="1"/>
+      <c r="G927" s="1"/>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B928" s="6">
+        <v>926</v>
+      </c>
+      <c r="C928" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F928" s="1"/>
+      <c r="G928" s="1"/>
+    </row>
+    <row r="929" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B929" s="6">
+        <v>927</v>
+      </c>
+      <c r="C929" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="F929" s="1"/>
+      <c r="G929" s="1"/>
+    </row>
+    <row r="930" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B930" s="6">
+        <v>928</v>
+      </c>
+      <c r="C930" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F930" s="1"/>
+      <c r="G930" s="1"/>
+    </row>
+    <row r="931" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B931" s="6">
+        <v>929</v>
+      </c>
+      <c r="C931" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F931" s="1"/>
+      <c r="G931" s="1"/>
+    </row>
+    <row r="932" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B932" s="6">
+        <v>930</v>
+      </c>
+      <c r="C932" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F932" s="1"/>
+      <c r="G932" s="1"/>
+    </row>
+    <row r="933" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B933" s="6">
+        <v>931</v>
+      </c>
+      <c r="C933" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F933" s="1"/>
+      <c r="G933" s="1"/>
+    </row>
+    <row r="934" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B934" s="6">
+        <v>932</v>
+      </c>
+      <c r="C934" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F934" s="1"/>
+      <c r="G934" s="1"/>
+    </row>
+    <row r="935" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B935" s="6">
+        <v>933</v>
+      </c>
+      <c r="C935" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F935" s="1"/>
+      <c r="G935" s="1"/>
+    </row>
+    <row r="936" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B936" s="6">
+        <v>934</v>
+      </c>
+      <c r="C936" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F936" s="1"/>
+      <c r="G936" s="1"/>
+    </row>
+    <row r="937" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B937" s="6">
+        <v>935</v>
+      </c>
+      <c r="C937" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F937" s="1"/>
+      <c r="G937" s="1"/>
+    </row>
+    <row r="938" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B938" s="6">
+        <v>936</v>
+      </c>
+      <c r="C938" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F938" s="1"/>
+      <c r="G938" s="1"/>
+    </row>
+    <row r="939" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B939" s="6">
+        <v>937</v>
+      </c>
+      <c r="C939" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F939" s="1"/>
+      <c r="G939" s="1"/>
+    </row>
+    <row r="940" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B940" s="6">
+        <v>938</v>
+      </c>
+      <c r="C940" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F940" s="1"/>
+      <c r="G940" s="1"/>
+    </row>
+    <row r="941" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B941" s="6">
+        <v>939</v>
+      </c>
+      <c r="C941" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F941" s="1"/>
+      <c r="G941" s="1"/>
+    </row>
+    <row r="942" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B942" s="6">
+        <v>940</v>
+      </c>
+      <c r="C942" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F942" s="1"/>
+      <c r="G942" s="1"/>
+    </row>
+    <row r="943" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B943" s="6">
+        <v>941</v>
+      </c>
+      <c r="C943" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F943" s="1"/>
+      <c r="G943" s="1"/>
+    </row>
+    <row r="944" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B944" s="6">
+        <v>942</v>
+      </c>
+      <c r="C944" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F944" s="1"/>
+      <c r="G944" s="1"/>
+    </row>
+    <row r="945" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B945" s="6">
+        <v>943</v>
+      </c>
+      <c r="C945" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D945" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F945" s="1"/>
+      <c r="G945" s="1"/>
+    </row>
+    <row r="946" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B946" s="6">
+        <v>944</v>
+      </c>
+      <c r="C946" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F946" s="1"/>
+      <c r="G946" s="1"/>
+    </row>
+    <row r="947" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B947" s="6">
+        <v>945</v>
+      </c>
+      <c r="C947" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F947" s="1"/>
+      <c r="G947" s="1"/>
+    </row>
+    <row r="948" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B948" s="6">
+        <v>946</v>
+      </c>
+      <c r="C948" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F948" s="1"/>
+      <c r="G948" s="1"/>
+    </row>
+    <row r="949" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B949" s="6">
+        <v>947</v>
+      </c>
+      <c r="C949" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D949" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F949" s="1"/>
+      <c r="G949" s="1"/>
+    </row>
+    <row r="950" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B950" s="6">
+        <v>948</v>
+      </c>
+      <c r="C950" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F950" s="1"/>
+      <c r="G950" s="1"/>
+    </row>
+    <row r="951" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B951" s="6">
+        <v>949</v>
+      </c>
+      <c r="C951" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F951" s="1"/>
+      <c r="G951" s="1"/>
+    </row>
+    <row r="952" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B952" s="6">
+        <v>950</v>
+      </c>
+      <c r="C952" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F952" s="1"/>
+      <c r="G952" s="1"/>
+    </row>
+    <row r="953" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B953" s="6">
+        <v>951</v>
+      </c>
+      <c r="C953" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F953" s="1"/>
+      <c r="G953" s="1"/>
+    </row>
+    <row r="954" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B954" s="6">
+        <v>952</v>
+      </c>
+      <c r="C954" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F954" s="1"/>
+      <c r="G954" s="1"/>
+    </row>
+    <row r="955" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B955" s="6">
+        <v>953</v>
+      </c>
+      <c r="C955" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F955" s="1"/>
+      <c r="G955" s="1"/>
+    </row>
+    <row r="956" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B956" s="6">
+        <v>954</v>
+      </c>
+      <c r="C956" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F956" s="1"/>
+      <c r="G956" s="1"/>
+    </row>
+    <row r="957" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B957" s="6">
+        <v>955</v>
+      </c>
+      <c r="C957" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F957" s="1"/>
+      <c r="G957" s="1"/>
+    </row>
+    <row r="958" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B958" s="6">
+        <v>956</v>
+      </c>
+      <c r="C958" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F958" s="1"/>
+      <c r="G958" s="1"/>
+    </row>
+    <row r="959" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B959" s="6">
+        <v>957</v>
+      </c>
+      <c r="C959" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F959" s="1"/>
+      <c r="G959" s="1"/>
+    </row>
+    <row r="960" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B960" s="6">
+        <v>958</v>
+      </c>
+      <c r="C960" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F960" s="1"/>
+      <c r="G960" s="1"/>
+    </row>
+    <row r="961" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B961" s="6">
+        <v>959</v>
+      </c>
+      <c r="C961" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F961" s="1"/>
+      <c r="G961" s="1"/>
+    </row>
+    <row r="962" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B962" s="6">
+        <v>960</v>
+      </c>
+      <c r="C962" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F962" s="1"/>
+      <c r="G962" s="1"/>
+    </row>
+    <row r="963" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B963" s="6">
+        <v>961</v>
+      </c>
+      <c r="C963" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F963" s="1"/>
+      <c r="G963" s="1"/>
+    </row>
+    <row r="964" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B964" s="6">
+        <v>962</v>
+      </c>
+      <c r="C964" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F964" s="1"/>
+      <c r="G964" s="1"/>
+    </row>
+    <row r="965" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B965" s="6">
+        <v>963</v>
+      </c>
+      <c r="C965" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F965" s="1"/>
+      <c r="G965" s="1"/>
+    </row>
+    <row r="966" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B966" s="6">
+        <v>964</v>
+      </c>
+      <c r="C966" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F966" s="1"/>
+      <c r="G966" s="1"/>
+    </row>
+    <row r="967" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B967" s="6">
+        <v>965</v>
+      </c>
+      <c r="C967" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F967" s="1"/>
+      <c r="G967" s="1"/>
+    </row>
+    <row r="968" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B968" s="6">
+        <v>966</v>
+      </c>
+      <c r="C968" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F968" s="1"/>
+      <c r="G968" s="1"/>
+    </row>
+    <row r="969" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B969" s="6">
+        <v>967</v>
+      </c>
+      <c r="C969" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D969" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F969" s="1"/>
+      <c r="G969" s="1"/>
+    </row>
+    <row r="970" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B970" s="6">
+        <v>968</v>
+      </c>
+      <c r="C970" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F970" s="1"/>
+      <c r="G970" s="1"/>
+    </row>
+    <row r="971" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B971" s="6">
+        <v>969</v>
+      </c>
+      <c r="C971" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F971" s="1"/>
+      <c r="G971" s="1"/>
+    </row>
+    <row r="972" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B972" s="6">
+        <v>970</v>
+      </c>
+      <c r="C972" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F972" s="1"/>
+      <c r="G972" s="1"/>
+    </row>
+    <row r="973" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B973" s="6">
+        <v>971</v>
+      </c>
+      <c r="C973" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F973" s="1"/>
+      <c r="G973" s="1"/>
+    </row>
+    <row r="974" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B974" s="6">
+        <v>972</v>
+      </c>
+      <c r="C974" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D974" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E974" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F974" s="1"/>
+      <c r="G974" s="1"/>
+    </row>
+    <row r="975" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B975" s="6">
+        <v>973</v>
+      </c>
+      <c r="C975" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F975" s="1"/>
+      <c r="G975" s="1"/>
+    </row>
+    <row r="976" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B976" s="6">
+        <v>974</v>
+      </c>
+      <c r="C976" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F976" s="1"/>
+      <c r="G976" s="1"/>
+    </row>
+    <row r="977" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B977" s="6">
+        <v>975</v>
+      </c>
+      <c r="C977" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F977" s="1"/>
+      <c r="G977" s="1"/>
+    </row>
+    <row r="978" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B978" s="6">
+        <v>976</v>
+      </c>
+      <c r="C978" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F978" s="1"/>
+      <c r="G978" s="1"/>
+    </row>
+    <row r="979" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B979" s="6">
+        <v>977</v>
+      </c>
+      <c r="C979" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F979" s="1"/>
+      <c r="G979" s="1"/>
+    </row>
+    <row r="980" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B980" s="6">
+        <v>978</v>
+      </c>
+      <c r="C980" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F980" s="1"/>
+      <c r="G980" s="1"/>
+    </row>
+    <row r="981" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B981" s="6">
+        <v>979</v>
+      </c>
+      <c r="C981" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F981" s="1"/>
+      <c r="G981" s="1"/>
+    </row>
+    <row r="982" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B982" s="6">
+        <v>980</v>
+      </c>
+      <c r="C982" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F982" s="1"/>
+      <c r="G982" s="1"/>
+    </row>
+    <row r="983" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B983" s="6">
+        <v>981</v>
+      </c>
+      <c r="C983" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F983" s="1"/>
+      <c r="G983" s="1"/>
+    </row>
+    <row r="984" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B984" s="6">
+        <v>982</v>
+      </c>
+      <c r="C984" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F984" s="1"/>
+      <c r="G984" s="1"/>
+    </row>
+    <row r="985" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B985" s="6">
+        <v>983</v>
+      </c>
+      <c r="C985" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F985" s="1"/>
+      <c r="G985" s="1"/>
+    </row>
+    <row r="986" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B986" s="6">
+        <v>984</v>
+      </c>
+      <c r="C986" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F986" s="1"/>
+      <c r="G986" s="1"/>
+    </row>
+    <row r="987" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B987" s="6">
+        <v>985</v>
+      </c>
+      <c r="C987" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F987" s="1"/>
+      <c r="G987" s="1"/>
+    </row>
+    <row r="988" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B988" s="6">
+        <v>986</v>
+      </c>
+      <c r="C988" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F988" s="1"/>
+      <c r="G988" s="1"/>
+    </row>
+    <row r="989" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B989" s="6">
+        <v>987</v>
+      </c>
+      <c r="C989" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F989" s="1"/>
+      <c r="G989" s="1"/>
+    </row>
+    <row r="990" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B990" s="6">
+        <v>988</v>
+      </c>
+      <c r="C990" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F990" s="1"/>
+      <c r="G990" s="1"/>
+    </row>
+    <row r="991" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B991" s="6">
+        <v>989</v>
+      </c>
+      <c r="C991" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F991" s="1"/>
+      <c r="G991" s="1"/>
+    </row>
+    <row r="992" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B992" s="6">
+        <v>990</v>
+      </c>
+      <c r="C992" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F992" s="1"/>
+      <c r="G992" s="1"/>
+    </row>
+    <row r="993" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B993" s="6">
+        <v>991</v>
+      </c>
+      <c r="C993" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F993" s="1"/>
+      <c r="G993" s="1"/>
+    </row>
+    <row r="994" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B994" s="6">
+        <v>992</v>
+      </c>
+      <c r="C994" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D994" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E994" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F994" s="1"/>
+      <c r="G994" s="1"/>
+    </row>
+    <row r="995" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B995" s="6">
+        <v>993</v>
+      </c>
+      <c r="C995" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F995" s="1"/>
+      <c r="G995" s="1"/>
+    </row>
+    <row r="996" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B996" s="6">
+        <v>994</v>
+      </c>
+      <c r="C996" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F996" s="1"/>
+      <c r="G996" s="1"/>
+    </row>
+    <row r="997" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B997" s="6">
+        <v>995</v>
+      </c>
+      <c r="C997" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F997" s="1"/>
+      <c r="G997" s="1"/>
+    </row>
+    <row r="998" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B998" s="6">
+        <v>996</v>
+      </c>
+      <c r="C998" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F998" s="1"/>
+      <c r="G998" s="1"/>
+    </row>
+    <row r="999" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B999" s="6">
+        <v>997</v>
+      </c>
+      <c r="C999" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D999" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E999" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F999" s="1"/>
+      <c r="G999" s="1"/>
+    </row>
+    <row r="1000" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1000" s="6">
+        <v>998</v>
+      </c>
+      <c r="C1000" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+    </row>
+    <row r="1001" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1001" s="6">
+        <v>999</v>
+      </c>
+      <c r="C1001" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+    </row>
+    <row r="1002" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1002" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C1002" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+    </row>
+    <row r="1003" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1003" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C1003" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+    </row>
+    <row r="1004" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1004" s="6">
+        <v>1002</v>
+      </c>
+      <c r="C1004" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+    </row>
+    <row r="1005" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1005" s="6">
+        <v>1003</v>
+      </c>
+      <c r="C1005" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+    </row>
+    <row r="1006" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1006" s="6">
+        <v>1004</v>
+      </c>
+      <c r="C1006" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+    </row>
+    <row r="1007" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1007" s="6">
+        <v>1005</v>
+      </c>
+      <c r="C1007" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1007" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+    </row>
+    <row r="1008" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1008" s="6">
+        <v>1006</v>
+      </c>
+      <c r="C1008" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1008" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1009" s="6">
+        <v>1007</v>
+      </c>
+      <c r="C1009" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E1009" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1010" s="6">
+        <v>1008</v>
+      </c>
+      <c r="C1010" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1010" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1011" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G924" xr:uid="{5555078D-B2F1-4453-B6D1-8A2CFDECC2B0}"/>
@@ -18872,15 +20499,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEB9192-E971-4DF7-A534-A5BF0B5C74E7}">
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -18889,122 +20516,102 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H3" t="s">
         <v>913</v>
-      </c>
-      <c r="H3" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>894</v>
+        <v>945</v>
       </c>
       <c r="D5" t="s">
+        <v>909</v>
+      </c>
+      <c r="E5" t="s">
         <v>910</v>
-      </c>
-      <c r="E5" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>946</v>
+        <v>894</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B18">
-    <sortCondition ref="B18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B14">
+    <sortCondition ref="B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19015,7 +20622,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19032,19 +20639,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>932</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -19055,13 +20662,13 @@
         <v>619</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -19073,16 +20680,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -19090,16 +20697,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>988</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -19111,13 +20718,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -19129,13 +20736,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -19147,16 +20754,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -19167,16 +20774,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -19187,13 +20794,13 @@
         <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -19205,13 +20812,13 @@
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -19223,13 +20830,13 @@
         <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -19241,13 +20848,13 @@
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -19259,13 +20866,13 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -19277,13 +20884,13 @@
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="G15" s="1"/>
     </row>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15C7D36-0A1D-4135-9FEC-E4ED2B83C78D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE6F3F9-F3DC-4455-9773-64E4A0987DF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1082">
   <si>
     <t>Module</t>
   </si>
@@ -3669,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7996,8 +7996,12 @@
       <c r="E217" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
+      <c r="F217" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="6">
@@ -8012,8 +8016,12 @@
       <c r="E218" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
+      <c r="F218" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="219" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="6">
@@ -8028,8 +8036,12 @@
       <c r="E219" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
+      <c r="F219" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="220" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="6">
@@ -8044,8 +8056,12 @@
       <c r="E220" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
+      <c r="F220" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="6">

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE6F3F9-F3DC-4455-9773-64E4A0987DF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC00555-9B50-479D-B21D-D62EDA05CD13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="1087">
   <si>
     <t>Module</t>
   </si>
@@ -3308,6 +3308,21 @@
   </si>
   <si>
     <t>Error message; no record created in OLTP</t>
+  </si>
+  <si>
+    <t>FL created with 0 isPrimary flag</t>
+  </si>
+  <si>
+    <t>No warning message in PNE</t>
+  </si>
+  <si>
+    <t>[ProviderNetworkStaging].[dbo].[StgPracticeLocation]</t>
+  </si>
+  <si>
+    <t>When Primary Location flag value is invalid, there is no warning message in PNE</t>
+  </si>
+  <si>
+    <t>IsPrimary flag is not updated</t>
   </si>
 </sst>
 </file>
@@ -3345,7 +3360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3368,11 +3383,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3387,6 +3415,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3669,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="F221" sqref="F221"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8076,8 +8105,12 @@
       <c r="E221" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
+      <c r="F221" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="6">
@@ -8092,7 +8125,9 @@
       <c r="E222" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F222" s="1"/>
+      <c r="F222" s="1" t="s">
+        <v>1082</v>
+      </c>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
@@ -8108,7 +8143,9 @@
       <c r="E223" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F223" s="1"/>
+      <c r="F223" s="1" t="s">
+        <v>1082</v>
+      </c>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
@@ -8124,7 +8161,9 @@
       <c r="E224" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F224" s="1"/>
+      <c r="F224" s="1" t="s">
+        <v>1082</v>
+      </c>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
@@ -8140,8 +8179,12 @@
       <c r="E225" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
+      <c r="F225" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="6">
@@ -8156,7 +8199,9 @@
       <c r="E226" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F226" s="1"/>
+      <c r="F226" s="1" t="s">
+        <v>1082</v>
+      </c>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
@@ -8172,8 +8217,12 @@
       <c r="E227" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
+      <c r="F227" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="6">
@@ -8188,8 +8237,12 @@
       <c r="E228" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
+      <c r="F228" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="6">
@@ -8204,8 +8257,12 @@
       <c r="E229" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
+      <c r="F229" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="6">
@@ -8220,8 +8277,12 @@
       <c r="E230" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
+      <c r="F230" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="6">
@@ -20837,10 +20898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75DE30-2121-4970-BFA1-A37C9F2DE191}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21132,14 +21193,20 @@
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1084</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>1085</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="B18" s="10">
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
@@ -21148,6 +21215,106 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC00555-9B50-479D-B21D-D62EDA05CD13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFF960A-A52C-43E6-A8BB-B50F992FCCCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3954" uniqueCount="1093">
   <si>
     <t>Module</t>
   </si>
@@ -3316,13 +3316,31 @@
     <t>No warning message in PNE</t>
   </si>
   <si>
-    <t>[ProviderNetworkStaging].[dbo].[StgPracticeLocation]</t>
-  </si>
-  <si>
     <t>When Primary Location flag value is invalid, there is no warning message in PNE</t>
   </si>
   <si>
     <t>IsPrimary flag is not updated</t>
+  </si>
+  <si>
+    <t>[ProviderNetworkStaging].[dbo].[ProviderNetworkException]</t>
+  </si>
+  <si>
+    <t>Duplicate warning messages inserted for records with multiple Reimbursement rates for previous Batch ID</t>
+  </si>
+  <si>
+    <t>When Wheelchair accessible flag value is invalid, there is no warning message in PNE</t>
+  </si>
+  <si>
+    <t>Value is not updated</t>
+  </si>
+  <si>
+    <t>[ProviderNetwork].[dbo].[PracticeLocation]</t>
+  </si>
+  <si>
+    <t>IsWheelchairAccessibleExamRoom</t>
+  </si>
+  <si>
+    <t>Value is not updated when new value (or NULL) is coming in the file</t>
   </si>
 </sst>
 </file>
@@ -3360,7 +3378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3383,24 +3401,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3415,7 +3420,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3698,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="F230" sqref="F230"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="F417" sqref="F417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8218,7 +8222,7 @@
         <v>138</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>952</v>
@@ -8238,7 +8242,7 @@
         <v>138</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>952</v>
@@ -8297,8 +8301,12 @@
       <c r="E231" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
+      <c r="F231" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="6">
@@ -8313,8 +8321,12 @@
       <c r="E232" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
+      <c r="F232" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="6">
@@ -8329,8 +8341,12 @@
       <c r="E233" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
+      <c r="F233" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="6">
@@ -8345,8 +8361,12 @@
       <c r="E234" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
+      <c r="F234" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="6">
@@ -8361,8 +8381,12 @@
       <c r="E235" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
+      <c r="F235" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="6">
@@ -8377,8 +8401,12 @@
       <c r="E236" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
+      <c r="F236" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="6">
@@ -8393,8 +8421,12 @@
       <c r="E237" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
+      <c r="F237" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="6">
@@ -8409,8 +8441,12 @@
       <c r="E238" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
+      <c r="F238" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="6">
@@ -8425,8 +8461,12 @@
       <c r="E239" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
+      <c r="F239" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="6">
@@ -8441,8 +8481,12 @@
       <c r="E240" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
+      <c r="F240" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="6">
@@ -8457,8 +8501,12 @@
       <c r="E241" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
+      <c r="F241" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="6">
@@ -8473,8 +8521,12 @@
       <c r="E242" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
+      <c r="F242" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="243" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="6">
@@ -8489,8 +8541,12 @@
       <c r="E243" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
+      <c r="F243" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="244" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="6">
@@ -8505,8 +8561,12 @@
       <c r="E244" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
+      <c r="F244" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="6">
@@ -8521,8 +8581,12 @@
       <c r="E245" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
+      <c r="F245" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="6">
@@ -8537,8 +8601,12 @@
       <c r="E246" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
+      <c r="F246" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="6">
@@ -8553,8 +8621,12 @@
       <c r="E247" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
+      <c r="F247" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="6">
@@ -8569,8 +8641,12 @@
       <c r="E248" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
+      <c r="F248" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="6">
@@ -8585,8 +8661,12 @@
       <c r="E249" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
+      <c r="F249" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="6">
@@ -8601,8 +8681,12 @@
       <c r="E250" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
+      <c r="F250" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="6">
@@ -8617,8 +8701,12 @@
       <c r="E251" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
+      <c r="F251" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="6">
@@ -8633,8 +8721,12 @@
       <c r="E252" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
+      <c r="F252" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="6">
@@ -8649,8 +8741,12 @@
       <c r="E253" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
+      <c r="F253" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="6">
@@ -8665,8 +8761,12 @@
       <c r="E254" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
+      <c r="F254" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="6">
@@ -8681,8 +8781,12 @@
       <c r="E255" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
+      <c r="F255" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="6">
@@ -8697,8 +8801,12 @@
       <c r="E256" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
+      <c r="F256" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="257" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="6">
@@ -8713,10 +8821,14 @@
       <c r="E257" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F257" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B258" s="6">
         <v>256</v>
       </c>
@@ -8729,8 +8841,12 @@
       <c r="E258" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
+      <c r="F258" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="6">
@@ -8745,8 +8861,12 @@
       <c r="E259" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
+      <c r="F259" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="6">
@@ -8761,8 +8881,12 @@
       <c r="E260" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
+      <c r="F260" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" s="6">
@@ -8777,8 +8901,12 @@
       <c r="E261" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
+      <c r="F261" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="6">
@@ -8793,8 +8921,12 @@
       <c r="E262" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
+      <c r="F262" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="6">
@@ -8809,8 +8941,12 @@
       <c r="E263" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
+      <c r="F263" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="6">
@@ -8825,8 +8961,12 @@
       <c r="E264" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
+      <c r="F264" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="6">
@@ -8841,8 +8981,12 @@
       <c r="E265" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
+      <c r="F265" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="6">
@@ -8857,8 +9001,12 @@
       <c r="E266" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F266" s="1"/>
-      <c r="G266" s="1"/>
+      <c r="F266" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="6">
@@ -8873,8 +9021,12 @@
       <c r="E267" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
+      <c r="F267" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="6">
@@ -8889,8 +9041,12 @@
       <c r="E268" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
+      <c r="F268" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="6">
@@ -8905,8 +9061,12 @@
       <c r="E269" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
+      <c r="F269" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="6">
@@ -8921,8 +9081,12 @@
       <c r="E270" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
+      <c r="F270" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="271" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B271" s="6">
@@ -8937,10 +9101,14 @@
       <c r="E271" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-    </row>
-    <row r="272" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F271" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B272" s="6">
         <v>270</v>
       </c>
@@ -8953,8 +9121,12 @@
       <c r="E272" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
+      <c r="F272" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="6">
@@ -8969,8 +9141,12 @@
       <c r="E273" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
+      <c r="F273" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="6">
@@ -8985,8 +9161,12 @@
       <c r="E274" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
+      <c r="F274" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="6">
@@ -9001,8 +9181,12 @@
       <c r="E275" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
+      <c r="F275" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="6">
@@ -9017,8 +9201,12 @@
       <c r="E276" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
+      <c r="F276" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="6">
@@ -9033,8 +9221,12 @@
       <c r="E277" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
+      <c r="F277" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="6">
@@ -9049,8 +9241,12 @@
       <c r="E278" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
+      <c r="F278" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="6">
@@ -9065,8 +9261,12 @@
       <c r="E279" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
+      <c r="F279" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="6">
@@ -9081,8 +9281,12 @@
       <c r="E280" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
+      <c r="F280" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="6">
@@ -9097,8 +9301,12 @@
       <c r="E281" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
+      <c r="F281" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="6">
@@ -9113,8 +9321,12 @@
       <c r="E282" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
+      <c r="F282" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="6">
@@ -9129,8 +9341,12 @@
       <c r="E283" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
+      <c r="F283" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="6">
@@ -9145,8 +9361,12 @@
       <c r="E284" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
+      <c r="F284" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="6">
@@ -9161,8 +9381,12 @@
       <c r="E285" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
+      <c r="F285" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="6">
@@ -9177,8 +9401,12 @@
       <c r="E286" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
+      <c r="F286" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="6">
@@ -9193,8 +9421,12 @@
       <c r="E287" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
+      <c r="F287" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="6">
@@ -9209,8 +9441,12 @@
       <c r="E288" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
+      <c r="F288" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B289" s="6">
@@ -9225,8 +9461,12 @@
       <c r="E289" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F289" s="1"/>
-      <c r="G289" s="1"/>
+      <c r="F289" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B290" s="6">
@@ -9241,8 +9481,12 @@
       <c r="E290" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
+      <c r="F290" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" s="6">
@@ -9257,8 +9501,12 @@
       <c r="E291" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
+      <c r="F291" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" s="6">
@@ -9273,8 +9521,12 @@
       <c r="E292" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F292" s="1"/>
-      <c r="G292" s="1"/>
+      <c r="F292" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B293" s="6">
@@ -9289,8 +9541,12 @@
       <c r="E293" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
+      <c r="F293" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B294" s="6">
@@ -9305,8 +9561,12 @@
       <c r="E294" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
+      <c r="F294" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B295" s="6">
@@ -9321,8 +9581,12 @@
       <c r="E295" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
+      <c r="F295" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" s="6">
@@ -9337,8 +9601,12 @@
       <c r="E296" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
+      <c r="F296" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B297" s="6">
@@ -9353,8 +9621,12 @@
       <c r="E297" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
+      <c r="F297" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B298" s="6">
@@ -9369,8 +9641,12 @@
       <c r="E298" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
+      <c r="F298" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" s="6">
@@ -9385,8 +9661,12 @@
       <c r="E299" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
+      <c r="F299" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" s="6">
@@ -9401,8 +9681,12 @@
       <c r="E300" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
+      <c r="F300" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B301" s="6">
@@ -9417,8 +9701,12 @@
       <c r="E301" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F301" s="1"/>
-      <c r="G301" s="1"/>
+      <c r="F301" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" s="6">
@@ -9433,8 +9721,12 @@
       <c r="E302" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F302" s="1"/>
-      <c r="G302" s="1"/>
+      <c r="F302" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B303" s="6">
@@ -9449,8 +9741,12 @@
       <c r="E303" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F303" s="1"/>
-      <c r="G303" s="1"/>
+      <c r="F303" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" s="6">
@@ -9465,8 +9761,12 @@
       <c r="E304" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F304" s="1"/>
-      <c r="G304" s="1"/>
+      <c r="F304" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" s="6">
@@ -9481,8 +9781,12 @@
       <c r="E305" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
+      <c r="F305" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="6">
@@ -9497,8 +9801,12 @@
       <c r="E306" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
+      <c r="F306" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="6">
@@ -9513,8 +9821,12 @@
       <c r="E307" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
+      <c r="F307" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="6">
@@ -9529,8 +9841,12 @@
       <c r="E308" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F308" s="1"/>
-      <c r="G308" s="1"/>
+      <c r="F308" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="6">
@@ -9545,8 +9861,12 @@
       <c r="E309" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F309" s="1"/>
-      <c r="G309" s="1"/>
+      <c r="F309" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="6">
@@ -9561,8 +9881,12 @@
       <c r="E310" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F310" s="1"/>
-      <c r="G310" s="1"/>
+      <c r="F310" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" s="6">
@@ -9577,8 +9901,12 @@
       <c r="E311" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F311" s="1"/>
-      <c r="G311" s="1"/>
+      <c r="F311" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B312" s="6">
@@ -9593,8 +9921,12 @@
       <c r="E312" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F312" s="1"/>
-      <c r="G312" s="1"/>
+      <c r="F312" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="6">
@@ -9609,8 +9941,12 @@
       <c r="E313" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
+      <c r="F313" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="6">
@@ -9625,8 +9961,12 @@
       <c r="E314" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F314" s="1"/>
-      <c r="G314" s="1"/>
+      <c r="F314" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="6">
@@ -9641,8 +9981,12 @@
       <c r="E315" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F315" s="1"/>
-      <c r="G315" s="1"/>
+      <c r="F315" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="6">
@@ -9657,8 +10001,12 @@
       <c r="E316" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
+      <c r="F316" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="6">
@@ -9673,8 +10021,12 @@
       <c r="E317" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F317" s="1"/>
-      <c r="G317" s="1"/>
+      <c r="F317" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="6">
@@ -9689,8 +10041,12 @@
       <c r="E318" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F318" s="1"/>
-      <c r="G318" s="1"/>
+      <c r="F318" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="6">
@@ -9705,8 +10061,12 @@
       <c r="E319" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F319" s="1"/>
-      <c r="G319" s="1"/>
+      <c r="F319" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="6">
@@ -9721,8 +10081,12 @@
       <c r="E320" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F320" s="1"/>
-      <c r="G320" s="1"/>
+      <c r="F320" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="6">
@@ -9737,8 +10101,12 @@
       <c r="E321" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F321" s="1"/>
-      <c r="G321" s="1"/>
+      <c r="F321" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="6">
@@ -9753,8 +10121,12 @@
       <c r="E322" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
+      <c r="F322" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="6">
@@ -9769,8 +10141,12 @@
       <c r="E323" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F323" s="1"/>
-      <c r="G323" s="1"/>
+      <c r="F323" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="6">
@@ -9785,8 +10161,12 @@
       <c r="E324" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F324" s="1"/>
-      <c r="G324" s="1"/>
+      <c r="F324" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="6">
@@ -9801,8 +10181,12 @@
       <c r="E325" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
+      <c r="F325" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="6">
@@ -9817,8 +10201,12 @@
       <c r="E326" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
+      <c r="F326" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="6">
@@ -9833,8 +10221,12 @@
       <c r="E327" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
+      <c r="F327" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="6">
@@ -9849,8 +10241,12 @@
       <c r="E328" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
+      <c r="F328" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="6">
@@ -9865,8 +10261,12 @@
       <c r="E329" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
+      <c r="F329" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="6">
@@ -9881,8 +10281,12 @@
       <c r="E330" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F330" s="1"/>
-      <c r="G330" s="1"/>
+      <c r="F330" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="6">
@@ -9897,8 +10301,12 @@
       <c r="E331" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
+      <c r="F331" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="6">
@@ -9913,8 +10321,12 @@
       <c r="E332" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F332" s="1"/>
-      <c r="G332" s="1"/>
+      <c r="F332" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B333" s="6">
@@ -9929,8 +10341,12 @@
       <c r="E333" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
+      <c r="F333" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" s="6">
@@ -9945,8 +10361,12 @@
       <c r="E334" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
+      <c r="F334" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="6">
@@ -9961,8 +10381,12 @@
       <c r="E335" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
+      <c r="F335" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B336" s="6">
@@ -9977,8 +10401,12 @@
       <c r="E336" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
+      <c r="F336" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" s="6">
@@ -9993,8 +10421,12 @@
       <c r="E337" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
+      <c r="F337" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" s="6">
@@ -10009,8 +10441,12 @@
       <c r="E338" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
+      <c r="F338" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" s="6">
@@ -10025,8 +10461,12 @@
       <c r="E339" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
+      <c r="F339" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="6">
@@ -10041,8 +10481,12 @@
       <c r="E340" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
+      <c r="F340" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B341" s="6">
@@ -10057,8 +10501,12 @@
       <c r="E341" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
+      <c r="F341" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="6">
@@ -10073,8 +10521,12 @@
       <c r="E342" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
+      <c r="F342" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B343" s="6">
@@ -10089,8 +10541,12 @@
       <c r="E343" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F343" s="1"/>
-      <c r="G343" s="1"/>
+      <c r="F343" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" s="6">
@@ -10105,8 +10561,12 @@
       <c r="E344" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F344" s="1"/>
-      <c r="G344" s="1"/>
+      <c r="F344" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" s="6">
@@ -10121,8 +10581,12 @@
       <c r="E345" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
+      <c r="F345" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" s="6">
@@ -10137,8 +10601,12 @@
       <c r="E346" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F346" s="1"/>
-      <c r="G346" s="1"/>
+      <c r="F346" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B347" s="6">
@@ -10153,8 +10621,12 @@
       <c r="E347" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F347" s="1"/>
-      <c r="G347" s="1"/>
+      <c r="F347" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" s="6">
@@ -10169,8 +10641,12 @@
       <c r="E348" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
+      <c r="F348" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B349" s="6">
@@ -10185,8 +10661,12 @@
       <c r="E349" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
+      <c r="F349" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" s="6">
@@ -10201,8 +10681,12 @@
       <c r="E350" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F350" s="1"/>
-      <c r="G350" s="1"/>
+      <c r="F350" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B351" s="6">
@@ -10217,8 +10701,12 @@
       <c r="E351" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F351" s="1"/>
-      <c r="G351" s="1"/>
+      <c r="F351" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B352" s="6">
@@ -10233,8 +10721,12 @@
       <c r="E352" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F352" s="1"/>
-      <c r="G352" s="1"/>
+      <c r="F352" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" s="6">
@@ -10249,8 +10741,12 @@
       <c r="E353" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F353" s="1"/>
-      <c r="G353" s="1"/>
+      <c r="F353" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" s="6">
@@ -10265,8 +10761,12 @@
       <c r="E354" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
+      <c r="F354" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B355" s="6">
@@ -10281,8 +10781,12 @@
       <c r="E355" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F355" s="1"/>
-      <c r="G355" s="1"/>
+      <c r="F355" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B356" s="6">
@@ -10297,8 +10801,12 @@
       <c r="E356" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
+      <c r="F356" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B357" s="6">
@@ -10313,8 +10821,12 @@
       <c r="E357" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
+      <c r="F357" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B358" s="6">
@@ -10329,8 +10841,12 @@
       <c r="E358" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
+      <c r="F358" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="359" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B359" s="6">
@@ -10345,8 +10861,12 @@
       <c r="E359" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
+      <c r="F359" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="360" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="6">
@@ -10361,8 +10881,12 @@
       <c r="E360" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F360" s="1"/>
-      <c r="G360" s="1"/>
+      <c r="F360" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B361" s="6">
@@ -10377,8 +10901,12 @@
       <c r="E361" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F361" s="1"/>
-      <c r="G361" s="1"/>
+      <c r="F361" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" s="6">
@@ -10393,8 +10921,12 @@
       <c r="E362" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F362" s="1"/>
-      <c r="G362" s="1"/>
+      <c r="F362" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" s="6">
@@ -10409,8 +10941,12 @@
       <c r="E363" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F363" s="1"/>
-      <c r="G363" s="1"/>
+      <c r="F363" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B364" s="6">
@@ -10425,8 +10961,12 @@
       <c r="E364" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F364" s="1"/>
-      <c r="G364" s="1"/>
+      <c r="F364" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B365" s="6">
@@ -10441,8 +10981,12 @@
       <c r="E365" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
+      <c r="F365" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B366" s="6">
@@ -10457,8 +11001,12 @@
       <c r="E366" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F366" s="1"/>
-      <c r="G366" s="1"/>
+      <c r="F366" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" s="6">
@@ -10473,8 +11021,12 @@
       <c r="E367" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F367" s="1"/>
-      <c r="G367" s="1"/>
+      <c r="F367" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B368" s="6">
@@ -10489,8 +11041,12 @@
       <c r="E368" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F368" s="1"/>
-      <c r="G368" s="1"/>
+      <c r="F368" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B369" s="6">
@@ -10505,8 +11061,12 @@
       <c r="E369" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F369" s="1"/>
-      <c r="G369" s="1"/>
+      <c r="F369" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" s="6">
@@ -10521,8 +11081,12 @@
       <c r="E370" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F370" s="1"/>
-      <c r="G370" s="1"/>
+      <c r="F370" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="6">
@@ -10537,8 +11101,12 @@
       <c r="E371" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F371" s="1"/>
-      <c r="G371" s="1"/>
+      <c r="F371" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B372" s="6">
@@ -10553,8 +11121,12 @@
       <c r="E372" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F372" s="1"/>
-      <c r="G372" s="1"/>
+      <c r="F372" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="373" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B373" s="6">
@@ -10569,8 +11141,12 @@
       <c r="E373" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F373" s="1"/>
-      <c r="G373" s="1"/>
+      <c r="F373" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="374" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="6">
@@ -10585,8 +11161,12 @@
       <c r="E374" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F374" s="1"/>
-      <c r="G374" s="1"/>
+      <c r="F374" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="6">
@@ -10601,8 +11181,12 @@
       <c r="E375" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F375" s="1"/>
-      <c r="G375" s="1"/>
+      <c r="F375" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B376" s="6">
@@ -10617,8 +11201,12 @@
       <c r="E376" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F376" s="1"/>
-      <c r="G376" s="1"/>
+      <c r="F376" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" s="6">
@@ -10633,8 +11221,12 @@
       <c r="E377" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F377" s="1"/>
-      <c r="G377" s="1"/>
+      <c r="F377" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" s="6">
@@ -10649,8 +11241,12 @@
       <c r="E378" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F378" s="1"/>
-      <c r="G378" s="1"/>
+      <c r="F378" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B379" s="6">
@@ -10665,8 +11261,12 @@
       <c r="E379" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F379" s="1"/>
-      <c r="G379" s="1"/>
+      <c r="F379" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B380" s="6">
@@ -10681,8 +11281,12 @@
       <c r="E380" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F380" s="1"/>
-      <c r="G380" s="1"/>
+      <c r="F380" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B381" s="6">
@@ -10697,8 +11301,12 @@
       <c r="E381" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F381" s="1"/>
-      <c r="G381" s="1"/>
+      <c r="F381" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B382" s="6">
@@ -10713,8 +11321,12 @@
       <c r="E382" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F382" s="1"/>
-      <c r="G382" s="1"/>
+      <c r="F382" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B383" s="6">
@@ -10729,8 +11341,12 @@
       <c r="E383" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F383" s="1"/>
-      <c r="G383" s="1"/>
+      <c r="F383" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B384" s="6">
@@ -10745,8 +11361,12 @@
       <c r="E384" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F384" s="1"/>
-      <c r="G384" s="1"/>
+      <c r="F384" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="6">
@@ -10761,10 +11381,14 @@
       <c r="E385" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F385" s="1"/>
-      <c r="G385" s="1"/>
-    </row>
-    <row r="386" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F385" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="6">
         <v>384</v>
       </c>
@@ -10777,10 +11401,14 @@
       <c r="E386" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F386" s="1"/>
-      <c r="G386" s="1"/>
-    </row>
-    <row r="387" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F386" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="387" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B387" s="6">
         <v>385</v>
       </c>
@@ -10793,10 +11421,14 @@
       <c r="E387" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F387" s="1"/>
-      <c r="G387" s="1"/>
-    </row>
-    <row r="388" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F387" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B388" s="6">
         <v>386</v>
       </c>
@@ -10809,8 +11441,12 @@
       <c r="E388" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
+      <c r="F388" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B389" s="6">
@@ -10825,8 +11461,12 @@
       <c r="E389" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F389" s="1"/>
-      <c r="G389" s="1"/>
+      <c r="F389" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="6">
@@ -10841,8 +11481,12 @@
       <c r="E390" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F390" s="1"/>
-      <c r="G390" s="1"/>
+      <c r="F390" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B391" s="6">
@@ -10857,8 +11501,12 @@
       <c r="E391" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F391" s="1"/>
-      <c r="G391" s="1"/>
+      <c r="F391" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B392" s="6">
@@ -10873,8 +11521,12 @@
       <c r="E392" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F392" s="1"/>
-      <c r="G392" s="1"/>
+      <c r="F392" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="6">
@@ -10889,8 +11541,12 @@
       <c r="E393" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
+      <c r="F393" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="6">
@@ -10905,8 +11561,12 @@
       <c r="E394" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
+      <c r="F394" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B395" s="6">
@@ -10921,8 +11581,12 @@
       <c r="E395" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F395" s="1"/>
-      <c r="G395" s="1"/>
+      <c r="F395" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="6">
@@ -10937,8 +11601,12 @@
       <c r="E396" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F396" s="1"/>
-      <c r="G396" s="1"/>
+      <c r="F396" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B397" s="6">
@@ -10953,8 +11621,12 @@
       <c r="E397" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F397" s="1"/>
-      <c r="G397" s="1"/>
+      <c r="F397" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="6">
@@ -10969,8 +11641,12 @@
       <c r="E398" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F398" s="1"/>
-      <c r="G398" s="1"/>
+      <c r="F398" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B399" s="6">
@@ -10985,10 +11661,14 @@
       <c r="E399" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F399" s="1"/>
-      <c r="G399" s="1"/>
-    </row>
-    <row r="400" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F399" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="6">
         <v>398</v>
       </c>
@@ -11001,10 +11681,14 @@
       <c r="E400" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-    </row>
-    <row r="401" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F400" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B401" s="6">
         <v>399</v>
       </c>
@@ -11017,10 +11701,14 @@
       <c r="E401" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F401" s="1"/>
-      <c r="G401" s="1"/>
-    </row>
-    <row r="402" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F401" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B402" s="6">
         <v>400</v>
       </c>
@@ -11033,8 +11721,12 @@
       <c r="E402" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F402" s="1"/>
-      <c r="G402" s="1"/>
+      <c r="F402" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B403" s="6">
@@ -11049,8 +11741,12 @@
       <c r="E403" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
+      <c r="F403" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B404" s="6">
@@ -11065,8 +11761,12 @@
       <c r="E404" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F404" s="1"/>
-      <c r="G404" s="1"/>
+      <c r="F404" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B405" s="6">
@@ -11081,8 +11781,12 @@
       <c r="E405" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
+      <c r="F405" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B406" s="6">
@@ -11097,8 +11801,12 @@
       <c r="E406" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
+      <c r="F406" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B407" s="6">
@@ -11113,8 +11821,12 @@
       <c r="E407" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
+      <c r="F407" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" s="6">
@@ -11129,8 +11841,12 @@
       <c r="E408" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F408" s="1"/>
-      <c r="G408" s="1"/>
+      <c r="F408" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" s="6">
@@ -11145,8 +11861,12 @@
       <c r="E409" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F409" s="1"/>
-      <c r="G409" s="1"/>
+      <c r="F409" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B410" s="6">
@@ -11161,8 +11881,12 @@
       <c r="E410" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
+      <c r="F410" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B411" s="6">
@@ -11177,8 +11901,12 @@
       <c r="E411" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
+      <c r="F411" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B412" s="6">
@@ -11193,8 +11921,12 @@
       <c r="E412" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F412" s="1"/>
-      <c r="G412" s="1"/>
+      <c r="F412" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" s="6">
@@ -11209,10 +11941,14 @@
       <c r="E413" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-    </row>
-    <row r="414" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F413" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B414" s="6">
         <v>412</v>
       </c>
@@ -11225,10 +11961,14 @@
       <c r="E414" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-    </row>
-    <row r="415" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F414" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="415" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B415" s="6">
         <v>413</v>
       </c>
@@ -11241,10 +11981,14 @@
       <c r="E415" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-    </row>
-    <row r="416" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F415" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="416" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B416" s="6">
         <v>414</v>
       </c>
@@ -11257,8 +12001,12 @@
       <c r="E416" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
+      <c r="F416" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="6">
@@ -11564,7 +12312,7 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
     </row>
-    <row r="436" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="6">
         <v>434</v>
       </c>
@@ -11580,7 +12328,7 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
     </row>
-    <row r="437" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" s="6">
         <v>435</v>
       </c>
@@ -11596,7 +12344,7 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
     </row>
-    <row r="438" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B438" s="6">
         <v>436</v>
       </c>
@@ -11612,7 +12360,7 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
     </row>
-    <row r="439" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B439" s="6">
         <v>437</v>
       </c>
@@ -11932,7 +12680,7 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
     </row>
-    <row r="459" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B459" s="6">
         <v>457</v>
       </c>
@@ -11948,7 +12696,7 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
     </row>
-    <row r="460" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B460" s="6">
         <v>458</v>
       </c>
@@ -11964,7 +12712,7 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
     </row>
-    <row r="461" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="6">
         <v>459</v>
       </c>
@@ -11980,7 +12728,7 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
     </row>
-    <row r="462" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="6">
         <v>460</v>
       </c>
@@ -12156,7 +12904,7 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
     </row>
-    <row r="473" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="6">
         <v>471</v>
       </c>
@@ -12172,7 +12920,7 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
     </row>
-    <row r="474" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="6">
         <v>472</v>
       </c>
@@ -12636,7 +13384,7 @@
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
     </row>
-    <row r="503" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="6">
         <v>501</v>
       </c>
@@ -14540,7 +15288,7 @@
       <c r="F621" s="1"/>
       <c r="G621" s="1"/>
     </row>
-    <row r="622" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B622" s="6">
         <v>620</v>
       </c>
@@ -14556,7 +15304,7 @@
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
     </row>
-    <row r="623" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B623" s="6">
         <v>621</v>
       </c>
@@ -14748,7 +15496,7 @@
       <c r="F634" s="1"/>
       <c r="G634" s="1"/>
     </row>
-    <row r="635" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B635" s="6">
         <v>633</v>
       </c>
@@ -14764,7 +15512,7 @@
       <c r="F635" s="1"/>
       <c r="G635" s="1"/>
     </row>
-    <row r="636" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B636" s="6">
         <v>634</v>
       </c>
@@ -14988,7 +15736,7 @@
       <c r="F649" s="1"/>
       <c r="G649" s="1"/>
     </row>
-    <row r="650" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B650" s="6">
         <v>648</v>
       </c>
@@ -15180,7 +15928,7 @@
       <c r="F661" s="1"/>
       <c r="G661" s="1"/>
     </row>
-    <row r="662" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B662" s="6">
         <v>660</v>
       </c>
@@ -15196,7 +15944,7 @@
       <c r="F662" s="1"/>
       <c r="G662" s="1"/>
     </row>
-    <row r="663" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B663" s="6">
         <v>661</v>
       </c>
@@ -16764,7 +17512,7 @@
       <c r="F760" s="1"/>
       <c r="G760" s="1"/>
     </row>
-    <row r="761" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B761" s="6">
         <v>759</v>
       </c>
@@ -16780,7 +17528,7 @@
       <c r="F761" s="1"/>
       <c r="G761" s="1"/>
     </row>
-    <row r="762" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B762" s="6">
         <v>760</v>
       </c>
@@ -16796,7 +17544,7 @@
       <c r="F762" s="1"/>
       <c r="G762" s="1"/>
     </row>
-    <row r="763" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B763" s="6">
         <v>761</v>
       </c>
@@ -16812,7 +17560,7 @@
       <c r="F763" s="1"/>
       <c r="G763" s="1"/>
     </row>
-    <row r="764" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B764" s="6">
         <v>762</v>
       </c>
@@ -17180,7 +17928,7 @@
       <c r="F786" s="1"/>
       <c r="G786" s="1"/>
     </row>
-    <row r="787" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B787" s="6">
         <v>785</v>
       </c>
@@ -17196,7 +17944,7 @@
       <c r="F787" s="1"/>
       <c r="G787" s="1"/>
     </row>
-    <row r="788" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B788" s="6">
         <v>786</v>
       </c>
@@ -17436,7 +18184,7 @@
       <c r="F802" s="1"/>
       <c r="G802" s="1"/>
     </row>
-    <row r="803" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B803" s="6">
         <v>801</v>
       </c>
@@ -17452,7 +18200,7 @@
       <c r="F803" s="1"/>
       <c r="G803" s="1"/>
     </row>
-    <row r="804" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B804" s="6">
         <v>802</v>
       </c>
@@ -17628,7 +18376,7 @@
       <c r="F814" s="1"/>
       <c r="G814" s="1"/>
     </row>
-    <row r="815" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B815" s="6">
         <v>813</v>
       </c>
@@ -17884,7 +18632,7 @@
       <c r="F830" s="1"/>
       <c r="G830" s="1"/>
     </row>
-    <row r="831" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B831" s="6">
         <v>829</v>
       </c>
@@ -17900,7 +18648,7 @@
       <c r="F831" s="1"/>
       <c r="G831" s="1"/>
     </row>
-    <row r="832" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B832" s="6">
         <v>830</v>
       </c>
@@ -18204,7 +18952,7 @@
       <c r="F850" s="1"/>
       <c r="G850" s="1"/>
     </row>
-    <row r="851" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B851" s="6">
         <v>849</v>
       </c>
@@ -18396,7 +19144,7 @@
       <c r="F862" s="1"/>
       <c r="G862" s="1"/>
     </row>
-    <row r="863" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B863" s="6">
         <v>861</v>
       </c>
@@ -19372,7 +20120,7 @@
       <c r="F923" s="1"/>
       <c r="G923" s="1"/>
     </row>
-    <row r="924" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B924" s="6">
         <v>922</v>
       </c>
@@ -20898,18 +21646,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75DE30-2121-4970-BFA1-A37C9F2DE191}">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20956,20 +21704,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>617</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>948</v>
-      </c>
+        <v>1086</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>950</v>
-      </c>
+        <v>1087</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -20979,15 +21723,17 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>949</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -20997,13 +21743,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -21015,13 +21761,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>931</v>
+        <v>957</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -21033,17 +21779,15 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>965</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -21056,10 +21800,10 @@
         <v>947</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>965</v>
@@ -21070,18 +21814,20 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>964</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -21097,7 +21843,7 @@
         <v>970</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -21112,10 +21858,10 @@
         <v>969</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -21130,10 +21876,10 @@
         <v>969</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -21148,10 +21894,10 @@
         <v>969</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>931</v>
+        <v>976</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -21166,10 +21912,10 @@
         <v>969</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>980</v>
+        <v>931</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -21178,14 +21924,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>969</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>980</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>1079</v>
+        <v>981</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -21197,46 +21945,66 @@
         <v>132</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1084</v>
+        <v>959</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1086</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>1084</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1086</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>1088</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1092</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
@@ -21246,7 +22014,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
@@ -21256,7 +22024,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="1"/>
@@ -21266,7 +22034,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="1"/>
@@ -21276,7 +22044,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="1"/>
@@ -21286,7 +22054,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1"/>
@@ -21296,7 +22064,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="1"/>
@@ -21306,7 +22074,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="1"/>
@@ -21315,6 +22083,16 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFF960A-A52C-43E6-A8BB-B50F992FCCCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD59F1C-8754-4542-9AB1-FEA339F23B5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3954" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="1096">
   <si>
     <t>Module</t>
   </si>
@@ -2770,27 +2770,15 @@
     <t>Invalid Location entity</t>
   </si>
   <si>
-    <t>in the file:</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
     <t>999991xxxx</t>
   </si>
   <si>
     <t>999990xxxx</t>
   </si>
   <si>
-    <t>provider</t>
-  </si>
-  <si>
     <t>999993xxxx - 999997xxxx</t>
   </si>
   <si>
-    <t>facility for PL hospital relationship</t>
-  </si>
-  <si>
     <t>Fix:</t>
   </si>
   <si>
@@ -2914,9 +2902,6 @@
     <t>Value is randomly set to either 'I' or 'U' for newly inserted entities</t>
   </si>
   <si>
-    <t>Created bug 82261</t>
-  </si>
-  <si>
     <t>Facility is loaded with tabs in name</t>
   </si>
   <si>
@@ -2959,9 +2944,6 @@
     <t>Multiple Facility Types for same Facility NPI generate warning message instead of an error</t>
   </si>
   <si>
-    <t>Created bug 82868</t>
-  </si>
-  <si>
     <t>Multiple Facility Names for same NPI as update</t>
   </si>
   <si>
@@ -3341,6 +3323,33 @@
   </si>
   <si>
     <t>Value is not updated when new value (or NULL) is coming in the file</t>
+  </si>
+  <si>
+    <t>Bug 83436</t>
+  </si>
+  <si>
+    <t>Bug 82261</t>
+  </si>
+  <si>
+    <t>Bug 82868</t>
+  </si>
+  <si>
+    <t>NPIs in the file:</t>
+  </si>
+  <si>
+    <t>999992xxxx</t>
+  </si>
+  <si>
+    <t>Facility Location subpart NPI</t>
+  </si>
+  <si>
+    <t>Facility for PL hospital relationship</t>
+  </si>
+  <si>
+    <t>Facility Location Specialty</t>
+  </si>
+  <si>
+    <t>Facility Location Language</t>
   </si>
 </sst>
 </file>
@@ -3378,7 +3387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3401,11 +3410,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3420,6 +3455,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3702,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="F417" sqref="F417"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="F431" sqref="F431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,10 +3791,10 @@
         <v>591</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -3770,10 +3811,10 @@
         <v>592</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -3790,10 +3831,10 @@
         <v>592</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -3810,10 +3851,10 @@
         <v>592</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -3830,10 +3871,10 @@
         <v>592</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -3850,10 +3891,10 @@
         <v>592</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -3870,10 +3911,10 @@
         <v>592</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -3884,16 +3925,16 @@
         <v>617</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>591</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -3910,10 +3951,10 @@
         <v>594</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -3930,10 +3971,10 @@
         <v>592</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -3950,10 +3991,10 @@
         <v>592</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -3970,10 +4011,10 @@
         <v>592</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -3987,13 +4028,13 @@
         <v>598</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -4007,13 +4048,13 @@
         <v>599</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -4024,16 +4065,16 @@
         <v>617</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -4050,10 +4091,10 @@
         <v>601</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -4064,16 +4105,16 @@
         <v>617</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -4084,16 +4125,16 @@
         <v>617</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -4104,16 +4145,16 @@
         <v>617</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -4130,10 +4171,10 @@
         <v>591</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -4147,13 +4188,13 @@
         <v>603</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -4170,10 +4211,10 @@
         <v>594</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -4190,10 +4231,10 @@
         <v>592</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -4210,10 +4251,10 @@
         <v>592</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -4230,10 +4271,10 @@
         <v>592</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -4250,10 +4291,10 @@
         <v>592</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -4270,10 +4311,10 @@
         <v>592</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -4290,10 +4331,10 @@
         <v>592</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -4304,16 +4345,16 @@
         <v>617</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>591</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -4330,10 +4371,10 @@
         <v>594</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -4350,10 +4391,10 @@
         <v>592</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -4370,10 +4411,10 @@
         <v>592</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -4390,10 +4431,10 @@
         <v>592</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -4407,13 +4448,13 @@
         <v>609</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -4427,13 +4468,13 @@
         <v>610</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -4444,16 +4485,16 @@
         <v>617</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>924</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -4470,10 +4511,10 @@
         <v>592</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -4490,10 +4531,10 @@
         <v>592</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -4510,10 +4551,10 @@
         <v>592</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -4527,13 +4568,13 @@
         <v>614</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -4547,13 +4588,13 @@
         <v>615</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -4564,16 +4605,16 @@
         <v>617</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -4590,10 +4631,10 @@
         <v>601</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -4604,16 +4645,16 @@
         <v>617</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -4624,16 +4665,16 @@
         <v>617</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -4644,16 +4685,16 @@
         <v>617</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -4670,10 +4711,10 @@
         <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -4690,10 +4731,10 @@
         <v>20</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -4710,10 +4751,10 @@
         <v>26</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -4730,10 +4771,10 @@
         <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -4750,10 +4791,10 @@
         <v>26</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -4770,10 +4811,10 @@
         <v>26</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -4790,10 +4831,10 @@
         <v>26</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -4810,10 +4851,10 @@
         <v>26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -4830,10 +4871,10 @@
         <v>26</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -4850,10 +4891,10 @@
         <v>23</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -4870,10 +4911,10 @@
         <v>37</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -4890,10 +4931,10 @@
         <v>26</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -4910,10 +4951,10 @@
         <v>26</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -4930,10 +4971,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -4950,10 +4991,10 @@
         <v>26</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
@@ -4970,10 +5011,10 @@
         <v>26</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -4990,10 +5031,10 @@
         <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -5010,10 +5051,10 @@
         <v>35</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -5030,10 +5071,10 @@
         <v>26</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -5050,10 +5091,10 @@
         <v>26</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -5070,10 +5111,10 @@
         <v>26</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -5090,10 +5131,10 @@
         <v>26</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -5110,10 +5151,10 @@
         <v>26</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -5130,10 +5171,10 @@
         <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -5150,10 +5191,10 @@
         <v>26</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -5170,10 +5211,10 @@
         <v>26</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -5190,10 +5231,10 @@
         <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
@@ -5210,10 +5251,10 @@
         <v>26</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
@@ -5230,10 +5271,10 @@
         <v>26</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
@@ -5250,10 +5291,10 @@
         <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -5270,10 +5311,10 @@
         <v>26</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
@@ -5290,10 +5331,10 @@
         <v>26</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -5310,10 +5351,10 @@
         <v>26</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
@@ -5330,10 +5371,10 @@
         <v>26</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -5350,10 +5391,10 @@
         <v>30</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -5370,10 +5411,10 @@
         <v>26</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -5390,10 +5431,10 @@
         <v>52</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -5410,10 +5451,10 @@
         <v>53</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -5430,10 +5471,10 @@
         <v>26</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -5450,10 +5491,10 @@
         <v>58</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -5470,10 +5511,10 @@
         <v>879</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -5490,10 +5531,10 @@
         <v>881</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -5510,10 +5551,10 @@
         <v>881</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
@@ -5530,10 +5571,10 @@
         <v>881</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -5550,10 +5591,10 @@
         <v>885</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
@@ -5570,10 +5611,10 @@
         <v>885</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
@@ -5590,10 +5631,10 @@
         <v>885</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -5610,10 +5651,10 @@
         <v>138</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -5630,10 +5671,10 @@
         <v>138</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
@@ -5650,10 +5691,10 @@
         <v>254</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
@@ -5670,10 +5711,10 @@
         <v>254</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
@@ -5690,10 +5731,10 @@
         <v>58</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
@@ -5710,10 +5751,10 @@
         <v>20</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
@@ -5730,10 +5771,10 @@
         <v>63</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
@@ -5750,10 +5791,10 @@
         <v>63</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
@@ -5770,10 +5811,10 @@
         <v>63</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
@@ -5790,10 +5831,10 @@
         <v>63</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
@@ -5810,10 +5851,10 @@
         <v>63</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
@@ -5830,10 +5871,10 @@
         <v>63</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
@@ -5850,10 +5891,10 @@
         <v>63</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
@@ -5870,10 +5911,10 @@
         <v>63</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
@@ -5890,10 +5931,10 @@
         <v>63</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
@@ -5910,10 +5951,10 @@
         <v>63</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
@@ -5930,10 +5971,10 @@
         <v>63</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
@@ -5950,10 +5991,10 @@
         <v>71</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -5970,10 +6011,10 @@
         <v>73</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -5990,10 +6031,10 @@
         <v>76</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
@@ -6010,10 +6051,10 @@
         <v>78</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -6030,10 +6071,10 @@
         <v>63</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
@@ -6050,10 +6091,10 @@
         <v>63</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -6070,10 +6111,10 @@
         <v>63</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
@@ -6090,10 +6131,10 @@
         <v>58</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
@@ -6110,10 +6151,10 @@
         <v>63</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
@@ -6130,10 +6171,10 @@
         <v>63</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -6150,10 +6191,10 @@
         <v>63</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -6170,10 +6211,10 @@
         <v>63</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -6190,10 +6231,10 @@
         <v>63</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -6210,10 +6251,10 @@
         <v>63</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -6230,10 +6271,10 @@
         <v>63</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -6250,10 +6291,10 @@
         <v>63</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -6270,10 +6311,10 @@
         <v>63</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -6290,10 +6331,10 @@
         <v>63</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
@@ -6310,10 +6351,10 @@
         <v>63</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
@@ -6330,10 +6371,10 @@
         <v>63</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -6350,10 +6391,10 @@
         <v>63</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -6370,10 +6411,10 @@
         <v>63</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -6390,10 +6431,10 @@
         <v>63</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
@@ -6410,10 +6451,10 @@
         <v>58</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -6430,10 +6471,10 @@
         <v>63</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
@@ -6450,10 +6491,10 @@
         <v>63</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
@@ -6470,10 +6511,10 @@
         <v>58</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -6490,10 +6531,10 @@
         <v>63</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
@@ -6510,10 +6551,10 @@
         <v>588</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
@@ -6530,10 +6571,10 @@
         <v>58</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
@@ -6550,10 +6591,10 @@
         <v>588</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
@@ -6570,10 +6611,10 @@
         <v>588</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
@@ -6590,10 +6631,10 @@
         <v>588</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
@@ -6610,10 +6651,10 @@
         <v>522</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -6630,10 +6671,10 @@
         <v>589</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
@@ -6650,10 +6691,10 @@
         <v>58</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -6670,10 +6711,10 @@
         <v>589</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
@@ -6690,10 +6731,10 @@
         <v>589</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
@@ -6710,10 +6751,10 @@
         <v>589</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
@@ -6730,10 +6771,10 @@
         <v>524</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
@@ -6750,10 +6791,10 @@
         <v>110</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
@@ -6770,10 +6811,10 @@
         <v>128</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -6790,10 +6831,10 @@
         <v>128</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
@@ -6810,10 +6851,10 @@
         <v>113</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
@@ -6830,10 +6871,10 @@
         <v>129</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
@@ -6850,10 +6891,10 @@
         <v>129</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
@@ -6870,10 +6911,10 @@
         <v>117</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
@@ -6890,10 +6931,10 @@
         <v>130</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
@@ -6910,10 +6951,10 @@
         <v>120</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -6930,10 +6971,10 @@
         <v>122</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -6950,10 +6991,10 @@
         <v>131</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
@@ -6970,10 +7011,10 @@
         <v>128</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
@@ -6990,10 +7031,10 @@
         <v>128</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
@@ -7010,10 +7051,10 @@
         <v>128</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
@@ -7030,10 +7071,10 @@
         <v>128</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
@@ -7050,10 +7091,10 @@
         <v>58</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
@@ -7070,10 +7111,10 @@
         <v>20</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
@@ -7090,10 +7131,10 @@
         <v>135</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
@@ -7110,10 +7151,10 @@
         <v>135</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
@@ -7130,10 +7171,10 @@
         <v>135</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
@@ -7150,10 +7191,10 @@
         <v>135</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
@@ -7170,10 +7211,10 @@
         <v>135</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
@@ -7190,10 +7231,10 @@
         <v>135</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
@@ -7210,10 +7251,10 @@
         <v>135</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
@@ -7230,10 +7271,10 @@
         <v>135</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
@@ -7250,10 +7291,10 @@
         <v>135</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
@@ -7270,10 +7311,10 @@
         <v>135</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
@@ -7290,10 +7331,10 @@
         <v>135</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
@@ -7310,10 +7351,10 @@
         <v>135</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
@@ -7330,10 +7371,10 @@
         <v>135</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
@@ -7350,10 +7391,10 @@
         <v>135</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
@@ -7370,10 +7411,10 @@
         <v>135</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
@@ -7390,10 +7431,10 @@
         <v>135</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.25">
@@ -7410,10 +7451,10 @@
         <v>135</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
@@ -7430,10 +7471,10 @@
         <v>135</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
@@ -7450,10 +7491,10 @@
         <v>58</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
@@ -7470,10 +7511,10 @@
         <v>135</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
@@ -7490,10 +7531,10 @@
         <v>135</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
@@ -7510,10 +7551,10 @@
         <v>58</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
@@ -7530,10 +7571,10 @@
         <v>135</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
@@ -7541,19 +7582,19 @@
         <v>191</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
@@ -7561,7 +7602,7 @@
         <v>192</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>580</v>
@@ -7570,10 +7611,10 @@
         <v>58</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
@@ -7581,19 +7622,19 @@
         <v>193</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
@@ -7601,19 +7642,19 @@
         <v>194</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
@@ -7621,7 +7662,7 @@
         <v>195</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>893</v>
@@ -7630,10 +7671,10 @@
         <v>20</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
@@ -7641,7 +7682,7 @@
         <v>196</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>582</v>
@@ -7650,10 +7691,10 @@
         <v>58</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
@@ -7661,7 +7702,7 @@
         <v>197</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>583</v>
@@ -7670,10 +7711,10 @@
         <v>58</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
@@ -7681,7 +7722,7 @@
         <v>198</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>521</v>
@@ -7690,10 +7731,10 @@
         <v>58</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
@@ -7701,19 +7742,19 @@
         <v>199</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
@@ -7721,7 +7762,7 @@
         <v>200</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>581</v>
@@ -7730,10 +7771,10 @@
         <v>58</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
@@ -7741,19 +7782,19 @@
         <v>201</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
@@ -7761,19 +7802,19 @@
         <v>202</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
@@ -7781,7 +7822,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>894</v>
@@ -7790,10 +7831,10 @@
         <v>20</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
@@ -7801,7 +7842,7 @@
         <v>204</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>584</v>
@@ -7810,10 +7851,10 @@
         <v>58</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
@@ -7821,7 +7862,7 @@
         <v>205</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>585</v>
@@ -7830,10 +7871,10 @@
         <v>58</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
@@ -7841,7 +7882,7 @@
         <v>206</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>523</v>
@@ -7850,10 +7891,10 @@
         <v>58</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
@@ -7870,10 +7911,10 @@
         <v>58</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
@@ -7890,10 +7931,10 @@
         <v>143</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
@@ -7910,10 +7951,10 @@
         <v>143</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
@@ -7930,10 +7971,10 @@
         <v>143</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
@@ -7950,10 +7991,10 @@
         <v>142</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
@@ -7970,10 +8011,10 @@
         <v>142</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
@@ -7990,10 +8031,10 @@
         <v>138</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
@@ -8010,10 +8051,10 @@
         <v>138</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
@@ -8030,10 +8071,10 @@
         <v>129</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
@@ -8050,10 +8091,10 @@
         <v>129</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="219" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -8070,10 +8111,10 @@
         <v>140</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="220" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -8090,10 +8131,10 @@
         <v>131</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
@@ -8110,10 +8151,10 @@
         <v>58</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
@@ -8130,7 +8171,7 @@
         <v>155</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G222" s="1"/>
     </row>
@@ -8148,7 +8189,7 @@
         <v>155</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G223" s="1"/>
     </row>
@@ -8166,7 +8207,7 @@
         <v>155</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G224" s="1"/>
     </row>
@@ -8184,10 +8225,10 @@
         <v>166</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
@@ -8204,7 +8245,7 @@
         <v>166</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G226" s="1"/>
     </row>
@@ -8222,10 +8263,10 @@
         <v>138</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
@@ -8242,10 +8283,10 @@
         <v>138</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
@@ -8262,10 +8303,10 @@
         <v>129</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
@@ -8282,10 +8323,10 @@
         <v>129</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
@@ -8302,10 +8343,10 @@
         <v>167</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
@@ -8322,10 +8363,10 @@
         <v>195</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
@@ -8342,10 +8383,10 @@
         <v>195</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
@@ -8362,10 +8403,10 @@
         <v>195</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
@@ -8382,10 +8423,10 @@
         <v>196</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
@@ -8402,10 +8443,10 @@
         <v>196</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
@@ -8422,10 +8463,10 @@
         <v>196</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
@@ -8442,10 +8483,10 @@
         <v>138</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
@@ -8462,10 +8503,10 @@
         <v>138</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
@@ -8482,10 +8523,10 @@
         <v>129</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
@@ -8502,10 +8543,10 @@
         <v>129</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
@@ -8522,10 +8563,10 @@
         <v>197</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="243" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -8542,10 +8583,10 @@
         <v>140</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="244" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -8562,10 +8603,10 @@
         <v>131</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
@@ -8582,10 +8623,10 @@
         <v>167</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
@@ -8602,10 +8643,10 @@
         <v>170</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
@@ -8622,10 +8663,10 @@
         <v>170</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
@@ -8642,10 +8683,10 @@
         <v>170</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
@@ -8662,10 +8703,10 @@
         <v>174</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
@@ -8682,10 +8723,10 @@
         <v>174</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
@@ -8702,10 +8743,10 @@
         <v>174</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
@@ -8722,10 +8763,10 @@
         <v>138</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
@@ -8742,10 +8783,10 @@
         <v>138</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
@@ -8762,10 +8803,10 @@
         <v>129</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
@@ -8782,10 +8823,10 @@
         <v>129</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
@@ -8802,10 +8843,10 @@
         <v>180</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="257" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -8822,10 +8863,10 @@
         <v>140</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="258" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -8842,10 +8883,10 @@
         <v>131</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
@@ -8862,10 +8903,10 @@
         <v>167</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
@@ -8882,10 +8923,10 @@
         <v>210</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
@@ -8902,10 +8943,10 @@
         <v>210</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
@@ -8922,10 +8963,10 @@
         <v>210</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
@@ -8942,10 +8983,10 @@
         <v>211</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
@@ -8962,10 +9003,10 @@
         <v>211</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
@@ -8982,10 +9023,10 @@
         <v>211</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
@@ -9002,10 +9043,10 @@
         <v>138</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
@@ -9022,10 +9063,10 @@
         <v>138</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
@@ -9042,10 +9083,10 @@
         <v>129</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
@@ -9062,10 +9103,10 @@
         <v>129</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
@@ -9082,10 +9123,10 @@
         <v>212</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="271" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -9102,10 +9143,10 @@
         <v>140</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="272" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -9122,10 +9163,10 @@
         <v>131</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
@@ -9142,10 +9183,10 @@
         <v>58</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
@@ -9162,10 +9203,10 @@
         <v>58</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
@@ -9182,10 +9223,10 @@
         <v>58</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
@@ -9202,10 +9243,10 @@
         <v>217</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
@@ -9222,10 +9263,10 @@
         <v>217</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
@@ -9242,10 +9283,10 @@
         <v>217</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
@@ -9262,10 +9303,10 @@
         <v>232</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
@@ -9282,10 +9323,10 @@
         <v>232</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
@@ -9302,10 +9343,10 @@
         <v>232</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
@@ -9322,10 +9363,10 @@
         <v>232</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
@@ -9342,10 +9383,10 @@
         <v>232</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
@@ -9362,10 +9403,10 @@
         <v>232</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
@@ -9382,10 +9423,10 @@
         <v>232</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
@@ -9402,10 +9443,10 @@
         <v>232</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
@@ -9422,10 +9463,10 @@
         <v>232</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
@@ -9442,10 +9483,10 @@
         <v>232</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.25">
@@ -9462,10 +9503,10 @@
         <v>232</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.25">
@@ -9482,10 +9523,10 @@
         <v>232</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.25">
@@ -9502,10 +9543,10 @@
         <v>232</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.25">
@@ -9522,10 +9563,10 @@
         <v>232</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.25">
@@ -9542,10 +9583,10 @@
         <v>232</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.25">
@@ -9562,10 +9603,10 @@
         <v>232</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.25">
@@ -9582,10 +9623,10 @@
         <v>232</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.25">
@@ -9602,10 +9643,10 @@
         <v>232</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.25">
@@ -9622,10 +9663,10 @@
         <v>232</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.25">
@@ -9642,10 +9683,10 @@
         <v>232</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.25">
@@ -9662,10 +9703,10 @@
         <v>232</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.25">
@@ -9682,10 +9723,10 @@
         <v>232</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.25">
@@ -9702,10 +9743,10 @@
         <v>232</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.25">
@@ -9722,10 +9763,10 @@
         <v>232</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.25">
@@ -9742,10 +9783,10 @@
         <v>232</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.25">
@@ -9762,10 +9803,10 @@
         <v>232</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
@@ -9782,10 +9823,10 @@
         <v>232</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
@@ -9802,10 +9843,10 @@
         <v>232</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
@@ -9822,10 +9863,10 @@
         <v>232</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
@@ -9842,10 +9883,10 @@
         <v>232</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
@@ -9862,10 +9903,10 @@
         <v>232</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
@@ -9882,10 +9923,10 @@
         <v>232</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
@@ -9902,10 +9943,10 @@
         <v>232</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
@@ -9922,10 +9963,10 @@
         <v>232</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
@@ -9942,10 +9983,10 @@
         <v>232</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
@@ -9962,10 +10003,10 @@
         <v>232</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
@@ -9982,10 +10023,10 @@
         <v>232</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
@@ -10002,10 +10043,10 @@
         <v>232</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
@@ -10022,10 +10063,10 @@
         <v>232</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
@@ -10042,10 +10083,10 @@
         <v>232</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
@@ -10062,10 +10103,10 @@
         <v>232</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
@@ -10082,10 +10123,10 @@
         <v>232</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
@@ -10102,10 +10143,10 @@
         <v>232</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
@@ -10122,10 +10163,10 @@
         <v>232</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
@@ -10142,10 +10183,10 @@
         <v>232</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
@@ -10162,10 +10203,10 @@
         <v>232</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
@@ -10182,10 +10223,10 @@
         <v>232</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
@@ -10202,10 +10243,10 @@
         <v>232</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
@@ -10222,10 +10263,10 @@
         <v>232</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
@@ -10242,10 +10283,10 @@
         <v>232</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
@@ -10262,10 +10303,10 @@
         <v>232</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
@@ -10282,10 +10323,10 @@
         <v>232</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
@@ -10302,10 +10343,10 @@
         <v>232</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.25">
@@ -10322,10 +10363,10 @@
         <v>232</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.25">
@@ -10342,10 +10383,10 @@
         <v>232</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.25">
@@ -10362,10 +10403,10 @@
         <v>232</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
@@ -10382,10 +10423,10 @@
         <v>250</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.25">
@@ -10402,10 +10443,10 @@
         <v>252</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.25">
@@ -10422,10 +10463,10 @@
         <v>254</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.25">
@@ -10442,10 +10483,10 @@
         <v>254</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.25">
@@ -10462,10 +10503,10 @@
         <v>254</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.25">
@@ -10482,10 +10523,10 @@
         <v>254</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.25">
@@ -10502,10 +10543,10 @@
         <v>254</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.25">
@@ -10522,10 +10563,10 @@
         <v>254</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.25">
@@ -10542,10 +10583,10 @@
         <v>254</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.25">
@@ -10562,10 +10603,10 @@
         <v>254</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.25">
@@ -10582,10 +10623,10 @@
         <v>254</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.25">
@@ -10602,10 +10643,10 @@
         <v>254</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.25">
@@ -10622,10 +10663,10 @@
         <v>254</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.25">
@@ -10642,10 +10683,10 @@
         <v>254</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.25">
@@ -10662,10 +10703,10 @@
         <v>254</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.25">
@@ -10682,10 +10723,10 @@
         <v>254</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.25">
@@ -10702,10 +10743,10 @@
         <v>58</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.25">
@@ -10722,10 +10763,10 @@
         <v>302</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.25">
@@ -10742,10 +10783,10 @@
         <v>303</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.25">
@@ -10762,10 +10803,10 @@
         <v>303</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.25">
@@ -10782,10 +10823,10 @@
         <v>138</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.25">
@@ -10802,10 +10843,10 @@
         <v>138</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.25">
@@ -10822,10 +10863,10 @@
         <v>129</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.25">
@@ -10842,10 +10883,10 @@
         <v>305</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="359" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -10862,10 +10903,10 @@
         <v>140</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="360" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -10882,10 +10923,10 @@
         <v>131</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.25">
@@ -10902,10 +10943,10 @@
         <v>58</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.25">
@@ -10922,10 +10963,10 @@
         <v>292</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.25">
@@ -10942,10 +10983,10 @@
         <v>292</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.25">
@@ -10962,10 +11003,10 @@
         <v>292</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.25">
@@ -10982,10 +11023,10 @@
         <v>291</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.25">
@@ -11002,10 +11043,10 @@
         <v>291</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.25">
@@ -11022,10 +11063,10 @@
         <v>291</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.25">
@@ -11042,10 +11083,10 @@
         <v>138</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.25">
@@ -11062,10 +11103,10 @@
         <v>138</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.25">
@@ -11082,10 +11123,10 @@
         <v>129</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
@@ -11102,10 +11143,10 @@
         <v>129</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.25">
@@ -11122,10 +11163,10 @@
         <v>294</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="373" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -11142,10 +11183,10 @@
         <v>140</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="374" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -11162,10 +11203,10 @@
         <v>131</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
@@ -11182,10 +11223,10 @@
         <v>58</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.25">
@@ -11202,10 +11243,10 @@
         <v>319</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
@@ -11222,10 +11263,10 @@
         <v>319</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.25">
@@ -11242,10 +11283,10 @@
         <v>319</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
@@ -11262,10 +11303,10 @@
         <v>320</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.25">
@@ -11282,10 +11323,10 @@
         <v>320</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.25">
@@ -11302,10 +11343,10 @@
         <v>320</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.25">
@@ -11322,10 +11363,10 @@
         <v>138</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
@@ -11342,10 +11383,10 @@
         <v>312</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.25">
@@ -11362,10 +11403,10 @@
         <v>254</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
@@ -11382,10 +11423,10 @@
         <v>254</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.25">
@@ -11402,10 +11443,10 @@
         <v>321</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="387" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -11422,10 +11463,10 @@
         <v>140</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="388" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -11442,10 +11483,10 @@
         <v>131</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.25">
@@ -11462,10 +11503,10 @@
         <v>58</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.25">
@@ -11482,10 +11523,10 @@
         <v>337</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.25">
@@ -11502,10 +11543,10 @@
         <v>337</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.25">
@@ -11522,10 +11563,10 @@
         <v>337</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.25">
@@ -11542,10 +11583,10 @@
         <v>338</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.25">
@@ -11562,10 +11603,10 @@
         <v>338</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.25">
@@ -11582,10 +11623,10 @@
         <v>338</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.25">
@@ -11602,10 +11643,10 @@
         <v>138</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.25">
@@ -11622,10 +11663,10 @@
         <v>312</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.25">
@@ -11642,10 +11683,10 @@
         <v>254</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.25">
@@ -11662,10 +11703,10 @@
         <v>254</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.25">
@@ -11682,10 +11723,10 @@
         <v>339</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="401" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -11702,10 +11743,10 @@
         <v>140</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="402" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -11722,10 +11763,10 @@
         <v>131</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.25">
@@ -11742,10 +11783,10 @@
         <v>58</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.25">
@@ -11762,10 +11803,10 @@
         <v>352</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.25">
@@ -11782,10 +11823,10 @@
         <v>352</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.25">
@@ -11802,10 +11843,10 @@
         <v>352</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.25">
@@ -11822,10 +11863,10 @@
         <v>353</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.25">
@@ -11842,10 +11883,10 @@
         <v>353</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.25">
@@ -11862,10 +11903,10 @@
         <v>353</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.25">
@@ -11882,10 +11923,10 @@
         <v>138</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.25">
@@ -11902,10 +11943,10 @@
         <v>312</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.25">
@@ -11922,10 +11963,10 @@
         <v>254</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.25">
@@ -11942,10 +11983,10 @@
         <v>254</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.25">
@@ -11962,10 +12003,10 @@
         <v>314</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="415" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -11982,10 +12023,10 @@
         <v>140</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="416" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -12002,10 +12043,10 @@
         <v>131</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
@@ -12013,7 +12054,7 @@
         <v>415</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>354</v>
@@ -12021,15 +12062,19 @@
       <c r="E417" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
+      <c r="F417" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B418" s="6">
         <v>416</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>361</v>
@@ -12037,15 +12082,19 @@
       <c r="E418" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
+      <c r="F418" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="6">
         <v>417</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>430</v>
@@ -12053,15 +12102,19 @@
       <c r="E419" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F419" s="1"/>
-      <c r="G419" s="1"/>
+      <c r="F419" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B420" s="6">
         <v>418</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>431</v>
@@ -12069,15 +12122,19 @@
       <c r="E420" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F420" s="1"/>
-      <c r="G420" s="1"/>
+      <c r="F420" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" s="6">
         <v>419</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>356</v>
@@ -12085,15 +12142,19 @@
       <c r="E421" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F421" s="1"/>
-      <c r="G421" s="1"/>
+      <c r="F421" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B422" s="6">
         <v>420</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>358</v>
@@ -12101,15 +12162,19 @@
       <c r="E422" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F422" s="1"/>
-      <c r="G422" s="1"/>
+      <c r="F422" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B423" s="6">
         <v>421</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>359</v>
@@ -12117,15 +12182,19 @@
       <c r="E423" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F423" s="1"/>
-      <c r="G423" s="1"/>
+      <c r="F423" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" s="6">
         <v>422</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>360</v>
@@ -12133,15 +12202,19 @@
       <c r="E424" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F424" s="1"/>
-      <c r="G424" s="1"/>
+      <c r="F424" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B425" s="6">
         <v>423</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>362</v>
@@ -12149,15 +12222,19 @@
       <c r="E425" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F425" s="1"/>
-      <c r="G425" s="1"/>
+      <c r="F425" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B426" s="6">
         <v>424</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>364</v>
@@ -12165,15 +12242,19 @@
       <c r="E426" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F426" s="1"/>
-      <c r="G426" s="1"/>
+      <c r="F426" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B427" s="6">
         <v>425</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>365</v>
@@ -12181,15 +12262,19 @@
       <c r="E427" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F427" s="1"/>
-      <c r="G427" s="1"/>
+      <c r="F427" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B428" s="6">
         <v>426</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>366</v>
@@ -12197,15 +12282,19 @@
       <c r="E428" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F428" s="1"/>
-      <c r="G428" s="1"/>
+      <c r="F428" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B429" s="6">
         <v>427</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>368</v>
@@ -12213,15 +12302,19 @@
       <c r="E429" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F429" s="1"/>
-      <c r="G429" s="1"/>
+      <c r="F429" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B430" s="6">
         <v>428</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>371</v>
@@ -12229,15 +12322,19 @@
       <c r="E430" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F430" s="1"/>
-      <c r="G430" s="1"/>
+      <c r="F430" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="6">
         <v>429</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>372</v>
@@ -12253,7 +12350,7 @@
         <v>430</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>381</v>
@@ -12269,7 +12366,7 @@
         <v>431</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>382</v>
@@ -12285,7 +12382,7 @@
         <v>432</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>380</v>
@@ -12301,7 +12398,7 @@
         <v>433</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>370</v>
@@ -12317,7 +12414,7 @@
         <v>434</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>384</v>
@@ -12333,7 +12430,7 @@
         <v>435</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>385</v>
@@ -12349,7 +12446,7 @@
         <v>436</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>376</v>
@@ -12365,7 +12462,7 @@
         <v>437</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>132</v>
+        <v>1094</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>378</v>
@@ -12381,7 +12478,7 @@
         <v>438</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>386</v>
@@ -12397,7 +12494,7 @@
         <v>439</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>396</v>
@@ -12413,7 +12510,7 @@
         <v>440</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>433</v>
@@ -12429,7 +12526,7 @@
         <v>441</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>434</v>
@@ -12445,7 +12542,7 @@
         <v>442</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>428</v>
@@ -12461,7 +12558,7 @@
         <v>443</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>389</v>
@@ -12477,7 +12574,7 @@
         <v>444</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>391</v>
@@ -12493,7 +12590,7 @@
         <v>445</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>392</v>
@@ -12509,7 +12606,7 @@
         <v>446</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>403</v>
@@ -12525,7 +12622,7 @@
         <v>447</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>404</v>
@@ -12541,7 +12638,7 @@
         <v>448</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>406</v>
@@ -12557,7 +12654,7 @@
         <v>449</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>411</v>
@@ -12573,7 +12670,7 @@
         <v>450</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>415</v>
@@ -12589,7 +12686,7 @@
         <v>451</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>419</v>
@@ -12605,7 +12702,7 @@
         <v>452</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>421</v>
@@ -12621,7 +12718,7 @@
         <v>453</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>413</v>
@@ -12637,7 +12734,7 @@
         <v>454</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>417</v>
@@ -12653,7 +12750,7 @@
         <v>455</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>407</v>
@@ -12669,7 +12766,7 @@
         <v>456</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>409</v>
@@ -12685,7 +12782,7 @@
         <v>457</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>423</v>
@@ -12701,7 +12798,7 @@
         <v>458</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>425</v>
@@ -12717,7 +12814,7 @@
         <v>459</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>426</v>
@@ -12733,7 +12830,7 @@
         <v>460</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>132</v>
+        <v>1095</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>427</v>
@@ -20145,7 +20242,7 @@
         <v>6</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>531</v>
@@ -20161,7 +20258,7 @@
         <v>6</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>531</v>
@@ -20175,13 +20272,13 @@
         <v>925</v>
       </c>
       <c r="C927" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="E927" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F927" s="1"/>
       <c r="G927" s="1"/>
@@ -20191,13 +20288,13 @@
         <v>926</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>619</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F928" s="1"/>
       <c r="G928" s="1"/>
@@ -20207,13 +20304,13 @@
         <v>927</v>
       </c>
       <c r="C929" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F929" s="1"/>
       <c r="G929" s="1"/>
@@ -20223,13 +20320,13 @@
         <v>928</v>
       </c>
       <c r="C930" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D930" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D930" s="1" t="s">
-        <v>988</v>
-      </c>
       <c r="E930" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F930" s="1"/>
       <c r="G930" s="1"/>
@@ -20239,13 +20336,13 @@
         <v>929</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="E931" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F931" s="1"/>
       <c r="G931" s="1"/>
@@ -20255,13 +20352,13 @@
         <v>930</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E932" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F932" s="1"/>
       <c r="G932" s="1"/>
@@ -20271,13 +20368,13 @@
         <v>931</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E933" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F933" s="1"/>
       <c r="G933" s="1"/>
@@ -20287,13 +20384,13 @@
         <v>932</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F934" s="1"/>
       <c r="G934" s="1"/>
@@ -20303,13 +20400,13 @@
         <v>933</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F935" s="1"/>
       <c r="G935" s="1"/>
@@ -20319,13 +20416,13 @@
         <v>934</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E936" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F936" s="1"/>
       <c r="G936" s="1"/>
@@ -20335,13 +20432,13 @@
         <v>935</v>
       </c>
       <c r="C937" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="E937" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F937" s="1"/>
       <c r="G937" s="1"/>
@@ -20351,13 +20448,13 @@
         <v>936</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="E938" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F938" s="1"/>
       <c r="G938" s="1"/>
@@ -20367,13 +20464,13 @@
         <v>937</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>851</v>
       </c>
       <c r="E939" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F939" s="1"/>
       <c r="G939" s="1"/>
@@ -20383,13 +20480,13 @@
         <v>938</v>
       </c>
       <c r="C940" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F940" s="1"/>
       <c r="G940" s="1"/>
@@ -20399,13 +20496,13 @@
         <v>939</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E941" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F941" s="1"/>
       <c r="G941" s="1"/>
@@ -20415,13 +20512,13 @@
         <v>940</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="E942" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F942" s="1"/>
       <c r="G942" s="1"/>
@@ -20431,13 +20528,13 @@
         <v>941</v>
       </c>
       <c r="C943" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E943" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F943" s="1"/>
       <c r="G943" s="1"/>
@@ -20447,13 +20544,13 @@
         <v>942</v>
       </c>
       <c r="C944" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F944" s="1"/>
       <c r="G944" s="1"/>
@@ -20463,13 +20560,13 @@
         <v>943</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D945" s="4" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E945" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F945" s="1"/>
       <c r="G945" s="1"/>
@@ -20479,13 +20576,13 @@
         <v>944</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="E946" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F946" s="1"/>
       <c r="G946" s="1"/>
@@ -20495,13 +20592,13 @@
         <v>945</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D947" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F947" s="1"/>
       <c r="G947" s="1"/>
@@ -20511,13 +20608,13 @@
         <v>946</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F948" s="1"/>
       <c r="G948" s="1"/>
@@ -20527,10 +20624,10 @@
         <v>947</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D949" s="4" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="E949" s="1" t="s">
         <v>20</v>
@@ -20543,13 +20640,13 @@
         <v>948</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="E950" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F950" s="1"/>
       <c r="G950" s="1"/>
@@ -20559,13 +20656,13 @@
         <v>949</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>619</v>
       </c>
       <c r="E951" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F951" s="1"/>
       <c r="G951" s="1"/>
@@ -20575,13 +20672,13 @@
         <v>950</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D952" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="E952" s="1" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F952" s="1"/>
       <c r="G952" s="1"/>
@@ -20591,13 +20688,13 @@
         <v>951</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D953" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E953" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F953" s="1"/>
       <c r="G953" s="1"/>
@@ -20607,13 +20704,13 @@
         <v>952</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D954" s="1" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F954" s="1"/>
       <c r="G954" s="1"/>
@@ -20623,13 +20720,13 @@
         <v>953</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D955" s="1" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F955" s="1"/>
       <c r="G955" s="1"/>
@@ -20639,13 +20736,13 @@
         <v>954</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D956" s="1" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E956" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F956" s="1"/>
       <c r="G956" s="1"/>
@@ -20655,13 +20752,13 @@
         <v>955</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D957" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F957" s="1"/>
       <c r="G957" s="1"/>
@@ -20671,13 +20768,13 @@
         <v>956</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D958" s="1" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="E958" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F958" s="1"/>
       <c r="G958" s="1"/>
@@ -20687,13 +20784,13 @@
         <v>957</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E959" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F959" s="1"/>
       <c r="G959" s="1"/>
@@ -20703,13 +20800,13 @@
         <v>958</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="E960" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F960" s="1"/>
       <c r="G960" s="1"/>
@@ -20719,13 +20816,13 @@
         <v>959</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="E961" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F961" s="1"/>
       <c r="G961" s="1"/>
@@ -20735,13 +20832,13 @@
         <v>960</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="E962" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F962" s="1"/>
       <c r="G962" s="1"/>
@@ -20751,13 +20848,13 @@
         <v>961</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>851</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F963" s="1"/>
       <c r="G963" s="1"/>
@@ -20767,13 +20864,13 @@
         <v>962</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E964" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F964" s="1"/>
       <c r="G964" s="1"/>
@@ -20783,13 +20880,13 @@
         <v>963</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D965" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="E965" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F965" s="1"/>
       <c r="G965" s="1"/>
@@ -20799,13 +20896,13 @@
         <v>964</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D966" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E966" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F966" s="1"/>
       <c r="G966" s="1"/>
@@ -20815,13 +20912,13 @@
         <v>965</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D967" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="E967" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F967" s="1"/>
       <c r="G967" s="1"/>
@@ -20831,13 +20928,13 @@
         <v>966</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="E968" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F968" s="1"/>
       <c r="G968" s="1"/>
@@ -20847,13 +20944,13 @@
         <v>967</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D969" s="4" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E969" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F969" s="1"/>
       <c r="G969" s="1"/>
@@ -20863,13 +20960,13 @@
         <v>968</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="E970" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F970" s="1"/>
       <c r="G970" s="1"/>
@@ -20879,13 +20976,13 @@
         <v>969</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="E971" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F971" s="1"/>
       <c r="G971" s="1"/>
@@ -20895,13 +20992,13 @@
         <v>970</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="E972" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F972" s="1"/>
       <c r="G972" s="1"/>
@@ -20911,13 +21008,13 @@
         <v>971</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E973" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F973" s="1"/>
       <c r="G973" s="1"/>
@@ -20927,10 +21024,10 @@
         <v>972</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D974" s="4" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E974" s="4" t="s">
         <v>20</v>
@@ -20943,13 +21040,13 @@
         <v>973</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="E975" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F975" s="1"/>
       <c r="G975" s="1"/>
@@ -20959,13 +21056,13 @@
         <v>974</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D976" s="1" t="s">
         <v>619</v>
       </c>
       <c r="E976" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F976" s="1"/>
       <c r="G976" s="1"/>
@@ -20975,13 +21072,13 @@
         <v>975</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E977" s="1" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F977" s="1"/>
       <c r="G977" s="1"/>
@@ -20991,13 +21088,13 @@
         <v>976</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F978" s="1"/>
       <c r="G978" s="1"/>
@@ -21007,13 +21104,13 @@
         <v>977</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D979" s="1" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="E979" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F979" s="1"/>
       <c r="G979" s="1"/>
@@ -21023,13 +21120,13 @@
         <v>978</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="E980" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F980" s="1"/>
       <c r="G980" s="1"/>
@@ -21039,13 +21136,13 @@
         <v>979</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E981" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F981" s="1"/>
       <c r="G981" s="1"/>
@@ -21055,13 +21152,13 @@
         <v>980</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E982" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F982" s="1"/>
       <c r="G982" s="1"/>
@@ -21071,13 +21168,13 @@
         <v>981</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E983" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F983" s="1"/>
       <c r="G983" s="1"/>
@@ -21087,13 +21184,13 @@
         <v>982</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E984" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F984" s="1"/>
       <c r="G984" s="1"/>
@@ -21103,13 +21200,13 @@
         <v>983</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="E985" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F985" s="1"/>
       <c r="G985" s="1"/>
@@ -21119,13 +21216,13 @@
         <v>984</v>
       </c>
       <c r="C986" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E986" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F986" s="1"/>
       <c r="G986" s="1"/>
@@ -21135,13 +21232,13 @@
         <v>985</v>
       </c>
       <c r="C987" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D987" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="E987" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F987" s="1"/>
       <c r="G987" s="1"/>
@@ -21151,13 +21248,13 @@
         <v>986</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>851</v>
       </c>
       <c r="E988" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F988" s="1"/>
       <c r="G988" s="1"/>
@@ -21167,13 +21264,13 @@
         <v>987</v>
       </c>
       <c r="C989" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D989" s="1" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E989" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F989" s="1"/>
       <c r="G989" s="1"/>
@@ -21183,13 +21280,13 @@
         <v>988</v>
       </c>
       <c r="C990" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="E990" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F990" s="1"/>
       <c r="G990" s="1"/>
@@ -21199,13 +21296,13 @@
         <v>989</v>
       </c>
       <c r="C991" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E991" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F991" s="1"/>
       <c r="G991" s="1"/>
@@ -21215,13 +21312,13 @@
         <v>990</v>
       </c>
       <c r="C992" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E992" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F992" s="1"/>
       <c r="G992" s="1"/>
@@ -21231,13 +21328,13 @@
         <v>991</v>
       </c>
       <c r="C993" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D993" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="E993" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F993" s="1"/>
       <c r="G993" s="1"/>
@@ -21247,13 +21344,13 @@
         <v>992</v>
       </c>
       <c r="C994" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D994" s="4" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F994" s="1"/>
       <c r="G994" s="1"/>
@@ -21263,13 +21360,13 @@
         <v>993</v>
       </c>
       <c r="C995" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D995" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F995" s="1"/>
       <c r="G995" s="1"/>
@@ -21279,13 +21376,13 @@
         <v>994</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D996" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="E996" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F996" s="1"/>
       <c r="G996" s="1"/>
@@ -21295,13 +21392,13 @@
         <v>995</v>
       </c>
       <c r="C997" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D997" s="1" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E997" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F997" s="1"/>
       <c r="G997" s="1"/>
@@ -21311,13 +21408,13 @@
         <v>996</v>
       </c>
       <c r="C998" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D998" s="1" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="E998" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F998" s="1"/>
       <c r="G998" s="1"/>
@@ -21327,10 +21424,10 @@
         <v>997</v>
       </c>
       <c r="C999" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D999" s="4" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="E999" s="4" t="s">
         <v>20</v>
@@ -21343,10 +21440,10 @@
         <v>998</v>
       </c>
       <c r="C1000" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1000" s="1" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="E1000" s="1" t="s">
         <v>58</v>
@@ -21359,10 +21456,10 @@
         <v>999</v>
       </c>
       <c r="C1001" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1001" s="1" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E1001" s="1" t="s">
         <v>20</v>
@@ -21375,13 +21472,13 @@
         <v>1000</v>
       </c>
       <c r="C1002" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E1002" s="1" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F1002" s="1"/>
       <c r="G1002" s="1"/>
@@ -21391,13 +21488,13 @@
         <v>1001</v>
       </c>
       <c r="C1003" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="E1003" s="1" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F1003" s="1"/>
       <c r="G1003" s="1"/>
@@ -21407,13 +21504,13 @@
         <v>1002</v>
       </c>
       <c r="C1004" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E1004" s="1" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F1004" s="1"/>
       <c r="G1004" s="1"/>
@@ -21423,13 +21520,13 @@
         <v>1003</v>
       </c>
       <c r="C1005" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1005" s="1" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E1005" s="1" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F1005" s="1"/>
       <c r="G1005" s="1"/>
@@ -21439,13 +21536,13 @@
         <v>1004</v>
       </c>
       <c r="C1006" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1006" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="D1006" s="1" t="s">
+      <c r="E1006" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="E1006" s="1" t="s">
-        <v>1076</v>
       </c>
       <c r="F1006" s="1"/>
       <c r="G1006" s="1"/>
@@ -21455,10 +21552,10 @@
         <v>1005</v>
       </c>
       <c r="C1007" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1007" s="1" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1007" s="1" t="s">
         <v>138</v>
@@ -21471,10 +21568,10 @@
         <v>1006</v>
       </c>
       <c r="C1008" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1008" s="1" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1008" s="1" t="s">
         <v>138</v>
@@ -21487,10 +21584,10 @@
         <v>1007</v>
       </c>
       <c r="C1009" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1009" s="1" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E1009" s="1" t="s">
         <v>129</v>
@@ -21503,10 +21600,10 @@
         <v>1008</v>
       </c>
       <c r="C1010" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D1010" s="1" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E1010" s="1" t="s">
         <v>129</v>
@@ -21529,7 +21626,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21543,82 +21640,89 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>936</v>
-      </c>
-      <c r="D2" t="s">
-        <v>902</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="G2" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>942</v>
-      </c>
-      <c r="D3" t="s">
-        <v>905</v>
-      </c>
-      <c r="E3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>903</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="H3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>945</v>
-      </c>
-      <c r="D4" t="s">
-        <v>904</v>
-      </c>
-      <c r="E4" t="s">
-        <v>906</v>
+        <v>941</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>943</v>
-      </c>
-      <c r="D5" t="s">
-        <v>907</v>
-      </c>
-      <c r="E5" t="s">
-        <v>908</v>
+        <v>939</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>938</v>
+        <v>934</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -21628,18 +21732,21 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B14">
     <sortCondition ref="B14"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21649,7 +21756,7 @@
   <dimension ref="B2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21658,7 +21765,7 @@
     <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="97.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -21666,19 +21773,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -21689,13 +21796,13 @@
         <v>617</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -21707,13 +21814,15 @@
         <v>617</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -21723,16 +21832,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>950</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -21743,13 +21852,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -21761,13 +21870,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -21779,13 +21888,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -21797,16 +21906,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>965</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -21817,16 +21926,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>965</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -21837,13 +21946,13 @@
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -21855,13 +21964,13 @@
         <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -21873,13 +21982,13 @@
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -21891,13 +22000,13 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -21909,13 +22018,13 @@
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -21927,13 +22036,13 @@
         <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -21945,11 +22054,11 @@
         <v>132</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -21961,11 +22070,11 @@
         <v>132</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -21977,11 +22086,11 @@
         <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -21993,13 +22102,13 @@
         <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G20" s="1"/>
     </row>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD19405A-E56D-4DF4-BF47-A362CA050121}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3087B-7126-47CE-8779-E2A805CC96A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3778,7 +3778,7 @@
   <dimension ref="A2:G1011"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="D503" sqref="D503"/>
+      <selection activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3087B-7126-47CE-8779-E2A805CC96A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F414F7EC-7186-42FA-A6A1-55C9EFBF9176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10877" uniqueCount="1489">
   <si>
     <t>Module</t>
   </si>
@@ -2860,12 +2860,6 @@
     <t>Not included in the file:</t>
   </si>
   <si>
-    <t>FL State Provider Type</t>
-  </si>
-  <si>
-    <t>FL State Provider Specialty</t>
-  </si>
-  <si>
     <t>PL State Provider Type</t>
   </si>
   <si>
@@ -2875,16 +2869,7 @@
     <t>PL ESI custom fields</t>
   </si>
   <si>
-    <t>FL ESI custom fields</t>
-  </si>
-  <si>
-    <t>FL Remove Location Name from location uniqueness</t>
-  </si>
-  <si>
     <t>Provider SSN</t>
-  </si>
-  <si>
-    <t>FL Location Subpart NPI</t>
   </si>
   <si>
     <t>Resolution</t>
@@ -3384,13 +3369,1176 @@
   </si>
   <si>
     <t>When there are 2 unscrubbed location in OLTP and incoming same locations get scrubbed to one, the Mailing Address 2 field is not updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL should be created with no Site 4 info (other site info should be included) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL should be created with no Site 5 info (other site info should be included) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL should be created with no Site 6 info (other site info should be included) </t>
+  </si>
+  <si>
+    <t>FL should be created with json string containing site 7 info</t>
+  </si>
+  <si>
+    <t>FL should be created with json string containing site 8 info</t>
+  </si>
+  <si>
+    <t>FL should be created with json string containing site 9 info</t>
+  </si>
+  <si>
+    <t>Description and term date for site 1 should be updated in json string</t>
+  </si>
+  <si>
+    <t>Description and term date for all sites should be updated in json string</t>
+  </si>
+  <si>
+    <t>Existing json string should remain the same</t>
+  </si>
+  <si>
+    <t>Existing json string should be updated with new site info</t>
+  </si>
+  <si>
+    <t>New ESI ID 1 value, rest of site 1 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID 2 value, rest of site 2 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID 3 value, rest of site 3 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID 4 value, rest of site 4 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID 5 value, rest of site 5 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID 6 value, rest of site 6 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID 7 value, rest of site 7 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID 8 value, rest of site 8 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID 9 value, rest of site 9 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 1 value, rest of site 1 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 2 value, rest of site 2 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 3 value, rest of site 3 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 4 value, rest of site 4 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 5 value, rest of site 5 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 6 value, rest of site 6 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 7 value, rest of site 7 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 8 value, rest of site 8 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 9 value, rest of site 9 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 1 Effective Date value, rest of site 1 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 2 Effective Date value, rest of site 2 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 3 Effective Date value, rest of site 3 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 4 Effective Date value, rest of site 4 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 5 Effective Date value, rest of site 5 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 6 Effective Date value, rest of site 6 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 7 Effective Date value, rest of site 7 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 8 Effective Date value, rest of site 8 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 9 Effective Date value, rest of site 9 info matches existing</t>
+  </si>
+  <si>
+    <t>Description and term date for sites 2 and 10 should be updated in json string</t>
+  </si>
+  <si>
+    <t>Missing ESI Site ID 4; other Site info is populated</t>
+  </si>
+  <si>
+    <t>Missing ESI Site ID Type 5; other Site info is populated</t>
+  </si>
+  <si>
+    <t>Missing ESI Site ID Effective Date 6; other Site info is populated</t>
+  </si>
+  <si>
+    <t>Missing ESI Site ID Description 7; other Site info is populated</t>
+  </si>
+  <si>
+    <t>Missing ESI Termination Date 8, other Site info is populated</t>
+  </si>
+  <si>
+    <t>ESI Site ID Type 9 is not in reference table</t>
+  </si>
+  <si>
+    <t>Updated description and term date for ESI site 1</t>
+  </si>
+  <si>
+    <t>Updated description and term date for ESI sites 2 and 10</t>
+  </si>
+  <si>
+    <t>Updated description and term date for all ESI sites</t>
+  </si>
+  <si>
+    <t>Updated NULL ESI site info</t>
+  </si>
+  <si>
+    <t>New ESI site 1 info for existing location</t>
+  </si>
+  <si>
+    <t>New ESI site 3 and 6 info for existing location</t>
+  </si>
+  <si>
+    <t>New ESI site info for all sites for existing location</t>
+  </si>
+  <si>
+    <t>New ESI ID 10 value, rest of site 10 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI ID Type 10 value, rest of site 10 info matches existing</t>
+  </si>
+  <si>
+    <t>New ESI 10 Effective Date value, rest of site 10 info matches existing</t>
+  </si>
+  <si>
+    <t>New facility location with NULL subpart NPI (same facility belongs to another client)</t>
+  </si>
+  <si>
+    <t>Location should be loaded</t>
+  </si>
+  <si>
+    <t>New facility location with valid subpart NPI (same facility belongs to another client)</t>
+  </si>
+  <si>
+    <t>New facility location with invalid subpart NPI (special character)</t>
+  </si>
+  <si>
+    <t>Error message; Location should not be loaded</t>
+  </si>
+  <si>
+    <t>New location with subpart NPI for existing facility</t>
+  </si>
+  <si>
+    <t>Location should be loaded under existing facility</t>
+  </si>
+  <si>
+    <t>New location with NULL subpart NPI for existing facility</t>
+  </si>
+  <si>
+    <t>Subpart NPI coming as Facility record</t>
+  </si>
+  <si>
+    <t>Existing location with NULL subpart NPI coming again with updated attributes</t>
+  </si>
+  <si>
+    <t>Location attributes should be updated</t>
+  </si>
+  <si>
+    <t>Existing location with subpart NPI coming again with updated attributes</t>
+  </si>
+  <si>
+    <t>Updated attributes for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Same phone and fax numbers for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Phone and fax numbers should be loaded for each location</t>
+  </si>
+  <si>
+    <t>Updated phone and fax numbers for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Same contract component for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Contract components should be loaded for each location</t>
+  </si>
+  <si>
+    <t>Updated contract components for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Contract components should be updated for each location</t>
+  </si>
+  <si>
+    <t>Same primary and secondary languages for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Languages should be loaded for each location</t>
+  </si>
+  <si>
+    <t>Updated primary and secondary languages for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Languages should be updated for each location</t>
+  </si>
+  <si>
+    <t>Same primary and additional specialties for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Specialties should be loaded for each location</t>
+  </si>
+  <si>
+    <t>Updated primary and additional specialties for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Specialties should be updated for each location</t>
+  </si>
+  <si>
+    <t>Same location type for 2 locations (one location with subpart NPI)</t>
+  </si>
+  <si>
+    <t>2 records should be created in OLTP</t>
+  </si>
+  <si>
+    <t>Updated location type for 2 locations (one location with subpart NPI)</t>
+  </si>
+  <si>
+    <t>Location type should be added</t>
+  </si>
+  <si>
+    <t>Valid subpart NPI</t>
+  </si>
+  <si>
+    <t>Location should be loaded with subpart NPI populated</t>
+  </si>
+  <si>
+    <t>Error message; location should not be created</t>
+  </si>
+  <si>
+    <t>Invalid Facility Location</t>
+  </si>
+  <si>
+    <t>Subpart NPI NULL</t>
+  </si>
+  <si>
+    <t>Location should be loaded with NULL subpart NPI</t>
+  </si>
+  <si>
+    <t>Subpart NPI spaces</t>
+  </si>
+  <si>
+    <t>Subpart NPI tabs</t>
+  </si>
+  <si>
+    <t>Subpart NPI 9 digit</t>
+  </si>
+  <si>
+    <t>Subpart NPI 11 digit</t>
+  </si>
+  <si>
+    <t>Subpart NPI alphanumeric</t>
+  </si>
+  <si>
+    <t>Multiple subpart NPIs for same location (both populated)</t>
+  </si>
+  <si>
+    <t>Location should be created for each subpart NPI</t>
+  </si>
+  <si>
+    <t>Multiple subpart NPIs for same location (one NULL)</t>
+  </si>
+  <si>
+    <t>Multiple addresses for same subpart NPI</t>
+  </si>
+  <si>
+    <t>Location should be created for each address</t>
+  </si>
+  <si>
+    <t>Existing location with NULL subpart NPI; Incoming same location with subpart NPI populated</t>
+  </si>
+  <si>
+    <t>New location should be created with new subpart NPI</t>
+  </si>
+  <si>
+    <t>Existing location with NULL subpart NPI; Incoming same location with NULL subpart NPI</t>
+  </si>
+  <si>
+    <t>Ignore, new record should not be created</t>
+  </si>
+  <si>
+    <t>Existing location with subpart NPI populated; Incoming same location with NULL subpart NPI</t>
+  </si>
+  <si>
+    <t>New location should be created with NULL subpart NPI</t>
+  </si>
+  <si>
+    <t>Existing location with subpart NPI populated; Incoming same location with different subpart NPI</t>
+  </si>
+  <si>
+    <t>Existing location with subpart NPI populated; Incoming same location with same subpart NPI</t>
+  </si>
+  <si>
+    <t>New location address with existing subpart NPI</t>
+  </si>
+  <si>
+    <t>New location should be created</t>
+  </si>
+  <si>
+    <t>Duplicate records</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses with same subpart NPI get scrubbed to one address</t>
+  </si>
+  <si>
+    <t>1 location created with subpart NPI</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses with different subpart NPIs get scrubbed to one address</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is new; no Facility record with same NPI</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is new; Facility record in the same file with same NPI and location address &lt;&gt; PL address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provider record with Facility NPI that is new; Facility record in the same file with same NPI and location address = PL address; subpart NPI populated </t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is new; Facility record in the same file with same NPI and location address = PL address; subpart NPI is NULL</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is existing Facility NPI; no existing location</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is existing Facility NPI; PL address matches existing location address; location subpart NPI is populated</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is existing Facility NPI; PL address matches existing location address; location subpart NPI is NULL</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is existing Facility NPI; PL address doesn't match existing location address</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is existing subpart NPI; PL address matches existing location address</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is existing subpart NPI; PL address doesn't match location address</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is new subpart NPI; PL address matches location address from Facility record</t>
+  </si>
+  <si>
+    <t>Provider record with Facility NPI that is new subpart NPI; PL address doesn't match location address from Facility record</t>
+  </si>
+  <si>
+    <t>Same phone and fax numbers for 2 provider locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Updated phone and fax numbers for 2 provider locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Same contract component for 2 provider locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Updated contract components for 2 provider locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Same primary and additional specialties for 2 provider locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Updated primary and additional specialties for 2 provider locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Same provider coming for 2 locations (one location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Updated provider location attributes for 2 provider locations (one location with subpart NPI)</t>
+  </si>
+  <si>
+    <t>Duplicate provider records with Facility NPI that is subpart NPI</t>
+  </si>
+  <si>
+    <t>Duplicate provider records with Facility NPI that is existing Facility NPI</t>
+  </si>
+  <si>
+    <t>Same hospital relationship data for 2 provider locations (one location with subpart NPI)</t>
+  </si>
+  <si>
+    <t>Updated hospital relationship data for 2 provider locations (one location with subpart NPI)</t>
+  </si>
+  <si>
+    <t>Provider location should be created under new facility using PL address (new location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Provider location should be created under new facility using FL address</t>
+  </si>
+  <si>
+    <t>Provider location should be created under existing facility (new location with NULL subpart NPI)</t>
+  </si>
+  <si>
+    <t>Provider location should be created under existing facility location</t>
+  </si>
+  <si>
+    <t>Provider location should be created under existing facility (new location with subpart NPI)</t>
+  </si>
+  <si>
+    <t>Provider location should be created using new facility location from Facility record (with subpart NPI)</t>
+  </si>
+  <si>
+    <t>Provider location should be created using new facility location from Provider record (with subpart NPI)</t>
+  </si>
+  <si>
+    <t>Phone and fax numbers should be loaded for each provider location</t>
+  </si>
+  <si>
+    <t>Contract components should be loaded for each provider location</t>
+  </si>
+  <si>
+    <t>Contract components should be updated for each provider location</t>
+  </si>
+  <si>
+    <t>Specialties should be loaded for each provider location</t>
+  </si>
+  <si>
+    <t>Specialties should be updated for each provider location</t>
+  </si>
+  <si>
+    <t>2 provider locations should be created</t>
+  </si>
+  <si>
+    <t>Provider location attributes should be updated</t>
+  </si>
+  <si>
+    <t>Hosp rel should be created for each location</t>
+  </si>
+  <si>
+    <t>Hosp rel data should be updated for each location</t>
+  </si>
+  <si>
+    <t>Provider Location Communication</t>
+  </si>
+  <si>
+    <t>Provider Location Specialty</t>
+  </si>
+  <si>
+    <t>Hospital NPI should be updated for existing PL location</t>
+  </si>
+  <si>
+    <t>Updated Hospital NPI for PL location with same address but different location name</t>
+  </si>
+  <si>
+    <t>2 PL Hosp Rel records should be created for 1 PL location</t>
+  </si>
+  <si>
+    <t>2 different Hospital NPIs for 2 PL locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>PLCC assignment sould be updated for existing PL location</t>
+  </si>
+  <si>
+    <t>Updated PLCC assignment for PL location with same address but different location name</t>
+  </si>
+  <si>
+    <t>2 PLCC assignments should be created for 1 PL location</t>
+  </si>
+  <si>
+    <t>2 different PLCC assignments for 2 PL locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>Additional specialty should be updated for existing PL location</t>
+  </si>
+  <si>
+    <t>Updated additional specialty for PL location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Both additional specialties added to 1 PL location</t>
+  </si>
+  <si>
+    <t>2 different additional specialties for same PL location with different location names</t>
+  </si>
+  <si>
+    <t>PL primary specialty should be updated for existing PL location</t>
+  </si>
+  <si>
+    <t>Updated primary specialty for PL location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Warning message; 1 PL location created without primary specialty</t>
+  </si>
+  <si>
+    <t>2 different primary specialties for same PL location with different location names</t>
+  </si>
+  <si>
+    <t>Fax number should be updated for existing PL location</t>
+  </si>
+  <si>
+    <t>Updated fax numer for PL location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Fax numbers should be loaded for 1 PL location</t>
+  </si>
+  <si>
+    <t>2 different fax numbers for 2 PL locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>Phone number should be updated for exisitng PL location</t>
+  </si>
+  <si>
+    <t>Updated phone number for PL location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Phone numbers should be loaded for 1 PL location</t>
+  </si>
+  <si>
+    <t>2 different phone numbers for 2 PL locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>PL attributes should be updated for existing PL location</t>
+  </si>
+  <si>
+    <t>updated PL attributes for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>2 PL locations should be created using 1 location</t>
+  </si>
+  <si>
+    <t>2 different providers for 2 locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>Location type should be added to existing location</t>
+  </si>
+  <si>
+    <t>Updated location type for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>1 location should be loaded with 2 location types</t>
+  </si>
+  <si>
+    <t>2 different location types for 2 locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>FLCC assignment should be updated for existing location</t>
+  </si>
+  <si>
+    <t>Updated FLCC assignment for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>2 FLCC assignments should be created for 1 location</t>
+  </si>
+  <si>
+    <t>2 different FLCC assignments for 2 locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>Additional language should be updated for existing location</t>
+  </si>
+  <si>
+    <t>Updated additional language for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Both additional languages should be loaded for 1 location</t>
+  </si>
+  <si>
+    <t>2 different additional languages for 2 locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>Primary language should be updated for existing location</t>
+  </si>
+  <si>
+    <t>Updated primary language for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Warning message; 1 location loaded with no primary language</t>
+  </si>
+  <si>
+    <t>2 different primary languages for 2 locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>Fax number should be added to existing location</t>
+  </si>
+  <si>
+    <t>Updated fax numer for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Fax numbers should be loaded for 1 location</t>
+  </si>
+  <si>
+    <t>2 different fax numbers for 2 locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>Phone number should be added to exisitng location</t>
+  </si>
+  <si>
+    <t>Updated phone number for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Phone numbers should be loaded for 1 location</t>
+  </si>
+  <si>
+    <t>2 different phone numbers for 2 locations with same address but different location names</t>
+  </si>
+  <si>
+    <t>Additional specialty should be added to existing location</t>
+  </si>
+  <si>
+    <t>Updated additional specialty for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Warning message; 1 location should be created with 2 additional specialties</t>
+  </si>
+  <si>
+    <t>2 different additional specialties for same location address with different location names</t>
+  </si>
+  <si>
+    <t>Primary specialty should be updated for existing location</t>
+  </si>
+  <si>
+    <t>Updated primary specialty for location with same address but different location name</t>
+  </si>
+  <si>
+    <t>Warning message; 1 location should be created with no primary specialty</t>
+  </si>
+  <si>
+    <t>2 different primary specialties for same location address with different location names</t>
+  </si>
+  <si>
+    <t>Both records in OLTP should be updated with new location name</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses in OLTP with different location names. Same 2 addresses are getting scrubbed 
+to one address and have updated location name</t>
+  </si>
+  <si>
+    <t>Warning message; 1 location should be created with address 1 as location name</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses with different location names get scrubbed to one address</t>
+  </si>
+  <si>
+    <t>1 location created with location name</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses with same location name get scrubbed to one address</t>
+  </si>
+  <si>
+    <t>Location name and attributes should be updated</t>
+  </si>
+  <si>
+    <t>Updated location name and attributes</t>
+  </si>
+  <si>
+    <t>Location name should be updated</t>
+  </si>
+  <si>
+    <t>Updated valid location name</t>
+  </si>
+  <si>
+    <t>Same location name for same address but different subpart NPIs (one NULL)</t>
+  </si>
+  <si>
+    <t>Same location name for same address but different subpart NPIs (both populated)</t>
+  </si>
+  <si>
+    <t>Location should be loaded with address 1 as location name</t>
+  </si>
+  <si>
+    <t>Location name tabs</t>
+  </si>
+  <si>
+    <t>Location name spaces</t>
+  </si>
+  <si>
+    <t>Same location address with NULL subpart NPI and different location names</t>
+  </si>
+  <si>
+    <t>Same location address with subpart NPI populated and different location names</t>
+  </si>
+  <si>
+    <t>NULL location name</t>
+  </si>
+  <si>
+    <t>Location should be loaded with location name</t>
+  </si>
+  <si>
+    <t>Valid location name</t>
+  </si>
+  <si>
+    <t>Valid primary and additional specialities/State type/State Specialities</t>
+  </si>
+  <si>
+    <t>Primary and additional specialties/State type/State Specialities should be loaded</t>
+  </si>
+  <si>
+    <t>Duplicate primary specialty, state type and specialty</t>
+  </si>
+  <si>
+    <t>Duplicate additional specialties, state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL primary specialty, state type and specialty</t>
+  </si>
+  <si>
+    <t>Facility Location should be loaded</t>
+  </si>
+  <si>
+    <t>NULL additional specialties, state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid primary specialty; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Facility Location should be loaded with primary specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 1; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Facility Location should be loaded with additional specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 2; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 3; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 4; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 5; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 6; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 7; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 8; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 9; NULL state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL primary specialty; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Warning message; State type and specialty should not be loaded</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 1; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 2; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 3; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 4; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 5; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 6; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 7; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 8; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL additional specialty 9; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>NULL primary specialty; valid state type</t>
+  </si>
+  <si>
+    <t>Warning message; State type should not be loaded</t>
+  </si>
+  <si>
+    <t>NULL additional specialty; valid state type</t>
+  </si>
+  <si>
+    <t>NULL primary specialty; valid state specialty</t>
+  </si>
+  <si>
+    <t>Warning message; State specialty should not be loaded</t>
+  </si>
+  <si>
+    <t>NULL additional specialty; valid state specialty</t>
+  </si>
+  <si>
+    <t>Invalid primary specialty; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 1; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 2; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 3; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 4; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 5; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 6; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 7; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 8; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Invalid additional specialty 9; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Space (blank) primary specialty; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Space (blank) additional specialty; valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid primary specialty; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 1; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 2; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 3; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 4; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 5; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 6; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 7; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 8; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty 9; invalid state type and specialty</t>
+  </si>
+  <si>
+    <t>Valid primary specialty; invalid state type</t>
+  </si>
+  <si>
+    <t>Valid additional specialty; invalid state type</t>
+  </si>
+  <si>
+    <t>Valid primary specialty; invalid state specialty</t>
+  </si>
+  <si>
+    <t>Valid additional specialty; invalid state specialty</t>
+  </si>
+  <si>
+    <t>Multiple primary specialties for same facility location; same state type and specialty</t>
+  </si>
+  <si>
+    <t>Warning message; Facility Location should be loaded without primary specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and primary specialty; same state specialty</t>
+  </si>
+  <si>
+    <t>Warning message; Facility Location should be loaded with primary specialty but without state type</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 1; same state specialty</t>
+  </si>
+  <si>
+    <t>Warning message; Facility Location should be loaded with additional specialty but without state type</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 2; same state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 3; same state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 4; same state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 5; same state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 6; same state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 7; same state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 8; same state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types for same location and additional specialty 9; same state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and primary specialty; same state type</t>
+  </si>
+  <si>
+    <t>Warning message; Facility Location should be loaded with primary specialty but without state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 1; same state type</t>
+  </si>
+  <si>
+    <t>Warning message; Facility Location should be loaded with additional specialty but without state specialty</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 2; same state type</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 3; same state type</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 4; same state type</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 5; same state type</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 6; same state type</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 7; same state type</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 8; same state type</t>
+  </si>
+  <si>
+    <t>Multiple state specialties for same location and additional specialty 9; same state type</t>
+  </si>
+  <si>
+    <t>Updated valid primary specialty, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 1, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 2, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 3, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 4, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 5, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 6, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 7, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 8, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty 9, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated NULL primary specialty, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated NULL additional specialties, state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid primary specialty, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Warning message; Exisitng values should remain active</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 1, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 2, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 3, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 4, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 5, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 6, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 7, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 8, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Updated invalid additional specialty 9, updated valid state type and specialty</t>
+  </si>
+  <si>
+    <t>Same primary specialty; updated invalid state type</t>
+  </si>
+  <si>
+    <t>Warning message; Exisitng value should remain active</t>
+  </si>
+  <si>
+    <t>Same additional specialty; updated invalid state type</t>
+  </si>
+  <si>
+    <t>Same primary specialty; updated invalid state specialty</t>
+  </si>
+  <si>
+    <t>Same additional specialty; updated invalid state specialty</t>
+  </si>
+  <si>
+    <t>Same primary specialty; updated NULL state type</t>
+  </si>
+  <si>
+    <t>Existing value should be updated to NULL</t>
+  </si>
+  <si>
+    <t>Same additional specialty; updated NULL state type</t>
+  </si>
+  <si>
+    <t>Same primary specialty; updated NULL state specialty</t>
+  </si>
+  <si>
+    <t>Same additional specialty; updated NULL state specialty</t>
+  </si>
+  <si>
+    <t>Multiple primary specialties as update; same state type and specialty</t>
+  </si>
+  <si>
+    <t>Multiple additional specialties as update; same state type and specialty</t>
+  </si>
+  <si>
+    <t>Exisitng values should be inactivated; new values should be loaded</t>
+  </si>
+  <si>
+    <t>Multiple state types as update for primary specialty</t>
+  </si>
+  <si>
+    <t>Multiple state types as update for additional specialty</t>
+  </si>
+  <si>
+    <t>Multiple state specialties as update for primary specialty</t>
+  </si>
+  <si>
+    <t>Multiple state specialties as update for additional specialty</t>
+  </si>
+  <si>
+    <t>Updated valid primary specialty; invalid state type</t>
+  </si>
+  <si>
+    <t>Warning message; Primary specialty should be updated with NULL state type</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty; invalid state type</t>
+  </si>
+  <si>
+    <t>Updated valid primary specialty with NULL state type</t>
+  </si>
+  <si>
+    <t>Primary specialty should be updated with NULL state type</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty with NULL state type</t>
+  </si>
+  <si>
+    <t>Additional specialty should be updated with NULL state type</t>
+  </si>
+  <si>
+    <t>Updated valid primary specialty; invalid state specialty</t>
+  </si>
+  <si>
+    <t>Warning message; Primary specialty should be updated with NULL state specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty; invalid state specialty</t>
+  </si>
+  <si>
+    <t>Updated valid primary specialty with NULL state specialty</t>
+  </si>
+  <si>
+    <t>Primary specialty should be updated with NULL state specialty</t>
+  </si>
+  <si>
+    <t>Updated valid additional specialty with NULL state specialty</t>
+  </si>
+  <si>
+    <t>Additional specialty should be updated with NULL state specialty</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses getting scrubbed to one address and have different values for primary specialty</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses getting scrubbed to one address and have different values for state type</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses getting scrubbed to one address and have different values for state specialty</t>
+  </si>
+  <si>
+    <t>2 unscrubbed addresses in OLTP with different values for primary specialty, state type and specialty;
+incomming same addresses are getting scrubbed to one address and have same primary specialty, state type and specialty</t>
+  </si>
+  <si>
+    <t>Both locations in OLTP should be updated with new value</t>
+  </si>
+  <si>
+    <t>Happy path - ESI Site 2 and 8 info is populated</t>
+  </si>
+  <si>
+    <t>FL should be created with json string containing site 2 and 8 info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3402,6 +4550,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3474,7 +4628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3494,6 +4648,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3775,18 +4933,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G1011"/>
+  <dimension ref="A2:G1286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="C503" sqref="C503"/>
+    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
+      <selection activeCell="A1055" sqref="A1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="96.85546875" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="135.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="100.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4985,10 +6143,10 @@
         <v>26</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -5085,10 +6243,10 @@
         <v>35</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -5465,10 +6623,10 @@
         <v>52</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -5485,10 +6643,10 @@
         <v>53</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -5505,10 +6663,10 @@
         <v>26</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -6085,10 +7243,10 @@
         <v>78</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -6145,10 +7303,10 @@
         <v>63</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
@@ -6245,10 +7403,10 @@
         <v>63</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -6305,10 +7463,10 @@
         <v>63</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -6805,10 +7963,10 @@
         <v>523</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
@@ -7245,10 +8403,10 @@
         <v>135</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
@@ -7616,13 +8774,13 @@
         <v>191</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>907</v>
@@ -7636,7 +8794,7 @@
         <v>192</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>579</v>
@@ -7656,13 +8814,13 @@
         <v>193</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>907</v>
@@ -7676,13 +8834,13 @@
         <v>194</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>907</v>
@@ -7696,7 +8854,7 @@
         <v>195</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>892</v>
@@ -7716,7 +8874,7 @@
         <v>196</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>581</v>
@@ -7736,7 +8894,7 @@
         <v>197</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>582</v>
@@ -7756,7 +8914,7 @@
         <v>198</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>520</v>
@@ -7776,13 +8934,13 @@
         <v>199</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>907</v>
@@ -7796,7 +8954,7 @@
         <v>200</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>580</v>
@@ -7816,13 +8974,13 @@
         <v>201</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>907</v>
@@ -7836,13 +8994,13 @@
         <v>202</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>907</v>
@@ -7856,7 +9014,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>893</v>
@@ -7876,7 +9034,7 @@
         <v>204</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>583</v>
@@ -7896,7 +9054,7 @@
         <v>205</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>584</v>
@@ -7916,7 +9074,7 @@
         <v>206</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>522</v>
@@ -8205,7 +9363,7 @@
         <v>155</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="G222" s="1"/>
     </row>
@@ -8223,7 +9381,7 @@
         <v>155</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="G223" s="1"/>
     </row>
@@ -8241,7 +9399,7 @@
         <v>155</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="G224" s="1"/>
     </row>
@@ -8259,10 +9417,10 @@
         <v>166</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
@@ -8279,7 +9437,7 @@
         <v>166</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="G226" s="1"/>
     </row>
@@ -8297,10 +9455,10 @@
         <v>138</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
@@ -8317,10 +9475,10 @@
         <v>138</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
@@ -8337,10 +9495,10 @@
         <v>129</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
@@ -9017,10 +10175,10 @@
         <v>211</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
@@ -9077,10 +10235,10 @@
         <v>138</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
@@ -9097,10 +10255,10 @@
         <v>138</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
@@ -9117,10 +10275,10 @@
         <v>129</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
@@ -9177,10 +10335,10 @@
         <v>140</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="272" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -12088,7 +13246,7 @@
         <v>415</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>354</v>
@@ -12108,7 +13266,7 @@
         <v>416</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>361</v>
@@ -12128,7 +13286,7 @@
         <v>417</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>429</v>
@@ -12148,7 +13306,7 @@
         <v>418</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>430</v>
@@ -12168,7 +13326,7 @@
         <v>419</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>356</v>
@@ -12188,7 +13346,7 @@
         <v>420</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>358</v>
@@ -12208,7 +13366,7 @@
         <v>421</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>359</v>
@@ -12228,7 +13386,7 @@
         <v>422</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>360</v>
@@ -12248,7 +13406,7 @@
         <v>423</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>362</v>
@@ -12268,7 +13426,7 @@
         <v>424</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>364</v>
@@ -12288,7 +13446,7 @@
         <v>425</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>365</v>
@@ -12308,7 +13466,7 @@
         <v>426</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>366</v>
@@ -12328,7 +13486,7 @@
         <v>427</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>368</v>
@@ -12348,7 +13506,7 @@
         <v>428</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>371</v>
@@ -12368,7 +13526,7 @@
         <v>429</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>372</v>
@@ -12377,10 +13535,10 @@
         <v>373</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="432" spans="2:7" x14ac:dyDescent="0.25">
@@ -12388,7 +13546,7 @@
         <v>430</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>381</v>
@@ -12408,7 +13566,7 @@
         <v>431</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>382</v>
@@ -12428,7 +13586,7 @@
         <v>432</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>380</v>
@@ -12448,7 +13606,7 @@
         <v>433</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>370</v>
@@ -12468,7 +13626,7 @@
         <v>434</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>384</v>
@@ -12488,7 +13646,7 @@
         <v>435</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>385</v>
@@ -12508,7 +13666,7 @@
         <v>436</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>376</v>
@@ -12528,7 +13686,7 @@
         <v>437</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>378</v>
@@ -12548,7 +13706,7 @@
         <v>438</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>386</v>
@@ -12568,7 +13726,7 @@
         <v>439</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>396</v>
@@ -12588,7 +13746,7 @@
         <v>440</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>432</v>
@@ -12608,7 +13766,7 @@
         <v>441</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>433</v>
@@ -12628,7 +13786,7 @@
         <v>442</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>427</v>
@@ -12648,7 +13806,7 @@
         <v>443</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>389</v>
@@ -12668,7 +13826,7 @@
         <v>444</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>391</v>
@@ -12688,7 +13846,7 @@
         <v>445</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>392</v>
@@ -12708,7 +13866,7 @@
         <v>446</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>403</v>
@@ -12728,7 +13886,7 @@
         <v>447</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>404</v>
@@ -12748,7 +13906,7 @@
         <v>448</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>406</v>
@@ -12768,7 +13926,7 @@
         <v>449</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>411</v>
@@ -12788,7 +13946,7 @@
         <v>450</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>415</v>
@@ -12808,7 +13966,7 @@
         <v>451</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>419</v>
@@ -12828,7 +13986,7 @@
         <v>452</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>421</v>
@@ -12848,7 +14006,7 @@
         <v>453</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>413</v>
@@ -12868,7 +14026,7 @@
         <v>454</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>417</v>
@@ -12888,13 +14046,13 @@
         <v>455</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>407</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="F457" s="1" t="s">
         <v>907</v>
@@ -12908,7 +14066,7 @@
         <v>456</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>409</v>
@@ -12928,13 +14086,13 @@
         <v>457</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>423</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="F459" s="1" t="s">
         <v>907</v>
@@ -12948,7 +14106,7 @@
         <v>458</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>424</v>
@@ -12968,7 +14126,7 @@
         <v>459</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>425</v>
@@ -12988,7 +14146,7 @@
         <v>460</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>426</v>
@@ -13077,10 +14235,10 @@
         <v>128</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.25">
@@ -13217,10 +14375,10 @@
         <v>122</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="474" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -20568,7 +21726,7 @@
         <v>6</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>530</v>
@@ -20584,7 +21742,7 @@
         <v>6</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>530</v>
@@ -20598,13 +21756,13 @@
         <v>925</v>
       </c>
       <c r="C927" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E927" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F927" s="1"/>
       <c r="G927" s="1"/>
@@ -20614,13 +21772,13 @@
         <v>926</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>618</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F928" s="1"/>
       <c r="G928" s="1"/>
@@ -20630,13 +21788,13 @@
         <v>927</v>
       </c>
       <c r="C929" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E929" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="D929" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="E929" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="F929" s="1"/>
       <c r="G929" s="1"/>
@@ -20646,13 +21804,13 @@
         <v>928</v>
       </c>
       <c r="C930" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D930" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="E930" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F930" s="1"/>
       <c r="G930" s="1"/>
@@ -20662,13 +21820,13 @@
         <v>929</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="E931" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F931" s="1"/>
       <c r="G931" s="1"/>
@@ -20678,13 +21836,13 @@
         <v>930</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E932" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F932" s="1"/>
       <c r="G932" s="1"/>
@@ -20694,13 +21852,13 @@
         <v>931</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="E933" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F933" s="1"/>
       <c r="G933" s="1"/>
@@ -20710,13 +21868,13 @@
         <v>932</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F934" s="1"/>
       <c r="G934" s="1"/>
@@ -20726,13 +21884,13 @@
         <v>933</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F935" s="1"/>
       <c r="G935" s="1"/>
@@ -20742,13 +21900,13 @@
         <v>934</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="E936" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F936" s="1"/>
       <c r="G936" s="1"/>
@@ -20758,13 +21916,13 @@
         <v>935</v>
       </c>
       <c r="C937" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E937" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F937" s="1"/>
       <c r="G937" s="1"/>
@@ -20774,13 +21932,13 @@
         <v>936</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E938" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F938" s="1"/>
       <c r="G938" s="1"/>
@@ -20790,13 +21948,13 @@
         <v>937</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>850</v>
       </c>
       <c r="E939" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F939" s="1"/>
       <c r="G939" s="1"/>
@@ -20806,13 +21964,13 @@
         <v>938</v>
       </c>
       <c r="C940" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F940" s="1"/>
       <c r="G940" s="1"/>
@@ -20822,13 +21980,13 @@
         <v>939</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E941" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F941" s="1"/>
       <c r="G941" s="1"/>
@@ -20838,13 +21996,13 @@
         <v>940</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E942" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F942" s="1"/>
       <c r="G942" s="1"/>
@@ -20854,13 +22012,13 @@
         <v>941</v>
       </c>
       <c r="C943" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E943" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F943" s="1"/>
       <c r="G943" s="1"/>
@@ -20870,13 +22028,13 @@
         <v>942</v>
       </c>
       <c r="C944" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F944" s="1"/>
       <c r="G944" s="1"/>
@@ -20886,13 +22044,13 @@
         <v>943</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D945" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="E945" s="1" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F945" s="1"/>
       <c r="G945" s="1"/>
@@ -20902,13 +22060,13 @@
         <v>944</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E946" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="F946" s="1"/>
       <c r="G946" s="1"/>
@@ -20918,13 +22076,13 @@
         <v>945</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D947" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F947" s="1"/>
       <c r="G947" s="1"/>
@@ -20934,13 +22092,13 @@
         <v>946</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F948" s="1"/>
       <c r="G948" s="1"/>
@@ -20950,10 +22108,10 @@
         <v>947</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D949" s="4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E949" s="1" t="s">
         <v>20</v>
@@ -20966,13 +22124,13 @@
         <v>948</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E950" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F950" s="1"/>
       <c r="G950" s="1"/>
@@ -20982,13 +22140,13 @@
         <v>949</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>618</v>
       </c>
       <c r="E951" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F951" s="1"/>
       <c r="G951" s="1"/>
@@ -20998,13 +22156,13 @@
         <v>950</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D952" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E952" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F952" s="1"/>
       <c r="G952" s="1"/>
@@ -21014,13 +22172,13 @@
         <v>951</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D953" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E953" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F953" s="1"/>
       <c r="G953" s="1"/>
@@ -21030,13 +22188,13 @@
         <v>952</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D954" s="1" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F954" s="1"/>
       <c r="G954" s="1"/>
@@ -21046,13 +22204,13 @@
         <v>953</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D955" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F955" s="1"/>
       <c r="G955" s="1"/>
@@ -21062,13 +22220,13 @@
         <v>954</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D956" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E956" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F956" s="1"/>
       <c r="G956" s="1"/>
@@ -21078,13 +22236,13 @@
         <v>955</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D957" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F957" s="1"/>
       <c r="G957" s="1"/>
@@ -21094,13 +22252,13 @@
         <v>956</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D958" s="1" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E958" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F958" s="1"/>
       <c r="G958" s="1"/>
@@ -21110,13 +22268,13 @@
         <v>957</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E959" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F959" s="1"/>
       <c r="G959" s="1"/>
@@ -21126,13 +22284,13 @@
         <v>958</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E960" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F960" s="1"/>
       <c r="G960" s="1"/>
@@ -21142,13 +22300,13 @@
         <v>959</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E961" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F961" s="1"/>
       <c r="G961" s="1"/>
@@ -21158,13 +22316,13 @@
         <v>960</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E962" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F962" s="1"/>
       <c r="G962" s="1"/>
@@ -21174,13 +22332,13 @@
         <v>961</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>850</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F963" s="1"/>
       <c r="G963" s="1"/>
@@ -21190,13 +22348,13 @@
         <v>962</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E964" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F964" s="1"/>
       <c r="G964" s="1"/>
@@ -21206,13 +22364,13 @@
         <v>963</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D965" s="1" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E965" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F965" s="1"/>
       <c r="G965" s="1"/>
@@ -21222,13 +22380,13 @@
         <v>964</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D966" s="1" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E966" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F966" s="1"/>
       <c r="G966" s="1"/>
@@ -21238,13 +22396,13 @@
         <v>965</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D967" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E967" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F967" s="1"/>
       <c r="G967" s="1"/>
@@ -21254,13 +22412,13 @@
         <v>966</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E968" s="1" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F968" s="1"/>
       <c r="G968" s="1"/>
@@ -21270,13 +22428,13 @@
         <v>967</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D969" s="4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E969" s="1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F969" s="1"/>
       <c r="G969" s="1"/>
@@ -21286,13 +22444,13 @@
         <v>968</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="E970" s="1" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="F970" s="1"/>
       <c r="G970" s="1"/>
@@ -21302,13 +22460,13 @@
         <v>969</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="E971" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F971" s="1"/>
       <c r="G971" s="1"/>
@@ -21318,13 +22476,13 @@
         <v>970</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="E972" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F972" s="1"/>
       <c r="G972" s="1"/>
@@ -21334,13 +22492,13 @@
         <v>971</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E973" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F973" s="1"/>
       <c r="G973" s="1"/>
@@ -21350,10 +22508,10 @@
         <v>972</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D974" s="4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="E974" s="4" t="s">
         <v>20</v>
@@ -21366,13 +22524,13 @@
         <v>973</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E975" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F975" s="1"/>
       <c r="G975" s="1"/>
@@ -21382,13 +22540,13 @@
         <v>974</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D976" s="1" t="s">
         <v>618</v>
       </c>
       <c r="E976" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F976" s="1"/>
       <c r="G976" s="1"/>
@@ -21398,13 +22556,13 @@
         <v>975</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="E977" s="1" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="F977" s="1"/>
       <c r="G977" s="1"/>
@@ -21414,13 +22572,13 @@
         <v>976</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F978" s="1"/>
       <c r="G978" s="1"/>
@@ -21430,13 +22588,13 @@
         <v>977</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D979" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E979" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F979" s="1"/>
       <c r="G979" s="1"/>
@@ -21446,13 +22604,13 @@
         <v>978</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="E980" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F980" s="1"/>
       <c r="G980" s="1"/>
@@ -21462,13 +22620,13 @@
         <v>979</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="E981" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F981" s="1"/>
       <c r="G981" s="1"/>
@@ -21478,13 +22636,13 @@
         <v>980</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="E982" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F982" s="1"/>
       <c r="G982" s="1"/>
@@ -21494,13 +22652,13 @@
         <v>981</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E983" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F983" s="1"/>
       <c r="G983" s="1"/>
@@ -21510,13 +22668,13 @@
         <v>982</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="E984" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F984" s="1"/>
       <c r="G984" s="1"/>
@@ -21526,13 +22684,13 @@
         <v>983</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E985" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F985" s="1"/>
       <c r="G985" s="1"/>
@@ -21542,13 +22700,13 @@
         <v>984</v>
       </c>
       <c r="C986" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="E986" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F986" s="1"/>
       <c r="G986" s="1"/>
@@ -21558,13 +22716,13 @@
         <v>985</v>
       </c>
       <c r="C987" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D987" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E987" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F987" s="1"/>
       <c r="G987" s="1"/>
@@ -21574,13 +22732,13 @@
         <v>986</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>850</v>
       </c>
       <c r="E988" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F988" s="1"/>
       <c r="G988" s="1"/>
@@ -21590,13 +22748,13 @@
         <v>987</v>
       </c>
       <c r="C989" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D989" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E989" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F989" s="1"/>
       <c r="G989" s="1"/>
@@ -21606,13 +22764,13 @@
         <v>988</v>
       </c>
       <c r="C990" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E990" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F990" s="1"/>
       <c r="G990" s="1"/>
@@ -21622,13 +22780,13 @@
         <v>989</v>
       </c>
       <c r="C991" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E991" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F991" s="1"/>
       <c r="G991" s="1"/>
@@ -21638,13 +22796,13 @@
         <v>990</v>
       </c>
       <c r="C992" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E992" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F992" s="1"/>
       <c r="G992" s="1"/>
@@ -21654,13 +22812,13 @@
         <v>991</v>
       </c>
       <c r="C993" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D993" s="1" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E993" s="1" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F993" s="1"/>
       <c r="G993" s="1"/>
@@ -21670,13 +22828,13 @@
         <v>992</v>
       </c>
       <c r="C994" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D994" s="4" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F994" s="1"/>
       <c r="G994" s="1"/>
@@ -21686,13 +22844,13 @@
         <v>993</v>
       </c>
       <c r="C995" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D995" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="F995" s="1"/>
       <c r="G995" s="1"/>
@@ -21702,13 +22860,13 @@
         <v>994</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D996" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E996" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F996" s="1"/>
       <c r="G996" s="1"/>
@@ -21718,13 +22876,13 @@
         <v>995</v>
       </c>
       <c r="C997" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D997" s="1" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="E997" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F997" s="1"/>
       <c r="G997" s="1"/>
@@ -21734,13 +22892,13 @@
         <v>996</v>
       </c>
       <c r="C998" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D998" s="1" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E998" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F998" s="1"/>
       <c r="G998" s="1"/>
@@ -21750,10 +22908,10 @@
         <v>997</v>
       </c>
       <c r="C999" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D999" s="4" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="E999" s="4" t="s">
         <v>20</v>
@@ -21766,10 +22924,10 @@
         <v>998</v>
       </c>
       <c r="C1000" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1000" s="1" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="E1000" s="1" t="s">
         <v>58</v>
@@ -21782,10 +22940,10 @@
         <v>999</v>
       </c>
       <c r="C1001" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1001" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="E1001" s="1" t="s">
         <v>20</v>
@@ -21798,13 +22956,13 @@
         <v>1000</v>
       </c>
       <c r="C1002" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="E1002" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="F1002" s="1"/>
       <c r="G1002" s="1"/>
@@ -21814,13 +22972,13 @@
         <v>1001</v>
       </c>
       <c r="C1003" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="E1003" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="F1003" s="1"/>
       <c r="G1003" s="1"/>
@@ -21830,13 +22988,13 @@
         <v>1002</v>
       </c>
       <c r="C1004" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="E1004" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="F1004" s="1"/>
       <c r="G1004" s="1"/>
@@ -21846,13 +23004,13 @@
         <v>1003</v>
       </c>
       <c r="C1005" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1005" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="D1005" s="1" t="s">
-        <v>1062</v>
-      </c>
       <c r="E1005" s="1" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="F1005" s="1"/>
       <c r="G1005" s="1"/>
@@ -21862,13 +23020,13 @@
         <v>1004</v>
       </c>
       <c r="C1006" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="E1006" s="1" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="F1006" s="1"/>
       <c r="G1006" s="1"/>
@@ -21878,10 +23036,10 @@
         <v>1005</v>
       </c>
       <c r="C1007" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1007" s="1" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="E1007" s="1" t="s">
         <v>138</v>
@@ -21894,10 +23052,10 @@
         <v>1006</v>
       </c>
       <c r="C1008" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1008" s="1" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E1008" s="1" t="s">
         <v>138</v>
@@ -21910,10 +23068,10 @@
         <v>1007</v>
       </c>
       <c r="C1009" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1009" s="1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="E1009" s="1" t="s">
         <v>129</v>
@@ -21926,10 +23084,10 @@
         <v>1008</v>
       </c>
       <c r="C1010" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D1010" s="1" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="E1010" s="1" t="s">
         <v>129</v>
@@ -21938,7 +23096,4174 @@
       <c r="G1010" s="1"/>
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1011" s="8"/>
+      <c r="A1011" s="9"/>
+      <c r="B1011" s="6">
+        <v>1009</v>
+      </c>
+      <c r="C1011" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E1011" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1012" s="6">
+        <v>1010</v>
+      </c>
+      <c r="C1012" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="1"/>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1013" s="6">
+        <v>1011</v>
+      </c>
+      <c r="C1013" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1013" s="1"/>
+      <c r="G1013" s="1"/>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1014" s="6">
+        <v>1012</v>
+      </c>
+      <c r="C1014" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="1"/>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1015" s="6">
+        <v>1013</v>
+      </c>
+      <c r="C1015" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1016" s="6">
+        <v>1014</v>
+      </c>
+      <c r="C1016" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1016" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E1016" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1016" s="1"/>
+      <c r="G1016" s="1"/>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1017" s="6">
+        <v>1015</v>
+      </c>
+      <c r="C1017" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E1017" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="1"/>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1018" s="6">
+        <v>1016</v>
+      </c>
+      <c r="C1018" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E1018" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1019" s="6">
+        <v>1017</v>
+      </c>
+      <c r="C1019" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E1019" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F1019" s="1"/>
+      <c r="G1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1020" s="6">
+        <v>1018</v>
+      </c>
+      <c r="C1020" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E1020" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F1020" s="1"/>
+      <c r="G1020" s="1"/>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1021" s="6">
+        <v>1019</v>
+      </c>
+      <c r="C1021" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E1021" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F1021" s="1"/>
+      <c r="G1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1022" s="6">
+        <v>1020</v>
+      </c>
+      <c r="C1022" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E1022" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1022" s="1"/>
+      <c r="G1022" s="1"/>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1023" s="6">
+        <v>1021</v>
+      </c>
+      <c r="C1023" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E1023" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1023" s="1"/>
+      <c r="G1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1024" s="6">
+        <v>1022</v>
+      </c>
+      <c r="C1024" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E1024" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1024" s="1"/>
+      <c r="G1024" s="1"/>
+    </row>
+    <row r="1025" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1025" s="6">
+        <v>1023</v>
+      </c>
+      <c r="C1025" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E1025" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1025" s="1"/>
+      <c r="G1025" s="1"/>
+    </row>
+    <row r="1026" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1026" s="6">
+        <v>1024</v>
+      </c>
+      <c r="C1026" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E1026" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1026" s="1"/>
+      <c r="G1026" s="1"/>
+    </row>
+    <row r="1027" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1027" s="6">
+        <v>1025</v>
+      </c>
+      <c r="C1027" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E1027" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1027" s="1"/>
+      <c r="G1027" s="1"/>
+    </row>
+    <row r="1028" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1028" s="6">
+        <v>1026</v>
+      </c>
+      <c r="C1028" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E1028" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1028" s="1"/>
+      <c r="G1028" s="1"/>
+    </row>
+    <row r="1029" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1029" s="6">
+        <v>1027</v>
+      </c>
+      <c r="C1029" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E1029" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1029" s="1"/>
+      <c r="G1029" s="1"/>
+    </row>
+    <row r="1030" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1030" s="6">
+        <v>1028</v>
+      </c>
+      <c r="C1030" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E1030" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1030" s="1"/>
+      <c r="G1030" s="1"/>
+    </row>
+    <row r="1031" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1031" s="6">
+        <v>1029</v>
+      </c>
+      <c r="C1031" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E1031" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1031" s="1"/>
+      <c r="G1031" s="1"/>
+    </row>
+    <row r="1032" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1032" s="6">
+        <v>1030</v>
+      </c>
+      <c r="C1032" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E1032" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1032" s="1"/>
+      <c r="G1032" s="1"/>
+    </row>
+    <row r="1033" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1033" s="6">
+        <v>1031</v>
+      </c>
+      <c r="C1033" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E1033" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1033" s="1"/>
+      <c r="G1033" s="1"/>
+    </row>
+    <row r="1034" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1034" s="6">
+        <v>1032</v>
+      </c>
+      <c r="C1034" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E1034" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1034" s="1"/>
+      <c r="G1034" s="1"/>
+    </row>
+    <row r="1035" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1035" s="6">
+        <v>1033</v>
+      </c>
+      <c r="C1035" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E1035" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1035" s="1"/>
+      <c r="G1035" s="1"/>
+    </row>
+    <row r="1036" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1036" s="6">
+        <v>1034</v>
+      </c>
+      <c r="C1036" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1036" s="1"/>
+      <c r="G1036" s="1"/>
+    </row>
+    <row r="1037" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1037" s="6">
+        <v>1035</v>
+      </c>
+      <c r="C1037" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1037" s="1"/>
+      <c r="G1037" s="1"/>
+    </row>
+    <row r="1038" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1038" s="6">
+        <v>1036</v>
+      </c>
+      <c r="C1038" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E1038" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1038" s="1"/>
+      <c r="G1038" s="1"/>
+    </row>
+    <row r="1039" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1039" s="6">
+        <v>1037</v>
+      </c>
+      <c r="C1039" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1039" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E1039" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1039" s="1"/>
+      <c r="G1039" s="1"/>
+    </row>
+    <row r="1040" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1040" s="6">
+        <v>1038</v>
+      </c>
+      <c r="C1040" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E1040" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1040" s="1"/>
+      <c r="G1040" s="1"/>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1041" s="6">
+        <v>1039</v>
+      </c>
+      <c r="C1041" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E1041" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1041" s="1"/>
+      <c r="G1041" s="1"/>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1042" s="6">
+        <v>1040</v>
+      </c>
+      <c r="C1042" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1042" s="1"/>
+      <c r="G1042" s="1"/>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1043" s="6">
+        <v>1041</v>
+      </c>
+      <c r="C1043" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E1043" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1043" s="1"/>
+      <c r="G1043" s="1"/>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1044" s="6">
+        <v>1042</v>
+      </c>
+      <c r="C1044" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1044" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E1044" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1044" s="1"/>
+      <c r="G1044" s="1"/>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1045" s="6">
+        <v>1043</v>
+      </c>
+      <c r="C1045" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E1045" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1045" s="1"/>
+      <c r="G1045" s="1"/>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1046" s="6">
+        <v>1044</v>
+      </c>
+      <c r="C1046" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E1046" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1046" s="1"/>
+      <c r="G1046" s="1"/>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1047" s="6">
+        <v>1045</v>
+      </c>
+      <c r="C1047" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E1047" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1047" s="1"/>
+      <c r="G1047" s="1"/>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1048" s="6">
+        <v>1046</v>
+      </c>
+      <c r="C1048" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1048" s="1"/>
+      <c r="G1048" s="1"/>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1049" s="6">
+        <v>1047</v>
+      </c>
+      <c r="C1049" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1049" s="1"/>
+      <c r="G1049" s="1"/>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1050" s="6">
+        <v>1048</v>
+      </c>
+      <c r="C1050" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1050" s="1"/>
+      <c r="G1050" s="1"/>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1051" s="6">
+        <v>1049</v>
+      </c>
+      <c r="C1051" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1051" s="1"/>
+      <c r="G1051" s="1"/>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1052" s="6">
+        <v>1050</v>
+      </c>
+      <c r="C1052" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1052" s="1"/>
+      <c r="G1052" s="1"/>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1053" s="6">
+        <v>1051</v>
+      </c>
+      <c r="C1053" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1053" s="1"/>
+      <c r="G1053" s="1"/>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1054" s="6">
+        <v>1052</v>
+      </c>
+      <c r="C1054" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F1054" s="1"/>
+      <c r="G1054" s="1"/>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1055" s="8"/>
+      <c r="B1055" s="6">
+        <v>1053</v>
+      </c>
+      <c r="C1055" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F1055" s="1"/>
+      <c r="G1055" s="1"/>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1056" s="6">
+        <v>1054</v>
+      </c>
+      <c r="C1056" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F1056" s="1"/>
+      <c r="G1056" s="1"/>
+    </row>
+    <row r="1057" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1057" s="6">
+        <v>1055</v>
+      </c>
+      <c r="C1057" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F1057" s="1"/>
+      <c r="G1057" s="1"/>
+    </row>
+    <row r="1058" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1058" s="6">
+        <v>1056</v>
+      </c>
+      <c r="C1058" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F1058" s="1"/>
+      <c r="G1058" s="1"/>
+    </row>
+    <row r="1059" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1059" s="6">
+        <v>1057</v>
+      </c>
+      <c r="C1059" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1059" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F1059" s="1"/>
+      <c r="G1059" s="1"/>
+    </row>
+    <row r="1060" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1060" s="6">
+        <v>1058</v>
+      </c>
+      <c r="C1060" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1060" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F1060" s="1"/>
+      <c r="G1060" s="1"/>
+    </row>
+    <row r="1061" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1061" s="6">
+        <v>1059</v>
+      </c>
+      <c r="C1061" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1061" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F1061" s="1"/>
+      <c r="G1061" s="1"/>
+    </row>
+    <row r="1062" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1062" s="6">
+        <v>1060</v>
+      </c>
+      <c r="C1062" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1062" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F1062" s="1"/>
+      <c r="G1062" s="1"/>
+    </row>
+    <row r="1063" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1063" s="6">
+        <v>1061</v>
+      </c>
+      <c r="C1063" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1063" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E1063" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F1063" s="1"/>
+      <c r="G1063" s="1"/>
+    </row>
+    <row r="1064" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1064" s="6">
+        <v>1062</v>
+      </c>
+      <c r="C1064" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1064" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E1064" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F1064" s="1"/>
+      <c r="G1064" s="1"/>
+    </row>
+    <row r="1065" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1065" s="6">
+        <v>1063</v>
+      </c>
+      <c r="C1065" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1065" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E1065" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F1065" s="1"/>
+      <c r="G1065" s="1"/>
+    </row>
+    <row r="1066" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1066" s="6">
+        <v>1064</v>
+      </c>
+      <c r="C1066" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1066" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E1066" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F1066" s="1"/>
+      <c r="G1066" s="1"/>
+    </row>
+    <row r="1067" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1067" s="6">
+        <v>1065</v>
+      </c>
+      <c r="C1067" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1067" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E1067" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F1067" s="1"/>
+      <c r="G1067" s="1"/>
+    </row>
+    <row r="1068" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1068" s="6">
+        <v>1066</v>
+      </c>
+      <c r="C1068" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1068" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1068" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F1068" s="1"/>
+      <c r="G1068" s="1"/>
+    </row>
+    <row r="1069" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1069" s="6">
+        <v>1067</v>
+      </c>
+      <c r="C1069" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1069" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1069" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1069" s="1"/>
+      <c r="G1069" s="1"/>
+    </row>
+    <row r="1070" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1070" s="6">
+        <v>1068</v>
+      </c>
+      <c r="C1070" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1070" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E1070" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F1070" s="1"/>
+      <c r="G1070" s="1"/>
+    </row>
+    <row r="1071" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1071" s="6">
+        <v>1069</v>
+      </c>
+      <c r="C1071" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1071" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E1071" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F1071" s="1"/>
+      <c r="G1071" s="1"/>
+    </row>
+    <row r="1072" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1072" s="6">
+        <v>1070</v>
+      </c>
+      <c r="C1072" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1072" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1072" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F1072" s="1"/>
+      <c r="G1072" s="1"/>
+    </row>
+    <row r="1073" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1073" s="6">
+        <v>1071</v>
+      </c>
+      <c r="C1073" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1073" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E1073" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1073" s="1"/>
+      <c r="G1073" s="1"/>
+    </row>
+    <row r="1074" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1074" s="6">
+        <v>1072</v>
+      </c>
+      <c r="C1074" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1074" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E1074" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F1074" s="1"/>
+      <c r="G1074" s="1"/>
+    </row>
+    <row r="1075" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1075" s="6">
+        <v>1073</v>
+      </c>
+      <c r="C1075" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1075" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1075" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1075" s="1"/>
+      <c r="G1075" s="1"/>
+    </row>
+    <row r="1076" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1076" s="6">
+        <v>1074</v>
+      </c>
+      <c r="C1076" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1076" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E1076" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1076" s="1"/>
+      <c r="G1076" s="1"/>
+    </row>
+    <row r="1077" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1077" s="6">
+        <v>1075</v>
+      </c>
+      <c r="C1077" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1077" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E1077" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F1077" s="1"/>
+      <c r="G1077" s="1"/>
+    </row>
+    <row r="1078" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1078" s="6">
+        <v>1076</v>
+      </c>
+      <c r="C1078" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1078" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E1078" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F1078" s="1"/>
+      <c r="G1078" s="1"/>
+    </row>
+    <row r="1079" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1079" s="6">
+        <v>1077</v>
+      </c>
+      <c r="C1079" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1079" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E1079" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F1079" s="1"/>
+      <c r="G1079" s="1"/>
+    </row>
+    <row r="1080" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1080" s="6">
+        <v>1078</v>
+      </c>
+      <c r="C1080" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1080" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E1080" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F1080" s="1"/>
+      <c r="G1080" s="1"/>
+    </row>
+    <row r="1081" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1081" s="6">
+        <v>1079</v>
+      </c>
+      <c r="C1081" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1081" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1081" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F1081" s="1"/>
+      <c r="G1081" s="1"/>
+    </row>
+    <row r="1082" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1082" s="6">
+        <v>1080</v>
+      </c>
+      <c r="C1082" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1082" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1082" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F1082" s="1"/>
+      <c r="G1082" s="1"/>
+    </row>
+    <row r="1083" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1083" s="6">
+        <v>1081</v>
+      </c>
+      <c r="C1083" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E1083" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1083" s="1"/>
+      <c r="G1083" s="1"/>
+    </row>
+    <row r="1084" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1084" s="6">
+        <v>1082</v>
+      </c>
+      <c r="C1084" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E1084" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1084" s="1"/>
+      <c r="G1084" s="1"/>
+    </row>
+    <row r="1085" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1085" s="6">
+        <v>1083</v>
+      </c>
+      <c r="C1085" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E1085" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F1085" s="1"/>
+      <c r="G1085" s="1"/>
+    </row>
+    <row r="1086" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1086" s="6">
+        <v>1084</v>
+      </c>
+      <c r="C1086" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1086" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1086" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F1086" s="1"/>
+      <c r="G1086" s="1"/>
+    </row>
+    <row r="1087" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1087" s="6">
+        <v>1085</v>
+      </c>
+      <c r="C1087" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1087" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E1087" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1087" s="1"/>
+      <c r="G1087" s="1"/>
+    </row>
+    <row r="1088" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1088" s="6">
+        <v>1086</v>
+      </c>
+      <c r="C1088" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E1088" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F1088" s="1"/>
+      <c r="G1088" s="1"/>
+    </row>
+    <row r="1089" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1089" s="6">
+        <v>1087</v>
+      </c>
+      <c r="C1089" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1089" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E1089" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F1089" s="1"/>
+      <c r="G1089" s="1"/>
+    </row>
+    <row r="1090" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1090" s="6">
+        <v>1088</v>
+      </c>
+      <c r="C1090" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1090" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E1090" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1090" s="1"/>
+      <c r="G1090" s="1"/>
+    </row>
+    <row r="1091" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1091" s="6">
+        <v>1089</v>
+      </c>
+      <c r="C1091" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E1091" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F1091" s="1"/>
+      <c r="G1091" s="1"/>
+    </row>
+    <row r="1092" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1092" s="6">
+        <v>1090</v>
+      </c>
+      <c r="C1092" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E1092" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1092" s="1"/>
+      <c r="G1092" s="1"/>
+    </row>
+    <row r="1093" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1093" s="6">
+        <v>1091</v>
+      </c>
+      <c r="C1093" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1093" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E1093" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F1093" s="1"/>
+      <c r="G1093" s="1"/>
+    </row>
+    <row r="1094" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1094" s="6">
+        <v>1092</v>
+      </c>
+      <c r="C1094" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1094" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1094" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1094" s="1"/>
+      <c r="G1094" s="1"/>
+    </row>
+    <row r="1095" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1095" s="6">
+        <v>1093</v>
+      </c>
+      <c r="C1095" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1095" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F1095" s="1"/>
+      <c r="G1095" s="1"/>
+    </row>
+    <row r="1096" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1096" s="6">
+        <v>1094</v>
+      </c>
+      <c r="C1096" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1096" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1096" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F1096" s="1"/>
+      <c r="G1096" s="1"/>
+    </row>
+    <row r="1097" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1097" s="6">
+        <v>1095</v>
+      </c>
+      <c r="C1097" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1097" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1097" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F1097" s="1"/>
+      <c r="G1097" s="1"/>
+    </row>
+    <row r="1098" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1098" s="6">
+        <v>1096</v>
+      </c>
+      <c r="C1098" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1098" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F1098" s="1"/>
+      <c r="G1098" s="1"/>
+    </row>
+    <row r="1099" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1099" s="6">
+        <v>1097</v>
+      </c>
+      <c r="C1099" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1099" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F1099" s="1"/>
+      <c r="G1099" s="1"/>
+    </row>
+    <row r="1100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1100" s="6">
+        <v>1098</v>
+      </c>
+      <c r="C1100" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1100" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F1100" s="1"/>
+      <c r="G1100" s="1"/>
+    </row>
+    <row r="1101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1101" s="6">
+        <v>1099</v>
+      </c>
+      <c r="C1101" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1101" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F1101" s="1"/>
+      <c r="G1101" s="1"/>
+    </row>
+    <row r="1102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1102" s="6">
+        <v>1100</v>
+      </c>
+      <c r="C1102" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1102" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E1102" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F1102" s="1"/>
+      <c r="G1102" s="1"/>
+    </row>
+    <row r="1103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1103" s="6">
+        <v>1101</v>
+      </c>
+      <c r="C1103" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1103" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E1103" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F1103" s="1"/>
+      <c r="G1103" s="1"/>
+    </row>
+    <row r="1104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1104" s="6">
+        <v>1102</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1104" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E1104" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F1104" s="1"/>
+      <c r="G1104" s="1"/>
+    </row>
+    <row r="1105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1105" s="6">
+        <v>1103</v>
+      </c>
+      <c r="C1105" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1105" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F1105" s="1"/>
+      <c r="G1105" s="1"/>
+    </row>
+    <row r="1106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1106" s="6">
+        <v>1104</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1106" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E1106" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1106" s="1"/>
+      <c r="G1106" s="1"/>
+    </row>
+    <row r="1107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1107" s="6">
+        <v>1105</v>
+      </c>
+      <c r="C1107" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E1107" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F1107" s="1"/>
+      <c r="G1107" s="1"/>
+    </row>
+    <row r="1108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1108" s="6">
+        <v>1106</v>
+      </c>
+      <c r="C1108" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1108" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E1108" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F1108" s="1"/>
+      <c r="G1108" s="1"/>
+    </row>
+    <row r="1109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1109" s="6">
+        <v>1107</v>
+      </c>
+      <c r="C1109" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1109" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E1109" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1109" s="1"/>
+      <c r="G1109" s="1"/>
+    </row>
+    <row r="1110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1110" s="6">
+        <v>1108</v>
+      </c>
+      <c r="C1110" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1110" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E1110" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F1110" s="1"/>
+      <c r="G1110" s="1"/>
+    </row>
+    <row r="1111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1111" s="6">
+        <v>1109</v>
+      </c>
+      <c r="C1111" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E1111" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F1111" s="1"/>
+      <c r="G1111" s="1"/>
+    </row>
+    <row r="1112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1112" s="6">
+        <v>1110</v>
+      </c>
+      <c r="C1112" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1112" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E1112" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F1112" s="1"/>
+      <c r="G1112" s="1"/>
+    </row>
+    <row r="1113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1113" s="6">
+        <v>1111</v>
+      </c>
+      <c r="C1113" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1113" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1113" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F1113" s="1"/>
+      <c r="G1113" s="1"/>
+    </row>
+    <row r="1114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1114" s="6">
+        <v>1112</v>
+      </c>
+      <c r="C1114" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1114" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E1114" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F1114" s="1"/>
+      <c r="G1114" s="1"/>
+    </row>
+    <row r="1115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1115" s="6">
+        <v>1113</v>
+      </c>
+      <c r="C1115" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1115" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E1115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1115" s="1"/>
+      <c r="G1115" s="1"/>
+    </row>
+    <row r="1116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1116" s="6">
+        <v>1114</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E1116" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1116" s="1"/>
+      <c r="G1116" s="1"/>
+    </row>
+    <row r="1117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1117" s="6">
+        <v>1115</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E1117" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F1117" s="1"/>
+      <c r="G1117" s="1"/>
+    </row>
+    <row r="1118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1118" s="6">
+        <v>1116</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1118" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E1118" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F1118" s="1"/>
+      <c r="G1118" s="1"/>
+    </row>
+    <row r="1119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1119" s="6">
+        <v>1117</v>
+      </c>
+      <c r="C1119" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E1119" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F1119" s="1"/>
+      <c r="G1119" s="1"/>
+    </row>
+    <row r="1120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1120" s="6">
+        <v>1118</v>
+      </c>
+      <c r="C1120" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E1120" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F1120" s="1"/>
+      <c r="G1120" s="1"/>
+    </row>
+    <row r="1121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1121" s="6">
+        <v>1119</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1121" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1121" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F1121" s="1"/>
+      <c r="G1121" s="1"/>
+    </row>
+    <row r="1122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1122" s="6">
+        <v>1120</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E1122" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F1122" s="1"/>
+      <c r="G1122" s="1"/>
+    </row>
+    <row r="1123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1123" s="6">
+        <v>1121</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E1123" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F1123" s="1"/>
+      <c r="G1123" s="1"/>
+    </row>
+    <row r="1124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1124" s="6">
+        <v>1122</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E1124" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F1124" s="1"/>
+      <c r="G1124" s="1"/>
+    </row>
+    <row r="1125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1125" s="6">
+        <v>1123</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E1125" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1125" s="1"/>
+      <c r="G1125" s="1"/>
+    </row>
+    <row r="1126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1126" s="6">
+        <v>1124</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1126" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1126" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1126" s="1"/>
+      <c r="G1126" s="1"/>
+    </row>
+    <row r="1127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1127" s="6">
+        <v>1125</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E1127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1127" s="1"/>
+      <c r="G1127" s="1"/>
+    </row>
+    <row r="1128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1128" s="6">
+        <v>1126</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E1128" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F1128" s="1"/>
+      <c r="G1128" s="1"/>
+    </row>
+    <row r="1129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1129" s="6">
+        <v>1127</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E1129" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F1129" s="1"/>
+      <c r="G1129" s="1"/>
+    </row>
+    <row r="1130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1130" s="6">
+        <v>1128</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1130" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E1130" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F1130" s="1"/>
+      <c r="G1130" s="1"/>
+    </row>
+    <row r="1131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1131" s="6">
+        <v>1129</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E1131" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F1131" s="1"/>
+      <c r="G1131" s="1"/>
+    </row>
+    <row r="1132" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1132" s="6">
+        <v>1130</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1132" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E1132" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F1132" s="1"/>
+      <c r="G1132" s="1"/>
+    </row>
+    <row r="1133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1133" s="6">
+        <v>1131</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1133" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1133" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F1133" s="1"/>
+      <c r="G1133" s="1"/>
+    </row>
+    <row r="1134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1134" s="6">
+        <v>1132</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E1134" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F1134" s="1"/>
+      <c r="G1134" s="1"/>
+    </row>
+    <row r="1135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1135" s="6">
+        <v>1133</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E1135" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F1135" s="1"/>
+      <c r="G1135" s="1"/>
+    </row>
+    <row r="1136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1136" s="6">
+        <v>1134</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1136" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E1136" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F1136" s="1"/>
+      <c r="G1136" s="1"/>
+    </row>
+    <row r="1137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1137" s="6">
+        <v>1135</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1137" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E1137" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F1137" s="1"/>
+      <c r="G1137" s="1"/>
+    </row>
+    <row r="1138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1138" s="6">
+        <v>1136</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1138" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E1138" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F1138" s="1"/>
+      <c r="G1138" s="1"/>
+    </row>
+    <row r="1139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1139" s="6">
+        <v>1137</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E1139" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F1139" s="1"/>
+      <c r="G1139" s="1"/>
+    </row>
+    <row r="1140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1140" s="6">
+        <v>1138</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E1140" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F1140" s="1"/>
+      <c r="G1140" s="1"/>
+    </row>
+    <row r="1141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1141" s="6">
+        <v>1139</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E1141" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F1141" s="1"/>
+      <c r="G1141" s="1"/>
+    </row>
+    <row r="1142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1142" s="6">
+        <v>1140</v>
+      </c>
+      <c r="C1142" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1142" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E1142" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F1142" s="1"/>
+      <c r="G1142" s="1"/>
+    </row>
+    <row r="1143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1143" s="6">
+        <v>1141</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E1143" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F1143" s="1"/>
+      <c r="G1143" s="1"/>
+    </row>
+    <row r="1144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1144" s="6">
+        <v>1142</v>
+      </c>
+      <c r="C1144" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1144" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E1144" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F1144" s="1"/>
+      <c r="G1144" s="1"/>
+    </row>
+    <row r="1145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1145" s="6">
+        <v>1143</v>
+      </c>
+      <c r="C1145" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1145" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E1145" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F1145" s="1"/>
+      <c r="G1145" s="1"/>
+    </row>
+    <row r="1146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1146" s="6">
+        <v>1144</v>
+      </c>
+      <c r="C1146" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1146" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E1146" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F1146" s="1"/>
+      <c r="G1146" s="1"/>
+    </row>
+    <row r="1147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1147" s="6">
+        <v>1145</v>
+      </c>
+      <c r="C1147" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1147" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1147" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F1147" s="1"/>
+      <c r="G1147" s="1"/>
+    </row>
+    <row r="1148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1148" s="6">
+        <v>1146</v>
+      </c>
+      <c r="C1148" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1148" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E1148" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F1148" s="1"/>
+      <c r="G1148" s="1"/>
+    </row>
+    <row r="1149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1149" s="6">
+        <v>1147</v>
+      </c>
+      <c r="C1149" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1149" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1149" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F1149" s="1"/>
+      <c r="G1149" s="1"/>
+    </row>
+    <row r="1150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1150" s="6">
+        <v>1148</v>
+      </c>
+      <c r="C1150" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1150" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1150" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F1150" s="1"/>
+      <c r="G1150" s="1"/>
+    </row>
+    <row r="1151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1151" s="6">
+        <v>1149</v>
+      </c>
+      <c r="C1151" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1151" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1151" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F1151" s="1"/>
+      <c r="G1151" s="1"/>
+    </row>
+    <row r="1152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1152" s="6">
+        <v>1150</v>
+      </c>
+      <c r="C1152" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1152" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1152" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F1152" s="1"/>
+      <c r="G1152" s="1"/>
+    </row>
+    <row r="1153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1153" s="6">
+        <v>1151</v>
+      </c>
+      <c r="C1153" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1153" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E1153" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1153" s="1"/>
+      <c r="G1153" s="1"/>
+    </row>
+    <row r="1154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1154" s="6">
+        <v>1152</v>
+      </c>
+      <c r="C1154" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1154" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1154" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1154" s="1"/>
+      <c r="G1154" s="1"/>
+    </row>
+    <row r="1155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1155" s="6">
+        <v>1153</v>
+      </c>
+      <c r="C1155" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1155" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E1155" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F1155" s="1"/>
+      <c r="G1155" s="1"/>
+    </row>
+    <row r="1156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1156" s="6">
+        <v>1154</v>
+      </c>
+      <c r="C1156" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1156" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1156" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F1156" s="1"/>
+      <c r="G1156" s="1"/>
+    </row>
+    <row r="1157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1157" s="6">
+        <v>1155</v>
+      </c>
+      <c r="C1157" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1157" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E1157" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F1157" s="1"/>
+      <c r="G1157" s="1"/>
+    </row>
+    <row r="1158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1158" s="6">
+        <v>1156</v>
+      </c>
+      <c r="C1158" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1158" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E1158" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F1158" s="1"/>
+      <c r="G1158" s="1"/>
+    </row>
+    <row r="1159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1159" s="6">
+        <v>1157</v>
+      </c>
+      <c r="C1159" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1159" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1159" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1159" s="1"/>
+      <c r="G1159" s="1"/>
+    </row>
+    <row r="1160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1160" s="6">
+        <v>1158</v>
+      </c>
+      <c r="C1160" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1160" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E1160" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1160" s="1"/>
+      <c r="G1160" s="1"/>
+    </row>
+    <row r="1161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1161" s="6">
+        <v>1159</v>
+      </c>
+      <c r="C1161" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1161" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1161" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F1161" s="1"/>
+      <c r="G1161" s="1"/>
+    </row>
+    <row r="1162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1162" s="6">
+        <v>1160</v>
+      </c>
+      <c r="C1162" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1162" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E1162" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F1162" s="1"/>
+      <c r="G1162" s="1"/>
+    </row>
+    <row r="1163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1163" s="6">
+        <v>1161</v>
+      </c>
+      <c r="C1163" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1163" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E1163" s="12" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1164" s="6">
+        <v>1162</v>
+      </c>
+      <c r="C1164" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1164" s="12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E1164" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1165" s="6">
+        <v>1163</v>
+      </c>
+      <c r="C1165" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1165" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E1165" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1166" s="6">
+        <v>1164</v>
+      </c>
+      <c r="C1166" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1166" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E1166" s="12" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1167" s="6">
+        <v>1165</v>
+      </c>
+      <c r="C1167" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1167" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E1167" s="12" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1168" s="6">
+        <v>1166</v>
+      </c>
+      <c r="C1168" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1168" s="12" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E1168" s="12" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1169" s="6">
+        <v>1167</v>
+      </c>
+      <c r="C1169" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1169" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E1169" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1170" s="6">
+        <v>1168</v>
+      </c>
+      <c r="C1170" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1170" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1170" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1171" s="6">
+        <v>1169</v>
+      </c>
+      <c r="C1171" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1171" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E1171" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1172" s="6">
+        <v>1170</v>
+      </c>
+      <c r="C1172" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1172" s="12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E1172" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1173" s="6">
+        <v>1171</v>
+      </c>
+      <c r="C1173" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1173" s="12" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E1173" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1174" s="6">
+        <v>1172</v>
+      </c>
+      <c r="C1174" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1174" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E1174" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1175" s="6">
+        <v>1173</v>
+      </c>
+      <c r="C1175" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1175" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E1175" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1176" s="6">
+        <v>1174</v>
+      </c>
+      <c r="C1176" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1176" s="12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E1176" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1177" s="6">
+        <v>1175</v>
+      </c>
+      <c r="C1177" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1177" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E1177" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1178" s="6">
+        <v>1176</v>
+      </c>
+      <c r="C1178" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1178" s="12" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E1178" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1179" s="6">
+        <v>1177</v>
+      </c>
+      <c r="C1179" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1179" s="12" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E1179" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1180" s="6">
+        <v>1178</v>
+      </c>
+      <c r="C1180" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1180" s="12" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E1180" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1181" s="6">
+        <v>1179</v>
+      </c>
+      <c r="C1181" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1181" s="12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E1181" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1182" s="6">
+        <v>1180</v>
+      </c>
+      <c r="C1182" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1182" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E1182" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1183" s="6">
+        <v>1181</v>
+      </c>
+      <c r="C1183" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1183" s="12" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E1183" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1184" s="6">
+        <v>1182</v>
+      </c>
+      <c r="C1184" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1184" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E1184" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1185" s="6">
+        <v>1183</v>
+      </c>
+      <c r="C1185" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1185" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E1185" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1186" s="6">
+        <v>1184</v>
+      </c>
+      <c r="C1186" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1186" s="12" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E1186" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1187" s="6">
+        <v>1185</v>
+      </c>
+      <c r="C1187" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1187" s="12" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E1187" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1188" s="6">
+        <v>1186</v>
+      </c>
+      <c r="C1188" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1188" s="12" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E1188" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1189" s="6">
+        <v>1187</v>
+      </c>
+      <c r="C1189" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1189" s="12" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E1189" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1190" s="6">
+        <v>1188</v>
+      </c>
+      <c r="C1190" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1190" s="12" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E1190" s="12" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1191" s="6">
+        <v>1189</v>
+      </c>
+      <c r="C1191" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1191" s="12" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E1191" s="12" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1192" s="6">
+        <v>1190</v>
+      </c>
+      <c r="C1192" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1192" s="12" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1192" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1193" s="6">
+        <v>1191</v>
+      </c>
+      <c r="C1193" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1193" s="12" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E1193" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1194" s="6">
+        <v>1192</v>
+      </c>
+      <c r="C1194" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1194" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1194" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1195" s="6">
+        <v>1193</v>
+      </c>
+      <c r="C1195" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1195" s="12" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E1195" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1196" s="6">
+        <v>1194</v>
+      </c>
+      <c r="C1196" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1196" s="12" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E1196" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1197" s="6">
+        <v>1195</v>
+      </c>
+      <c r="C1197" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1197" s="12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E1197" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1198" s="6">
+        <v>1196</v>
+      </c>
+      <c r="C1198" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1198" s="12" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E1198" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1199" s="6">
+        <v>1197</v>
+      </c>
+      <c r="C1199" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1199" s="12" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E1199" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1200" s="6">
+        <v>1198</v>
+      </c>
+      <c r="C1200" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1200" s="12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E1200" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1201" s="6">
+        <v>1199</v>
+      </c>
+      <c r="C1201" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1201" s="12" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E1201" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1202" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C1202" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1202" s="12" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1202" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1203" s="6">
+        <v>1201</v>
+      </c>
+      <c r="C1203" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1203" s="12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1203" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1204" s="6">
+        <v>1202</v>
+      </c>
+      <c r="C1204" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1204" s="12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E1204" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1205" s="6">
+        <v>1203</v>
+      </c>
+      <c r="C1205" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1205" s="12" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E1205" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1206" s="6">
+        <v>1204</v>
+      </c>
+      <c r="C1206" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1206" s="12" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E1206" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1207" s="6">
+        <v>1205</v>
+      </c>
+      <c r="C1207" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1207" s="12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E1207" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1208" s="6">
+        <v>1206</v>
+      </c>
+      <c r="C1208" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1208" s="12" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E1208" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1209" s="6">
+        <v>1207</v>
+      </c>
+      <c r="C1209" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1209" s="12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E1209" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1210" s="6">
+        <v>1208</v>
+      </c>
+      <c r="C1210" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1210" s="12" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E1210" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1211" s="6">
+        <v>1209</v>
+      </c>
+      <c r="C1211" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1211" s="12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E1211" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1212" s="6">
+        <v>1210</v>
+      </c>
+      <c r="C1212" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1212" s="12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E1212" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1213" s="6">
+        <v>1211</v>
+      </c>
+      <c r="C1213" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1213" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E1213" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1214" s="6">
+        <v>1212</v>
+      </c>
+      <c r="C1214" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1214" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E1214" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1215" s="6">
+        <v>1213</v>
+      </c>
+      <c r="C1215" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1215" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E1215" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1216" s="6">
+        <v>1214</v>
+      </c>
+      <c r="C1216" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1216" s="12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E1216" s="12" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1217" s="6">
+        <v>1215</v>
+      </c>
+      <c r="C1217" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1217" s="12" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E1217" s="12" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1218" s="6">
+        <v>1216</v>
+      </c>
+      <c r="C1218" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1218" s="12" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E1218" s="12" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1219" s="6">
+        <v>1217</v>
+      </c>
+      <c r="C1219" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1219" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E1219" s="12" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1220" s="6">
+        <v>1218</v>
+      </c>
+      <c r="C1220" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1220" s="12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1220" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1221" s="6">
+        <v>1219</v>
+      </c>
+      <c r="C1221" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1221" s="12" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E1221" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1222" s="6">
+        <v>1220</v>
+      </c>
+      <c r="C1222" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1222" s="12" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E1222" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1223" s="6">
+        <v>1221</v>
+      </c>
+      <c r="C1223" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1223" s="12" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E1223" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1224" s="6">
+        <v>1222</v>
+      </c>
+      <c r="C1224" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1224" s="12" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E1224" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1225" s="6">
+        <v>1223</v>
+      </c>
+      <c r="C1225" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1225" s="12" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E1225" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1226" s="6">
+        <v>1224</v>
+      </c>
+      <c r="C1226" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1226" s="12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E1226" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1227" s="6">
+        <v>1225</v>
+      </c>
+      <c r="C1227" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1227" s="12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E1227" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1228" s="6">
+        <v>1226</v>
+      </c>
+      <c r="C1228" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1228" s="12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1228" s="12" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1229" s="6">
+        <v>1227</v>
+      </c>
+      <c r="C1229" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1229" s="12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E1229" s="12" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1230" s="6">
+        <v>1228</v>
+      </c>
+      <c r="C1230" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1230" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E1230" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1231" s="6">
+        <v>1229</v>
+      </c>
+      <c r="C1231" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1231" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E1231" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1232" s="6">
+        <v>1230</v>
+      </c>
+      <c r="C1232" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1232" s="12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E1232" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1233" s="6">
+        <v>1231</v>
+      </c>
+      <c r="C1233" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1233" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E1233" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1234" s="6">
+        <v>1232</v>
+      </c>
+      <c r="C1234" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1234" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E1234" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1235" s="6">
+        <v>1233</v>
+      </c>
+      <c r="C1235" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1235" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E1235" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1236" s="6">
+        <v>1234</v>
+      </c>
+      <c r="C1236" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1236" s="12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E1236" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1237" s="6">
+        <v>1235</v>
+      </c>
+      <c r="C1237" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1237" s="12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E1237" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1238" s="6">
+        <v>1236</v>
+      </c>
+      <c r="C1238" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1238" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E1238" s="12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1239" s="6">
+        <v>1237</v>
+      </c>
+      <c r="C1239" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1239" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E1239" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1240" s="6">
+        <v>1238</v>
+      </c>
+      <c r="C1240" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1240" s="12" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E1240" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1241" s="6">
+        <v>1239</v>
+      </c>
+      <c r="C1241" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1241" s="12" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E1241" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1242" s="6">
+        <v>1240</v>
+      </c>
+      <c r="C1242" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1242" s="12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E1242" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1243" s="6">
+        <v>1241</v>
+      </c>
+      <c r="C1243" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1243" s="12" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E1243" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1244" s="6">
+        <v>1242</v>
+      </c>
+      <c r="C1244" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1244" s="12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E1244" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1245" s="6">
+        <v>1243</v>
+      </c>
+      <c r="C1245" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1245" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E1245" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1246" s="6">
+        <v>1244</v>
+      </c>
+      <c r="C1246" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1246" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E1246" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1247" s="6">
+        <v>1245</v>
+      </c>
+      <c r="C1247" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1247" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E1247" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1248" s="6">
+        <v>1246</v>
+      </c>
+      <c r="C1248" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1248" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E1248" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1249" s="6">
+        <v>1247</v>
+      </c>
+      <c r="C1249" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1249" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E1249" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1250" s="6">
+        <v>1248</v>
+      </c>
+      <c r="C1250" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1250" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E1250" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1251" s="6">
+        <v>1249</v>
+      </c>
+      <c r="C1251" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1251" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E1251" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1252" s="6">
+        <v>1250</v>
+      </c>
+      <c r="C1252" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1252" s="12" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E1252" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1253" s="6">
+        <v>1251</v>
+      </c>
+      <c r="C1253" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1253" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E1253" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1254" s="6">
+        <v>1252</v>
+      </c>
+      <c r="C1254" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1254" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E1254" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1255" s="6">
+        <v>1253</v>
+      </c>
+      <c r="C1255" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1255" s="12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E1255" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1256" s="6">
+        <v>1254</v>
+      </c>
+      <c r="C1256" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1256" s="12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E1256" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1257" s="6">
+        <v>1255</v>
+      </c>
+      <c r="C1257" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1257" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E1257" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1258" s="6">
+        <v>1256</v>
+      </c>
+      <c r="C1258" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1258" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E1258" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1259" s="6">
+        <v>1257</v>
+      </c>
+      <c r="C1259" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1259" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E1259" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1260" s="6">
+        <v>1258</v>
+      </c>
+      <c r="C1260" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1260" s="12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E1260" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1261" s="6">
+        <v>1259</v>
+      </c>
+      <c r="C1261" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1261" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E1261" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1262" s="6">
+        <v>1260</v>
+      </c>
+      <c r="C1262" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1262" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E1262" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1263" s="6">
+        <v>1261</v>
+      </c>
+      <c r="C1263" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1263" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E1263" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1264" s="6">
+        <v>1262</v>
+      </c>
+      <c r="C1264" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1264" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1264" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1265" s="6">
+        <v>1263</v>
+      </c>
+      <c r="C1265" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1265" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E1265" s="12" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1266" s="6">
+        <v>1264</v>
+      </c>
+      <c r="C1266" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1266" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E1266" s="12" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1267" s="6">
+        <v>1265</v>
+      </c>
+      <c r="C1267" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1267" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E1267" s="12" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1268" s="6">
+        <v>1266</v>
+      </c>
+      <c r="C1268" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1268" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E1268" s="12" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1269" s="6">
+        <v>1267</v>
+      </c>
+      <c r="C1269" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1269" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E1269" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1270" s="6">
+        <v>1268</v>
+      </c>
+      <c r="C1270" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1270" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E1270" s="12" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1271" s="6">
+        <v>1269</v>
+      </c>
+      <c r="C1271" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1271" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1271" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1272" s="6">
+        <v>1270</v>
+      </c>
+      <c r="C1272" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1272" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1272" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1273" s="6">
+        <v>1271</v>
+      </c>
+      <c r="C1273" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1273" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E1273" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1274" s="6">
+        <v>1272</v>
+      </c>
+      <c r="C1274" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1274" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1274" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1275" s="6">
+        <v>1273</v>
+      </c>
+      <c r="C1275" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1275" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E1275" s="12" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1276" s="6">
+        <v>1274</v>
+      </c>
+      <c r="C1276" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1276" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E1276" s="12" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1277" s="6">
+        <v>1275</v>
+      </c>
+      <c r="C1277" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1277" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E1277" s="12" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1278" s="6">
+        <v>1276</v>
+      </c>
+      <c r="C1278" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1278" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E1278" s="12" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1279" s="6">
+        <v>1277</v>
+      </c>
+      <c r="C1279" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1279" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1279" s="12" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1280" s="6">
+        <v>1278</v>
+      </c>
+      <c r="C1280" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1280" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E1280" s="12" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1281" s="6">
+        <v>1279</v>
+      </c>
+      <c r="C1281" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1281" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E1281" s="12" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1282" s="6">
+        <v>1280</v>
+      </c>
+      <c r="C1282" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1282" s="12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E1282" s="12" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1283" s="6">
+        <v>1281</v>
+      </c>
+      <c r="C1283" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1283" s="12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E1283" s="4" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1284" s="6">
+        <v>1282</v>
+      </c>
+      <c r="C1284" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1284" s="12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E1284" s="12" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1285" s="6">
+        <v>1283</v>
+      </c>
+      <c r="C1285" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1285" s="12" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E1285" s="12" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1286" s="6">
+        <v>1284</v>
+      </c>
+      <c r="C1286" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1286" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E1286" s="13" t="s">
+        <v>1486</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:G924" xr:uid="{5555078D-B2F1-4453-B6D1-8A2CFDECC2B0}"/>
@@ -21949,10 +27274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEB9192-E971-4DF7-A534-A5BF0B5C74E7}">
-  <dimension ref="B2:H14"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21969,7 +27294,7 @@
         <v>931</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" t="s">
@@ -21978,7 +27303,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>902</v>
@@ -21995,7 +27320,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>901</v>
@@ -22006,69 +27331,44 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>903</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>932</v>
+        <v>891</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
         <v>929</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B14">
-    <sortCondition ref="B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B9">
+    <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
@@ -22111,7 +27411,7 @@
         <v>924</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -22140,14 +27440,14 @@
         <v>616</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -22158,16 +27458,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -22178,13 +27478,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -22196,13 +27496,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -22214,13 +27514,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>926</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -22232,16 +27532,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -22252,16 +27552,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -22272,13 +27572,13 @@
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -22290,13 +27590,13 @@
         <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -22308,13 +27608,13 @@
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -22326,13 +27626,13 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -22344,13 +27644,13 @@
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>926</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -22362,13 +27662,13 @@
         <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -22380,11 +27680,11 @@
         <v>132</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -22396,11 +27696,11 @@
         <v>132</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -22412,11 +27712,11 @@
         <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -22428,13 +27728,13 @@
         <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -22443,16 +27743,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -22464,11 +27764,11 @@
         <v>132</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="5" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -22480,13 +27780,13 @@
         <v>132</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F414F7EC-7186-42FA-A6A1-55C9EFBF9176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D205F-0E2E-45BC-B858-9FE73F2CBDA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10877" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="1485">
   <si>
     <t>Module</t>
   </si>
@@ -3533,15 +3533,9 @@
     <t>New ESI 10 Effective Date value, rest of site 10 info matches existing</t>
   </si>
   <si>
-    <t>New facility location with NULL subpart NPI (same facility belongs to another client)</t>
-  </si>
-  <si>
     <t>Location should be loaded</t>
   </si>
   <si>
-    <t>New facility location with valid subpart NPI (same facility belongs to another client)</t>
-  </si>
-  <si>
     <t>New facility location with invalid subpart NPI (special character)</t>
   </si>
   <si>
@@ -3569,9 +3563,6 @@
     <t>Existing location with subpart NPI coming again with updated attributes</t>
   </si>
   <si>
-    <t>Updated attributes for 2 locations (one location with NULL subpart NPI)</t>
-  </si>
-  <si>
     <t>Same phone and fax numbers for 2 locations (one location with NULL subpart NPI)</t>
   </si>
   <si>
@@ -3629,19 +3620,10 @@
     <t>Location type should be added</t>
   </si>
   <si>
-    <t>Valid subpart NPI</t>
-  </si>
-  <si>
-    <t>Location should be loaded with subpart NPI populated</t>
-  </si>
-  <si>
     <t>Error message; location should not be created</t>
   </si>
   <si>
     <t>Invalid Facility Location</t>
-  </si>
-  <si>
-    <t>Subpart NPI NULL</t>
   </si>
   <si>
     <t>Location should be loaded with NULL subpart NPI</t>
@@ -4532,6 +4514,12 @@
   </si>
   <si>
     <t>FL should be created with json string containing site 2 and 8 info</t>
+  </si>
+  <si>
+    <t>New facility location with NULL subpart NPI</t>
+  </si>
+  <si>
+    <t>New facility location with valid subpart NPI</t>
   </si>
 </sst>
 </file>
@@ -4933,10 +4921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G1286"/>
+  <dimension ref="A2:G1283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
-      <selection activeCell="A1055" sqref="A1055"/>
+    <sheetView tabSelected="1" topLeftCell="A1080" workbookViewId="0">
+      <selection activeCell="D1088" sqref="D1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23104,10 +23092,10 @@
         <v>132</v>
       </c>
       <c r="D1011" s="1" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="E1011" s="1" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="F1011" s="1"/>
       <c r="G1011" s="1"/>
@@ -23809,10 +23797,10 @@
         <v>132</v>
       </c>
       <c r="D1055" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E1055" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="E1055" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="F1055" s="1"/>
       <c r="G1055" s="1"/>
@@ -23825,10 +23813,10 @@
         <v>132</v>
       </c>
       <c r="D1056" s="1" t="s">
-        <v>1158</v>
+        <v>1484</v>
       </c>
       <c r="E1056" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F1056" s="1"/>
       <c r="G1056" s="1"/>
@@ -23841,10 +23829,10 @@
         <v>132</v>
       </c>
       <c r="D1057" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E1057" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F1057" s="1"/>
       <c r="G1057" s="1"/>
@@ -23857,10 +23845,10 @@
         <v>132</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E1058" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F1058" s="1"/>
       <c r="G1058" s="1"/>
@@ -23873,10 +23861,10 @@
         <v>132</v>
       </c>
       <c r="D1059" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E1059" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F1059" s="1"/>
       <c r="G1059" s="1"/>
@@ -23889,10 +23877,10 @@
         <v>132</v>
       </c>
       <c r="D1060" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E1060" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F1060" s="1"/>
       <c r="G1060" s="1"/>
@@ -23905,10 +23893,10 @@
         <v>132</v>
       </c>
       <c r="D1061" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E1061" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F1061" s="1"/>
       <c r="G1061" s="1"/>
@@ -23921,10 +23909,10 @@
         <v>132</v>
       </c>
       <c r="D1062" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E1062" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F1062" s="1"/>
       <c r="G1062" s="1"/>
@@ -23934,13 +23922,13 @@
         <v>1061</v>
       </c>
       <c r="C1063" s="4" t="s">
-        <v>132</v>
+        <v>1068</v>
       </c>
       <c r="D1063" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E1063" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F1063" s="1"/>
       <c r="G1063" s="1"/>
@@ -23953,10 +23941,10 @@
         <v>1068</v>
       </c>
       <c r="D1064" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E1064" s="4" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F1064" s="1"/>
       <c r="G1064" s="1"/>
@@ -23966,10 +23954,10 @@
         <v>1063</v>
       </c>
       <c r="C1065" s="4" t="s">
-        <v>1068</v>
+        <v>446</v>
       </c>
       <c r="D1065" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E1065" s="4" t="s">
         <v>1170</v>
@@ -23985,10 +23973,10 @@
         <v>446</v>
       </c>
       <c r="D1066" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E1066" s="4" t="s">
         <v>1172</v>
-      </c>
-      <c r="E1066" s="4" t="s">
-        <v>1173</v>
       </c>
       <c r="F1066" s="1"/>
       <c r="G1066" s="1"/>
@@ -23998,13 +23986,13 @@
         <v>1065</v>
       </c>
       <c r="C1067" s="4" t="s">
-        <v>446</v>
+        <v>1089</v>
       </c>
       <c r="D1067" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E1067" s="4" t="s">
         <v>1174</v>
-      </c>
-      <c r="E1067" s="4" t="s">
-        <v>1175</v>
       </c>
       <c r="F1067" s="1"/>
       <c r="G1067" s="1"/>
@@ -24017,10 +24005,10 @@
         <v>1089</v>
       </c>
       <c r="D1068" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1068" s="4" t="s">
         <v>1176</v>
-      </c>
-      <c r="E1068" s="4" t="s">
-        <v>1177</v>
       </c>
       <c r="F1068" s="1"/>
       <c r="G1068" s="1"/>
@@ -24030,13 +24018,13 @@
         <v>1067</v>
       </c>
       <c r="C1069" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D1069" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1069" s="4" t="s">
         <v>1178</v>
-      </c>
-      <c r="E1069" s="4" t="s">
-        <v>1179</v>
       </c>
       <c r="F1069" s="1"/>
       <c r="G1069" s="1"/>
@@ -24049,10 +24037,10 @@
         <v>1088</v>
       </c>
       <c r="D1070" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E1070" s="4" t="s">
         <v>1180</v>
-      </c>
-      <c r="E1070" s="4" t="s">
-        <v>1181</v>
       </c>
       <c r="F1070" s="1"/>
       <c r="G1070" s="1"/>
@@ -24062,13 +24050,13 @@
         <v>1069</v>
       </c>
       <c r="C1071" s="4" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="D1071" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E1071" s="4" t="s">
         <v>1182</v>
-      </c>
-      <c r="E1071" s="4" t="s">
-        <v>1183</v>
       </c>
       <c r="F1071" s="1"/>
       <c r="G1071" s="1"/>
@@ -24081,10 +24069,10 @@
         <v>1052</v>
       </c>
       <c r="D1072" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1072" s="4" t="s">
         <v>1184</v>
-      </c>
-      <c r="E1072" s="4" t="s">
-        <v>1185</v>
       </c>
       <c r="F1072" s="1"/>
       <c r="G1072" s="1"/>
@@ -24094,13 +24082,13 @@
         <v>1071</v>
       </c>
       <c r="C1073" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D1073" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E1073" s="4" t="s">
-        <v>1187</v>
+        <v>132</v>
+      </c>
+      <c r="D1073" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1073" s="1" t="s">
+        <v>1185</v>
       </c>
       <c r="F1073" s="1"/>
       <c r="G1073" s="1"/>
@@ -24113,10 +24101,10 @@
         <v>132</v>
       </c>
       <c r="D1074" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E1074" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F1074" s="1"/>
       <c r="G1074" s="1"/>
@@ -24129,10 +24117,10 @@
         <v>132</v>
       </c>
       <c r="D1075" s="1" t="s">
-        <v>618</v>
+        <v>1188</v>
       </c>
       <c r="E1075" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="F1075" s="1"/>
       <c r="G1075" s="1"/>
@@ -24145,10 +24133,10 @@
         <v>132</v>
       </c>
       <c r="D1076" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E1076" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="F1076" s="1"/>
       <c r="G1076" s="1"/>
@@ -24161,10 +24149,10 @@
         <v>132</v>
       </c>
       <c r="D1077" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E1077" s="1" t="s">
-        <v>1193</v>
+        <v>1158</v>
       </c>
       <c r="F1077" s="1"/>
       <c r="G1077" s="1"/>
@@ -24177,10 +24165,10 @@
         <v>132</v>
       </c>
       <c r="D1078" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E1078" s="1" t="s">
-        <v>1193</v>
+        <v>1158</v>
       </c>
       <c r="F1078" s="1"/>
       <c r="G1078" s="1"/>
@@ -24193,10 +24181,10 @@
         <v>132</v>
       </c>
       <c r="D1079" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E1079" s="1" t="s">
-        <v>1193</v>
+        <v>1158</v>
       </c>
       <c r="F1079" s="1"/>
       <c r="G1079" s="1"/>
@@ -24209,10 +24197,10 @@
         <v>132</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E1080" s="1" t="s">
-        <v>1160</v>
+        <v>1194</v>
       </c>
       <c r="F1080" s="1"/>
       <c r="G1080" s="1"/>
@@ -24225,10 +24213,10 @@
         <v>132</v>
       </c>
       <c r="D1081" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E1081" s="1" t="s">
-        <v>1160</v>
+        <v>1194</v>
       </c>
       <c r="F1081" s="1"/>
       <c r="G1081" s="1"/>
@@ -24241,10 +24229,10 @@
         <v>132</v>
       </c>
       <c r="D1082" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E1082" s="1" t="s">
-        <v>1160</v>
+        <v>1197</v>
       </c>
       <c r="F1082" s="1"/>
       <c r="G1082" s="1"/>
@@ -24257,10 +24245,10 @@
         <v>132</v>
       </c>
       <c r="D1083" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1083" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="E1083" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="F1083" s="1"/>
       <c r="G1083" s="1"/>
@@ -24273,10 +24261,10 @@
         <v>132</v>
       </c>
       <c r="D1084" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E1084" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="E1084" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="F1084" s="1"/>
       <c r="G1084" s="1"/>
@@ -24308,7 +24296,7 @@
         <v>1204</v>
       </c>
       <c r="E1086" s="1" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="F1086" s="1"/>
       <c r="G1086" s="1"/>
@@ -24321,10 +24309,10 @@
         <v>132</v>
       </c>
       <c r="D1087" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E1087" s="1" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="F1087" s="1"/>
       <c r="G1087" s="1"/>
@@ -24337,10 +24325,10 @@
         <v>132</v>
       </c>
       <c r="D1088" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E1088" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F1088" s="1"/>
       <c r="G1088" s="1"/>
@@ -24353,10 +24341,10 @@
         <v>132</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E1089" s="1" t="s">
-        <v>1205</v>
+        <v>20</v>
       </c>
       <c r="F1089" s="1"/>
       <c r="G1089" s="1"/>
@@ -24368,11 +24356,11 @@
       <c r="C1090" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D1090" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E1090" s="1" t="s">
-        <v>1207</v>
+      <c r="D1090" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E1090" s="4" t="s">
+        <v>1210</v>
       </c>
       <c r="F1090" s="1"/>
       <c r="G1090" s="1"/>
@@ -24384,11 +24372,11 @@
       <c r="C1091" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D1091" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E1091" s="1" t="s">
-        <v>1213</v>
+      <c r="D1091" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E1091" s="4" t="s">
+        <v>1194</v>
       </c>
       <c r="F1091" s="1"/>
       <c r="G1091" s="1"/>
@@ -24398,13 +24386,13 @@
         <v>1090</v>
       </c>
       <c r="C1092" s="4" t="s">
-        <v>132</v>
+        <v>617</v>
       </c>
       <c r="D1092" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E1092" s="1" t="s">
-        <v>20</v>
+        <v>1236</v>
       </c>
       <c r="F1092" s="1"/>
       <c r="G1092" s="1"/>
@@ -24414,13 +24402,13 @@
         <v>1091</v>
       </c>
       <c r="C1093" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1093" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E1093" s="4" t="s">
-        <v>1216</v>
+        <v>617</v>
+      </c>
+      <c r="D1093" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E1093" s="1" t="s">
+        <v>1236</v>
       </c>
       <c r="F1093" s="1"/>
       <c r="G1093" s="1"/>
@@ -24430,13 +24418,13 @@
         <v>1092</v>
       </c>
       <c r="C1094" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1094" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E1094" s="4" t="s">
-        <v>1200</v>
+        <v>617</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E1094" s="1" t="s">
+        <v>1236</v>
       </c>
       <c r="F1094" s="1"/>
       <c r="G1094" s="1"/>
@@ -24449,10 +24437,10 @@
         <v>617</v>
       </c>
       <c r="D1095" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="E1095" s="1" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="F1095" s="1"/>
       <c r="G1095" s="1"/>
@@ -24465,10 +24453,10 @@
         <v>617</v>
       </c>
       <c r="D1096" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E1096" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="F1096" s="1"/>
       <c r="G1096" s="1"/>
@@ -24481,10 +24469,10 @@
         <v>617</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="E1097" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="F1097" s="1"/>
       <c r="G1097" s="1"/>
@@ -24497,10 +24485,10 @@
         <v>617</v>
       </c>
       <c r="D1098" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="E1098" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F1098" s="1"/>
       <c r="G1098" s="1"/>
@@ -24513,10 +24501,10 @@
         <v>617</v>
       </c>
       <c r="D1099" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E1099" s="1" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="F1099" s="1"/>
       <c r="G1099" s="1"/>
@@ -24529,10 +24517,10 @@
         <v>617</v>
       </c>
       <c r="D1100" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="E1100" s="1" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="F1100" s="1"/>
       <c r="G1100" s="1"/>
@@ -24545,10 +24533,10 @@
         <v>617</v>
       </c>
       <c r="D1101" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="E1101" s="1" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="F1101" s="1"/>
       <c r="G1101" s="1"/>
@@ -24561,10 +24549,10 @@
         <v>617</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E1102" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F1102" s="1"/>
       <c r="G1102" s="1"/>
@@ -24577,10 +24565,10 @@
         <v>617</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E1103" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F1103" s="1"/>
       <c r="G1103" s="1"/>
@@ -24590,13 +24578,13 @@
         <v>1102</v>
       </c>
       <c r="C1104" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D1104" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E1104" s="1" t="s">
-        <v>1246</v>
+        <v>1252</v>
+      </c>
+      <c r="D1104" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1104" s="4" t="s">
+        <v>1243</v>
       </c>
       <c r="F1104" s="1"/>
       <c r="G1104" s="1"/>
@@ -24606,13 +24594,13 @@
         <v>1103</v>
       </c>
       <c r="C1105" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D1105" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E1105" s="1" t="s">
-        <v>1247</v>
+        <v>1252</v>
+      </c>
+      <c r="D1105" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E1105" s="4" t="s">
+        <v>1243</v>
       </c>
       <c r="F1105" s="1"/>
       <c r="G1105" s="1"/>
@@ -24622,13 +24610,13 @@
         <v>1104</v>
       </c>
       <c r="C1106" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D1106" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E1106" s="1" t="s">
-        <v>1248</v>
+        <v>578</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E1106" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="F1106" s="1"/>
       <c r="G1106" s="1"/>
@@ -24638,13 +24626,13 @@
         <v>1105</v>
       </c>
       <c r="C1107" s="4" t="s">
-        <v>1258</v>
+        <v>578</v>
       </c>
       <c r="D1107" s="4" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E1107" s="4" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F1107" s="1"/>
       <c r="G1107" s="1"/>
@@ -24654,13 +24642,13 @@
         <v>1106</v>
       </c>
       <c r="C1108" s="4" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D1108" s="4" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E1108" s="4" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="F1108" s="1"/>
       <c r="G1108" s="1"/>
@@ -24670,13 +24658,13 @@
         <v>1107</v>
       </c>
       <c r="C1109" s="4" t="s">
-        <v>578</v>
+        <v>1253</v>
       </c>
       <c r="D1109" s="4" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E1109" s="4" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="F1109" s="1"/>
       <c r="G1109" s="1"/>
@@ -24686,13 +24674,13 @@
         <v>1108</v>
       </c>
       <c r="C1110" s="4" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="D1110" s="4" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="E1110" s="4" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F1110" s="1"/>
       <c r="G1110" s="1"/>
@@ -24702,13 +24690,13 @@
         <v>1109</v>
       </c>
       <c r="C1111" s="4" t="s">
-        <v>1259</v>
+        <v>617</v>
       </c>
       <c r="D1111" s="4" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E1111" s="4" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="F1111" s="1"/>
       <c r="G1111" s="1"/>
@@ -24718,13 +24706,13 @@
         <v>1110</v>
       </c>
       <c r="C1112" s="4" t="s">
-        <v>1259</v>
+        <v>617</v>
       </c>
       <c r="D1112" s="4" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E1112" s="4" t="s">
-        <v>1253</v>
+        <v>20</v>
       </c>
       <c r="F1112" s="1"/>
       <c r="G1112" s="1"/>
@@ -24737,10 +24725,10 @@
         <v>617</v>
       </c>
       <c r="D1113" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E1113" s="4" t="s">
-        <v>1254</v>
+        <v>20</v>
       </c>
       <c r="F1113" s="1"/>
       <c r="G1113" s="1"/>
@@ -24750,13 +24738,13 @@
         <v>1112</v>
       </c>
       <c r="C1114" s="4" t="s">
-        <v>617</v>
+        <v>876</v>
       </c>
       <c r="D1114" s="4" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E1114" s="4" t="s">
-        <v>1255</v>
+        <v>1234</v>
+      </c>
+      <c r="E1114" s="1" t="s">
+        <v>1250</v>
       </c>
       <c r="F1114" s="1"/>
       <c r="G1114" s="1"/>
@@ -24766,13 +24754,13 @@
         <v>1113</v>
       </c>
       <c r="C1115" s="4" t="s">
-        <v>617</v>
+        <v>876</v>
       </c>
       <c r="D1115" s="4" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E1115" s="4" t="s">
-        <v>20</v>
+        <v>1235</v>
+      </c>
+      <c r="E1115" s="1" t="s">
+        <v>1251</v>
       </c>
       <c r="F1115" s="1"/>
       <c r="G1115" s="1"/>
@@ -24782,13 +24770,13 @@
         <v>1114</v>
       </c>
       <c r="C1116" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D1116" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E1116" s="4" t="s">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E1116" s="1" t="s">
+        <v>1332</v>
       </c>
       <c r="F1116" s="1"/>
       <c r="G1116" s="1"/>
@@ -24798,13 +24786,13 @@
         <v>1115</v>
       </c>
       <c r="C1117" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1117" s="4" t="s">
-        <v>1240</v>
+        <v>132</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>1331</v>
       </c>
       <c r="E1117" s="1" t="s">
-        <v>1256</v>
+        <v>1326</v>
       </c>
       <c r="F1117" s="1"/>
       <c r="G1117" s="1"/>
@@ -24814,13 +24802,13 @@
         <v>1116</v>
       </c>
       <c r="C1118" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1118" s="4" t="s">
-        <v>1241</v>
+        <v>132</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>1330</v>
       </c>
       <c r="E1118" s="1" t="s">
-        <v>1257</v>
+        <v>1316</v>
       </c>
       <c r="F1118" s="1"/>
       <c r="G1118" s="1"/>
@@ -24833,10 +24821,10 @@
         <v>132</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="E1119" s="1" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="F1119" s="1"/>
       <c r="G1119" s="1"/>
@@ -24849,10 +24837,10 @@
         <v>132</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="E1120" s="1" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="F1120" s="1"/>
       <c r="G1120" s="1"/>
@@ -24865,10 +24853,10 @@
         <v>132</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="E1121" s="1" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="F1121" s="1"/>
       <c r="G1121" s="1"/>
@@ -24881,10 +24869,10 @@
         <v>132</v>
       </c>
       <c r="D1122" s="1" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="E1122" s="1" t="s">
-        <v>1322</v>
+        <v>1194</v>
       </c>
       <c r="F1122" s="1"/>
       <c r="G1122" s="1"/>
@@ -24897,10 +24885,10 @@
         <v>132</v>
       </c>
       <c r="D1123" s="1" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="E1123" s="1" t="s">
-        <v>1332</v>
+        <v>1194</v>
       </c>
       <c r="F1123" s="1"/>
       <c r="G1123" s="1"/>
@@ -24913,10 +24901,10 @@
         <v>132</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>1333</v>
+        <v>1208</v>
       </c>
       <c r="E1124" s="1" t="s">
-        <v>1332</v>
+        <v>20</v>
       </c>
       <c r="F1124" s="1"/>
       <c r="G1124" s="1"/>
@@ -24929,10 +24917,10 @@
         <v>132</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="E1125" s="1" t="s">
-        <v>1200</v>
+        <v>1322</v>
       </c>
       <c r="F1125" s="1"/>
       <c r="G1125" s="1"/>
@@ -24945,10 +24933,10 @@
         <v>132</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="E1126" s="1" t="s">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="F1126" s="1"/>
       <c r="G1126" s="1"/>
@@ -24960,11 +24948,11 @@
       <c r="C1127" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D1127" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E1127" s="1" t="s">
-        <v>20</v>
+      <c r="D1127" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1127" s="4" t="s">
+        <v>1318</v>
       </c>
       <c r="F1127" s="1"/>
       <c r="G1127" s="1"/>
@@ -24976,27 +24964,27 @@
       <c r="C1128" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D1128" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E1128" s="1" t="s">
-        <v>1328</v>
+      <c r="D1128" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E1128" s="4" t="s">
+        <v>1316</v>
       </c>
       <c r="F1128" s="1"/>
       <c r="G1128" s="1"/>
     </row>
-    <row r="1129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1129" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B1129" s="6">
         <v>1127</v>
       </c>
       <c r="C1129" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D1129" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E1129" s="1" t="s">
-        <v>1326</v>
+      <c r="D1129" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E1129" s="4" t="s">
+        <v>1314</v>
       </c>
       <c r="F1129" s="1"/>
       <c r="G1129" s="1"/>
@@ -25006,13 +24994,13 @@
         <v>1128</v>
       </c>
       <c r="C1130" s="4" t="s">
-        <v>132</v>
+        <v>1088</v>
       </c>
       <c r="D1130" s="4" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="E1130" s="4" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="F1130" s="1"/>
       <c r="G1130" s="1"/>
@@ -25022,29 +25010,29 @@
         <v>1129</v>
       </c>
       <c r="C1131" s="4" t="s">
-        <v>132</v>
+        <v>1088</v>
       </c>
       <c r="D1131" s="4" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="E1131" s="4" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="F1131" s="1"/>
       <c r="G1131" s="1"/>
     </row>
-    <row r="1132" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1132" s="6">
         <v>1130</v>
       </c>
       <c r="C1132" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1132" s="3" t="s">
-        <v>1321</v>
+        <v>1088</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>1309</v>
       </c>
       <c r="E1132" s="4" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="F1132" s="1"/>
       <c r="G1132" s="1"/>
@@ -25057,10 +25045,10 @@
         <v>1088</v>
       </c>
       <c r="D1133" s="4" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="E1133" s="4" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="F1133" s="1"/>
       <c r="G1133" s="1"/>
@@ -25070,13 +25058,13 @@
         <v>1132</v>
       </c>
       <c r="C1134" s="4" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="D1134" s="4" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="E1134" s="4" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="F1134" s="1"/>
       <c r="G1134" s="1"/>
@@ -25086,13 +25074,13 @@
         <v>1133</v>
       </c>
       <c r="C1135" s="4" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="D1135" s="4" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="E1135" s="4" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="F1135" s="1"/>
       <c r="G1135" s="1"/>
@@ -25102,13 +25090,13 @@
         <v>1134</v>
       </c>
       <c r="C1136" s="4" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="D1136" s="4" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="E1136" s="4" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="F1136" s="1"/>
       <c r="G1136" s="1"/>
@@ -25121,10 +25109,10 @@
         <v>1068</v>
       </c>
       <c r="D1137" s="4" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="E1137" s="4" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="F1137" s="1"/>
       <c r="G1137" s="1"/>
@@ -25134,13 +25122,13 @@
         <v>1136</v>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="D1138" s="4" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="E1138" s="4" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="F1138" s="1"/>
       <c r="G1138" s="1"/>
@@ -25150,13 +25138,13 @@
         <v>1137</v>
       </c>
       <c r="C1139" s="4" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="D1139" s="4" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="E1139" s="4" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="F1139" s="1"/>
       <c r="G1139" s="1"/>
@@ -25166,13 +25154,13 @@
         <v>1138</v>
       </c>
       <c r="C1140" s="4" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="D1140" s="4" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="E1140" s="4" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="F1140" s="1"/>
       <c r="G1140" s="1"/>
@@ -25185,10 +25173,10 @@
         <v>1089</v>
       </c>
       <c r="D1141" s="4" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="E1141" s="4" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="F1141" s="1"/>
       <c r="G1141" s="1"/>
@@ -25198,13 +25186,13 @@
         <v>1140</v>
       </c>
       <c r="C1142" s="4" t="s">
-        <v>1089</v>
+        <v>446</v>
       </c>
       <c r="D1142" s="4" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="E1142" s="4" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="F1142" s="1"/>
       <c r="G1142" s="1"/>
@@ -25214,13 +25202,13 @@
         <v>1141</v>
       </c>
       <c r="C1143" s="4" t="s">
-        <v>1089</v>
+        <v>446</v>
       </c>
       <c r="D1143" s="4" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="E1143" s="4" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="F1143" s="1"/>
       <c r="G1143" s="1"/>
@@ -25230,13 +25218,13 @@
         <v>1142</v>
       </c>
       <c r="C1144" s="4" t="s">
-        <v>1089</v>
+        <v>1052</v>
       </c>
       <c r="D1144" s="4" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="E1144" s="4" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="F1144" s="1"/>
       <c r="G1144" s="1"/>
@@ -25246,13 +25234,13 @@
         <v>1143</v>
       </c>
       <c r="C1145" s="4" t="s">
-        <v>446</v>
+        <v>1052</v>
       </c>
       <c r="D1145" s="4" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="E1145" s="4" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="F1145" s="1"/>
       <c r="G1145" s="1"/>
@@ -25262,13 +25250,13 @@
         <v>1144</v>
       </c>
       <c r="C1146" s="4" t="s">
-        <v>446</v>
+        <v>617</v>
       </c>
       <c r="D1146" s="4" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="E1146" s="4" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="F1146" s="1"/>
       <c r="G1146" s="1"/>
@@ -25278,13 +25266,13 @@
         <v>1145</v>
       </c>
       <c r="C1147" s="4" t="s">
-        <v>1052</v>
+        <v>617</v>
       </c>
       <c r="D1147" s="4" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="E1147" s="4" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="F1147" s="1"/>
       <c r="G1147" s="1"/>
@@ -25294,13 +25282,13 @@
         <v>1146</v>
       </c>
       <c r="C1148" s="4" t="s">
-        <v>1052</v>
+        <v>1252</v>
       </c>
       <c r="D1148" s="4" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="E1148" s="4" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="F1148" s="1"/>
       <c r="G1148" s="1"/>
@@ -25310,13 +25298,13 @@
         <v>1147</v>
       </c>
       <c r="C1149" s="4" t="s">
-        <v>617</v>
+        <v>1252</v>
       </c>
       <c r="D1149" s="4" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="E1149" s="4" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="F1149" s="1"/>
       <c r="G1149" s="1"/>
@@ -25326,13 +25314,13 @@
         <v>1148</v>
       </c>
       <c r="C1150" s="4" t="s">
-        <v>617</v>
+        <v>1252</v>
       </c>
       <c r="D1150" s="4" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="E1150" s="4" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="F1150" s="1"/>
       <c r="G1150" s="1"/>
@@ -25342,13 +25330,13 @@
         <v>1149</v>
       </c>
       <c r="C1151" s="4" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="D1151" s="4" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="E1151" s="4" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="F1151" s="1"/>
       <c r="G1151" s="1"/>
@@ -25358,13 +25346,13 @@
         <v>1150</v>
       </c>
       <c r="C1152" s="4" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D1152" s="4" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="E1152" s="4" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="F1152" s="1"/>
       <c r="G1152" s="1"/>
@@ -25374,13 +25362,13 @@
         <v>1151</v>
       </c>
       <c r="C1153" s="4" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D1153" s="4" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="E1153" s="4" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="F1153" s="1"/>
       <c r="G1153" s="1"/>
@@ -25390,13 +25378,13 @@
         <v>1152</v>
       </c>
       <c r="C1154" s="4" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D1154" s="4" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="E1154" s="4" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="F1154" s="1"/>
       <c r="G1154" s="1"/>
@@ -25406,13 +25394,13 @@
         <v>1153</v>
       </c>
       <c r="C1155" s="4" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="D1155" s="4" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="E1155" s="4" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="F1155" s="1"/>
       <c r="G1155" s="1"/>
@@ -25422,13 +25410,13 @@
         <v>1154</v>
       </c>
       <c r="C1156" s="4" t="s">
-        <v>1259</v>
+        <v>578</v>
       </c>
       <c r="D1156" s="4" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="E1156" s="4" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="F1156" s="1"/>
       <c r="G1156" s="1"/>
@@ -25438,13 +25426,13 @@
         <v>1155</v>
       </c>
       <c r="C1157" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1157" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="D1157" s="4" t="s">
-        <v>1271</v>
-      </c>
       <c r="E1157" s="4" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="F1157" s="1"/>
       <c r="G1157" s="1"/>
@@ -25454,13 +25442,13 @@
         <v>1156</v>
       </c>
       <c r="C1158" s="4" t="s">
-        <v>1259</v>
+        <v>876</v>
       </c>
       <c r="D1158" s="4" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="E1158" s="4" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="F1158" s="1"/>
       <c r="G1158" s="1"/>
@@ -25470,13 +25458,13 @@
         <v>1157</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>578</v>
+        <v>876</v>
       </c>
       <c r="D1159" s="4" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="E1159" s="4" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="F1159" s="1"/>
       <c r="G1159" s="1"/>
@@ -25486,48 +25474,42 @@
         <v>1158</v>
       </c>
       <c r="C1160" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D1160" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E1160" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F1160" s="1"/>
-      <c r="G1160" s="1"/>
+        <v>1088</v>
+      </c>
+      <c r="D1160" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E1160" s="12" t="s">
+        <v>1335</v>
+      </c>
     </row>
     <row r="1161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1161" s="6">
         <v>1159</v>
       </c>
       <c r="C1161" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1161" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E1161" s="4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F1161" s="1"/>
-      <c r="G1161" s="1"/>
+        <v>1088</v>
+      </c>
+      <c r="D1161" s="12" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1161" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1162" s="6">
         <v>1160</v>
       </c>
       <c r="C1162" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1162" s="4" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E1162" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F1162" s="1"/>
-      <c r="G1162" s="1"/>
+        <v>1088</v>
+      </c>
+      <c r="D1162" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E1162" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1163" s="6">
@@ -25537,10 +25519,10 @@
         <v>1088</v>
       </c>
       <c r="D1163" s="12" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E1163" s="12" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1164" spans="2:7" x14ac:dyDescent="0.25">
@@ -25551,10 +25533,10 @@
         <v>1088</v>
       </c>
       <c r="D1164" s="12" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E1164" s="12" t="s">
-        <v>20</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1165" spans="2:7" x14ac:dyDescent="0.25">
@@ -25565,10 +25547,10 @@
         <v>1088</v>
       </c>
       <c r="D1165" s="12" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E1165" s="12" t="s">
-        <v>20</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1166" spans="2:7" x14ac:dyDescent="0.25">
@@ -25579,10 +25561,10 @@
         <v>1088</v>
       </c>
       <c r="D1166" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E1166" s="12" t="s">
         <v>1344</v>
-      </c>
-      <c r="E1166" s="12" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="1167" spans="2:7" x14ac:dyDescent="0.25">
@@ -25593,10 +25575,10 @@
         <v>1088</v>
       </c>
       <c r="D1167" s="12" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E1167" s="12" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1168" spans="2:7" x14ac:dyDescent="0.25">
@@ -25607,10 +25589,10 @@
         <v>1088</v>
       </c>
       <c r="D1168" s="12" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E1168" s="12" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1169" spans="2:5" x14ac:dyDescent="0.25">
@@ -25621,10 +25603,10 @@
         <v>1088</v>
       </c>
       <c r="D1169" s="12" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E1169" s="12" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1170" spans="2:5" x14ac:dyDescent="0.25">
@@ -25635,10 +25617,10 @@
         <v>1088</v>
       </c>
       <c r="D1170" s="12" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E1170" s="12" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1171" spans="2:5" x14ac:dyDescent="0.25">
@@ -25649,10 +25631,10 @@
         <v>1088</v>
       </c>
       <c r="D1171" s="12" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E1171" s="12" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1172" spans="2:5" x14ac:dyDescent="0.25">
@@ -25663,10 +25645,10 @@
         <v>1088</v>
       </c>
       <c r="D1172" s="12" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E1172" s="12" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1173" spans="2:5" x14ac:dyDescent="0.25">
@@ -25677,10 +25659,10 @@
         <v>1088</v>
       </c>
       <c r="D1173" s="12" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E1173" s="12" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1174" spans="2:5" x14ac:dyDescent="0.25">
@@ -25691,10 +25673,10 @@
         <v>1088</v>
       </c>
       <c r="D1174" s="12" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E1174" s="12" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1175" spans="2:5" x14ac:dyDescent="0.25">
@@ -25705,10 +25687,10 @@
         <v>1088</v>
       </c>
       <c r="D1175" s="12" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="E1175" s="12" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1176" spans="2:5" x14ac:dyDescent="0.25">
@@ -25719,10 +25701,10 @@
         <v>1088</v>
       </c>
       <c r="D1176" s="12" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E1176" s="12" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1177" spans="2:5" x14ac:dyDescent="0.25">
@@ -25733,10 +25715,10 @@
         <v>1088</v>
       </c>
       <c r="D1177" s="12" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E1177" s="12" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1178" spans="2:5" x14ac:dyDescent="0.25">
@@ -25747,10 +25729,10 @@
         <v>1088</v>
       </c>
       <c r="D1178" s="12" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E1178" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1179" spans="2:5" x14ac:dyDescent="0.25">
@@ -25761,10 +25743,10 @@
         <v>1088</v>
       </c>
       <c r="D1179" s="12" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E1179" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1180" spans="2:5" x14ac:dyDescent="0.25">
@@ -25775,10 +25757,10 @@
         <v>1088</v>
       </c>
       <c r="D1180" s="12" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E1180" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1181" spans="2:5" x14ac:dyDescent="0.25">
@@ -25789,10 +25771,10 @@
         <v>1088</v>
       </c>
       <c r="D1181" s="12" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E1181" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1182" spans="2:5" x14ac:dyDescent="0.25">
@@ -25803,10 +25785,10 @@
         <v>1088</v>
       </c>
       <c r="D1182" s="12" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E1182" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1183" spans="2:5" x14ac:dyDescent="0.25">
@@ -25817,10 +25799,10 @@
         <v>1088</v>
       </c>
       <c r="D1183" s="12" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E1183" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1184" spans="2:5" x14ac:dyDescent="0.25">
@@ -25831,10 +25813,10 @@
         <v>1088</v>
       </c>
       <c r="D1184" s="12" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E1184" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1185" spans="2:5" x14ac:dyDescent="0.25">
@@ -25845,10 +25827,10 @@
         <v>1088</v>
       </c>
       <c r="D1185" s="12" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E1185" s="12" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1186" spans="2:5" x14ac:dyDescent="0.25">
@@ -25859,10 +25841,10 @@
         <v>1088</v>
       </c>
       <c r="D1186" s="12" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E1186" s="12" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1187" spans="2:5" x14ac:dyDescent="0.25">
@@ -25873,10 +25855,10 @@
         <v>1088</v>
       </c>
       <c r="D1187" s="12" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E1187" s="12" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1188" spans="2:5" x14ac:dyDescent="0.25">
@@ -25887,10 +25869,10 @@
         <v>1088</v>
       </c>
       <c r="D1188" s="12" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E1188" s="12" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1189" spans="2:5" x14ac:dyDescent="0.25">
@@ -25901,10 +25883,10 @@
         <v>1088</v>
       </c>
       <c r="D1189" s="12" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E1189" s="12" t="s">
-        <v>1371</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1190" spans="2:5" x14ac:dyDescent="0.25">
@@ -25915,10 +25897,10 @@
         <v>1088</v>
       </c>
       <c r="D1190" s="12" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E1190" s="12" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1191" spans="2:5" x14ac:dyDescent="0.25">
@@ -25929,10 +25911,10 @@
         <v>1088</v>
       </c>
       <c r="D1191" s="12" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E1191" s="12" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1192" spans="2:5" x14ac:dyDescent="0.25">
@@ -25943,10 +25925,10 @@
         <v>1088</v>
       </c>
       <c r="D1192" s="12" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E1192" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1193" spans="2:5" x14ac:dyDescent="0.25">
@@ -25957,10 +25939,10 @@
         <v>1088</v>
       </c>
       <c r="D1193" s="12" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E1193" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1194" spans="2:5" x14ac:dyDescent="0.25">
@@ -25971,10 +25953,10 @@
         <v>1088</v>
       </c>
       <c r="D1194" s="12" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E1194" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1195" spans="2:5" x14ac:dyDescent="0.25">
@@ -25985,10 +25967,10 @@
         <v>1088</v>
       </c>
       <c r="D1195" s="12" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E1195" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1196" spans="2:5" x14ac:dyDescent="0.25">
@@ -25999,10 +25981,10 @@
         <v>1088</v>
       </c>
       <c r="D1196" s="12" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E1196" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1197" spans="2:5" x14ac:dyDescent="0.25">
@@ -26013,10 +25995,10 @@
         <v>1088</v>
       </c>
       <c r="D1197" s="12" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E1197" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1198" spans="2:5" x14ac:dyDescent="0.25">
@@ -26027,10 +26009,10 @@
         <v>1088</v>
       </c>
       <c r="D1198" s="12" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E1198" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1199" spans="2:5" x14ac:dyDescent="0.25">
@@ -26041,10 +26023,10 @@
         <v>1088</v>
       </c>
       <c r="D1199" s="12" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="E1199" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1200" spans="2:5" x14ac:dyDescent="0.25">
@@ -26055,10 +26037,10 @@
         <v>1088</v>
       </c>
       <c r="D1200" s="12" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="E1200" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1201" spans="2:5" x14ac:dyDescent="0.25">
@@ -26069,10 +26051,10 @@
         <v>1088</v>
       </c>
       <c r="D1201" s="12" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E1201" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1202" spans="2:5" x14ac:dyDescent="0.25">
@@ -26083,10 +26065,10 @@
         <v>1088</v>
       </c>
       <c r="D1202" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E1202" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1203" spans="2:5" x14ac:dyDescent="0.25">
@@ -26097,10 +26079,10 @@
         <v>1088</v>
       </c>
       <c r="D1203" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E1203" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1204" spans="2:5" x14ac:dyDescent="0.25">
@@ -26111,10 +26093,10 @@
         <v>1088</v>
       </c>
       <c r="D1204" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E1204" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1205" spans="2:5" x14ac:dyDescent="0.25">
@@ -26125,10 +26107,10 @@
         <v>1088</v>
       </c>
       <c r="D1205" s="12" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="E1205" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1206" spans="2:5" x14ac:dyDescent="0.25">
@@ -26139,10 +26121,10 @@
         <v>1088</v>
       </c>
       <c r="D1206" s="12" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="E1206" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1207" spans="2:5" x14ac:dyDescent="0.25">
@@ -26153,10 +26135,10 @@
         <v>1088</v>
       </c>
       <c r="D1207" s="12" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E1207" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1208" spans="2:5" x14ac:dyDescent="0.25">
@@ -26167,10 +26149,10 @@
         <v>1088</v>
       </c>
       <c r="D1208" s="12" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="E1208" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1209" spans="2:5" x14ac:dyDescent="0.25">
@@ -26181,10 +26163,10 @@
         <v>1088</v>
       </c>
       <c r="D1209" s="12" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E1209" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1210" spans="2:5" x14ac:dyDescent="0.25">
@@ -26195,10 +26177,10 @@
         <v>1088</v>
       </c>
       <c r="D1210" s="12" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E1210" s="12" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1211" spans="2:5" x14ac:dyDescent="0.25">
@@ -26209,10 +26191,10 @@
         <v>1088</v>
       </c>
       <c r="D1211" s="12" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E1211" s="12" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1212" spans="2:5" x14ac:dyDescent="0.25">
@@ -26223,10 +26205,10 @@
         <v>1088</v>
       </c>
       <c r="D1212" s="12" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="E1212" s="12" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1213" spans="2:5" x14ac:dyDescent="0.25">
@@ -26237,10 +26219,10 @@
         <v>1088</v>
       </c>
       <c r="D1213" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E1213" s="12" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1214" spans="2:5" x14ac:dyDescent="0.25">
@@ -26251,10 +26233,10 @@
         <v>1088</v>
       </c>
       <c r="D1214" s="12" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E1214" s="12" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1215" spans="2:5" x14ac:dyDescent="0.25">
@@ -26265,10 +26247,10 @@
         <v>1088</v>
       </c>
       <c r="D1215" s="12" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E1215" s="12" t="s">
-        <v>1371</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1216" spans="2:5" x14ac:dyDescent="0.25">
@@ -26279,10 +26261,10 @@
         <v>1088</v>
       </c>
       <c r="D1216" s="12" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E1216" s="12" t="s">
-        <v>1374</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1217" spans="2:5" x14ac:dyDescent="0.25">
@@ -26293,10 +26275,10 @@
         <v>1088</v>
       </c>
       <c r="D1217" s="12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E1217" s="12" t="s">
         <v>1401</v>
-      </c>
-      <c r="E1217" s="12" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="1218" spans="2:5" x14ac:dyDescent="0.25">
@@ -26310,7 +26292,7 @@
         <v>1402</v>
       </c>
       <c r="E1218" s="12" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1219" spans="2:5" x14ac:dyDescent="0.25">
@@ -26321,10 +26303,10 @@
         <v>1088</v>
       </c>
       <c r="D1219" s="12" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E1219" s="12" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1220" spans="2:5" x14ac:dyDescent="0.25">
@@ -26335,10 +26317,10 @@
         <v>1088</v>
       </c>
       <c r="D1220" s="12" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E1220" s="12" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1221" spans="2:5" x14ac:dyDescent="0.25">
@@ -26349,10 +26331,10 @@
         <v>1088</v>
       </c>
       <c r="D1221" s="12" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E1221" s="12" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1222" spans="2:5" x14ac:dyDescent="0.25">
@@ -26363,10 +26345,10 @@
         <v>1088</v>
       </c>
       <c r="D1222" s="12" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E1222" s="12" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1223" spans="2:5" x14ac:dyDescent="0.25">
@@ -26377,10 +26359,10 @@
         <v>1088</v>
       </c>
       <c r="D1223" s="12" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="E1223" s="12" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1224" spans="2:5" x14ac:dyDescent="0.25">
@@ -26391,10 +26373,10 @@
         <v>1088</v>
       </c>
       <c r="D1224" s="12" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E1224" s="12" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1225" spans="2:5" x14ac:dyDescent="0.25">
@@ -26405,10 +26387,10 @@
         <v>1088</v>
       </c>
       <c r="D1225" s="12" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E1225" s="12" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1226" spans="2:5" x14ac:dyDescent="0.25">
@@ -26419,10 +26401,10 @@
         <v>1088</v>
       </c>
       <c r="D1226" s="12" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="E1226" s="12" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1227" spans="2:5" x14ac:dyDescent="0.25">
@@ -26433,10 +26415,10 @@
         <v>1088</v>
       </c>
       <c r="D1227" s="12" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E1227" s="12" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1228" spans="2:5" x14ac:dyDescent="0.25">
@@ -26447,10 +26429,10 @@
         <v>1088</v>
       </c>
       <c r="D1228" s="12" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E1228" s="12" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1229" spans="2:5" x14ac:dyDescent="0.25">
@@ -26461,10 +26443,10 @@
         <v>1088</v>
       </c>
       <c r="D1229" s="12" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E1229" s="12" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1230" spans="2:5" x14ac:dyDescent="0.25">
@@ -26475,10 +26457,10 @@
         <v>1088</v>
       </c>
       <c r="D1230" s="12" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E1230" s="12" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1231" spans="2:5" x14ac:dyDescent="0.25">
@@ -26489,10 +26471,10 @@
         <v>1088</v>
       </c>
       <c r="D1231" s="12" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E1231" s="12" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1232" spans="2:5" x14ac:dyDescent="0.25">
@@ -26503,10 +26485,10 @@
         <v>1088</v>
       </c>
       <c r="D1232" s="12" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E1232" s="12" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1233" spans="2:5" x14ac:dyDescent="0.25">
@@ -26517,10 +26499,10 @@
         <v>1088</v>
       </c>
       <c r="D1233" s="12" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="E1233" s="12" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1234" spans="2:5" x14ac:dyDescent="0.25">
@@ -26531,10 +26513,10 @@
         <v>1088</v>
       </c>
       <c r="D1234" s="12" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E1234" s="12" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1235" spans="2:5" x14ac:dyDescent="0.25">
@@ -26545,10 +26527,10 @@
         <v>1088</v>
       </c>
       <c r="D1235" s="12" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E1235" s="12" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1236" spans="2:5" x14ac:dyDescent="0.25">
@@ -26559,10 +26541,10 @@
         <v>1088</v>
       </c>
       <c r="D1236" s="12" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E1236" s="12" t="s">
-        <v>1419</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1237" spans="2:5" x14ac:dyDescent="0.25">
@@ -26573,10 +26555,10 @@
         <v>1088</v>
       </c>
       <c r="D1237" s="12" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E1237" s="12" t="s">
-        <v>1419</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1238" spans="2:5" x14ac:dyDescent="0.25">
@@ -26587,10 +26569,10 @@
         <v>1088</v>
       </c>
       <c r="D1238" s="12" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="E1238" s="12" t="s">
-        <v>1419</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1239" spans="2:5" x14ac:dyDescent="0.25">
@@ -26601,7 +26583,7 @@
         <v>1088</v>
       </c>
       <c r="D1239" s="12" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="E1239" s="12" t="s">
         <v>250</v>
@@ -26615,7 +26597,7 @@
         <v>1088</v>
       </c>
       <c r="D1240" s="12" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E1240" s="12" t="s">
         <v>250</v>
@@ -26629,7 +26611,7 @@
         <v>1088</v>
       </c>
       <c r="D1241" s="12" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E1241" s="12" t="s">
         <v>250</v>
@@ -26643,7 +26625,7 @@
         <v>1088</v>
       </c>
       <c r="D1242" s="12" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E1242" s="12" t="s">
         <v>250</v>
@@ -26657,7 +26639,7 @@
         <v>1088</v>
       </c>
       <c r="D1243" s="12" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E1243" s="12" t="s">
         <v>250</v>
@@ -26671,7 +26653,7 @@
         <v>1088</v>
       </c>
       <c r="D1244" s="12" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E1244" s="12" t="s">
         <v>250</v>
@@ -26685,7 +26667,7 @@
         <v>1088</v>
       </c>
       <c r="D1245" s="12" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E1245" s="12" t="s">
         <v>250</v>
@@ -26699,10 +26681,10 @@
         <v>1088</v>
       </c>
       <c r="D1246" s="12" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E1246" s="12" t="s">
-        <v>250</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1247" spans="2:5" x14ac:dyDescent="0.25">
@@ -26713,10 +26695,10 @@
         <v>1088</v>
       </c>
       <c r="D1247" s="12" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E1247" s="12" t="s">
-        <v>250</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1248" spans="2:5" x14ac:dyDescent="0.25">
@@ -26727,10 +26709,10 @@
         <v>1088</v>
       </c>
       <c r="D1248" s="12" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E1248" s="12" t="s">
-        <v>250</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1249" spans="2:5" x14ac:dyDescent="0.25">
@@ -26741,10 +26723,10 @@
         <v>1088</v>
       </c>
       <c r="D1249" s="12" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E1249" s="12" t="s">
-        <v>422</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1250" spans="2:5" x14ac:dyDescent="0.25">
@@ -26755,10 +26737,10 @@
         <v>1088</v>
       </c>
       <c r="D1250" s="12" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E1250" s="12" t="s">
-        <v>422</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1251" spans="2:5" x14ac:dyDescent="0.25">
@@ -26769,10 +26751,10 @@
         <v>1088</v>
       </c>
       <c r="D1251" s="12" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E1251" s="12" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1252" spans="2:5" x14ac:dyDescent="0.25">
@@ -26783,10 +26765,10 @@
         <v>1088</v>
       </c>
       <c r="D1252" s="12" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E1252" s="12" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1253" spans="2:5" x14ac:dyDescent="0.25">
@@ -26797,10 +26779,10 @@
         <v>1088</v>
       </c>
       <c r="D1253" s="12" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="E1253" s="12" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1254" spans="2:5" x14ac:dyDescent="0.25">
@@ -26811,10 +26793,10 @@
         <v>1088</v>
       </c>
       <c r="D1254" s="12" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E1254" s="12" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1255" spans="2:5" x14ac:dyDescent="0.25">
@@ -26825,10 +26807,10 @@
         <v>1088</v>
       </c>
       <c r="D1255" s="12" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E1255" s="12" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1256" spans="2:5" x14ac:dyDescent="0.25">
@@ -26839,10 +26821,10 @@
         <v>1088</v>
       </c>
       <c r="D1256" s="12" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="E1256" s="12" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1257" spans="2:5" x14ac:dyDescent="0.25">
@@ -26853,10 +26835,10 @@
         <v>1088</v>
       </c>
       <c r="D1257" s="12" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E1257" s="12" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1258" spans="2:5" x14ac:dyDescent="0.25">
@@ -26867,10 +26849,10 @@
         <v>1088</v>
       </c>
       <c r="D1258" s="12" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E1258" s="12" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1259" spans="2:5" x14ac:dyDescent="0.25">
@@ -26881,10 +26863,10 @@
         <v>1088</v>
       </c>
       <c r="D1259" s="12" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E1259" s="12" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1260" spans="2:5" x14ac:dyDescent="0.25">
@@ -26895,10 +26877,10 @@
         <v>1088</v>
       </c>
       <c r="D1260" s="12" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E1260" s="12" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1261" spans="2:5" x14ac:dyDescent="0.25">
@@ -26909,10 +26891,10 @@
         <v>1088</v>
       </c>
       <c r="D1261" s="12" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E1261" s="12" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1262" spans="2:5" x14ac:dyDescent="0.25">
@@ -26923,10 +26905,10 @@
         <v>1088</v>
       </c>
       <c r="D1262" s="12" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E1262" s="12" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1263" spans="2:5" x14ac:dyDescent="0.25">
@@ -26937,10 +26919,10 @@
         <v>1088</v>
       </c>
       <c r="D1263" s="12" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E1263" s="12" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1264" spans="2:5" x14ac:dyDescent="0.25">
@@ -26951,10 +26933,10 @@
         <v>1088</v>
       </c>
       <c r="D1264" s="12" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E1264" s="12" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1265" spans="2:5" x14ac:dyDescent="0.25">
@@ -26965,10 +26947,10 @@
         <v>1088</v>
       </c>
       <c r="D1265" s="12" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E1265" s="12" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1266" spans="2:5" x14ac:dyDescent="0.25">
@@ -26979,10 +26961,10 @@
         <v>1088</v>
       </c>
       <c r="D1266" s="12" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="E1266" s="12" t="s">
-        <v>1457</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1267" spans="2:5" x14ac:dyDescent="0.25">
@@ -26993,7 +26975,7 @@
         <v>1088</v>
       </c>
       <c r="D1267" s="12" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E1267" s="12" t="s">
         <v>1457</v>
@@ -27007,10 +26989,10 @@
         <v>1088</v>
       </c>
       <c r="D1268" s="12" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E1268" s="12" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1269" spans="2:5" x14ac:dyDescent="0.25">
@@ -27021,10 +27003,10 @@
         <v>1088</v>
       </c>
       <c r="D1269" s="12" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E1269" s="12" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1270" spans="2:5" x14ac:dyDescent="0.25">
@@ -27035,10 +27017,10 @@
         <v>1088</v>
       </c>
       <c r="D1270" s="12" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E1270" s="12" t="s">
-        <v>1463</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1271" spans="2:5" x14ac:dyDescent="0.25">
@@ -27049,10 +27031,10 @@
         <v>1088</v>
       </c>
       <c r="D1271" s="12" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="E1271" s="12" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1272" spans="2:5" x14ac:dyDescent="0.25">
@@ -27063,10 +27045,10 @@
         <v>1088</v>
       </c>
       <c r="D1272" s="12" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="E1272" s="12" t="s">
-        <v>1452</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1273" spans="2:5" x14ac:dyDescent="0.25">
@@ -27077,10 +27059,10 @@
         <v>1088</v>
       </c>
       <c r="D1273" s="12" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E1273" s="12" t="s">
-        <v>1452</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1274" spans="2:5" x14ac:dyDescent="0.25">
@@ -27091,10 +27073,10 @@
         <v>1088</v>
       </c>
       <c r="D1274" s="12" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E1274" s="12" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1275" spans="2:5" x14ac:dyDescent="0.25">
@@ -27105,10 +27087,10 @@
         <v>1088</v>
       </c>
       <c r="D1275" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1275" s="12" t="s">
         <v>1468</v>
-      </c>
-      <c r="E1275" s="12" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="1276" spans="2:5" x14ac:dyDescent="0.25">
@@ -27119,10 +27101,10 @@
         <v>1088</v>
       </c>
       <c r="D1276" s="12" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E1276" s="12" t="s">
         <v>1470</v>
-      </c>
-      <c r="E1276" s="12" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="1277" spans="2:5" x14ac:dyDescent="0.25">
@@ -27136,7 +27118,7 @@
         <v>1471</v>
       </c>
       <c r="E1277" s="12" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1278" spans="2:5" x14ac:dyDescent="0.25">
@@ -27147,10 +27129,10 @@
         <v>1088</v>
       </c>
       <c r="D1278" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E1278" s="12" t="s">
         <v>1473</v>
-      </c>
-      <c r="E1278" s="12" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="1279" spans="2:5" x14ac:dyDescent="0.25">
@@ -27161,10 +27143,10 @@
         <v>1088</v>
       </c>
       <c r="D1279" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E1279" s="12" t="s">
         <v>1475</v>
-      </c>
-      <c r="E1279" s="12" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="1280" spans="2:5" x14ac:dyDescent="0.25">
@@ -27175,10 +27157,10 @@
         <v>1088</v>
       </c>
       <c r="D1280" s="12" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E1280" s="12" t="s">
         <v>1476</v>
+      </c>
+      <c r="E1280" s="4" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="1281" spans="2:5" x14ac:dyDescent="0.25">
@@ -27189,10 +27171,10 @@
         <v>1088</v>
       </c>
       <c r="D1281" s="12" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E1281" s="12" t="s">
-        <v>1479</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1282" spans="2:5" x14ac:dyDescent="0.25">
@@ -27203,66 +27185,24 @@
         <v>1088</v>
       </c>
       <c r="D1282" s="12" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E1282" s="12" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="1283" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B1283" s="6">
         <v>1281</v>
       </c>
       <c r="C1283" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1283" s="12" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E1283" s="4" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="1284" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1284" s="6">
-        <v>1282</v>
-      </c>
-      <c r="C1284" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1284" s="12" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E1284" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="1285" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1285" s="6">
-        <v>1283</v>
-      </c>
-      <c r="C1285" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1285" s="12" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E1285" s="12" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="1286" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1286" s="6">
-        <v>1284</v>
-      </c>
-      <c r="C1286" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1286" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E1286" s="13" t="s">
-        <v>1486</v>
+      <c r="D1283" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E1283" s="13" t="s">
+        <v>1480</v>
       </c>
     </row>
   </sheetData>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D205F-0E2E-45BC-B858-9FE73F2CBDA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C372DA23-FB40-4781-BE14-236304BA80C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4631,15 +4631,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4924,7 +4924,7 @@
   <dimension ref="A2:G1283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1080" workbookViewId="0">
-      <selection activeCell="D1088" sqref="D1088"/>
+      <selection activeCell="A1093" sqref="A1093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23564,7 +23564,7 @@
       <c r="F1040" s="1"/>
       <c r="G1040" s="1"/>
     </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1041" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1041" s="6">
         <v>1039</v>
       </c>
@@ -23580,7 +23580,7 @@
       <c r="F1041" s="1"/>
       <c r="G1041" s="1"/>
     </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1042" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1042" s="6">
         <v>1040</v>
       </c>
@@ -23596,7 +23596,7 @@
       <c r="F1042" s="1"/>
       <c r="G1042" s="1"/>
     </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1043" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1043" s="6">
         <v>1041</v>
       </c>
@@ -23612,7 +23612,7 @@
       <c r="F1043" s="1"/>
       <c r="G1043" s="1"/>
     </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1044" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1044" s="6">
         <v>1042</v>
       </c>
@@ -23628,7 +23628,7 @@
       <c r="F1044" s="1"/>
       <c r="G1044" s="1"/>
     </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1045" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1045" s="6">
         <v>1043</v>
       </c>
@@ -23644,7 +23644,7 @@
       <c r="F1045" s="1"/>
       <c r="G1045" s="1"/>
     </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1046" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1046" s="6">
         <v>1044</v>
       </c>
@@ -23660,7 +23660,7 @@
       <c r="F1046" s="1"/>
       <c r="G1046" s="1"/>
     </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1047" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1047" s="6">
         <v>1045</v>
       </c>
@@ -23676,7 +23676,7 @@
       <c r="F1047" s="1"/>
       <c r="G1047" s="1"/>
     </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1048" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1048" s="6">
         <v>1046</v>
       </c>
@@ -23692,7 +23692,7 @@
       <c r="F1048" s="1"/>
       <c r="G1048" s="1"/>
     </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1049" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1049" s="6">
         <v>1047</v>
       </c>
@@ -23708,7 +23708,7 @@
       <c r="F1049" s="1"/>
       <c r="G1049" s="1"/>
     </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1050" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1050" s="6">
         <v>1048</v>
       </c>
@@ -23724,7 +23724,7 @@
       <c r="F1050" s="1"/>
       <c r="G1050" s="1"/>
     </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1051" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1051" s="6">
         <v>1049</v>
       </c>
@@ -23740,7 +23740,7 @@
       <c r="F1051" s="1"/>
       <c r="G1051" s="1"/>
     </row>
-    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1052" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1052" s="6">
         <v>1050</v>
       </c>
@@ -23756,7 +23756,7 @@
       <c r="F1052" s="1"/>
       <c r="G1052" s="1"/>
     </row>
-    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1053" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1053" s="6">
         <v>1051</v>
       </c>
@@ -23772,7 +23772,7 @@
       <c r="F1053" s="1"/>
       <c r="G1053" s="1"/>
     </row>
-    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1054" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1054" s="6">
         <v>1052</v>
       </c>
@@ -23788,8 +23788,7 @@
       <c r="F1054" s="1"/>
       <c r="G1054" s="1"/>
     </row>
-    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1055" s="8"/>
+    <row r="1055" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1055" s="6">
         <v>1053</v>
       </c>
@@ -23805,7 +23804,7 @@
       <c r="F1055" s="1"/>
       <c r="G1055" s="1"/>
     </row>
-    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1056" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1056" s="6">
         <v>1054</v>
       </c>
@@ -24333,7 +24332,7 @@
       <c r="F1088" s="1"/>
       <c r="G1088" s="1"/>
     </row>
-    <row r="1089" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1089" s="6">
         <v>1087</v>
       </c>
@@ -24349,7 +24348,7 @@
       <c r="F1089" s="1"/>
       <c r="G1089" s="1"/>
     </row>
-    <row r="1090" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1090" s="6">
         <v>1088</v>
       </c>
@@ -24365,7 +24364,7 @@
       <c r="F1090" s="1"/>
       <c r="G1090" s="1"/>
     </row>
-    <row r="1091" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1091" s="6">
         <v>1089</v>
       </c>
@@ -24381,7 +24380,7 @@
       <c r="F1091" s="1"/>
       <c r="G1091" s="1"/>
     </row>
-    <row r="1092" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1092" s="6">
         <v>1090</v>
       </c>
@@ -24397,7 +24396,7 @@
       <c r="F1092" s="1"/>
       <c r="G1092" s="1"/>
     </row>
-    <row r="1093" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1093" s="6">
         <v>1091</v>
       </c>
@@ -24413,7 +24412,7 @@
       <c r="F1093" s="1"/>
       <c r="G1093" s="1"/>
     </row>
-    <row r="1094" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1094" s="6">
         <v>1092</v>
       </c>
@@ -24429,7 +24428,7 @@
       <c r="F1094" s="1"/>
       <c r="G1094" s="1"/>
     </row>
-    <row r="1095" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1095" s="6">
         <v>1093</v>
       </c>
@@ -24445,7 +24444,8 @@
       <c r="F1095" s="1"/>
       <c r="G1095" s="1"/>
     </row>
-    <row r="1096" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1096" s="8"/>
       <c r="B1096" s="6">
         <v>1094</v>
       </c>
@@ -24461,7 +24461,7 @@
       <c r="F1096" s="1"/>
       <c r="G1096" s="1"/>
     </row>
-    <row r="1097" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1097" s="6">
         <v>1095</v>
       </c>
@@ -24477,7 +24477,7 @@
       <c r="F1097" s="1"/>
       <c r="G1097" s="1"/>
     </row>
-    <row r="1098" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1098" s="6">
         <v>1096</v>
       </c>
@@ -24493,7 +24493,7 @@
       <c r="F1098" s="1"/>
       <c r="G1098" s="1"/>
     </row>
-    <row r="1099" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1099" s="6">
         <v>1097</v>
       </c>
@@ -24509,7 +24509,7 @@
       <c r="F1099" s="1"/>
       <c r="G1099" s="1"/>
     </row>
-    <row r="1100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1100" s="6">
         <v>1098</v>
       </c>
@@ -24525,7 +24525,7 @@
       <c r="F1100" s="1"/>
       <c r="G1100" s="1"/>
     </row>
-    <row r="1101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1101" s="6">
         <v>1099</v>
       </c>
@@ -24541,7 +24541,7 @@
       <c r="F1101" s="1"/>
       <c r="G1101" s="1"/>
     </row>
-    <row r="1102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1102" s="6">
         <v>1100</v>
       </c>
@@ -24557,7 +24557,7 @@
       <c r="F1102" s="1"/>
       <c r="G1102" s="1"/>
     </row>
-    <row r="1103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1103" s="6">
         <v>1101</v>
       </c>
@@ -24573,7 +24573,7 @@
       <c r="F1103" s="1"/>
       <c r="G1103" s="1"/>
     </row>
-    <row r="1104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1104" s="6">
         <v>1102</v>
       </c>
@@ -25476,10 +25476,10 @@
       <c r="C1160" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1160" s="12" t="s">
+      <c r="D1160" s="10" t="s">
         <v>1334</v>
       </c>
-      <c r="E1160" s="12" t="s">
+      <c r="E1160" s="10" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -25490,10 +25490,10 @@
       <c r="C1161" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1161" s="12" t="s">
+      <c r="D1161" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="E1161" s="12" t="s">
+      <c r="E1161" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -25504,10 +25504,10 @@
       <c r="C1162" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1162" s="12" t="s">
+      <c r="D1162" s="10" t="s">
         <v>1337</v>
       </c>
-      <c r="E1162" s="12" t="s">
+      <c r="E1162" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -25518,10 +25518,10 @@
       <c r="C1163" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1163" s="12" t="s">
+      <c r="D1163" s="10" t="s">
         <v>1338</v>
       </c>
-      <c r="E1163" s="12" t="s">
+      <c r="E1163" s="10" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -25532,10 +25532,10 @@
       <c r="C1164" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1164" s="12" t="s">
+      <c r="D1164" s="10" t="s">
         <v>1340</v>
       </c>
-      <c r="E1164" s="12" t="s">
+      <c r="E1164" s="10" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -25546,10 +25546,10 @@
       <c r="C1165" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1165" s="12" t="s">
+      <c r="D1165" s="10" t="s">
         <v>1341</v>
       </c>
-      <c r="E1165" s="12" t="s">
+      <c r="E1165" s="10" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -25560,10 +25560,10 @@
       <c r="C1166" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1166" s="12" t="s">
+      <c r="D1166" s="10" t="s">
         <v>1343</v>
       </c>
-      <c r="E1166" s="12" t="s">
+      <c r="E1166" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25574,10 +25574,10 @@
       <c r="C1167" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1167" s="12" t="s">
+      <c r="D1167" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="E1167" s="12" t="s">
+      <c r="E1167" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25588,10 +25588,10 @@
       <c r="C1168" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1168" s="12" t="s">
+      <c r="D1168" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="E1168" s="12" t="s">
+      <c r="E1168" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25602,10 +25602,10 @@
       <c r="C1169" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1169" s="12" t="s">
+      <c r="D1169" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="E1169" s="12" t="s">
+      <c r="E1169" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25616,10 +25616,10 @@
       <c r="C1170" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1170" s="12" t="s">
+      <c r="D1170" s="10" t="s">
         <v>1348</v>
       </c>
-      <c r="E1170" s="12" t="s">
+      <c r="E1170" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25630,10 +25630,10 @@
       <c r="C1171" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1171" s="12" t="s">
+      <c r="D1171" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="E1171" s="12" t="s">
+      <c r="E1171" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25644,10 +25644,10 @@
       <c r="C1172" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1172" s="12" t="s">
+      <c r="D1172" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="E1172" s="12" t="s">
+      <c r="E1172" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25658,10 +25658,10 @@
       <c r="C1173" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1173" s="12" t="s">
+      <c r="D1173" s="10" t="s">
         <v>1351</v>
       </c>
-      <c r="E1173" s="12" t="s">
+      <c r="E1173" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25672,10 +25672,10 @@
       <c r="C1174" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1174" s="12" t="s">
+      <c r="D1174" s="10" t="s">
         <v>1352</v>
       </c>
-      <c r="E1174" s="12" t="s">
+      <c r="E1174" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25686,10 +25686,10 @@
       <c r="C1175" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1175" s="12" t="s">
+      <c r="D1175" s="10" t="s">
         <v>1353</v>
       </c>
-      <c r="E1175" s="12" t="s">
+      <c r="E1175" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25700,10 +25700,10 @@
       <c r="C1176" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1176" s="12" t="s">
+      <c r="D1176" s="10" t="s">
         <v>1355</v>
       </c>
-      <c r="E1176" s="12" t="s">
+      <c r="E1176" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25714,10 +25714,10 @@
       <c r="C1177" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1177" s="12" t="s">
+      <c r="D1177" s="10" t="s">
         <v>1356</v>
       </c>
-      <c r="E1177" s="12" t="s">
+      <c r="E1177" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25728,10 +25728,10 @@
       <c r="C1178" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1178" s="12" t="s">
+      <c r="D1178" s="10" t="s">
         <v>1357</v>
       </c>
-      <c r="E1178" s="12" t="s">
+      <c r="E1178" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25742,10 +25742,10 @@
       <c r="C1179" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1179" s="12" t="s">
+      <c r="D1179" s="10" t="s">
         <v>1358</v>
       </c>
-      <c r="E1179" s="12" t="s">
+      <c r="E1179" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25756,10 +25756,10 @@
       <c r="C1180" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1180" s="12" t="s">
+      <c r="D1180" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="E1180" s="12" t="s">
+      <c r="E1180" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25770,10 +25770,10 @@
       <c r="C1181" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1181" s="12" t="s">
+      <c r="D1181" s="10" t="s">
         <v>1360</v>
       </c>
-      <c r="E1181" s="12" t="s">
+      <c r="E1181" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25784,10 +25784,10 @@
       <c r="C1182" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1182" s="12" t="s">
+      <c r="D1182" s="10" t="s">
         <v>1361</v>
       </c>
-      <c r="E1182" s="12" t="s">
+      <c r="E1182" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25798,10 +25798,10 @@
       <c r="C1183" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1183" s="12" t="s">
+      <c r="D1183" s="10" t="s">
         <v>1362</v>
       </c>
-      <c r="E1183" s="12" t="s">
+      <c r="E1183" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25812,10 +25812,10 @@
       <c r="C1184" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1184" s="12" t="s">
+      <c r="D1184" s="10" t="s">
         <v>1363</v>
       </c>
-      <c r="E1184" s="12" t="s">
+      <c r="E1184" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25826,10 +25826,10 @@
       <c r="C1185" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1185" s="12" t="s">
+      <c r="D1185" s="10" t="s">
         <v>1364</v>
       </c>
-      <c r="E1185" s="12" t="s">
+      <c r="E1185" s="10" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -25840,10 +25840,10 @@
       <c r="C1186" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1186" s="12" t="s">
+      <c r="D1186" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="E1186" s="12" t="s">
+      <c r="E1186" s="10" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -25854,10 +25854,10 @@
       <c r="C1187" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1187" s="12" t="s">
+      <c r="D1187" s="10" t="s">
         <v>1367</v>
       </c>
-      <c r="E1187" s="12" t="s">
+      <c r="E1187" s="10" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -25868,10 +25868,10 @@
       <c r="C1188" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1188" s="12" t="s">
+      <c r="D1188" s="10" t="s">
         <v>1369</v>
       </c>
-      <c r="E1188" s="12" t="s">
+      <c r="E1188" s="10" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -25882,10 +25882,10 @@
       <c r="C1189" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1189" s="12" t="s">
+      <c r="D1189" s="10" t="s">
         <v>1370</v>
       </c>
-      <c r="E1189" s="12" t="s">
+      <c r="E1189" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25896,10 +25896,10 @@
       <c r="C1190" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1190" s="12" t="s">
+      <c r="D1190" s="10" t="s">
         <v>1371</v>
       </c>
-      <c r="E1190" s="12" t="s">
+      <c r="E1190" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25910,10 +25910,10 @@
       <c r="C1191" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1191" s="12" t="s">
+      <c r="D1191" s="10" t="s">
         <v>1372</v>
       </c>
-      <c r="E1191" s="12" t="s">
+      <c r="E1191" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25924,10 +25924,10 @@
       <c r="C1192" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1192" s="12" t="s">
+      <c r="D1192" s="10" t="s">
         <v>1373</v>
       </c>
-      <c r="E1192" s="12" t="s">
+      <c r="E1192" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25938,10 +25938,10 @@
       <c r="C1193" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1193" s="12" t="s">
+      <c r="D1193" s="10" t="s">
         <v>1374</v>
       </c>
-      <c r="E1193" s="12" t="s">
+      <c r="E1193" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25952,10 +25952,10 @@
       <c r="C1194" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1194" s="12" t="s">
+      <c r="D1194" s="10" t="s">
         <v>1375</v>
       </c>
-      <c r="E1194" s="12" t="s">
+      <c r="E1194" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25966,10 +25966,10 @@
       <c r="C1195" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1195" s="12" t="s">
+      <c r="D1195" s="10" t="s">
         <v>1376</v>
       </c>
-      <c r="E1195" s="12" t="s">
+      <c r="E1195" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25980,10 +25980,10 @@
       <c r="C1196" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1196" s="12" t="s">
+      <c r="D1196" s="10" t="s">
         <v>1377</v>
       </c>
-      <c r="E1196" s="12" t="s">
+      <c r="E1196" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -25994,10 +25994,10 @@
       <c r="C1197" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1197" s="12" t="s">
+      <c r="D1197" s="10" t="s">
         <v>1378</v>
       </c>
-      <c r="E1197" s="12" t="s">
+      <c r="E1197" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26008,10 +26008,10 @@
       <c r="C1198" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1198" s="12" t="s">
+      <c r="D1198" s="10" t="s">
         <v>1379</v>
       </c>
-      <c r="E1198" s="12" t="s">
+      <c r="E1198" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26022,10 +26022,10 @@
       <c r="C1199" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1199" s="12" t="s">
+      <c r="D1199" s="10" t="s">
         <v>1380</v>
       </c>
-      <c r="E1199" s="12" t="s">
+      <c r="E1199" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26036,10 +26036,10 @@
       <c r="C1200" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1200" s="12" t="s">
+      <c r="D1200" s="10" t="s">
         <v>1381</v>
       </c>
-      <c r="E1200" s="12" t="s">
+      <c r="E1200" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26050,10 +26050,10 @@
       <c r="C1201" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1201" s="12" t="s">
+      <c r="D1201" s="10" t="s">
         <v>1382</v>
       </c>
-      <c r="E1201" s="12" t="s">
+      <c r="E1201" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26064,10 +26064,10 @@
       <c r="C1202" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1202" s="12" t="s">
+      <c r="D1202" s="10" t="s">
         <v>1383</v>
       </c>
-      <c r="E1202" s="12" t="s">
+      <c r="E1202" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26078,10 +26078,10 @@
       <c r="C1203" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1203" s="12" t="s">
+      <c r="D1203" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="E1203" s="12" t="s">
+      <c r="E1203" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26092,10 +26092,10 @@
       <c r="C1204" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1204" s="12" t="s">
+      <c r="D1204" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="E1204" s="12" t="s">
+      <c r="E1204" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26106,10 +26106,10 @@
       <c r="C1205" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1205" s="12" t="s">
+      <c r="D1205" s="10" t="s">
         <v>1386</v>
       </c>
-      <c r="E1205" s="12" t="s">
+      <c r="E1205" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26120,10 +26120,10 @@
       <c r="C1206" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1206" s="12" t="s">
+      <c r="D1206" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="E1206" s="12" t="s">
+      <c r="E1206" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26134,10 +26134,10 @@
       <c r="C1207" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1207" s="12" t="s">
+      <c r="D1207" s="10" t="s">
         <v>1388</v>
       </c>
-      <c r="E1207" s="12" t="s">
+      <c r="E1207" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26148,10 +26148,10 @@
       <c r="C1208" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1208" s="12" t="s">
+      <c r="D1208" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="E1208" s="12" t="s">
+      <c r="E1208" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26162,10 +26162,10 @@
       <c r="C1209" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1209" s="12" t="s">
+      <c r="D1209" s="10" t="s">
         <v>1390</v>
       </c>
-      <c r="E1209" s="12" t="s">
+      <c r="E1209" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26176,10 +26176,10 @@
       <c r="C1210" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1210" s="12" t="s">
+      <c r="D1210" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="E1210" s="12" t="s">
+      <c r="E1210" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -26190,10 +26190,10 @@
       <c r="C1211" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1211" s="12" t="s">
+      <c r="D1211" s="10" t="s">
         <v>1392</v>
       </c>
-      <c r="E1211" s="12" t="s">
+      <c r="E1211" s="10" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -26204,10 +26204,10 @@
       <c r="C1212" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1212" s="12" t="s">
+      <c r="D1212" s="10" t="s">
         <v>1393</v>
       </c>
-      <c r="E1212" s="12" t="s">
+      <c r="E1212" s="10" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -26218,10 +26218,10 @@
       <c r="C1213" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1213" s="12" t="s">
+      <c r="D1213" s="10" t="s">
         <v>1394</v>
       </c>
-      <c r="E1213" s="12" t="s">
+      <c r="E1213" s="10" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -26232,10 +26232,10 @@
       <c r="C1214" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1214" s="12" t="s">
+      <c r="D1214" s="10" t="s">
         <v>1395</v>
       </c>
-      <c r="E1214" s="12" t="s">
+      <c r="E1214" s="10" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -26246,10 +26246,10 @@
       <c r="C1215" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1215" s="12" t="s">
+      <c r="D1215" s="10" t="s">
         <v>1396</v>
       </c>
-      <c r="E1215" s="12" t="s">
+      <c r="E1215" s="10" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -26260,10 +26260,10 @@
       <c r="C1216" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1216" s="12" t="s">
+      <c r="D1216" s="10" t="s">
         <v>1398</v>
       </c>
-      <c r="E1216" s="12" t="s">
+      <c r="E1216" s="10" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -26274,10 +26274,10 @@
       <c r="C1217" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1217" s="12" t="s">
+      <c r="D1217" s="10" t="s">
         <v>1400</v>
       </c>
-      <c r="E1217" s="12" t="s">
+      <c r="E1217" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26288,10 +26288,10 @@
       <c r="C1218" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1218" s="12" t="s">
+      <c r="D1218" s="10" t="s">
         <v>1402</v>
       </c>
-      <c r="E1218" s="12" t="s">
+      <c r="E1218" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26302,10 +26302,10 @@
       <c r="C1219" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1219" s="12" t="s">
+      <c r="D1219" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="E1219" s="12" t="s">
+      <c r="E1219" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26316,10 +26316,10 @@
       <c r="C1220" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1220" s="12" t="s">
+      <c r="D1220" s="10" t="s">
         <v>1404</v>
       </c>
-      <c r="E1220" s="12" t="s">
+      <c r="E1220" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26330,10 +26330,10 @@
       <c r="C1221" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1221" s="12" t="s">
+      <c r="D1221" s="10" t="s">
         <v>1405</v>
       </c>
-      <c r="E1221" s="12" t="s">
+      <c r="E1221" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26344,10 +26344,10 @@
       <c r="C1222" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1222" s="12" t="s">
+      <c r="D1222" s="10" t="s">
         <v>1406</v>
       </c>
-      <c r="E1222" s="12" t="s">
+      <c r="E1222" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26358,10 +26358,10 @@
       <c r="C1223" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1223" s="12" t="s">
+      <c r="D1223" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="E1223" s="12" t="s">
+      <c r="E1223" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26372,10 +26372,10 @@
       <c r="C1224" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1224" s="12" t="s">
+      <c r="D1224" s="10" t="s">
         <v>1408</v>
       </c>
-      <c r="E1224" s="12" t="s">
+      <c r="E1224" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26386,10 +26386,10 @@
       <c r="C1225" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1225" s="12" t="s">
+      <c r="D1225" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="E1225" s="12" t="s">
+      <c r="E1225" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -26400,10 +26400,10 @@
       <c r="C1226" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1226" s="12" t="s">
+      <c r="D1226" s="10" t="s">
         <v>1410</v>
       </c>
-      <c r="E1226" s="12" t="s">
+      <c r="E1226" s="10" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -26414,10 +26414,10 @@
       <c r="C1227" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1227" s="12" t="s">
+      <c r="D1227" s="10" t="s">
         <v>1412</v>
       </c>
-      <c r="E1227" s="12" t="s">
+      <c r="E1227" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26428,10 +26428,10 @@
       <c r="C1228" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1228" s="12" t="s">
+      <c r="D1228" s="10" t="s">
         <v>1414</v>
       </c>
-      <c r="E1228" s="12" t="s">
+      <c r="E1228" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26442,10 +26442,10 @@
       <c r="C1229" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1229" s="12" t="s">
+      <c r="D1229" s="10" t="s">
         <v>1415</v>
       </c>
-      <c r="E1229" s="12" t="s">
+      <c r="E1229" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26456,10 +26456,10 @@
       <c r="C1230" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1230" s="12" t="s">
+      <c r="D1230" s="10" t="s">
         <v>1416</v>
       </c>
-      <c r="E1230" s="12" t="s">
+      <c r="E1230" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26470,10 +26470,10 @@
       <c r="C1231" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1231" s="12" t="s">
+      <c r="D1231" s="10" t="s">
         <v>1417</v>
       </c>
-      <c r="E1231" s="12" t="s">
+      <c r="E1231" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26484,10 +26484,10 @@
       <c r="C1232" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1232" s="12" t="s">
+      <c r="D1232" s="10" t="s">
         <v>1418</v>
       </c>
-      <c r="E1232" s="12" t="s">
+      <c r="E1232" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26498,10 +26498,10 @@
       <c r="C1233" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1233" s="12" t="s">
+      <c r="D1233" s="10" t="s">
         <v>1419</v>
       </c>
-      <c r="E1233" s="12" t="s">
+      <c r="E1233" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26512,10 +26512,10 @@
       <c r="C1234" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1234" s="12" t="s">
+      <c r="D1234" s="10" t="s">
         <v>1420</v>
       </c>
-      <c r="E1234" s="12" t="s">
+      <c r="E1234" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26526,10 +26526,10 @@
       <c r="C1235" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1235" s="12" t="s">
+      <c r="D1235" s="10" t="s">
         <v>1421</v>
       </c>
-      <c r="E1235" s="12" t="s">
+      <c r="E1235" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -26540,10 +26540,10 @@
       <c r="C1236" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1236" s="12" t="s">
+      <c r="D1236" s="10" t="s">
         <v>1422</v>
       </c>
-      <c r="E1236" s="12" t="s">
+      <c r="E1236" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26554,10 +26554,10 @@
       <c r="C1237" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1237" s="12" t="s">
+      <c r="D1237" s="10" t="s">
         <v>1423</v>
       </c>
-      <c r="E1237" s="12" t="s">
+      <c r="E1237" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26568,10 +26568,10 @@
       <c r="C1238" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1238" s="12" t="s">
+      <c r="D1238" s="10" t="s">
         <v>1424</v>
       </c>
-      <c r="E1238" s="12" t="s">
+      <c r="E1238" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26582,10 +26582,10 @@
       <c r="C1239" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1239" s="12" t="s">
+      <c r="D1239" s="10" t="s">
         <v>1425</v>
       </c>
-      <c r="E1239" s="12" t="s">
+      <c r="E1239" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26596,10 +26596,10 @@
       <c r="C1240" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1240" s="12" t="s">
+      <c r="D1240" s="10" t="s">
         <v>1426</v>
       </c>
-      <c r="E1240" s="12" t="s">
+      <c r="E1240" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26610,10 +26610,10 @@
       <c r="C1241" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1241" s="12" t="s">
+      <c r="D1241" s="10" t="s">
         <v>1427</v>
       </c>
-      <c r="E1241" s="12" t="s">
+      <c r="E1241" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26624,10 +26624,10 @@
       <c r="C1242" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1242" s="12" t="s">
+      <c r="D1242" s="10" t="s">
         <v>1428</v>
       </c>
-      <c r="E1242" s="12" t="s">
+      <c r="E1242" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26638,10 +26638,10 @@
       <c r="C1243" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1243" s="12" t="s">
+      <c r="D1243" s="10" t="s">
         <v>1429</v>
       </c>
-      <c r="E1243" s="12" t="s">
+      <c r="E1243" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26652,10 +26652,10 @@
       <c r="C1244" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1244" s="12" t="s">
+      <c r="D1244" s="10" t="s">
         <v>1430</v>
       </c>
-      <c r="E1244" s="12" t="s">
+      <c r="E1244" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26666,10 +26666,10 @@
       <c r="C1245" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1245" s="12" t="s">
+      <c r="D1245" s="10" t="s">
         <v>1431</v>
       </c>
-      <c r="E1245" s="12" t="s">
+      <c r="E1245" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -26680,10 +26680,10 @@
       <c r="C1246" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1246" s="12" t="s">
+      <c r="D1246" s="10" t="s">
         <v>1432</v>
       </c>
-      <c r="E1246" s="12" t="s">
+      <c r="E1246" s="10" t="s">
         <v>422</v>
       </c>
     </row>
@@ -26694,10 +26694,10 @@
       <c r="C1247" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1247" s="12" t="s">
+      <c r="D1247" s="10" t="s">
         <v>1433</v>
       </c>
-      <c r="E1247" s="12" t="s">
+      <c r="E1247" s="10" t="s">
         <v>422</v>
       </c>
     </row>
@@ -26708,10 +26708,10 @@
       <c r="C1248" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1248" s="12" t="s">
+      <c r="D1248" s="10" t="s">
         <v>1434</v>
       </c>
-      <c r="E1248" s="12" t="s">
+      <c r="E1248" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26722,10 +26722,10 @@
       <c r="C1249" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1249" s="12" t="s">
+      <c r="D1249" s="10" t="s">
         <v>1436</v>
       </c>
-      <c r="E1249" s="12" t="s">
+      <c r="E1249" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26736,10 +26736,10 @@
       <c r="C1250" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1250" s="12" t="s">
+      <c r="D1250" s="10" t="s">
         <v>1437</v>
       </c>
-      <c r="E1250" s="12" t="s">
+      <c r="E1250" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26750,10 +26750,10 @@
       <c r="C1251" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1251" s="12" t="s">
+      <c r="D1251" s="10" t="s">
         <v>1438</v>
       </c>
-      <c r="E1251" s="12" t="s">
+      <c r="E1251" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26764,10 +26764,10 @@
       <c r="C1252" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1252" s="12" t="s">
+      <c r="D1252" s="10" t="s">
         <v>1439</v>
       </c>
-      <c r="E1252" s="12" t="s">
+      <c r="E1252" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26778,10 +26778,10 @@
       <c r="C1253" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1253" s="12" t="s">
+      <c r="D1253" s="10" t="s">
         <v>1440</v>
       </c>
-      <c r="E1253" s="12" t="s">
+      <c r="E1253" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26792,10 +26792,10 @@
       <c r="C1254" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1254" s="12" t="s">
+      <c r="D1254" s="10" t="s">
         <v>1441</v>
       </c>
-      <c r="E1254" s="12" t="s">
+      <c r="E1254" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26806,10 +26806,10 @@
       <c r="C1255" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1255" s="12" t="s">
+      <c r="D1255" s="10" t="s">
         <v>1442</v>
       </c>
-      <c r="E1255" s="12" t="s">
+      <c r="E1255" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26820,10 +26820,10 @@
       <c r="C1256" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1256" s="12" t="s">
+      <c r="D1256" s="10" t="s">
         <v>1443</v>
       </c>
-      <c r="E1256" s="12" t="s">
+      <c r="E1256" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26834,10 +26834,10 @@
       <c r="C1257" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1257" s="12" t="s">
+      <c r="D1257" s="10" t="s">
         <v>1444</v>
       </c>
-      <c r="E1257" s="12" t="s">
+      <c r="E1257" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26848,10 +26848,10 @@
       <c r="C1258" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1258" s="12" t="s">
+      <c r="D1258" s="10" t="s">
         <v>1445</v>
       </c>
-      <c r="E1258" s="12" t="s">
+      <c r="E1258" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -26862,10 +26862,10 @@
       <c r="C1259" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1259" s="12" t="s">
+      <c r="D1259" s="10" t="s">
         <v>1447</v>
       </c>
-      <c r="E1259" s="12" t="s">
+      <c r="E1259" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -26876,10 +26876,10 @@
       <c r="C1260" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1260" s="12" t="s">
+      <c r="D1260" s="10" t="s">
         <v>1448</v>
       </c>
-      <c r="E1260" s="12" t="s">
+      <c r="E1260" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -26890,10 +26890,10 @@
       <c r="C1261" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1261" s="12" t="s">
+      <c r="D1261" s="10" t="s">
         <v>1449</v>
       </c>
-      <c r="E1261" s="12" t="s">
+      <c r="E1261" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -26904,10 +26904,10 @@
       <c r="C1262" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1262" s="12" t="s">
+      <c r="D1262" s="10" t="s">
         <v>1450</v>
       </c>
-      <c r="E1262" s="12" t="s">
+      <c r="E1262" s="10" t="s">
         <v>1451</v>
       </c>
     </row>
@@ -26918,10 +26918,10 @@
       <c r="C1263" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1263" s="12" t="s">
+      <c r="D1263" s="10" t="s">
         <v>1452</v>
       </c>
-      <c r="E1263" s="12" t="s">
+      <c r="E1263" s="10" t="s">
         <v>1451</v>
       </c>
     </row>
@@ -26932,10 +26932,10 @@
       <c r="C1264" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1264" s="12" t="s">
+      <c r="D1264" s="10" t="s">
         <v>1453</v>
       </c>
-      <c r="E1264" s="12" t="s">
+      <c r="E1264" s="10" t="s">
         <v>1451</v>
       </c>
     </row>
@@ -26946,10 +26946,10 @@
       <c r="C1265" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1265" s="12" t="s">
+      <c r="D1265" s="10" t="s">
         <v>1454</v>
       </c>
-      <c r="E1265" s="12" t="s">
+      <c r="E1265" s="10" t="s">
         <v>1451</v>
       </c>
     </row>
@@ -26960,10 +26960,10 @@
       <c r="C1266" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1266" s="12" t="s">
+      <c r="D1266" s="10" t="s">
         <v>1455</v>
       </c>
-      <c r="E1266" s="12" t="s">
+      <c r="E1266" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26974,10 +26974,10 @@
       <c r="C1267" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1267" s="12" t="s">
+      <c r="D1267" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="E1267" s="12" t="s">
+      <c r="E1267" s="10" t="s">
         <v>1457</v>
       </c>
     </row>
@@ -26988,10 +26988,10 @@
       <c r="C1268" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1268" s="12" t="s">
+      <c r="D1268" s="10" t="s">
         <v>1458</v>
       </c>
-      <c r="E1268" s="12" t="s">
+      <c r="E1268" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -27002,10 +27002,10 @@
       <c r="C1269" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1269" s="12" t="s">
+      <c r="D1269" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="E1269" s="12" t="s">
+      <c r="E1269" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -27016,10 +27016,10 @@
       <c r="C1270" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1270" s="12" t="s">
+      <c r="D1270" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="E1270" s="12" t="s">
+      <c r="E1270" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -27030,10 +27030,10 @@
       <c r="C1271" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1271" s="12" t="s">
+      <c r="D1271" s="10" t="s">
         <v>1461</v>
       </c>
-      <c r="E1271" s="12" t="s">
+      <c r="E1271" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -27044,10 +27044,10 @@
       <c r="C1272" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1272" s="12" t="s">
+      <c r="D1272" s="10" t="s">
         <v>1462</v>
       </c>
-      <c r="E1272" s="12" t="s">
+      <c r="E1272" s="10" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -27058,10 +27058,10 @@
       <c r="C1273" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1273" s="12" t="s">
+      <c r="D1273" s="10" t="s">
         <v>1464</v>
       </c>
-      <c r="E1273" s="12" t="s">
+      <c r="E1273" s="10" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -27072,10 +27072,10 @@
       <c r="C1274" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1274" s="12" t="s">
+      <c r="D1274" s="10" t="s">
         <v>1465</v>
       </c>
-      <c r="E1274" s="12" t="s">
+      <c r="E1274" s="10" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -27086,10 +27086,10 @@
       <c r="C1275" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1275" s="12" t="s">
+      <c r="D1275" s="10" t="s">
         <v>1467</v>
       </c>
-      <c r="E1275" s="12" t="s">
+      <c r="E1275" s="10" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -27100,10 +27100,10 @@
       <c r="C1276" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1276" s="12" t="s">
+      <c r="D1276" s="10" t="s">
         <v>1469</v>
       </c>
-      <c r="E1276" s="12" t="s">
+      <c r="E1276" s="10" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -27114,10 +27114,10 @@
       <c r="C1277" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1277" s="12" t="s">
+      <c r="D1277" s="10" t="s">
         <v>1471</v>
       </c>
-      <c r="E1277" s="12" t="s">
+      <c r="E1277" s="10" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -27128,10 +27128,10 @@
       <c r="C1278" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1278" s="12" t="s">
+      <c r="D1278" s="10" t="s">
         <v>1472</v>
       </c>
-      <c r="E1278" s="12" t="s">
+      <c r="E1278" s="10" t="s">
         <v>1473</v>
       </c>
     </row>
@@ -27142,10 +27142,10 @@
       <c r="C1279" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1279" s="12" t="s">
+      <c r="D1279" s="10" t="s">
         <v>1474</v>
       </c>
-      <c r="E1279" s="12" t="s">
+      <c r="E1279" s="10" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -27156,7 +27156,7 @@
       <c r="C1280" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1280" s="12" t="s">
+      <c r="D1280" s="10" t="s">
         <v>1476</v>
       </c>
       <c r="E1280" s="4" t="s">
@@ -27170,10 +27170,10 @@
       <c r="C1281" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1281" s="12" t="s">
+      <c r="D1281" s="10" t="s">
         <v>1477</v>
       </c>
-      <c r="E1281" s="12" t="s">
+      <c r="E1281" s="10" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -27184,10 +27184,10 @@
       <c r="C1282" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1282" s="12" t="s">
+      <c r="D1282" s="10" t="s">
         <v>1478</v>
       </c>
-      <c r="E1282" s="12" t="s">
+      <c r="E1282" s="10" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -27201,7 +27201,7 @@
       <c r="D1283" s="3" t="s">
         <v>1479</v>
       </c>
-      <c r="E1283" s="13" t="s">
+      <c r="E1283" s="11" t="s">
         <v>1480</v>
       </c>
     </row>
@@ -27233,10 +27233,10 @@
       <c r="B2" t="s">
         <v>931</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>1084</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
       <c r="G2" t="s">
         <v>904</v>
       </c>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C372DA23-FB40-4781-BE14-236304BA80C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F4A19-3CE1-493F-BF0E-E7595FBBF3DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4923,8 +4923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G1283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1080" workbookViewId="0">
-      <selection activeCell="A1093" sqref="A1093"/>
+    <sheetView tabSelected="1" topLeftCell="A1128" workbookViewId="0">
+      <selection activeCell="A1134" sqref="A1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24332,7 +24332,7 @@
       <c r="F1088" s="1"/>
       <c r="G1088" s="1"/>
     </row>
-    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1089" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1089" s="6">
         <v>1087</v>
       </c>
@@ -24348,7 +24348,7 @@
       <c r="F1089" s="1"/>
       <c r="G1089" s="1"/>
     </row>
-    <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1090" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1090" s="6">
         <v>1088</v>
       </c>
@@ -24364,7 +24364,7 @@
       <c r="F1090" s="1"/>
       <c r="G1090" s="1"/>
     </row>
-    <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1091" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1091" s="6">
         <v>1089</v>
       </c>
@@ -24380,7 +24380,7 @@
       <c r="F1091" s="1"/>
       <c r="G1091" s="1"/>
     </row>
-    <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1092" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1092" s="6">
         <v>1090</v>
       </c>
@@ -24396,7 +24396,7 @@
       <c r="F1092" s="1"/>
       <c r="G1092" s="1"/>
     </row>
-    <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1093" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1093" s="6">
         <v>1091</v>
       </c>
@@ -24412,7 +24412,7 @@
       <c r="F1093" s="1"/>
       <c r="G1093" s="1"/>
     </row>
-    <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1094" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1094" s="6">
         <v>1092</v>
       </c>
@@ -24428,7 +24428,7 @@
       <c r="F1094" s="1"/>
       <c r="G1094" s="1"/>
     </row>
-    <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1095" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1095" s="6">
         <v>1093</v>
       </c>
@@ -24444,8 +24444,7 @@
       <c r="F1095" s="1"/>
       <c r="G1095" s="1"/>
     </row>
-    <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1096" s="8"/>
+    <row r="1096" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1096" s="6">
         <v>1094</v>
       </c>
@@ -24461,7 +24460,7 @@
       <c r="F1096" s="1"/>
       <c r="G1096" s="1"/>
     </row>
-    <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1097" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1097" s="6">
         <v>1095</v>
       </c>
@@ -24477,7 +24476,7 @@
       <c r="F1097" s="1"/>
       <c r="G1097" s="1"/>
     </row>
-    <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1098" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1098" s="6">
         <v>1096</v>
       </c>
@@ -24493,7 +24492,7 @@
       <c r="F1098" s="1"/>
       <c r="G1098" s="1"/>
     </row>
-    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1099" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1099" s="6">
         <v>1097</v>
       </c>
@@ -24509,7 +24508,7 @@
       <c r="F1099" s="1"/>
       <c r="G1099" s="1"/>
     </row>
-    <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1100" s="6">
         <v>1098</v>
       </c>
@@ -24525,7 +24524,7 @@
       <c r="F1100" s="1"/>
       <c r="G1100" s="1"/>
     </row>
-    <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1101" s="6">
         <v>1099</v>
       </c>
@@ -24541,7 +24540,7 @@
       <c r="F1101" s="1"/>
       <c r="G1101" s="1"/>
     </row>
-    <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1102" s="6">
         <v>1100</v>
       </c>
@@ -24557,7 +24556,7 @@
       <c r="F1102" s="1"/>
       <c r="G1102" s="1"/>
     </row>
-    <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1103" s="6">
         <v>1101</v>
       </c>
@@ -24573,7 +24572,7 @@
       <c r="F1103" s="1"/>
       <c r="G1103" s="1"/>
     </row>
-    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1104" s="6">
         <v>1102</v>
       </c>
@@ -24845,7 +24844,7 @@
       <c r="F1120" s="1"/>
       <c r="G1120" s="1"/>
     </row>
-    <row r="1121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1121" s="6">
         <v>1119</v>
       </c>
@@ -24861,7 +24860,7 @@
       <c r="F1121" s="1"/>
       <c r="G1121" s="1"/>
     </row>
-    <row r="1122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1122" s="6">
         <v>1120</v>
       </c>
@@ -24877,7 +24876,7 @@
       <c r="F1122" s="1"/>
       <c r="G1122" s="1"/>
     </row>
-    <row r="1123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1123" s="6">
         <v>1121</v>
       </c>
@@ -24893,7 +24892,7 @@
       <c r="F1123" s="1"/>
       <c r="G1123" s="1"/>
     </row>
-    <row r="1124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1124" s="6">
         <v>1122</v>
       </c>
@@ -24909,7 +24908,7 @@
       <c r="F1124" s="1"/>
       <c r="G1124" s="1"/>
     </row>
-    <row r="1125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1125" s="6">
         <v>1123</v>
       </c>
@@ -24925,7 +24924,7 @@
       <c r="F1125" s="1"/>
       <c r="G1125" s="1"/>
     </row>
-    <row r="1126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1126" s="6">
         <v>1124</v>
       </c>
@@ -24941,7 +24940,7 @@
       <c r="F1126" s="1"/>
       <c r="G1126" s="1"/>
     </row>
-    <row r="1127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1127" s="6">
         <v>1125</v>
       </c>
@@ -24957,7 +24956,7 @@
       <c r="F1127" s="1"/>
       <c r="G1127" s="1"/>
     </row>
-    <row r="1128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1128" s="6">
         <v>1126</v>
       </c>
@@ -24973,7 +24972,7 @@
       <c r="F1128" s="1"/>
       <c r="G1128" s="1"/>
     </row>
-    <row r="1129" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B1129" s="6">
         <v>1127</v>
       </c>
@@ -24989,7 +24988,7 @@
       <c r="F1129" s="1"/>
       <c r="G1129" s="1"/>
     </row>
-    <row r="1130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1130" s="6">
         <v>1128</v>
       </c>
@@ -25005,7 +25004,7 @@
       <c r="F1130" s="1"/>
       <c r="G1130" s="1"/>
     </row>
-    <row r="1131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1131" s="6">
         <v>1129</v>
       </c>
@@ -25021,7 +25020,7 @@
       <c r="F1131" s="1"/>
       <c r="G1131" s="1"/>
     </row>
-    <row r="1132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1132" s="6">
         <v>1130</v>
       </c>
@@ -25037,7 +25036,7 @@
       <c r="F1132" s="1"/>
       <c r="G1132" s="1"/>
     </row>
-    <row r="1133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1133" s="6">
         <v>1131</v>
       </c>
@@ -25053,7 +25052,8 @@
       <c r="F1133" s="1"/>
       <c r="G1133" s="1"/>
     </row>
-    <row r="1134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1134" s="8"/>
       <c r="B1134" s="6">
         <v>1132</v>
       </c>
@@ -25069,7 +25069,7 @@
       <c r="F1134" s="1"/>
       <c r="G1134" s="1"/>
     </row>
-    <row r="1135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1135" s="6">
         <v>1133</v>
       </c>
@@ -25085,7 +25085,7 @@
       <c r="F1135" s="1"/>
       <c r="G1135" s="1"/>
     </row>
-    <row r="1136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1136" s="6">
         <v>1134</v>
       </c>

--- a/Test scenarios.xlsx
+++ b/Test scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F4A19-3CE1-493F-BF0E-E7595FBBF3DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC38D418-5415-4FDE-9E4A-0AA699FA37DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="1457">
   <si>
     <t>Module</t>
   </si>
@@ -3825,90 +3825,6 @@
   </si>
   <si>
     <t>Provider Location Specialty</t>
-  </si>
-  <si>
-    <t>Hospital NPI should be updated for existing PL location</t>
-  </si>
-  <si>
-    <t>Updated Hospital NPI for PL location with same address but different location name</t>
-  </si>
-  <si>
-    <t>2 PL Hosp Rel records should be created for 1 PL location</t>
-  </si>
-  <si>
-    <t>2 different Hospital NPIs for 2 PL locations with same address but different location names</t>
-  </si>
-  <si>
-    <t>PLCC assignment sould be updated for existing PL location</t>
-  </si>
-  <si>
-    <t>Updated PLCC assignment for PL location with same address but different location name</t>
-  </si>
-  <si>
-    <t>2 PLCC assignments should be created for 1 PL location</t>
-  </si>
-  <si>
-    <t>2 different PLCC assignments for 2 PL locations with same address but different location names</t>
-  </si>
-  <si>
-    <t>Additional specialty should be updated for existing PL location</t>
-  </si>
-  <si>
-    <t>Updated additional specialty for PL location with same address but different location name</t>
-  </si>
-  <si>
-    <t>Both additional specialties added to 1 PL location</t>
-  </si>
-  <si>
-    <t>2 different additional specialties for same PL location with different location names</t>
-  </si>
-  <si>
-    <t>PL primary specialty should be updated for existing PL location</t>
-  </si>
-  <si>
-    <t>Updated primary specialty for PL location with same address but different location name</t>
-  </si>
-  <si>
-    <t>Warning message; 1 PL location created without primary specialty</t>
-  </si>
-  <si>
-    <t>2 different primary specialties for same PL location with different location names</t>
-  </si>
-  <si>
-    <t>Fax number should be updated for existing PL location</t>
-  </si>
-  <si>
-    <t>Updated fax numer for PL location with same address but different location name</t>
-  </si>
-  <si>
-    <t>Fax numbers should be loaded for 1 PL location</t>
-  </si>
-  <si>
-    <t>2 different fax numbers for 2 PL locations with same address but different location names</t>
-  </si>
-  <si>
-    <t>Phone number should be updated for exisitng PL location</t>
-  </si>
-  <si>
-    <t>Updated phone number for PL location with same address but different location name</t>
-  </si>
-  <si>
-    <t>Phone numbers should be loaded for 1 PL location</t>
-  </si>
-  <si>
-    <t>2 different phone numbers for 2 PL locations with same address but different location names</t>
-  </si>
-  <si>
-    <t>PL attributes should be updated for existing PL location</t>
-  </si>
-  <si>
-    <t>updated PL attributes for location with same address but different location name</t>
-  </si>
-  <si>
-    <t>2 PL locations should be created using 1 location</t>
-  </si>
-  <si>
-    <t>2 different providers for 2 locations with same address but different location names</t>
   </si>
   <si>
     <t>Location type should be added to existing location</t>
@@ -4921,10 +4837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G1283"/>
+  <dimension ref="A2:G1269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1128" workbookViewId="0">
-      <selection activeCell="A1134" sqref="A1134"/>
+    <sheetView tabSelected="1" topLeftCell="A1239" workbookViewId="0">
+      <selection activeCell="D1257" sqref="D1257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23092,10 +23008,10 @@
         <v>132</v>
       </c>
       <c r="D1011" s="1" t="s">
-        <v>1481</v>
+        <v>1453</v>
       </c>
       <c r="E1011" s="1" t="s">
-        <v>1482</v>
+        <v>1454</v>
       </c>
       <c r="F1011" s="1"/>
       <c r="G1011" s="1"/>
@@ -23796,7 +23712,7 @@
         <v>132</v>
       </c>
       <c r="D1055" s="1" t="s">
-        <v>1483</v>
+        <v>1455</v>
       </c>
       <c r="E1055" s="1" t="s">
         <v>1156</v>
@@ -23812,7 +23728,7 @@
         <v>132</v>
       </c>
       <c r="D1056" s="1" t="s">
-        <v>1484</v>
+        <v>1456</v>
       </c>
       <c r="E1056" s="1" t="s">
         <v>1156</v>
@@ -24772,10 +24688,10 @@
         <v>132</v>
       </c>
       <c r="D1116" s="1" t="s">
-        <v>1333</v>
+        <v>1305</v>
       </c>
       <c r="E1116" s="1" t="s">
-        <v>1332</v>
+        <v>1304</v>
       </c>
       <c r="F1116" s="1"/>
       <c r="G1116" s="1"/>
@@ -24788,10 +24704,10 @@
         <v>132</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>1331</v>
+        <v>1303</v>
       </c>
       <c r="E1117" s="1" t="s">
-        <v>1326</v>
+        <v>1298</v>
       </c>
       <c r="F1117" s="1"/>
       <c r="G1117" s="1"/>
@@ -24804,10 +24720,10 @@
         <v>132</v>
       </c>
       <c r="D1118" s="1" t="s">
-        <v>1330</v>
+        <v>1302</v>
       </c>
       <c r="E1118" s="1" t="s">
-        <v>1316</v>
+        <v>1288</v>
       </c>
       <c r="F1118" s="1"/>
       <c r="G1118" s="1"/>
@@ -24820,10 +24736,10 @@
         <v>132</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>1329</v>
+        <v>1301</v>
       </c>
       <c r="E1119" s="1" t="s">
-        <v>1316</v>
+        <v>1288</v>
       </c>
       <c r="F1119" s="1"/>
       <c r="G1119" s="1"/>
@@ -24836,15 +24752,15 @@
         <v>132</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="E1120" s="1" t="s">
-        <v>1326</v>
+        <v>1298</v>
       </c>
       <c r="F1120" s="1"/>
       <c r="G1120" s="1"/>
     </row>
-    <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1121" s="6">
         <v>1119</v>
       </c>
@@ -24852,15 +24768,15 @@
         <v>132</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
       <c r="E1121" s="1" t="s">
-        <v>1326</v>
+        <v>1298</v>
       </c>
       <c r="F1121" s="1"/>
       <c r="G1121" s="1"/>
     </row>
-    <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1122" s="6">
         <v>1120</v>
       </c>
@@ -24868,7 +24784,7 @@
         <v>132</v>
       </c>
       <c r="D1122" s="1" t="s">
-        <v>1325</v>
+        <v>1297</v>
       </c>
       <c r="E1122" s="1" t="s">
         <v>1194</v>
@@ -24876,7 +24792,7 @@
       <c r="F1122" s="1"/>
       <c r="G1122" s="1"/>
     </row>
-    <row r="1123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1123" s="6">
         <v>1121</v>
       </c>
@@ -24884,7 +24800,7 @@
         <v>132</v>
       </c>
       <c r="D1123" s="1" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
       <c r="E1123" s="1" t="s">
         <v>1194</v>
@@ -24892,7 +24808,7 @@
       <c r="F1123" s="1"/>
       <c r="G1123" s="1"/>
     </row>
-    <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1124" s="6">
         <v>1122</v>
       </c>
@@ -24908,7 +24824,7 @@
       <c r="F1124" s="1"/>
       <c r="G1124" s="1"/>
     </row>
-    <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1125" s="6">
         <v>1123</v>
       </c>
@@ -24916,15 +24832,15 @@
         <v>132</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>1323</v>
+        <v>1295</v>
       </c>
       <c r="E1125" s="1" t="s">
-        <v>1322</v>
+        <v>1294</v>
       </c>
       <c r="F1125" s="1"/>
       <c r="G1125" s="1"/>
     </row>
-    <row r="1126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1126" s="6">
         <v>1124</v>
       </c>
@@ -24932,15 +24848,15 @@
         <v>132</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>1321</v>
+        <v>1293</v>
       </c>
       <c r="E1126" s="1" t="s">
-        <v>1320</v>
+        <v>1292</v>
       </c>
       <c r="F1126" s="1"/>
       <c r="G1126" s="1"/>
     </row>
-    <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1127" s="6">
         <v>1125</v>
       </c>
@@ -24948,15 +24864,15 @@
         <v>132</v>
       </c>
       <c r="D1127" s="4" t="s">
-        <v>1319</v>
+        <v>1291</v>
       </c>
       <c r="E1127" s="4" t="s">
-        <v>1318</v>
+        <v>1290</v>
       </c>
       <c r="F1127" s="1"/>
       <c r="G1127" s="1"/>
     </row>
-    <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1128" s="6">
         <v>1126</v>
       </c>
@@ -24964,15 +24880,15 @@
         <v>132</v>
       </c>
       <c r="D1128" s="4" t="s">
-        <v>1317</v>
+        <v>1289</v>
       </c>
       <c r="E1128" s="4" t="s">
-        <v>1316</v>
+        <v>1288</v>
       </c>
       <c r="F1128" s="1"/>
       <c r="G1128" s="1"/>
     </row>
-    <row r="1129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1129" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B1129" s="6">
         <v>1127</v>
       </c>
@@ -24980,15 +24896,15 @@
         <v>132</v>
       </c>
       <c r="D1129" s="3" t="s">
-        <v>1315</v>
+        <v>1287</v>
       </c>
       <c r="E1129" s="4" t="s">
-        <v>1314</v>
+        <v>1286</v>
       </c>
       <c r="F1129" s="1"/>
       <c r="G1129" s="1"/>
     </row>
-    <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1130" s="6">
         <v>1128</v>
       </c>
@@ -24996,15 +24912,15 @@
         <v>1088</v>
       </c>
       <c r="D1130" s="4" t="s">
-        <v>1313</v>
+        <v>1285</v>
       </c>
       <c r="E1130" s="4" t="s">
-        <v>1312</v>
+        <v>1284</v>
       </c>
       <c r="F1130" s="1"/>
       <c r="G1130" s="1"/>
     </row>
-    <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1131" s="6">
         <v>1129</v>
       </c>
@@ -25012,15 +24928,15 @@
         <v>1088</v>
       </c>
       <c r="D1131" s="4" t="s">
-        <v>1311</v>
+        <v>1283</v>
       </c>
       <c r="E1131" s="4" t="s">
-        <v>1310</v>
+        <v>1282</v>
       </c>
       <c r="F1131" s="1"/>
       <c r="G1131" s="1"/>
     </row>
-    <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1132" s="6">
         <v>1130</v>
       </c>
@@ -25028,15 +24944,15 @@
         <v>1088</v>
       </c>
       <c r="D1132" s="4" t="s">
-        <v>1309</v>
+        <v>1281</v>
       </c>
       <c r="E1132" s="4" t="s">
-        <v>1308</v>
+        <v>1280</v>
       </c>
       <c r="F1132" s="1"/>
       <c r="G1132" s="1"/>
     </row>
-    <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1133" s="6">
         <v>1131</v>
       </c>
@@ -25044,16 +24960,15 @@
         <v>1088</v>
       </c>
       <c r="D1133" s="4" t="s">
-        <v>1307</v>
+        <v>1279</v>
       </c>
       <c r="E1133" s="4" t="s">
-        <v>1306</v>
+        <v>1278</v>
       </c>
       <c r="F1133" s="1"/>
       <c r="G1133" s="1"/>
     </row>
-    <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1134" s="8"/>
+    <row r="1134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1134" s="6">
         <v>1132</v>
       </c>
@@ -25061,15 +24976,15 @@
         <v>1068</v>
       </c>
       <c r="D1134" s="4" t="s">
-        <v>1305</v>
+        <v>1277</v>
       </c>
       <c r="E1134" s="4" t="s">
-        <v>1304</v>
+        <v>1276</v>
       </c>
       <c r="F1134" s="1"/>
       <c r="G1134" s="1"/>
     </row>
-    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1135" s="6">
         <v>1133</v>
       </c>
@@ -25077,15 +24992,15 @@
         <v>1068</v>
       </c>
       <c r="D1135" s="4" t="s">
-        <v>1303</v>
+        <v>1275</v>
       </c>
       <c r="E1135" s="4" t="s">
-        <v>1302</v>
+        <v>1274</v>
       </c>
       <c r="F1135" s="1"/>
       <c r="G1135" s="1"/>
     </row>
-    <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1136" s="6">
         <v>1134</v>
       </c>
@@ -25093,15 +25008,15 @@
         <v>1068</v>
       </c>
       <c r="D1136" s="4" t="s">
-        <v>1301</v>
+        <v>1273</v>
       </c>
       <c r="E1136" s="4" t="s">
-        <v>1300</v>
+        <v>1272</v>
       </c>
       <c r="F1136" s="1"/>
       <c r="G1136" s="1"/>
     </row>
-    <row r="1137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1137" s="6">
         <v>1135</v>
       </c>
@@ -25109,15 +25024,15 @@
         <v>1068</v>
       </c>
       <c r="D1137" s="4" t="s">
-        <v>1299</v>
+        <v>1271</v>
       </c>
       <c r="E1137" s="4" t="s">
-        <v>1298</v>
+        <v>1270</v>
       </c>
       <c r="F1137" s="1"/>
       <c r="G1137" s="1"/>
     </row>
-    <row r="1138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1138" s="6">
         <v>1136</v>
       </c>
@@ -25125,15 +25040,15 @@
         <v>1089</v>
       </c>
       <c r="D1138" s="4" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
       <c r="E1138" s="4" t="s">
-        <v>1296</v>
+        <v>1268</v>
       </c>
       <c r="F1138" s="1"/>
       <c r="G1138" s="1"/>
     </row>
-    <row r="1139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1139" s="6">
         <v>1137</v>
       </c>
@@ -25141,15 +25056,15 @@
         <v>1089</v>
       </c>
       <c r="D1139" s="4" t="s">
-        <v>1295</v>
+        <v>1267</v>
       </c>
       <c r="E1139" s="4" t="s">
-        <v>1294</v>
+        <v>1266</v>
       </c>
       <c r="F1139" s="1"/>
       <c r="G1139" s="1"/>
     </row>
-    <row r="1140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1140" s="6">
         <v>1138</v>
       </c>
@@ -25157,15 +25072,15 @@
         <v>1089</v>
       </c>
       <c r="D1140" s="4" t="s">
-        <v>1293</v>
+        <v>1265</v>
       </c>
       <c r="E1140" s="4" t="s">
-        <v>1292</v>
+        <v>1264</v>
       </c>
       <c r="F1140" s="1"/>
       <c r="G1140" s="1"/>
     </row>
-    <row r="1141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1141" s="6">
         <v>1139</v>
       </c>
@@ -25173,15 +25088,15 @@
         <v>1089</v>
       </c>
       <c r="D1141" s="4" t="s">
-        <v>1291</v>
+        <v>1263</v>
       </c>
       <c r="E1141" s="4" t="s">
-        <v>1290</v>
+        <v>1262</v>
       </c>
       <c r="F1141" s="1"/>
       <c r="G1141" s="1"/>
     </row>
-    <row r="1142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1142" s="6">
         <v>1140</v>
       </c>
@@ -25189,15 +25104,15 @@
         <v>446</v>
       </c>
       <c r="D1142" s="4" t="s">
-        <v>1289</v>
+        <v>1261</v>
       </c>
       <c r="E1142" s="4" t="s">
-        <v>1288</v>
+        <v>1260</v>
       </c>
       <c r="F1142" s="1"/>
       <c r="G1142" s="1"/>
     </row>
-    <row r="1143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1143" s="6">
         <v>1141</v>
       </c>
@@ -25205,15 +25120,16 @@
         <v>446</v>
       </c>
       <c r="D1143" s="4" t="s">
-        <v>1287</v>
+        <v>1259</v>
       </c>
       <c r="E1143" s="4" t="s">
-        <v>1286</v>
+        <v>1258</v>
       </c>
       <c r="F1143" s="1"/>
       <c r="G1143" s="1"/>
     </row>
-    <row r="1144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1144" s="8"/>
       <c r="B1144" s="6">
         <v>1142</v>
       </c>
@@ -25221,15 +25137,15 @@
         <v>1052</v>
       </c>
       <c r="D1144" s="4" t="s">
-        <v>1285</v>
+        <v>1257</v>
       </c>
       <c r="E1144" s="4" t="s">
-        <v>1284</v>
+        <v>1256</v>
       </c>
       <c r="F1144" s="1"/>
       <c r="G1144" s="1"/>
     </row>
-    <row r="1145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1145" s="6">
         <v>1143</v>
       </c>
@@ -25237,239 +25153,211 @@
         <v>1052</v>
       </c>
       <c r="D1145" s="4" t="s">
-        <v>1283</v>
+        <v>1255</v>
       </c>
       <c r="E1145" s="4" t="s">
-        <v>1282</v>
+        <v>1254</v>
       </c>
       <c r="F1145" s="1"/>
       <c r="G1145" s="1"/>
     </row>
-    <row r="1146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1146" s="6">
         <v>1144</v>
       </c>
       <c r="C1146" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D1146" s="4" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E1146" s="4" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F1146" s="1"/>
-      <c r="G1146" s="1"/>
-    </row>
-    <row r="1147" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1146" s="10" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E1146" s="10" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1147" s="6">
         <v>1145</v>
       </c>
       <c r="C1147" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D1147" s="4" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E1147" s="4" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F1147" s="1"/>
-      <c r="G1147" s="1"/>
-    </row>
-    <row r="1148" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1147" s="10" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E1147" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1148" s="6">
         <v>1146</v>
       </c>
       <c r="C1148" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D1148" s="4" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1148" s="4" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F1148" s="1"/>
-      <c r="G1148" s="1"/>
-    </row>
-    <row r="1149" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1148" s="10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E1148" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1149" s="6">
         <v>1147</v>
       </c>
       <c r="C1149" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D1149" s="4" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E1149" s="4" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F1149" s="1"/>
-      <c r="G1149" s="1"/>
-    </row>
-    <row r="1150" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1149" s="10" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E1149" s="10" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1150" s="6">
         <v>1148</v>
       </c>
       <c r="C1150" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D1150" s="4" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E1150" s="4" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F1150" s="1"/>
-      <c r="G1150" s="1"/>
-    </row>
-    <row r="1151" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1150" s="10" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E1150" s="10" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1151" s="6">
         <v>1149</v>
       </c>
       <c r="C1151" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D1151" s="4" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E1151" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F1151" s="1"/>
-      <c r="G1151" s="1"/>
-    </row>
-    <row r="1152" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1151" s="10" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E1151" s="10" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1152" s="6">
         <v>1150</v>
       </c>
       <c r="C1152" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D1152" s="4" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E1152" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F1152" s="1"/>
-      <c r="G1152" s="1"/>
-    </row>
-    <row r="1153" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1152" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E1152" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1153" s="6">
         <v>1151</v>
       </c>
       <c r="C1153" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D1153" s="4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E1153" s="4" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F1153" s="1"/>
-      <c r="G1153" s="1"/>
-    </row>
-    <row r="1154" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1153" s="10" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E1153" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1154" s="6">
         <v>1152</v>
       </c>
       <c r="C1154" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D1154" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E1154" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F1154" s="1"/>
-      <c r="G1154" s="1"/>
-    </row>
-    <row r="1155" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1154" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E1154" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1155" s="6">
         <v>1153</v>
       </c>
       <c r="C1155" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D1155" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E1155" s="4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F1155" s="1"/>
-      <c r="G1155" s="1"/>
-    </row>
-    <row r="1156" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1155" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1155" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1156" s="6">
         <v>1154</v>
       </c>
       <c r="C1156" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D1156" s="4" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E1156" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F1156" s="1"/>
-      <c r="G1156" s="1"/>
-    </row>
-    <row r="1157" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1156" s="10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E1156" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1157" s="6">
         <v>1155</v>
       </c>
       <c r="C1157" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D1157" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E1157" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F1157" s="1"/>
-      <c r="G1157" s="1"/>
-    </row>
-    <row r="1158" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1157" s="10" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E1157" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1158" s="6">
         <v>1156</v>
       </c>
       <c r="C1158" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1158" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E1158" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F1158" s="1"/>
-      <c r="G1158" s="1"/>
-    </row>
-    <row r="1159" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1158" s="10" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E1158" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1159" s="6">
         <v>1157</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1159" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E1159" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F1159" s="1"/>
-      <c r="G1159" s="1"/>
-    </row>
-    <row r="1160" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+      <c r="D1159" s="10" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E1159" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1160" s="6">
         <v>1158</v>
       </c>
@@ -25477,13 +25365,13 @@
         <v>1088</v>
       </c>
       <c r="D1160" s="10" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="E1160" s="10" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="1161" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1161" s="6">
         <v>1159</v>
       </c>
@@ -25491,13 +25379,13 @@
         <v>1088</v>
       </c>
       <c r="D1161" s="10" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="E1161" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1162" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1162" s="6">
         <v>1160</v>
       </c>
@@ -25505,13 +25393,13 @@
         <v>1088</v>
       </c>
       <c r="D1162" s="10" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="E1162" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1163" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1163" s="6">
         <v>1161</v>
       </c>
@@ -25519,13 +25407,13 @@
         <v>1088</v>
       </c>
       <c r="D1163" s="10" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="E1163" s="10" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="1164" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1164" s="6">
         <v>1162</v>
       </c>
@@ -25533,13 +25421,13 @@
         <v>1088</v>
       </c>
       <c r="D1164" s="10" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="E1164" s="10" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="1165" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1165" s="6">
         <v>1163</v>
       </c>
@@ -25547,13 +25435,13 @@
         <v>1088</v>
       </c>
       <c r="D1165" s="10" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="E1165" s="10" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="1166" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1166" s="6">
         <v>1164</v>
       </c>
@@ -25561,13 +25449,13 @@
         <v>1088</v>
       </c>
       <c r="D1166" s="10" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="E1166" s="10" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="1167" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1167" s="6">
         <v>1165</v>
       </c>
@@ -25575,13 +25463,13 @@
         <v>1088</v>
       </c>
       <c r="D1167" s="10" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="E1167" s="10" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="1168" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1168" s="6">
         <v>1166</v>
       </c>
@@ -25589,10 +25477,10 @@
         <v>1088</v>
       </c>
       <c r="D1168" s="10" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="E1168" s="10" t="s">
-        <v>1344</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1169" spans="2:5" x14ac:dyDescent="0.25">
@@ -25603,10 +25491,10 @@
         <v>1088</v>
       </c>
       <c r="D1169" s="10" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
       <c r="E1169" s="10" t="s">
-        <v>1344</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1170" spans="2:5" x14ac:dyDescent="0.25">
@@ -25617,10 +25505,10 @@
         <v>1088</v>
       </c>
       <c r="D1170" s="10" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="E1170" s="10" t="s">
-        <v>1344</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1171" spans="2:5" x14ac:dyDescent="0.25">
@@ -25631,10 +25519,10 @@
         <v>1088</v>
       </c>
       <c r="D1171" s="10" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
       <c r="E1171" s="10" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1172" spans="2:5" x14ac:dyDescent="0.25">
@@ -25645,10 +25533,10 @@
         <v>1088</v>
       </c>
       <c r="D1172" s="10" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="E1172" s="10" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1173" spans="2:5" x14ac:dyDescent="0.25">
@@ -25659,10 +25547,10 @@
         <v>1088</v>
       </c>
       <c r="D1173" s="10" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="E1173" s="10" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1174" spans="2:5" x14ac:dyDescent="0.25">
@@ -25673,10 +25561,10 @@
         <v>1088</v>
       </c>
       <c r="D1174" s="10" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="E1174" s="10" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1175" spans="2:5" x14ac:dyDescent="0.25">
@@ -25687,10 +25575,10 @@
         <v>1088</v>
       </c>
       <c r="D1175" s="10" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="E1175" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1176" spans="2:5" x14ac:dyDescent="0.25">
@@ -25701,10 +25589,10 @@
         <v>1088</v>
       </c>
       <c r="D1176" s="10" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="E1176" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1177" spans="2:5" x14ac:dyDescent="0.25">
@@ -25715,10 +25603,10 @@
         <v>1088</v>
       </c>
       <c r="D1177" s="10" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="E1177" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1178" spans="2:5" x14ac:dyDescent="0.25">
@@ -25729,10 +25617,10 @@
         <v>1088</v>
       </c>
       <c r="D1178" s="10" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="E1178" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1179" spans="2:5" x14ac:dyDescent="0.25">
@@ -25743,10 +25631,10 @@
         <v>1088</v>
       </c>
       <c r="D1179" s="10" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="E1179" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1180" spans="2:5" x14ac:dyDescent="0.25">
@@ -25757,10 +25645,10 @@
         <v>1088</v>
       </c>
       <c r="D1180" s="10" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="E1180" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1181" spans="2:5" x14ac:dyDescent="0.25">
@@ -25771,10 +25659,10 @@
         <v>1088</v>
       </c>
       <c r="D1181" s="10" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="E1181" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1182" spans="2:5" x14ac:dyDescent="0.25">
@@ -25785,10 +25673,10 @@
         <v>1088</v>
       </c>
       <c r="D1182" s="10" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="E1182" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1183" spans="2:5" x14ac:dyDescent="0.25">
@@ -25799,10 +25687,10 @@
         <v>1088</v>
       </c>
       <c r="D1183" s="10" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="E1183" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1184" spans="2:5" x14ac:dyDescent="0.25">
@@ -25813,10 +25701,10 @@
         <v>1088</v>
       </c>
       <c r="D1184" s="10" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="E1184" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1185" spans="2:5" x14ac:dyDescent="0.25">
@@ -25827,10 +25715,10 @@
         <v>1088</v>
       </c>
       <c r="D1185" s="10" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="E1185" s="10" t="s">
-        <v>1365</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1186" spans="2:5" x14ac:dyDescent="0.25">
@@ -25841,10 +25729,10 @@
         <v>1088</v>
       </c>
       <c r="D1186" s="10" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="E1186" s="10" t="s">
-        <v>1365</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1187" spans="2:5" x14ac:dyDescent="0.25">
@@ -25855,10 +25743,10 @@
         <v>1088</v>
       </c>
       <c r="D1187" s="10" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="E1187" s="10" t="s">
-        <v>1368</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1188" spans="2:5" x14ac:dyDescent="0.25">
@@ -25869,10 +25757,10 @@
         <v>1088</v>
       </c>
       <c r="D1188" s="10" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="E1188" s="10" t="s">
-        <v>1368</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1189" spans="2:5" x14ac:dyDescent="0.25">
@@ -25883,10 +25771,10 @@
         <v>1088</v>
       </c>
       <c r="D1189" s="10" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
       <c r="E1189" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1190" spans="2:5" x14ac:dyDescent="0.25">
@@ -25897,10 +25785,10 @@
         <v>1088</v>
       </c>
       <c r="D1190" s="10" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="E1190" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1191" spans="2:5" x14ac:dyDescent="0.25">
@@ -25911,10 +25799,10 @@
         <v>1088</v>
       </c>
       <c r="D1191" s="10" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
       <c r="E1191" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1192" spans="2:5" x14ac:dyDescent="0.25">
@@ -25925,10 +25813,10 @@
         <v>1088</v>
       </c>
       <c r="D1192" s="10" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="E1192" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1193" spans="2:5" x14ac:dyDescent="0.25">
@@ -25939,10 +25827,10 @@
         <v>1088</v>
       </c>
       <c r="D1193" s="10" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="E1193" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1194" spans="2:5" x14ac:dyDescent="0.25">
@@ -25953,10 +25841,10 @@
         <v>1088</v>
       </c>
       <c r="D1194" s="10" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="E1194" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1195" spans="2:5" x14ac:dyDescent="0.25">
@@ -25967,10 +25855,10 @@
         <v>1088</v>
       </c>
       <c r="D1195" s="10" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="E1195" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1196" spans="2:5" x14ac:dyDescent="0.25">
@@ -25981,10 +25869,10 @@
         <v>1088</v>
       </c>
       <c r="D1196" s="10" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="E1196" s="10" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1197" spans="2:5" x14ac:dyDescent="0.25">
@@ -25995,10 +25883,10 @@
         <v>1088</v>
       </c>
       <c r="D1197" s="10" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
       <c r="E1197" s="10" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1198" spans="2:5" x14ac:dyDescent="0.25">
@@ -26009,10 +25897,10 @@
         <v>1088</v>
       </c>
       <c r="D1198" s="10" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="E1198" s="10" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1199" spans="2:5" x14ac:dyDescent="0.25">
@@ -26023,10 +25911,10 @@
         <v>1088</v>
       </c>
       <c r="D1199" s="10" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="E1199" s="10" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1200" spans="2:5" x14ac:dyDescent="0.25">
@@ -26037,10 +25925,10 @@
         <v>1088</v>
       </c>
       <c r="D1200" s="10" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="E1200" s="10" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1201" spans="2:5" x14ac:dyDescent="0.25">
@@ -26051,10 +25939,10 @@
         <v>1088</v>
       </c>
       <c r="D1201" s="10" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="E1201" s="10" t="s">
-        <v>1354</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1202" spans="2:5" x14ac:dyDescent="0.25">
@@ -26065,10 +25953,10 @@
         <v>1088</v>
       </c>
       <c r="D1202" s="10" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
       <c r="E1202" s="10" t="s">
-        <v>1354</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1203" spans="2:5" x14ac:dyDescent="0.25">
@@ -26079,10 +25967,10 @@
         <v>1088</v>
       </c>
       <c r="D1203" s="10" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="E1203" s="10" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1204" spans="2:5" x14ac:dyDescent="0.25">
@@ -26093,10 +25981,10 @@
         <v>1088</v>
       </c>
       <c r="D1204" s="10" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="E1204" s="10" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1205" spans="2:5" x14ac:dyDescent="0.25">
@@ -26107,10 +25995,10 @@
         <v>1088</v>
       </c>
       <c r="D1205" s="10" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
       <c r="E1205" s="10" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1206" spans="2:5" x14ac:dyDescent="0.25">
@@ -26121,10 +26009,10 @@
         <v>1088</v>
       </c>
       <c r="D1206" s="10" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="E1206" s="10" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1207" spans="2:5" x14ac:dyDescent="0.25">
@@ -26135,10 +26023,10 @@
         <v>1088</v>
       </c>
       <c r="D1207" s="10" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="E1207" s="10" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1208" spans="2:5" x14ac:dyDescent="0.25">
@@ -26149,10 +26037,10 @@
         <v>1088</v>
       </c>
       <c r="D1208" s="10" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="E1208" s="10" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1209" spans="2:5" x14ac:dyDescent="0.25">
@@ -26163,10 +26051,10 @@
         <v>1088</v>
       </c>
       <c r="D1209" s="10" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="E1209" s="10" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1210" spans="2:5" x14ac:dyDescent="0.25">
@@ -26177,10 +26065,10 @@
         <v>1088</v>
       </c>
       <c r="D1210" s="10" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="E1210" s="10" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1211" spans="2:5" x14ac:dyDescent="0.25">
@@ -26191,10 +26079,10 @@
         <v>1088</v>
       </c>
       <c r="D1211" s="10" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="E1211" s="10" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1212" spans="2:5" x14ac:dyDescent="0.25">
@@ -26205,10 +26093,10 @@
         <v>1088</v>
       </c>
       <c r="D1212" s="10" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="E1212" s="10" t="s">
-        <v>1365</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1213" spans="2:5" x14ac:dyDescent="0.25">
@@ -26219,10 +26107,10 @@
         <v>1088</v>
       </c>
       <c r="D1213" s="10" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="E1213" s="10" t="s">
-        <v>1368</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1214" spans="2:5" x14ac:dyDescent="0.25">
@@ -26233,10 +26121,10 @@
         <v>1088</v>
       </c>
       <c r="D1214" s="10" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="E1214" s="10" t="s">
-        <v>1368</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1215" spans="2:5" x14ac:dyDescent="0.25">
@@ -26247,10 +26135,10 @@
         <v>1088</v>
       </c>
       <c r="D1215" s="10" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="E1215" s="10" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1216" spans="2:5" x14ac:dyDescent="0.25">
@@ -26261,10 +26149,10 @@
         <v>1088</v>
       </c>
       <c r="D1216" s="10" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E1216" s="10" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1217" spans="2:5" x14ac:dyDescent="0.25">
@@ -26275,10 +26163,10 @@
         <v>1088</v>
       </c>
       <c r="D1217" s="10" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="E1217" s="10" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1218" spans="2:5" x14ac:dyDescent="0.25">
@@ -26289,10 +26177,10 @@
         <v>1088</v>
       </c>
       <c r="D1218" s="10" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="E1218" s="10" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1219" spans="2:5" x14ac:dyDescent="0.25">
@@ -26303,10 +26191,10 @@
         <v>1088</v>
       </c>
       <c r="D1219" s="10" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="E1219" s="10" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1220" spans="2:5" x14ac:dyDescent="0.25">
@@ -26317,10 +26205,10 @@
         <v>1088</v>
       </c>
       <c r="D1220" s="10" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="E1220" s="10" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1221" spans="2:5" x14ac:dyDescent="0.25">
@@ -26331,10 +26219,10 @@
         <v>1088</v>
       </c>
       <c r="D1221" s="10" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="E1221" s="10" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1222" spans="2:5" x14ac:dyDescent="0.25">
@@ -26345,10 +26233,10 @@
         <v>1088</v>
       </c>
       <c r="D1222" s="10" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="E1222" s="10" t="s">
-        <v>1401</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1223" spans="2:5" x14ac:dyDescent="0.25">
@@ -26359,10 +26247,10 @@
         <v>1088</v>
       </c>
       <c r="D1223" s="10" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="E1223" s="10" t="s">
-        <v>1401</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1224" spans="2:5" x14ac:dyDescent="0.25">
@@ -26373,10 +26261,10 @@
         <v>1088</v>
       </c>
       <c r="D1224" s="10" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="E1224" s="10" t="s">
-        <v>1401</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1225" spans="2:5" x14ac:dyDescent="0.25">
@@ -26387,10 +26275,10 @@
         <v>1088</v>
       </c>
       <c r="D1225" s="10" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="E1225" s="10" t="s">
-        <v>1401</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1226" spans="2:5" x14ac:dyDescent="0.25">
@@ -26401,10 +26289,10 @@
         <v>1088</v>
       </c>
       <c r="D1226" s="10" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="E1226" s="10" t="s">
-        <v>1411</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1227" spans="2:5" x14ac:dyDescent="0.25">
@@ -26415,10 +26303,10 @@
         <v>1088</v>
       </c>
       <c r="D1227" s="10" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="E1227" s="10" t="s">
-        <v>1413</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1228" spans="2:5" x14ac:dyDescent="0.25">
@@ -26429,10 +26317,10 @@
         <v>1088</v>
       </c>
       <c r="D1228" s="10" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="E1228" s="10" t="s">
-        <v>1413</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1229" spans="2:5" x14ac:dyDescent="0.25">
@@ -26443,10 +26331,10 @@
         <v>1088</v>
       </c>
       <c r="D1229" s="10" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="E1229" s="10" t="s">
-        <v>1413</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1230" spans="2:5" x14ac:dyDescent="0.25">
@@ -26457,10 +26345,10 @@
         <v>1088</v>
       </c>
       <c r="D1230" s="10" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="E1230" s="10" t="s">
-        <v>1413</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1231" spans="2:5" x14ac:dyDescent="0.25">
@@ -26471,10 +26359,10 @@
         <v>1088</v>
       </c>
       <c r="D1231" s="10" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="E1231" s="10" t="s">
-        <v>1413</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1232" spans="2:5" x14ac:dyDescent="0.25">
@@ -26485,10 +26373,10 @@
         <v>1088</v>
       </c>
       <c r="D1232" s="10" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="E1232" s="10" t="s">
-        <v>1413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1233" spans="2:5" x14ac:dyDescent="0.25">
@@ -26499,10 +26387,10 @@
         <v>1088</v>
       </c>
       <c r="D1233" s="10" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="E1233" s="10" t="s">
-        <v>1413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1234" spans="2:5" x14ac:dyDescent="0.25">
@@ -26513,10 +26401,10 @@
         <v>1088</v>
       </c>
       <c r="D1234" s="10" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="E1234" s="10" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1235" spans="2:5" x14ac:dyDescent="0.25">
@@ -26527,10 +26415,10 @@
         <v>1088</v>
       </c>
       <c r="D1235" s="10" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E1235" s="10" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1236" spans="2:5" x14ac:dyDescent="0.25">
@@ -26541,10 +26429,10 @@
         <v>1088</v>
       </c>
       <c r="D1236" s="10" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="E1236" s="10" t="s">
-        <v>250</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1237" spans="2:5" x14ac:dyDescent="0.25">
@@ -26555,10 +26443,10 @@
         <v>1088</v>
       </c>
       <c r="D1237" s="10" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="E1237" s="10" t="s">
-        <v>250</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1238" spans="2:5" x14ac:dyDescent="0.25">
@@ -26569,10 +26457,10 @@
         <v>1088</v>
       </c>
       <c r="D1238" s="10" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="E1238" s="10" t="s">
-        <v>250</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1239" spans="2:5" x14ac:dyDescent="0.25">
@@ -26583,10 +26471,10 @@
         <v>1088</v>
       </c>
       <c r="D1239" s="10" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
       <c r="E1239" s="10" t="s">
-        <v>250</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1240" spans="2:5" x14ac:dyDescent="0.25">
@@ -26597,10 +26485,10 @@
         <v>1088</v>
       </c>
       <c r="D1240" s="10" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="E1240" s="10" t="s">
-        <v>250</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1241" spans="2:5" x14ac:dyDescent="0.25">
@@ -26611,10 +26499,10 @@
         <v>1088</v>
       </c>
       <c r="D1241" s="10" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
       <c r="E1241" s="10" t="s">
-        <v>250</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1242" spans="2:5" x14ac:dyDescent="0.25">
@@ -26625,10 +26513,10 @@
         <v>1088</v>
       </c>
       <c r="D1242" s="10" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="E1242" s="10" t="s">
-        <v>250</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1243" spans="2:5" x14ac:dyDescent="0.25">
@@ -26639,10 +26527,10 @@
         <v>1088</v>
       </c>
       <c r="D1243" s="10" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E1243" s="10" t="s">
-        <v>250</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1244" spans="2:5" x14ac:dyDescent="0.25">
@@ -26653,10 +26541,10 @@
         <v>1088</v>
       </c>
       <c r="D1244" s="10" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="E1244" s="10" t="s">
-        <v>250</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1245" spans="2:5" x14ac:dyDescent="0.25">
@@ -26667,10 +26555,10 @@
         <v>1088</v>
       </c>
       <c r="D1245" s="10" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="E1245" s="10" t="s">
-        <v>250</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1246" spans="2:5" x14ac:dyDescent="0.25">
@@ -26681,10 +26569,10 @@
         <v>1088</v>
       </c>
       <c r="D1246" s="10" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="E1246" s="10" t="s">
-        <v>422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1247" spans="2:5" x14ac:dyDescent="0.25">
@@ -26695,10 +26583,10 @@
         <v>1088</v>
       </c>
       <c r="D1247" s="10" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="E1247" s="10" t="s">
-        <v>422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1248" spans="2:5" x14ac:dyDescent="0.25">
@@ -26709,10 +26597,10 @@
         <v>1088</v>
       </c>
       <c r="D1248" s="10" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="E1248" s="10" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1249" spans="2:5" x14ac:dyDescent="0.25">
@@ -26723,10 +26611,10 @@
         <v>1088</v>
       </c>
       <c r="D1249" s="10" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="E1249" s="10" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1250" spans="2:5" x14ac:dyDescent="0.25">
@@ -26737,10 +26625,10 @@
         <v>1088</v>
       </c>
       <c r="D1250" s="10" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="E1250" s="10" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1251" spans="2:5" x14ac:dyDescent="0.25">
@@ -26751,10 +26639,10 @@
         <v>1088</v>
       </c>
       <c r="D1251" s="10" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="E1251" s="10" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1252" spans="2:5" x14ac:dyDescent="0.25">
@@ -26765,10 +26653,10 @@
         <v>1088</v>
       </c>
       <c r="D1252" s="10" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="E1252" s="10" t="s">
-        <v>1435</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1253" spans="2:5" x14ac:dyDescent="0.25">
@@ -26779,10 +26667,10 @@
         <v>1088</v>
       </c>
       <c r="D1253" s="10" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="E1253" s="10" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1254" spans="2:5" x14ac:dyDescent="0.25">
@@ -26793,10 +26681,10 @@
         <v>1088</v>
       </c>
       <c r="D1254" s="10" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
       <c r="E1254" s="10" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1255" spans="2:5" x14ac:dyDescent="0.25">
@@ -26807,10 +26695,10 @@
         <v>1088</v>
       </c>
       <c r="D1255" s="10" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="E1255" s="10" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1256" spans="2:5" x14ac:dyDescent="0.25">
@@ -26821,10 +26709,10 @@
         <v>1088</v>
       </c>
       <c r="D1256" s="10" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="E1256" s="10" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1257" spans="2:5" x14ac:dyDescent="0.25">
@@ -26835,10 +26723,10 @@
         <v>1088</v>
       </c>
       <c r="D1257" s="10" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="E1257" s="10" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1258" spans="2:5" x14ac:dyDescent="0.25">
@@ -26849,10 +26737,10 @@
         <v>1088</v>
       </c>
       <c r="D1258" s="10" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="E1258" s="10" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1259" spans="2:5" x14ac:dyDescent="0.25">
@@ -26863,10 +26751,10 @@
         <v>1088</v>
       </c>
       <c r="D1259" s="10" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="E1259" s="10" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1260" spans="2:5" x14ac:dyDescent="0.25">
@@ -26877,10 +26765,10 @@
         <v>1088</v>
       </c>
       <c r="D1260" s="10" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="E1260" s="10" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1261" spans="2:5" x14ac:dyDescent="0.25">
@@ -26891,10 +26779,10 @@
         <v>1088</v>
       </c>
       <c r="D1261" s="10" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="E1261" s="10" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1262" spans="2:5" x14ac:dyDescent="0.25">
@@ -26905,10 +26793,10 @@
         <v>1088</v>
       </c>
       <c r="D1262" s="10" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="E1262" s="10" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1263" spans="2:5" x14ac:dyDescent="0.25">
@@ -26919,10 +26807,10 @@
         <v>1088</v>
       </c>
       <c r="D1263" s="10" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="E1263" s="10" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1264" spans="2:5" x14ac:dyDescent="0.25">
@@ -26933,10 +26821,10 @@
         <v>1088</v>
       </c>
       <c r="D1264" s="10" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="E1264" s="10" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1265" spans="2:5" x14ac:dyDescent="0.25">
@@ -26947,10 +26835,10 @@
         <v>1088</v>
       </c>
       <c r="D1265" s="10" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="E1265" s="10" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1266" spans="2:5" x14ac:dyDescent="0.25">
@@ -26961,10 +26849,10 @@
         <v>1088</v>
       </c>
       <c r="D1266" s="10" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E1266" s="10" t="s">
-        <v>1435</v>
+        <v>1448</v>
+      </c>
+      <c r="E1266" s="4" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="1267" spans="2:5" x14ac:dyDescent="0.25">
@@ -26975,10 +26863,10 @@
         <v>1088</v>
       </c>
       <c r="D1267" s="10" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="E1267" s="10" t="s">
-        <v>1457</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1268" spans="2:5" x14ac:dyDescent="0.25">
@@ -26989,220 +26877,24 @@
         <v>1088</v>
       </c>
       <c r="D1268" s="10" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="E1268" s="10" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1269" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B1269" s="6">
         <v>1267</v>
       </c>
       <c r="C1269" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D1269" s="10" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E1269" s="10" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1270" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1270" s="6">
-        <v>1268</v>
-      </c>
-      <c r="C1270" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1270" s="10" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E1270" s="10" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1271" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1271" s="6">
-        <v>1269</v>
-      </c>
-      <c r="C1271" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1271" s="10" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E1271" s="10" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1272" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1272" s="6">
-        <v>1270</v>
-      </c>
-      <c r="C1272" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1272" s="10" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E1272" s="10" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="1273" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1273" s="6">
-        <v>1271</v>
-      </c>
-      <c r="C1273" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1273" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E1273" s="10" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="1274" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1274" s="6">
-        <v>1272</v>
-      </c>
-      <c r="C1274" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1274" s="10" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E1274" s="10" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1275" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1275" s="6">
-        <v>1273</v>
-      </c>
-      <c r="C1275" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1275" s="10" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E1275" s="10" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="1276" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1276" s="6">
-        <v>1274</v>
-      </c>
-      <c r="C1276" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1276" s="10" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1276" s="10" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="1277" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1277" s="6">
-        <v>1275</v>
-      </c>
-      <c r="C1277" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1277" s="10" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E1277" s="10" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="1278" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1278" s="6">
-        <v>1276</v>
-      </c>
-      <c r="C1278" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1278" s="10" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E1278" s="10" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="1279" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1279" s="6">
-        <v>1277</v>
-      </c>
-      <c r="C1279" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1279" s="10" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E1279" s="10" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="1280" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1280" s="6">
-        <v>1278</v>
-      </c>
-      <c r="C1280" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1280" s="10" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E1280" s="4" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="1281" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1281" s="6">
-        <v>1279</v>
-      </c>
-      <c r="C1281" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1281" s="10" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E1281" s="10" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="1282" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1282" s="6">
-        <v>1280</v>
-      </c>
-      <c r="C1282" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1282" s="10" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E1282" s="10" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="1283" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1283" s="6">
-        <v>1281</v>
-      </c>
-      <c r="C1283" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1283" s="3" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E1283" s="11" t="s">
-        <v>1480</v>
+      <c r="D1269" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E1269" s="11" t="s">
+        <v>1452</v>
       </c>
     </row>
   </sheetData>
